--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22360" tabRatio="929" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="28280" tabRatio="929" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -1673,9 +1673,6 @@
     <t>csv_light_saving_control</t>
   </si>
   <si>
-    <t xml:space="preserve">The main goal of this analysis is to create a representative energy use per application for the commercial and public services sector. The applications that are defined in this analysis are: space heating, space cooling, lighting, electric applications and other applications. </t>
-  </si>
-  <si>
     <t>1. Import the corrected energy balance using the import button on the Dashboard sheet.</t>
   </si>
   <si>
@@ -2144,6 +2141,10 @@
   </si>
   <si>
     <t xml:space="preserve">Final demand for network gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main goal of this analysis is to create a representative energy use per application for the commercial and public services sector. The applications that are defined in this analysis are: space heating, space cooling, lighting, electric applications and other applications. 
+Note that Solar PV production is not covered by this analysis as that results from the Energy Balance and the Autoproduction table (both available from IEA). To see what solar PV production is for your dataset, open the "2_power_and_heat_plant_analysis", import all the required data (including the Energy Balance and Autoproducer table, which both need to be bought from IEA), and proceed to 'Results by machine' or the 'PV solar' sheets. </t>
   </si>
 </sst>
 </file>
@@ -9564,13 +9565,13 @@
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5" ht="30">
       <c r="B7" s="201" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C7" s="283" t="s">
         <v>341</v>
       </c>
       <c r="D7" s="167" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E7" s="168" t="s">
         <v>346</v>
@@ -9620,7 +9621,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="279" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C12" s="169"/>
       <c r="D12" s="223"/>
@@ -9849,10 +9850,10 @@
     <row r="6" spans="2:6" ht="16" thickBot="1"/>
     <row r="7" spans="2:6" ht="30">
       <c r="B7" s="201" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="274" t="s">
         <v>496</v>
-      </c>
-      <c r="C7" s="274" t="s">
-        <v>497</v>
       </c>
       <c r="D7" s="283" t="s">
         <v>229</v>
@@ -9861,7 +9862,7 @@
         <v>351</v>
       </c>
       <c r="F7" s="168" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -9876,7 +9877,7 @@
     <row r="9" spans="2:6">
       <c r="B9" s="280"/>
       <c r="C9" s="60" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>123</v>
@@ -9915,7 +9916,7 @@
     <row r="12" spans="2:6">
       <c r="B12" s="280"/>
       <c r="C12" s="60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>125</v>
@@ -9963,7 +9964,7 @@
     <row r="16" spans="2:6">
       <c r="B16" s="280"/>
       <c r="C16" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>125</v>
@@ -10011,7 +10012,7 @@
     <row r="20" spans="2:6">
       <c r="B20" s="280"/>
       <c r="C20" s="60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>134</v>
@@ -10224,28 +10225,28 @@
         <v>132</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E9" s="69" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>606</v>
+      </c>
+      <c r="G9" s="69" t="s">
         <v>489</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>607</v>
-      </c>
-      <c r="G9" s="69" t="s">
+      <c r="H9" s="69" t="s">
         <v>490</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="I9" s="69" t="s">
         <v>491</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="J9" s="69" t="s">
         <v>492</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="K9" s="146" t="s">
         <v>493</v>
-      </c>
-      <c r="K9" s="146" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -10765,7 +10766,7 @@
     <row r="38" spans="2:12">
       <c r="B38" s="30"/>
       <c r="C38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D38" s="75"/>
       <c r="E38" s="257" t="e">
@@ -10812,7 +10813,7 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="396" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -10844,7 +10845,7 @@
     <row r="42" spans="2:12">
       <c r="B42" s="30"/>
       <c r="C42" s="17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D42" s="75"/>
       <c r="E42" s="257" t="e">
@@ -10860,16 +10861,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="383" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I42" s="383" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J42" s="383" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K42" s="391" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="16" thickBot="1">
@@ -10956,7 +10957,7 @@
     <row r="6" spans="2:10" ht="16" thickBot="1"/>
     <row r="7" spans="2:10">
       <c r="B7" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="28"/>
@@ -11718,7 +11719,7 @@
         <v>274</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>275</v>
@@ -11739,10 +11740,10 @@
         <v>290</v>
       </c>
       <c r="K9" s="265" t="s">
+        <v>479</v>
+      </c>
+      <c r="L9" s="146" t="s">
         <v>480</v>
-      </c>
-      <c r="L9" s="146" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -11830,13 +11831,13 @@
     </row>
     <row r="17" spans="10:11">
       <c r="J17" s="259" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K17" s="203"/>
     </row>
     <row r="18" spans="10:11">
       <c r="J18" s="260" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K18" s="261"/>
     </row>
@@ -11856,13 +11857,13 @@
     </row>
     <row r="21" spans="10:11">
       <c r="J21" s="260" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K21" s="261"/>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="260" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K22" s="261"/>
     </row>
@@ -11872,7 +11873,7 @@
     </row>
     <row r="24" spans="10:11">
       <c r="J24" s="262" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K24" s="263">
         <f>K11-Final_demand_residences</f>
@@ -12780,7 +12781,7 @@
         <v>41499</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D27" s="308">
         <v>1.2</v>
@@ -12792,7 +12793,7 @@
         <v>41500</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D28" s="309">
         <v>1.21</v>
@@ -12804,7 +12805,7 @@
         <v>41500</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D29" s="308">
         <v>1.22</v>
@@ -12816,7 +12817,7 @@
         <v>41502</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D30" s="308">
         <v>1.23</v>
@@ -12828,7 +12829,7 @@
         <v>41505</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D31" s="308">
         <v>1.24</v>
@@ -12840,7 +12841,7 @@
         <v>41506</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D32" s="308">
         <v>1.25</v>
@@ -12852,7 +12853,7 @@
         <v>41507</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D33" s="308">
         <v>1.26</v>
@@ -12864,7 +12865,7 @@
         <v>41509</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D34" s="308">
         <v>1.27</v>
@@ -12876,7 +12877,7 @@
         <v>41509</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D35" s="308">
         <v>1.28</v>
@@ -12885,10 +12886,10 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="305" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D36" s="308">
         <v>1.29</v>
@@ -12900,7 +12901,7 @@
         <v>41534</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D37" s="308">
         <v>1.3</v>
@@ -12912,7 +12913,7 @@
         <v>41542</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D38" s="308">
         <v>1.31</v>
@@ -12924,7 +12925,7 @@
         <v>41562</v>
       </c>
       <c r="C39" s="371" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D39" s="308">
         <v>1.32</v>
@@ -12936,7 +12937,7 @@
         <v>41578</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D40" s="308">
         <v>1.33</v>
@@ -12948,7 +12949,7 @@
         <v>41578</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D41" s="308">
         <v>1.34</v>
@@ -13794,7 +13795,7 @@
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1">
       <c r="B13" s="177" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>321</v>
@@ -13810,7 +13811,7 @@
     </row>
     <row r="15" spans="2:3" ht="28" customHeight="1">
       <c r="B15" s="300" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>347</v>
@@ -13818,7 +13819,7 @@
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1">
       <c r="B16" s="300" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C16" s="61" t="s">
         <v>345</v>
@@ -13834,7 +13835,7 @@
     </row>
     <row r="18" spans="2:3" ht="28" customHeight="1">
       <c r="B18" s="126" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>319</v>
@@ -13933,7 +13934,7 @@
         <v>449</v>
       </c>
       <c r="C30" s="256" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="28" customHeight="1">
@@ -13941,7 +13942,7 @@
         <v>450</v>
       </c>
       <c r="C31" s="256" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" customHeight="1">
@@ -13949,7 +13950,7 @@
         <v>451</v>
       </c>
       <c r="C32" s="256" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28" customHeight="1">
@@ -13957,7 +13958,7 @@
         <v>452</v>
       </c>
       <c r="C33" s="256" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="28" customHeight="1">
@@ -13965,7 +13966,7 @@
         <v>453</v>
       </c>
       <c r="C34" s="256" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" customHeight="1"/>
@@ -13988,9 +13989,7 @@
   </sheetPr>
   <dimension ref="B2:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B37:B38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -14012,9 +14011,9 @@
     <row r="5" spans="2:2">
       <c r="B5" s="64"/>
     </row>
-    <row r="6" spans="2:2" ht="30">
+    <row r="6" spans="2:2" ht="75">
       <c r="B6" s="113" t="s">
-        <v>454</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -14030,32 +14029,32 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="131" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="55" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="55" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="131" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -14592,7 +14591,7 @@
     <row r="16" spans="2:4" ht="47" customHeight="1">
       <c r="B16" s="38"/>
       <c r="C16" s="97" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D16" s="40"/>
     </row>
@@ -14602,7 +14601,7 @@
         <v>410</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14" customHeight="1">
@@ -14611,7 +14610,7 @@
         <v>408</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" thickBot="1">
@@ -14908,7 +14907,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C58" s="142" t="s">
         <v>267</v>
@@ -15004,7 +15003,7 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74" s="42" t="s">
         <v>269</v>
@@ -15492,7 +15491,7 @@
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
@@ -15528,7 +15527,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="372" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L10" s="373" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
@@ -15617,7 +15616,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L14" s="155"/>
       <c r="M14" s="65"/>
@@ -15635,7 +15634,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L15" s="380" t="e">
         <f>IF('Final demand per energy carrier'!E42&lt;0,FALSE,TRUE)</f>
@@ -15662,7 +15661,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L16" s="380" t="e">
         <f>IF('Final demand per energy carrier'!F42&lt;0,FALSE,TRUE)</f>
@@ -15689,7 +15688,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="55" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L17" s="380" t="e">
         <f>IF('Final demand per energy carrier'!G42&lt;0,FALSE,TRUE)</f>
@@ -15732,7 +15731,7 @@
       <c r="I19" s="317"/>
       <c r="J19" s="319"/>
       <c r="K19" s="320" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L19" s="399" t="b">
         <f>IF('Fuel aggregation'!J11=0,TRUE,'Fuel aggregation'!J11)</f>
@@ -15779,7 +15778,7 @@
       <c r="G21" s="230"/>
       <c r="H21" s="230"/>
       <c r="I21" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="55"/>
@@ -15824,7 +15823,7 @@
       <c r="L23" s="375"/>
       <c r="M23" s="56"/>
       <c r="O23" s="233" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P23" s="234"/>
     </row>
@@ -15848,7 +15847,7 @@
       <c r="L24" s="375"/>
       <c r="M24" s="56"/>
       <c r="O24" s="233" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P24" s="234"/>
     </row>
@@ -15872,7 +15871,7 @@
       <c r="L25" s="375"/>
       <c r="M25" s="56"/>
       <c r="O25" s="233" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P25" s="234"/>
     </row>
@@ -15910,7 +15909,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="64" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L27" s="380" t="e">
         <f>IF(E27&gt;0,TRUE,E27)</f>
@@ -15929,7 +15928,7 @@
     <row r="28" spans="2:16">
       <c r="B28" s="37"/>
       <c r="C28" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>432</v>
@@ -15944,7 +15943,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L28" s="380" t="e">
         <f>IF(E28&gt;0,TRUE,E28)</f>
@@ -16008,7 +16007,7 @@
     <row r="31" spans="2:16" ht="16" customHeight="1">
       <c r="B31" s="37"/>
       <c r="C31" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="376">
@@ -16045,7 +16044,7 @@
     <row r="33" spans="2:19">
       <c r="B33" s="37"/>
       <c r="C33" s="379" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="376">
@@ -16056,7 +16055,7 @@
       <c r="G33" s="224"/>
       <c r="H33" s="224"/>
       <c r="I33" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="55"/>
@@ -16068,7 +16067,7 @@
     <row r="34" spans="2:19">
       <c r="B34" s="37"/>
       <c r="C34" s="379" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="376">
@@ -16079,7 +16078,7 @@
       <c r="G34" s="224"/>
       <c r="H34" s="224"/>
       <c r="I34" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="55"/>
@@ -16091,7 +16090,7 @@
     <row r="35" spans="2:19">
       <c r="B35" s="37"/>
       <c r="C35" s="379" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="376">
@@ -16102,7 +16101,7 @@
       <c r="G35" s="224"/>
       <c r="H35" s="224"/>
       <c r="I35" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="55"/>
@@ -16130,7 +16129,7 @@
     <row r="37" spans="2:19" ht="30">
       <c r="B37" s="37"/>
       <c r="C37" s="378" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="376">
@@ -16167,7 +16166,7 @@
     <row r="39" spans="2:19" ht="16" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="59"/>
@@ -16185,7 +16184,7 @@
     <row r="40" spans="2:19" ht="16" thickBot="1">
       <c r="B40" s="37"/>
       <c r="C40" s="379" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="171"/>
@@ -16198,14 +16197,14 @@
       <c r="L40" s="156"/>
       <c r="M40" s="314"/>
       <c r="O40" s="233" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P40" s="234"/>
     </row>
     <row r="41" spans="2:19" ht="16" thickBot="1">
       <c r="B41" s="37"/>
       <c r="C41" s="379" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="171"/>
@@ -16218,7 +16217,7 @@
       <c r="L41" s="156"/>
       <c r="M41" s="314"/>
       <c r="O41" s="233" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P41" s="234"/>
       <c r="S41" s="312"/>
@@ -16226,7 +16225,7 @@
     <row r="42" spans="2:19" ht="16" thickBot="1">
       <c r="B42" s="37"/>
       <c r="C42" s="379" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="171"/>
@@ -16239,14 +16238,14 @@
       <c r="L42" s="156"/>
       <c r="M42" s="314"/>
       <c r="O42" s="233" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P42" s="234"/>
     </row>
     <row r="43" spans="2:19" ht="16" thickBot="1">
       <c r="B43" s="37"/>
       <c r="C43" s="379" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="171"/>
@@ -16259,14 +16258,14 @@
       <c r="L43" s="156"/>
       <c r="M43" s="56"/>
       <c r="O43" s="233" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P43" s="234"/>
     </row>
     <row r="44" spans="2:19" ht="16" thickBot="1">
       <c r="B44" s="37"/>
       <c r="C44" s="379" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="171"/>
@@ -16279,14 +16278,14 @@
       <c r="L44" s="157"/>
       <c r="M44" s="56"/>
       <c r="O44" s="233" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P44" s="234"/>
     </row>
     <row r="45" spans="2:19" ht="16" thickBot="1">
       <c r="B45" s="37"/>
       <c r="C45" s="379" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="171"/>
@@ -16299,7 +16298,7 @@
       <c r="L45" s="156"/>
       <c r="M45" s="56"/>
       <c r="O45" s="233" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P45" s="234"/>
       <c r="R45" s="312"/>
@@ -16352,7 +16351,7 @@
     <row r="48" spans="2:19" ht="16" thickBot="1">
       <c r="B48" s="37"/>
       <c r="C48" s="60" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D48" s="60"/>
       <c r="E48" s="63"/>
@@ -16370,7 +16369,7 @@
     <row r="49" spans="2:18" ht="16" thickBot="1">
       <c r="B49" s="37"/>
       <c r="C49" s="379" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="191"/>
@@ -16383,7 +16382,7 @@
       <c r="L49" s="156"/>
       <c r="M49" s="56"/>
       <c r="O49" s="233" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P49" s="237"/>
       <c r="R49" s="312"/>
@@ -16391,7 +16390,7 @@
     <row r="50" spans="2:18" ht="16" thickBot="1">
       <c r="B50" s="37"/>
       <c r="C50" s="379" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="171"/>
@@ -16404,7 +16403,7 @@
       <c r="L50" s="156"/>
       <c r="M50" s="56"/>
       <c r="O50" s="233" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P50" s="237"/>
     </row>
@@ -16424,7 +16423,7 @@
       <c r="L51" s="156"/>
       <c r="M51" s="56"/>
       <c r="O51" s="233" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P51" s="237"/>
     </row>
@@ -16476,7 +16475,7 @@
     <row r="54" spans="2:18">
       <c r="B54" s="37"/>
       <c r="C54" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="59"/>
@@ -16509,7 +16508,7 @@
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
       <c r="O55" s="233" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P55" s="237"/>
     </row>
@@ -16531,7 +16530,7 @@
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
       <c r="O56" s="233" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P56" s="7"/>
     </row>
@@ -16551,7 +16550,7 @@
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
       <c r="O57" s="233" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P57" s="7"/>
     </row>
@@ -16571,14 +16570,14 @@
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
       <c r="O58" s="233" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P58" s="7"/>
     </row>
     <row r="59" spans="2:18" ht="16" thickBot="1">
       <c r="B59" s="37"/>
       <c r="C59" s="379" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="171"/>
@@ -16591,7 +16590,7 @@
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
       <c r="O59" s="233" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P59" s="7"/>
     </row>
@@ -16613,7 +16612,7 @@
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="302" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
@@ -16632,7 +16631,7 @@
     <row r="62" spans="2:18">
       <c r="B62" s="30"/>
       <c r="C62" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="172">
@@ -16646,14 +16645,14 @@
       <c r="L62" s="8"/>
       <c r="M62" s="31"/>
       <c r="O62" s="233" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P62" s="7"/>
     </row>
     <row r="63" spans="2:18">
       <c r="B63" s="30"/>
       <c r="C63" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="172">
@@ -16667,7 +16666,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="31"/>
       <c r="O63" s="233" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P63" s="7"/>
     </row>
@@ -16689,7 +16688,7 @@
     <row r="65" spans="2:16">
       <c r="B65" s="30"/>
       <c r="C65" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="172">
@@ -16703,14 +16702,14 @@
       <c r="L65" s="8"/>
       <c r="M65" s="31"/>
       <c r="O65" s="233" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P65" s="7"/>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="30"/>
       <c r="C66" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="172">
@@ -16724,7 +16723,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="31"/>
       <c r="O66" s="233" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="P66" s="7"/>
     </row>
@@ -16905,7 +16904,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="20">
       <c r="B2" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1">
@@ -23779,7 +23778,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="403" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C5" s="404"/>
       <c r="D5" s="404"/>
@@ -23804,15 +23803,15 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="324" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C7" s="325"/>
       <c r="D7" s="325"/>
       <c r="E7" s="326" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" s="322" t="s">
         <v>571</v>
-      </c>
-      <c r="F7" s="322" t="s">
-        <v>572</v>
       </c>
       <c r="G7" s="321"/>
       <c r="H7" s="322"/>
@@ -23821,7 +23820,7 @@
       <c r="K7" s="329"/>
       <c r="L7" s="333"/>
       <c r="M7" s="258" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="30">
@@ -23836,16 +23835,16 @@
         <v>424</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>549</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I8" s="331" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J8" s="334" t="s">
         <v>232</v>
@@ -23863,16 +23862,16 @@
       <c r="D9" s="74"/>
       <c r="E9" s="332"/>
       <c r="F9" s="323" t="s">
+        <v>549</v>
+      </c>
+      <c r="G9" s="323" t="s">
         <v>550</v>
       </c>
-      <c r="G9" s="323" t="s">
+      <c r="H9" s="323" t="s">
+        <v>567</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>551</v>
-      </c>
-      <c r="H9" s="323" t="s">
-        <v>568</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>552</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
@@ -23900,17 +23899,17 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="345" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F11" s="355"/>
       <c r="G11" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H11" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I11" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J11" s="366">
         <f>F11</f>
@@ -23922,7 +23921,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="258" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -23932,15 +23931,15 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="345" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F12" s="355"/>
       <c r="G12" s="355"/>
       <c r="H12" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I12" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J12" s="366"/>
       <c r="K12" s="360" t="e">
@@ -23952,7 +23951,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="258" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -23962,15 +23961,15 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="345" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F13" s="355"/>
       <c r="G13" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H13" s="355"/>
       <c r="I13" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J13" s="366"/>
       <c r="K13" s="360" t="e">
@@ -23982,7 +23981,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="258" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -23992,17 +23991,17 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="345" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F14" s="355"/>
       <c r="G14" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H14" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I14" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J14" s="366">
         <f>F14</f>
@@ -24014,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="258" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -24024,17 +24023,17 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="345" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F15" s="355"/>
       <c r="G15" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H15" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I15" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J15" s="366">
         <f>F15</f>
@@ -24046,7 +24045,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="258" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -24056,17 +24055,17 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="345" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F16" s="355"/>
       <c r="G16" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H16" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I16" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J16" s="366">
         <f>F16</f>
@@ -24078,7 +24077,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="258" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -24100,17 +24099,17 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="345" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F18" s="355"/>
       <c r="G18" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H18" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I18" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J18" s="366">
         <f>F18</f>
@@ -24122,7 +24121,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="258" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -24132,17 +24131,17 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="345" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F19" s="355"/>
       <c r="G19" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H19" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I19" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J19" s="366">
         <f>F19</f>
@@ -24154,7 +24153,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="258" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -24164,17 +24163,17 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="345" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F20" s="355"/>
       <c r="G20" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H20" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I20" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J20" s="366">
         <f>F20</f>
@@ -24186,7 +24185,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="258" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -24225,17 +24224,17 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="345" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F23" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G23" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H23" s="355"/>
       <c r="I23" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J23" s="366"/>
       <c r="K23" s="360" t="e">
@@ -24247,7 +24246,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="258" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -24257,17 +24256,17 @@
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="345" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F24" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G24" s="355"/>
       <c r="H24" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I24" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J24" s="366"/>
       <c r="K24" s="360" t="e">
@@ -24279,7 +24278,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="258" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -24289,17 +24288,17 @@
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="345" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F25" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G25" s="355"/>
       <c r="H25" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I25" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J25" s="366"/>
       <c r="K25" s="360" t="e">
@@ -24311,7 +24310,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="258" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -24362,7 +24361,7 @@
         <v>0.05</v>
       </c>
       <c r="M28" s="258" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -24385,7 +24384,7 @@
         <v>0.12</v>
       </c>
       <c r="M29" s="258" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -24395,16 +24394,16 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="345" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F30" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G30" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H30" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I30" s="355"/>
       <c r="J30" s="366">
@@ -24417,7 +24416,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="258" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -24427,16 +24426,16 @@
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="345" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F31" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G31" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H31" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I31" s="355"/>
       <c r="J31" s="366">
@@ -24449,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="258" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -24459,16 +24458,16 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="345" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F32" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G32" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H32" s="355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I32" s="355"/>
       <c r="J32" s="366">
@@ -24481,7 +24480,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="258" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="16" thickBot="1">

--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="28280" tabRatio="929" activeTab="6"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15400" tabRatio="929" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="611">
   <si>
     <t>Changelog</t>
   </si>
@@ -2145,6 +2145,12 @@
   <si>
     <t xml:space="preserve">The main goal of this analysis is to create a representative energy use per application for the commercial and public services sector. The applications that are defined in this analysis are: space heating, space cooling, lighting, electric applications and other applications. 
 Note that Solar PV production is not covered by this analysis as that results from the Energy Balance and the Autoproduction table (both available from IEA). To see what solar PV production is for your dataset, open the "2_power_and_heat_plant_analysis", import all the required data (including the Energy Balance and Autoproducer table, which both need to be bought from IEA), and proceed to 'Results by machine' or the 'PV solar' sheets. </t>
+  </si>
+  <si>
+    <t>Implemented if-statement in Application shares to avoid #DIV/0 errors</t>
+  </si>
+  <si>
+    <t>Implemented if-statement in Technology share to avoid #DIV/0 errors</t>
   </si>
 </sst>
 </file>
@@ -3106,7 +3112,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1341">
+  <cellStyleXfs count="1357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4119,6 +4125,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5116,7 +5138,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1341">
+  <cellStyles count="1357">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -5819,6 +5841,14 @@
     <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -6456,6 +6486,14 @@
     <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -9288,7 +9326,7 @@
       </c>
       <c r="C5" s="26">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -9318,7 +9356,7 @@
       </c>
       <c r="C8" s="206">
         <f>MAX(Changelog!B:B)</f>
-        <v>41578</v>
+        <v>41782</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -9529,7 +9567,7 @@
   <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9595,7 +9633,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="249" t="e">
-        <f>D9/SUM($D$9:$D$10)</f>
+        <f>IF(SUM($D$9:$D$10)=0,0,D9/SUM($D$9:$D$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9609,7 +9647,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="249" t="e">
-        <f>D10/SUM($D$9:$D$10)</f>
+        <f>IF(SUM($D$9:$D$10)=0,1,D10/SUM($D$9:$D$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9637,7 +9675,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E13" s="249" t="e">
-        <f>D13/SUM($D$13:$D$15)</f>
+        <f>IF(SUM($D$13:$D$15)=0,0,D13/SUM($D$13:$D$15))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9651,7 +9689,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E14" s="249" t="e">
-        <f t="shared" ref="E14:E15" si="0">D14/SUM($D$13:$D$15)</f>
+        <f>IF(SUM($D$13:$D$15)=0,0,D14/SUM($D$13:$D$15))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9665,7 +9703,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E15" s="249" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(SUM($D$13:$D$15)=0,1,D15/SUM($D$13:$D$15))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9693,7 +9731,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E18" s="249" t="e">
-        <f>D18/SUM($D$18:$D$19)</f>
+        <f>IF(SUM($D$18:$D$19)=0,0,D18/SUM($D$18:$D$19))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9707,7 +9745,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="249" t="e">
-        <f>D19/SUM($D$18:$D$19)</f>
+        <f>IF(SUM($D$18:$D$19)=0,1,D19/SUM($D$18:$D$19))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9735,7 +9773,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E22" s="249" t="e">
-        <f>D22/SUM($D$22:$D$25)</f>
+        <f>IF(SUM($D$22:$D$25)=0,0,D22/SUM($D$22:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9749,7 +9787,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="249" t="e">
-        <f t="shared" ref="E23:E25" si="1">D23/SUM($D$22:$D$25)</f>
+        <f t="shared" ref="E23:E24" si="0">IF(SUM($D$22:$D$25)=0,0,D23/SUM($D$22:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9763,7 +9801,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="249" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9777,7 +9815,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="249" t="e">
-        <f t="shared" si="1"/>
+        <f>IF(SUM($D$22:$D$25)=0,1,D25/SUM($D$22:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9809,7 +9847,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9887,7 +9925,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F9" s="249" t="e">
-        <f>E9/($E$9+$E$10)</f>
+        <f>IF(SUM($E$9:$E$10)=0,1,E9/SUM($E$9:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9902,7 +9940,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F10" s="249" t="e">
-        <f>E10/($E$9+$E$10)</f>
+        <f>IF(SUM($E$9:$E$10)=0,0,E10/SUM($E$9:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9926,7 +9964,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="249" t="e">
-        <f>E12/($E$12+$E$13)</f>
+        <f>IF(SUM($E$12:$E$13)=0,1,E12/SUM($E$12:$E$13))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9941,7 +9979,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="249" t="e">
-        <f>E13/($E$12+$E$13)</f>
+        <f>IF(SUM($E$12:$E$13)=0,0,E13/SUM($E$12:$E$13))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9974,7 +10012,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="249" t="e">
-        <f>E16/($E$16+$E$17)</f>
+        <f>IF(SUM($E$16:$E$17)=0,0,E16/SUM($E$16:$E$17))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9989,7 +10027,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="249" t="e">
-        <f>E17/($E$16+$E$17)</f>
+        <f>IF(SUM($E$16:$E$17)=0,1,E17/SUM($E$16:$E$17))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10022,7 +10060,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="249" t="e">
-        <f>E20/SUM($E$20:$E$24)</f>
+        <f>IF(SUM($E$20:$E$24)=0,1,E20/SUM($E$20:$E$24))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10037,7 +10075,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="249" t="e">
-        <f t="shared" ref="F21:F24" si="0">E21/SUM($E$20:$E$24)</f>
+        <f>IF(SUM($E$20:$E$24)=0,0,E21/SUM($E$20:$E$24))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10052,7 +10090,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="249" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(SUM($E$20:$E$24)=0,0,E22/SUM($E$20:$E$24))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10067,7 +10105,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="249" t="e">
-        <f>E23/SUM($E$20:$E$24)</f>
+        <f>IF(SUM($E$20:$E$24)=0,0,E23/SUM($E$20:$E$24))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10082,7 +10120,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="249" t="e">
-        <f t="shared" si="0"/>
+        <f>IF(SUM($E$20:$E$24)=0,0,E24/SUM($E$20:$E$24))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12490,8 +12528,8 @@
   </sheetPr>
   <dimension ref="B2:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12957,15 +12995,27 @@
       <c r="E41" s="307"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="370"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="308"/>
+      <c r="B42" s="370">
+        <v>41782</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>609</v>
+      </c>
+      <c r="D42" s="308">
+        <v>1.35</v>
+      </c>
       <c r="E42" s="307"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="370"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="308"/>
+      <c r="B43" s="370">
+        <v>41782</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="D43" s="308">
+        <v>1.36</v>
+      </c>
       <c r="E43" s="307"/>
     </row>
     <row r="44" spans="2:5">

--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15400" tabRatio="929" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="929" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -1484,12 +1484,6 @@
     <t>buildings_space_heater_heatpump_air_water_network_gas</t>
   </si>
   <si>
-    <t>buildings_final_demand_for_space_heating_gas</t>
-  </si>
-  <si>
-    <t>buildings_final_demand_for_space_heating_gas_parent_share</t>
-  </si>
-  <si>
     <t>buildings_final_demand_coal_parent_share</t>
   </si>
   <si>
@@ -1500,12 +1494,6 @@
   </si>
   <si>
     <t>buildings_final_demand_network_gas_parent_share</t>
-  </si>
-  <si>
-    <t>buildings_final_demand_for_appliances_gas</t>
-  </si>
-  <si>
-    <t>buildings_final_demand_for_cooling_gas</t>
   </si>
   <si>
     <t>buildings_final_demand_crude_oil_parent_share</t>
@@ -2151,6 +2139,18 @@
   </si>
   <si>
     <t>Implemented if-statement in Technology share to avoid #DIV/0 errors</t>
+  </si>
+  <si>
+    <t>buildings_final_demand_for_space_heating_network_gas</t>
+  </si>
+  <si>
+    <t>buildings_final_demand_for_cooling_network_gas</t>
+  </si>
+  <si>
+    <t>buildings_final_demand_for_appliances_network_gas</t>
+  </si>
+  <si>
+    <t>buildings_final_demand_for_space_heating_network_gas_parent_share</t>
   </si>
 </sst>
 </file>
@@ -9567,7 +9567,7 @@
   <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9603,13 +9603,13 @@
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5" ht="30">
       <c r="B7" s="201" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C7" s="283" t="s">
         <v>341</v>
       </c>
       <c r="D7" s="167" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E7" s="168" t="s">
         <v>346</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="279" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C12" s="169"/>
       <c r="D12" s="223"/>
@@ -9888,10 +9888,10 @@
     <row r="6" spans="2:6" ht="16" thickBot="1"/>
     <row r="7" spans="2:6" ht="30">
       <c r="B7" s="201" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D7" s="283" t="s">
         <v>229</v>
@@ -9900,7 +9900,7 @@
         <v>351</v>
       </c>
       <c r="F7" s="168" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -9915,7 +9915,7 @@
     <row r="9" spans="2:6">
       <c r="B9" s="280"/>
       <c r="C9" s="60" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>123</v>
@@ -9954,7 +9954,7 @@
     <row r="12" spans="2:6">
       <c r="B12" s="280"/>
       <c r="C12" s="60" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>125</v>
@@ -10002,7 +10002,7 @@
     <row r="16" spans="2:6">
       <c r="B16" s="280"/>
       <c r="C16" s="60" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>125</v>
@@ -10050,7 +10050,7 @@
     <row r="20" spans="2:6">
       <c r="B20" s="280"/>
       <c r="C20" s="60" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>134</v>
@@ -10205,7 +10205,7 @@
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C5" s="402"/>
       <c r="D5" s="402"/>
@@ -10263,28 +10263,28 @@
         <v>132</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E9" s="69" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>602</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>485</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>486</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>487</v>
+      </c>
+      <c r="J9" s="69" t="s">
         <v>488</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>606</v>
-      </c>
-      <c r="G9" s="69" t="s">
+      <c r="K9" s="146" t="s">
         <v>489</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>490</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>491</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>492</v>
-      </c>
-      <c r="K9" s="146" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -10804,7 +10804,7 @@
     <row r="38" spans="2:12">
       <c r="B38" s="30"/>
       <c r="C38" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D38" s="75"/>
       <c r="E38" s="257" t="e">
@@ -10851,7 +10851,7 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="396" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -10883,7 +10883,7 @@
     <row r="42" spans="2:12">
       <c r="B42" s="30"/>
       <c r="C42" s="17" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D42" s="75"/>
       <c r="E42" s="257" t="e">
@@ -10899,16 +10899,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="383" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I42" s="383" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J42" s="383" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="K42" s="391" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="16" thickBot="1">
@@ -10995,7 +10995,7 @@
     <row r="6" spans="2:10" ht="16" thickBot="1"/>
     <row r="7" spans="2:10">
       <c r="B7" s="27" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="28"/>
@@ -11757,7 +11757,7 @@
         <v>274</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>275</v>
@@ -11778,10 +11778,10 @@
         <v>290</v>
       </c>
       <c r="K9" s="265" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L9" s="146" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -11869,13 +11869,13 @@
     </row>
     <row r="17" spans="10:11">
       <c r="J17" s="259" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K17" s="203"/>
     </row>
     <row r="18" spans="10:11">
       <c r="J18" s="260" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K18" s="261"/>
     </row>
@@ -11895,13 +11895,13 @@
     </row>
     <row r="21" spans="10:11">
       <c r="J21" s="260" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K21" s="261"/>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="260" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K22" s="261"/>
     </row>
@@ -11911,7 +11911,7 @@
     </row>
     <row r="24" spans="10:11">
       <c r="J24" s="262" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K24" s="263">
         <f>K11-Final_demand_residences</f>
@@ -12021,10 +12021,10 @@
         <v>301</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G8" s="190" t="s">
         <v>302</v>
@@ -12771,7 +12771,7 @@
         <v>41485</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D23" s="309">
         <v>1.18</v>
@@ -12783,7 +12783,7 @@
         <v>41485</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D24" s="309">
         <v>1.18</v>
@@ -12795,7 +12795,7 @@
         <v>41486</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D25" s="309">
         <v>1.19</v>
@@ -12807,7 +12807,7 @@
         <v>41487</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D26" s="309">
         <v>1.19</v>
@@ -12819,7 +12819,7 @@
         <v>41499</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D27" s="308">
         <v>1.2</v>
@@ -12831,7 +12831,7 @@
         <v>41500</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D28" s="309">
         <v>1.21</v>
@@ -12843,7 +12843,7 @@
         <v>41500</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D29" s="308">
         <v>1.22</v>
@@ -12855,7 +12855,7 @@
         <v>41502</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D30" s="308">
         <v>1.23</v>
@@ -12867,7 +12867,7 @@
         <v>41505</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D31" s="308">
         <v>1.24</v>
@@ -12879,7 +12879,7 @@
         <v>41506</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D32" s="308">
         <v>1.25</v>
@@ -12891,7 +12891,7 @@
         <v>41507</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D33" s="308">
         <v>1.26</v>
@@ -12903,7 +12903,7 @@
         <v>41509</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D34" s="308">
         <v>1.27</v>
@@ -12915,7 +12915,7 @@
         <v>41509</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D35" s="308">
         <v>1.28</v>
@@ -12924,10 +12924,10 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="305" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D36" s="308">
         <v>1.29</v>
@@ -12939,7 +12939,7 @@
         <v>41534</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D37" s="308">
         <v>1.3</v>
@@ -12951,7 +12951,7 @@
         <v>41542</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D38" s="308">
         <v>1.31</v>
@@ -12963,7 +12963,7 @@
         <v>41562</v>
       </c>
       <c r="C39" s="371" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D39" s="308">
         <v>1.32</v>
@@ -12975,7 +12975,7 @@
         <v>41578</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D40" s="308">
         <v>1.33</v>
@@ -12987,7 +12987,7 @@
         <v>41578</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D41" s="308">
         <v>1.34</v>
@@ -12999,7 +12999,7 @@
         <v>41782</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D42" s="308">
         <v>1.35</v>
@@ -13011,7 +13011,7 @@
         <v>41782</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D43" s="308">
         <v>1.36</v>
@@ -13070,9 +13070,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -13081,7 +13079,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>392</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13148,7 +13146,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13161,7 +13159,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E9</f>
@@ -13170,7 +13168,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E10</f>
@@ -13205,17 +13203,17 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13228,7 +13226,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>391</v>
+        <v>607</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E13</f>
@@ -13237,7 +13235,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>398</v>
+        <v>608</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E14</f>
@@ -13246,7 +13244,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="205" t="s">
-        <v>397</v>
+        <v>609</v>
       </c>
       <c r="B5" s="284" t="e">
         <f>'Application shares'!E15</f>
@@ -13288,7 +13286,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13301,7 +13299,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E18</f>
@@ -13310,7 +13308,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E19</f>
@@ -13355,7 +13353,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13395,7 +13393,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="205" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B6" s="284" t="e">
         <f>'Application shares'!E25</f>
@@ -13434,7 +13432,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13447,7 +13445,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B3" s="284">
         <f>Dashboard!E62</f>
@@ -13456,7 +13454,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B4" s="284">
         <f>Dashboard!E63</f>
@@ -13502,7 +13500,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13515,7 +13513,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B3" s="284">
         <v>0</v>
@@ -13523,7 +13521,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B4" s="284">
         <v>1</v>
@@ -13568,7 +13566,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13581,7 +13579,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B3" s="284">
         <v>0</v>
@@ -13589,7 +13587,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B4" s="284">
         <v>1</v>
@@ -13634,7 +13632,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13647,7 +13645,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B3" s="284">
         <f>1-B4</f>
@@ -13656,7 +13654,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B4" s="284">
         <f>Dashboard!E65</f>
@@ -13702,7 +13700,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13715,7 +13713,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B3" s="284">
         <f>1-B4</f>
@@ -13724,7 +13722,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B4" s="284">
         <f>Dashboard!E66</f>
@@ -13845,7 +13843,7 @@
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1">
       <c r="B13" s="177" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>321</v>
@@ -13861,7 +13859,7 @@
     </row>
     <row r="15" spans="2:3" ht="28" customHeight="1">
       <c r="B15" s="300" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>347</v>
@@ -13869,7 +13867,7 @@
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1">
       <c r="B16" s="300" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C16" s="61" t="s">
         <v>345</v>
@@ -13885,7 +13883,7 @@
     </row>
     <row r="18" spans="2:3" ht="28" customHeight="1">
       <c r="B18" s="126" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>319</v>
@@ -13896,7 +13894,7 @@
         <v>317</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28" customHeight="1">
@@ -13917,106 +13915,106 @@
     </row>
     <row r="22" spans="2:3" ht="28" customHeight="1">
       <c r="B22" s="178" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C22" s="256" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="28" customHeight="1">
       <c r="B23" s="178" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C23" s="256" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28" customHeight="1">
       <c r="B24" s="178" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C24" s="256" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="28" customHeight="1">
       <c r="B25" s="178" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C25" s="256" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="28" customHeight="1">
       <c r="B26" s="178" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C26" s="256" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="28" customHeight="1">
       <c r="B27" s="178" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C27" s="256" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" customHeight="1">
       <c r="B28" s="178" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C28" s="256" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28" customHeight="1">
       <c r="B29" s="178" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C29" s="256" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="28" customHeight="1">
       <c r="B30" s="178" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C30" s="256" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="28" customHeight="1">
       <c r="B31" s="178" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C31" s="256" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" customHeight="1">
       <c r="B32" s="178" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C32" s="256" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28" customHeight="1">
       <c r="B33" s="178" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C33" s="256" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="28" customHeight="1">
       <c r="B34" s="178" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C34" s="256" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" customHeight="1"/>
@@ -14063,7 +14061,7 @@
     </row>
     <row r="6" spans="2:2" ht="75">
       <c r="B6" s="113" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -14079,32 +14077,32 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="131" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="55" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="55" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="55" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="131" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="131" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -14634,33 +14632,33 @@
     <row r="15" spans="2:4" ht="47" customHeight="1">
       <c r="B15" s="38"/>
       <c r="C15" s="97" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="2:4" ht="47" customHeight="1">
       <c r="B16" s="38"/>
       <c r="C16" s="97" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D16" s="40"/>
     </row>
     <row r="17" spans="2:4" ht="14" customHeight="1">
       <c r="B17" s="38"/>
       <c r="C17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14" customHeight="1">
       <c r="B18" s="38"/>
       <c r="C18" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" thickBot="1">
@@ -14957,7 +14955,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="32" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C58" s="142" t="s">
         <v>267</v>
@@ -15053,7 +15051,7 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="37" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C74" s="42" t="s">
         <v>269</v>
@@ -15428,7 +15426,7 @@
   </sheetPr>
   <dimension ref="B2:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -15456,7 +15454,7 @@
         <v>30</v>
       </c>
       <c r="K2" s="207" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="5"/>
@@ -15541,7 +15539,7 @@
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
@@ -15558,10 +15556,10 @@
         <v>95</v>
       </c>
       <c r="O9" s="235" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P9" s="236" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="2:16">
@@ -15577,7 +15575,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="372" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L10" s="373" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
@@ -15596,7 +15594,7 @@
       <c r="E11" s="311"/>
       <c r="F11" s="15"/>
       <c r="G11" s="230" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H11" s="228"/>
       <c r="I11" s="15"/>
@@ -15610,7 +15608,7 @@
       </c>
       <c r="M11" s="65"/>
       <c r="O11" s="233" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P11" s="234">
         <f>IF(L11=TRUE,1,0)</f>
@@ -15620,13 +15618,13 @@
     <row r="12" spans="2:16">
       <c r="B12" s="35"/>
       <c r="C12" s="60" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="311"/>
       <c r="F12" s="15"/>
       <c r="G12" s="230" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H12" s="228"/>
       <c r="I12" s="15"/>
@@ -15635,7 +15633,7 @@
       <c r="L12" s="155"/>
       <c r="M12" s="65"/>
       <c r="O12" s="233" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P12" s="234"/>
     </row>
@@ -15666,7 +15664,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="64" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="L14" s="155"/>
       <c r="M14" s="65"/>
@@ -15684,7 +15682,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="55" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="L15" s="380" t="e">
         <f>IF('Final demand per energy carrier'!E42&lt;0,FALSE,TRUE)</f>
@@ -15711,7 +15709,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="55" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L16" s="380" t="e">
         <f>IF('Final demand per energy carrier'!F42&lt;0,FALSE,TRUE)</f>
@@ -15738,7 +15736,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="55" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L17" s="380" t="e">
         <f>IF('Final demand per energy carrier'!G42&lt;0,FALSE,TRUE)</f>
@@ -15781,7 +15779,7 @@
       <c r="I19" s="317"/>
       <c r="J19" s="319"/>
       <c r="K19" s="320" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="L19" s="399" t="b">
         <f>IF('Fuel aggregation'!J11=0,TRUE,'Fuel aggregation'!J11)</f>
@@ -15815,10 +15813,10 @@
     <row r="21" spans="2:16">
       <c r="B21" s="37"/>
       <c r="C21" s="8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E21" s="213">
         <f>Final_demand_residences</f>
@@ -15828,7 +15826,7 @@
       <c r="G21" s="230"/>
       <c r="H21" s="230"/>
       <c r="I21" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="55"/>
@@ -15859,12 +15857,12 @@
         <v>103</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E23" s="215"/>
       <c r="F23" s="230"/>
       <c r="G23" s="230" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H23" s="230"/>
       <c r="I23" s="23"/>
@@ -15873,7 +15871,7 @@
       <c r="L23" s="375"/>
       <c r="M23" s="56"/>
       <c r="O23" s="233" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P23" s="234"/>
     </row>
@@ -15883,12 +15881,12 @@
         <v>106</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E24" s="216"/>
       <c r="F24" s="230"/>
       <c r="G24" s="230" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H24" s="230"/>
       <c r="I24" s="23"/>
@@ -15897,7 +15895,7 @@
       <c r="L24" s="375"/>
       <c r="M24" s="56"/>
       <c r="O24" s="233" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P24" s="234"/>
     </row>
@@ -15907,12 +15905,12 @@
         <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E25" s="216"/>
       <c r="F25" s="230"/>
       <c r="G25" s="230" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H25" s="230"/>
       <c r="I25" s="23"/>
@@ -15921,7 +15919,7 @@
       <c r="L25" s="375"/>
       <c r="M25" s="56"/>
       <c r="O25" s="233" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P25" s="234"/>
     </row>
@@ -15947,7 +15945,7 @@
         <v>278</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E27" s="376" t="e">
         <f>'Final demand per energy carrier'!J41</f>
@@ -15959,7 +15957,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="64" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="L27" s="380" t="e">
         <f>IF(E27&gt;0,TRUE,E27)</f>
@@ -15978,10 +15976,10 @@
     <row r="28" spans="2:16">
       <c r="B28" s="37"/>
       <c r="C28" s="8" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E28" s="377" t="e">
         <f>SUM('Final demand per energy carrier'!E42:G42)</f>
@@ -15993,7 +15991,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="64" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L28" s="380" t="e">
         <f>IF(E28&gt;0,TRUE,E28)</f>
@@ -16057,7 +16055,7 @@
     <row r="31" spans="2:16" ht="16" customHeight="1">
       <c r="B31" s="37"/>
       <c r="C31" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="376">
@@ -16094,7 +16092,7 @@
     <row r="33" spans="2:19">
       <c r="B33" s="37"/>
       <c r="C33" s="379" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="376">
@@ -16105,7 +16103,7 @@
       <c r="G33" s="224"/>
       <c r="H33" s="224"/>
       <c r="I33" s="8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="55"/>
@@ -16117,7 +16115,7 @@
     <row r="34" spans="2:19">
       <c r="B34" s="37"/>
       <c r="C34" s="379" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="376">
@@ -16128,7 +16126,7 @@
       <c r="G34" s="224"/>
       <c r="H34" s="224"/>
       <c r="I34" s="8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="55"/>
@@ -16140,7 +16138,7 @@
     <row r="35" spans="2:19">
       <c r="B35" s="37"/>
       <c r="C35" s="379" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="376">
@@ -16151,7 +16149,7 @@
       <c r="G35" s="224"/>
       <c r="H35" s="224"/>
       <c r="I35" s="8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="55"/>
@@ -16179,7 +16177,7 @@
     <row r="37" spans="2:19" ht="30">
       <c r="B37" s="37"/>
       <c r="C37" s="378" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="376">
@@ -16216,7 +16214,7 @@
     <row r="39" spans="2:19" ht="16" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="59"/>
@@ -16234,7 +16232,7 @@
     <row r="40" spans="2:19" ht="16" thickBot="1">
       <c r="B40" s="37"/>
       <c r="C40" s="379" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="171"/>
@@ -16247,14 +16245,14 @@
       <c r="L40" s="156"/>
       <c r="M40" s="314"/>
       <c r="O40" s="233" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P40" s="234"/>
     </row>
     <row r="41" spans="2:19" ht="16" thickBot="1">
       <c r="B41" s="37"/>
       <c r="C41" s="379" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="171"/>
@@ -16267,7 +16265,7 @@
       <c r="L41" s="156"/>
       <c r="M41" s="314"/>
       <c r="O41" s="233" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="P41" s="234"/>
       <c r="S41" s="312"/>
@@ -16275,7 +16273,7 @@
     <row r="42" spans="2:19" ht="16" thickBot="1">
       <c r="B42" s="37"/>
       <c r="C42" s="379" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="171"/>
@@ -16288,14 +16286,14 @@
       <c r="L42" s="156"/>
       <c r="M42" s="314"/>
       <c r="O42" s="233" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="P42" s="234"/>
     </row>
     <row r="43" spans="2:19" ht="16" thickBot="1">
       <c r="B43" s="37"/>
       <c r="C43" s="379" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="171"/>
@@ -16308,14 +16306,14 @@
       <c r="L43" s="156"/>
       <c r="M43" s="56"/>
       <c r="O43" s="233" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P43" s="234"/>
     </row>
     <row r="44" spans="2:19" ht="16" thickBot="1">
       <c r="B44" s="37"/>
       <c r="C44" s="379" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="171"/>
@@ -16328,14 +16326,14 @@
       <c r="L44" s="157"/>
       <c r="M44" s="56"/>
       <c r="O44" s="233" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="P44" s="234"/>
     </row>
     <row r="45" spans="2:19" ht="16" thickBot="1">
       <c r="B45" s="37"/>
       <c r="C45" s="379" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="171"/>
@@ -16348,7 +16346,7 @@
       <c r="L45" s="156"/>
       <c r="M45" s="56"/>
       <c r="O45" s="233" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="P45" s="234"/>
       <c r="R45" s="312"/>
@@ -16401,7 +16399,7 @@
     <row r="48" spans="2:19" ht="16" thickBot="1">
       <c r="B48" s="37"/>
       <c r="C48" s="60" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D48" s="60"/>
       <c r="E48" s="63"/>
@@ -16419,7 +16417,7 @@
     <row r="49" spans="2:18" ht="16" thickBot="1">
       <c r="B49" s="37"/>
       <c r="C49" s="379" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="191"/>
@@ -16432,7 +16430,7 @@
       <c r="L49" s="156"/>
       <c r="M49" s="56"/>
       <c r="O49" s="233" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P49" s="237"/>
       <c r="R49" s="312"/>
@@ -16440,7 +16438,7 @@
     <row r="50" spans="2:18" ht="16" thickBot="1">
       <c r="B50" s="37"/>
       <c r="C50" s="379" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="171"/>
@@ -16453,7 +16451,7 @@
       <c r="L50" s="156"/>
       <c r="M50" s="56"/>
       <c r="O50" s="233" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P50" s="237"/>
     </row>
@@ -16473,7 +16471,7 @@
       <c r="L51" s="156"/>
       <c r="M51" s="56"/>
       <c r="O51" s="233" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P51" s="237"/>
     </row>
@@ -16525,7 +16523,7 @@
     <row r="54" spans="2:18">
       <c r="B54" s="37"/>
       <c r="C54" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="59"/>
@@ -16558,7 +16556,7 @@
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
       <c r="O55" s="233" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P55" s="237"/>
     </row>
@@ -16580,7 +16578,7 @@
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
       <c r="O56" s="233" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P56" s="7"/>
     </row>
@@ -16600,7 +16598,7 @@
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
       <c r="O57" s="233" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P57" s="7"/>
     </row>
@@ -16620,14 +16618,14 @@
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
       <c r="O58" s="233" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="P58" s="7"/>
     </row>
     <row r="59" spans="2:18" ht="16" thickBot="1">
       <c r="B59" s="37"/>
       <c r="C59" s="379" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="171"/>
@@ -16640,7 +16638,7 @@
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
       <c r="O59" s="233" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P59" s="7"/>
     </row>
@@ -16662,7 +16660,7 @@
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="302" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
@@ -16681,7 +16679,7 @@
     <row r="62" spans="2:18">
       <c r="B62" s="30"/>
       <c r="C62" s="8" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="172">
@@ -16695,14 +16693,14 @@
       <c r="L62" s="8"/>
       <c r="M62" s="31"/>
       <c r="O62" s="233" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P62" s="7"/>
     </row>
     <row r="63" spans="2:18">
       <c r="B63" s="30"/>
       <c r="C63" s="8" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="172">
@@ -16716,7 +16714,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="31"/>
       <c r="O63" s="233" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P63" s="7"/>
     </row>
@@ -16738,7 +16736,7 @@
     <row r="65" spans="2:16">
       <c r="B65" s="30"/>
       <c r="C65" s="8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="172">
@@ -16752,14 +16750,14 @@
       <c r="L65" s="8"/>
       <c r="M65" s="31"/>
       <c r="O65" s="233" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P65" s="7"/>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="30"/>
       <c r="C66" s="8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="172">
@@ -16773,7 +16771,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="31"/>
       <c r="O66" s="233" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="P66" s="7"/>
     </row>
@@ -16954,7 +16952,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="20">
       <c r="B2" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1">
@@ -23828,7 +23826,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="403" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C5" s="404"/>
       <c r="D5" s="404"/>
@@ -23853,15 +23851,15 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="324" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C7" s="325"/>
       <c r="D7" s="325"/>
       <c r="E7" s="326" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F7" s="322" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G7" s="321"/>
       <c r="H7" s="322"/>
@@ -23870,7 +23868,7 @@
       <c r="K7" s="329"/>
       <c r="L7" s="333"/>
       <c r="M7" s="258" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="30">
@@ -23882,19 +23880,19 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="347" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I8" s="331" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J8" s="334" t="s">
         <v>232</v>
@@ -23912,16 +23910,16 @@
       <c r="D9" s="74"/>
       <c r="E9" s="332"/>
       <c r="F9" s="323" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G9" s="323" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H9" s="323" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
@@ -23949,17 +23947,17 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="345" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F11" s="355"/>
       <c r="G11" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H11" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I11" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J11" s="366">
         <f>F11</f>
@@ -23971,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="258" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -23981,15 +23979,15 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="345" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F12" s="355"/>
       <c r="G12" s="355"/>
       <c r="H12" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I12" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J12" s="366"/>
       <c r="K12" s="360" t="e">
@@ -24001,7 +23999,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="258" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -24011,15 +24009,15 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="345" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F13" s="355"/>
       <c r="G13" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H13" s="355"/>
       <c r="I13" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J13" s="366"/>
       <c r="K13" s="360" t="e">
@@ -24031,7 +24029,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="258" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -24041,17 +24039,17 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="345" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F14" s="355"/>
       <c r="G14" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H14" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I14" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J14" s="366">
         <f>F14</f>
@@ -24063,7 +24061,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="258" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -24073,17 +24071,17 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="345" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F15" s="355"/>
       <c r="G15" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H15" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I15" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J15" s="366">
         <f>F15</f>
@@ -24095,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="258" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -24105,17 +24103,17 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="345" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F16" s="355"/>
       <c r="G16" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H16" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I16" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J16" s="366">
         <f>F16</f>
@@ -24127,7 +24125,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="258" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -24149,17 +24147,17 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="345" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F18" s="355"/>
       <c r="G18" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H18" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I18" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J18" s="366">
         <f>F18</f>
@@ -24171,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="258" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -24181,17 +24179,17 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="345" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F19" s="355"/>
       <c r="G19" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H19" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I19" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J19" s="366">
         <f>F19</f>
@@ -24203,7 +24201,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="258" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -24213,17 +24211,17 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="345" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F20" s="355"/>
       <c r="G20" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H20" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I20" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J20" s="366">
         <f>F20</f>
@@ -24235,7 +24233,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="258" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -24274,17 +24272,17 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="345" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F23" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G23" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H23" s="355"/>
       <c r="I23" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J23" s="366"/>
       <c r="K23" s="360" t="e">
@@ -24296,7 +24294,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="258" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -24306,17 +24304,17 @@
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="345" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F24" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G24" s="355"/>
       <c r="H24" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I24" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J24" s="366"/>
       <c r="K24" s="360" t="e">
@@ -24328,7 +24326,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="258" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -24338,17 +24336,17 @@
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="345" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F25" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G25" s="355"/>
       <c r="H25" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I25" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J25" s="366"/>
       <c r="K25" s="360" t="e">
@@ -24360,7 +24358,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="258" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -24411,7 +24409,7 @@
         <v>0.05</v>
       </c>
       <c r="M28" s="258" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -24434,7 +24432,7 @@
         <v>0.12</v>
       </c>
       <c r="M29" s="258" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -24444,16 +24442,16 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="345" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F30" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G30" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H30" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I30" s="355"/>
       <c r="J30" s="366">
@@ -24466,7 +24464,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="258" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -24476,16 +24474,16 @@
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="345" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F31" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G31" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H31" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I31" s="355"/>
       <c r="J31" s="366">
@@ -24498,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="258" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -24508,16 +24506,16 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="345" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F32" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G32" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H32" s="355" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I32" s="355"/>
       <c r="J32" s="366">
@@ -24530,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="258" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="16" thickBot="1">

--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15960" tabRatio="929" firstSheet="15" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="929" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <definedName name="Final_demand_space_cooling">Dashboard!$E$24</definedName>
     <definedName name="Final_demand_space_heating">Dashboard!$E$23</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="610">
   <si>
     <t>Changelog</t>
   </si>
@@ -1467,9 +1467,6 @@
   </si>
   <si>
     <t>buildings_cooling_collective_heatpump_water_water_ts_electricity</t>
-  </si>
-  <si>
-    <t>buildings_cooling_collective_cooling_network_electricity</t>
   </si>
   <si>
     <t>buildings_final_demand_for_cooling_electricity</t>
@@ -9603,13 +9600,13 @@
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5" ht="30">
       <c r="B7" s="201" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C7" s="283" t="s">
         <v>341</v>
       </c>
       <c r="D7" s="167" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E7" s="168" t="s">
         <v>346</v>
@@ -9659,7 +9656,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="279" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C12" s="169"/>
       <c r="D12" s="223"/>
@@ -9888,10 +9885,10 @@
     <row r="6" spans="2:6" ht="16" thickBot="1"/>
     <row r="7" spans="2:6" ht="30">
       <c r="B7" s="201" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" s="274" t="s">
         <v>491</v>
-      </c>
-      <c r="C7" s="274" t="s">
-        <v>492</v>
       </c>
       <c r="D7" s="283" t="s">
         <v>229</v>
@@ -9900,7 +9897,7 @@
         <v>351</v>
       </c>
       <c r="F7" s="168" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -9915,7 +9912,7 @@
     <row r="9" spans="2:6">
       <c r="B9" s="280"/>
       <c r="C9" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>123</v>
@@ -9954,7 +9951,7 @@
     <row r="12" spans="2:6">
       <c r="B12" s="280"/>
       <c r="C12" s="60" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>125</v>
@@ -10002,7 +9999,7 @@
     <row r="16" spans="2:6">
       <c r="B16" s="280"/>
       <c r="C16" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>125</v>
@@ -10050,7 +10047,7 @@
     <row r="20" spans="2:6">
       <c r="B20" s="280"/>
       <c r="C20" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>134</v>
@@ -10205,7 +10202,7 @@
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C5" s="402"/>
       <c r="D5" s="402"/>
@@ -10263,28 +10260,28 @@
         <v>132</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E9" s="69" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>601</v>
+      </c>
+      <c r="G9" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>602</v>
-      </c>
-      <c r="G9" s="69" t="s">
+      <c r="H9" s="69" t="s">
         <v>485</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="I9" s="69" t="s">
         <v>486</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="J9" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="J9" s="69" t="s">
+      <c r="K9" s="146" t="s">
         <v>488</v>
-      </c>
-      <c r="K9" s="146" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -10804,7 +10801,7 @@
     <row r="38" spans="2:12">
       <c r="B38" s="30"/>
       <c r="C38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D38" s="75"/>
       <c r="E38" s="257" t="e">
@@ -10851,7 +10848,7 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="396" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -10883,7 +10880,7 @@
     <row r="42" spans="2:12">
       <c r="B42" s="30"/>
       <c r="C42" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D42" s="75"/>
       <c r="E42" s="257" t="e">
@@ -10899,16 +10896,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H42" s="383" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I42" s="383" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J42" s="383" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K42" s="391" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="16" thickBot="1">
@@ -10995,7 +10992,7 @@
     <row r="6" spans="2:10" ht="16" thickBot="1"/>
     <row r="7" spans="2:10">
       <c r="B7" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="28"/>
@@ -11757,7 +11754,7 @@
         <v>274</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>275</v>
@@ -11778,10 +11775,10 @@
         <v>290</v>
       </c>
       <c r="K9" s="265" t="s">
+        <v>474</v>
+      </c>
+      <c r="L9" s="146" t="s">
         <v>475</v>
-      </c>
-      <c r="L9" s="146" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -11869,13 +11866,13 @@
     </row>
     <row r="17" spans="10:11">
       <c r="J17" s="259" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K17" s="203"/>
     </row>
     <row r="18" spans="10:11">
       <c r="J18" s="260" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K18" s="261"/>
     </row>
@@ -11895,13 +11892,13 @@
     </row>
     <row r="21" spans="10:11">
       <c r="J21" s="260" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K21" s="261"/>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="260" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K22" s="261"/>
     </row>
@@ -11911,7 +11908,7 @@
     </row>
     <row r="24" spans="10:11">
       <c r="J24" s="262" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K24" s="263">
         <f>K11-Final_demand_residences</f>
@@ -12021,10 +12018,10 @@
         <v>301</v>
       </c>
       <c r="E8" s="108" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" s="108" t="s">
         <v>426</v>
-      </c>
-      <c r="F8" s="108" t="s">
-        <v>427</v>
       </c>
       <c r="G8" s="190" t="s">
         <v>302</v>
@@ -12455,8 +12452,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12467,7 +12464,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12497,12 +12494,8 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="241" t="s">
-        <v>386</v>
-      </c>
-      <c r="B5" s="284">
-        <v>0</v>
-      </c>
+      <c r="A5" s="241"/>
+      <c r="B5" s="284"/>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="284"/>
@@ -12771,7 +12764,7 @@
         <v>41485</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D23" s="309">
         <v>1.18</v>
@@ -12783,7 +12776,7 @@
         <v>41485</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D24" s="309">
         <v>1.18</v>
@@ -12795,7 +12788,7 @@
         <v>41486</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D25" s="309">
         <v>1.19</v>
@@ -12807,7 +12800,7 @@
         <v>41487</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D26" s="309">
         <v>1.19</v>
@@ -12819,7 +12812,7 @@
         <v>41499</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D27" s="308">
         <v>1.2</v>
@@ -12831,7 +12824,7 @@
         <v>41500</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D28" s="309">
         <v>1.21</v>
@@ -12843,7 +12836,7 @@
         <v>41500</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D29" s="308">
         <v>1.22</v>
@@ -12855,7 +12848,7 @@
         <v>41502</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D30" s="308">
         <v>1.23</v>
@@ -12867,7 +12860,7 @@
         <v>41505</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D31" s="308">
         <v>1.24</v>
@@ -12879,7 +12872,7 @@
         <v>41506</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D32" s="308">
         <v>1.25</v>
@@ -12891,7 +12884,7 @@
         <v>41507</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D33" s="308">
         <v>1.26</v>
@@ -12903,7 +12896,7 @@
         <v>41509</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D34" s="308">
         <v>1.27</v>
@@ -12915,7 +12908,7 @@
         <v>41509</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D35" s="308">
         <v>1.28</v>
@@ -12924,10 +12917,10 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="305" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D36" s="308">
         <v>1.29</v>
@@ -12939,7 +12932,7 @@
         <v>41534</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D37" s="308">
         <v>1.3</v>
@@ -12951,7 +12944,7 @@
         <v>41542</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D38" s="308">
         <v>1.31</v>
@@ -12963,7 +12956,7 @@
         <v>41562</v>
       </c>
       <c r="C39" s="371" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D39" s="308">
         <v>1.32</v>
@@ -12975,7 +12968,7 @@
         <v>41578</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D40" s="308">
         <v>1.33</v>
@@ -12987,7 +12980,7 @@
         <v>41578</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D41" s="308">
         <v>1.34</v>
@@ -12999,7 +12992,7 @@
         <v>41782</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D42" s="308">
         <v>1.35</v>
@@ -13011,7 +13004,7 @@
         <v>41782</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D43" s="308">
         <v>1.36</v>
@@ -13070,7 +13063,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -13079,7 +13072,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13092,7 +13085,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Technology shares'!F9</f>
@@ -13101,7 +13094,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Technology shares'!F10</f>
@@ -13146,7 +13139,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13159,7 +13152,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E9</f>
@@ -13168,7 +13161,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E10</f>
@@ -13213,7 +13206,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13226,7 +13219,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E13</f>
@@ -13235,7 +13228,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E14</f>
@@ -13244,7 +13237,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="205" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B5" s="284" t="e">
         <f>'Application shares'!E15</f>
@@ -13286,7 +13279,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13299,7 +13292,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E18</f>
@@ -13308,7 +13301,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E19</f>
@@ -13353,7 +13346,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13375,7 +13368,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E23</f>
@@ -13393,7 +13386,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="205" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="284" t="e">
         <f>'Application shares'!E25</f>
@@ -13432,7 +13425,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13445,7 +13438,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="284">
         <f>Dashboard!E62</f>
@@ -13454,7 +13447,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="284">
         <f>Dashboard!E63</f>
@@ -13500,7 +13493,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13513,7 +13506,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B3" s="284">
         <v>0</v>
@@ -13521,7 +13514,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="284">
         <v>1</v>
@@ -13566,7 +13559,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13579,7 +13572,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B3" s="284">
         <v>0</v>
@@ -13587,7 +13580,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4" s="284">
         <v>1</v>
@@ -13632,7 +13625,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13645,7 +13638,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B3" s="284">
         <f>1-B4</f>
@@ -13654,7 +13647,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B4" s="284">
         <f>Dashboard!E65</f>
@@ -13700,7 +13693,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13713,7 +13706,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B3" s="284">
         <f>1-B4</f>
@@ -13722,7 +13715,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B4" s="284">
         <f>Dashboard!E66</f>
@@ -13843,7 +13836,7 @@
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1">
       <c r="B13" s="177" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C13" s="61" t="s">
         <v>321</v>
@@ -13859,7 +13852,7 @@
     </row>
     <row r="15" spans="2:3" ht="28" customHeight="1">
       <c r="B15" s="300" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C15" s="61" t="s">
         <v>347</v>
@@ -13867,7 +13860,7 @@
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1">
       <c r="B16" s="300" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C16" s="61" t="s">
         <v>345</v>
@@ -13883,7 +13876,7 @@
     </row>
     <row r="18" spans="2:3" ht="28" customHeight="1">
       <c r="B18" s="126" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C18" s="61" t="s">
         <v>319</v>
@@ -13894,7 +13887,7 @@
         <v>317</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28" customHeight="1">
@@ -13915,106 +13908,106 @@
     </row>
     <row r="22" spans="2:3" ht="28" customHeight="1">
       <c r="B22" s="178" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C22" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="28" customHeight="1">
       <c r="B23" s="178" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C23" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28" customHeight="1">
       <c r="B24" s="178" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C24" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="28" customHeight="1">
       <c r="B25" s="178" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C25" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="28" customHeight="1">
       <c r="B26" s="178" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C26" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="28" customHeight="1">
       <c r="B27" s="178" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C27" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" customHeight="1">
       <c r="B28" s="178" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C28" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28" customHeight="1">
       <c r="B29" s="178" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C29" s="256" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="28" customHeight="1">
       <c r="B30" s="178" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30" s="256" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="28" customHeight="1">
       <c r="B31" s="178" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C31" s="256" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" customHeight="1">
       <c r="B32" s="178" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C32" s="256" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28" customHeight="1">
       <c r="B33" s="178" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C33" s="256" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="28" customHeight="1">
       <c r="B34" s="178" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C34" s="256" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" customHeight="1"/>
@@ -14061,7 +14054,7 @@
     </row>
     <row r="6" spans="2:2" ht="75">
       <c r="B6" s="113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -14077,32 +14070,32 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="131" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="55" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="131" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="131" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -14632,33 +14625,33 @@
     <row r="15" spans="2:4" ht="47" customHeight="1">
       <c r="B15" s="38"/>
       <c r="C15" s="97" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="2:4" ht="47" customHeight="1">
       <c r="B16" s="38"/>
       <c r="C16" s="97" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D16" s="40"/>
     </row>
     <row r="17" spans="2:4" ht="14" customHeight="1">
       <c r="B17" s="38"/>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14" customHeight="1">
       <c r="B18" s="38"/>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" thickBot="1">
@@ -14955,7 +14948,7 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C58" s="142" t="s">
         <v>267</v>
@@ -15051,7 +15044,7 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="37" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C74" s="42" t="s">
         <v>269</v>
@@ -15454,7 +15447,7 @@
         <v>30</v>
       </c>
       <c r="K2" s="207" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="5"/>
@@ -15539,7 +15532,7 @@
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
@@ -15556,10 +15549,10 @@
         <v>95</v>
       </c>
       <c r="O9" s="235" t="s">
+        <v>431</v>
+      </c>
+      <c r="P9" s="236" t="s">
         <v>432</v>
-      </c>
-      <c r="P9" s="236" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="10" spans="2:16">
@@ -15575,7 +15568,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="372" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L10" s="373" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
@@ -15594,7 +15587,7 @@
       <c r="E11" s="311"/>
       <c r="F11" s="15"/>
       <c r="G11" s="230" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H11" s="228"/>
       <c r="I11" s="15"/>
@@ -15608,7 +15601,7 @@
       </c>
       <c r="M11" s="65"/>
       <c r="O11" s="233" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P11" s="234">
         <f>IF(L11=TRUE,1,0)</f>
@@ -15618,13 +15611,13 @@
     <row r="12" spans="2:16">
       <c r="B12" s="35"/>
       <c r="C12" s="60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="311"/>
       <c r="F12" s="15"/>
       <c r="G12" s="230" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H12" s="228"/>
       <c r="I12" s="15"/>
@@ -15633,7 +15626,7 @@
       <c r="L12" s="155"/>
       <c r="M12" s="65"/>
       <c r="O12" s="233" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P12" s="234"/>
     </row>
@@ -15664,7 +15657,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="64" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L14" s="155"/>
       <c r="M14" s="65"/>
@@ -15682,7 +15675,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="55" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L15" s="380" t="e">
         <f>IF('Final demand per energy carrier'!E42&lt;0,FALSE,TRUE)</f>
@@ -15709,7 +15702,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="55" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L16" s="380" t="e">
         <f>IF('Final demand per energy carrier'!F42&lt;0,FALSE,TRUE)</f>
@@ -15736,7 +15729,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="55" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L17" s="380" t="e">
         <f>IF('Final demand per energy carrier'!G42&lt;0,FALSE,TRUE)</f>
@@ -15779,7 +15772,7 @@
       <c r="I19" s="317"/>
       <c r="J19" s="319"/>
       <c r="K19" s="320" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L19" s="399" t="b">
         <f>IF('Fuel aggregation'!J11=0,TRUE,'Fuel aggregation'!J11)</f>
@@ -15813,10 +15806,10 @@
     <row r="21" spans="2:16">
       <c r="B21" s="37"/>
       <c r="C21" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E21" s="213">
         <f>Final_demand_residences</f>
@@ -15826,7 +15819,7 @@
       <c r="G21" s="230"/>
       <c r="H21" s="230"/>
       <c r="I21" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="55"/>
@@ -15857,12 +15850,12 @@
         <v>103</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E23" s="215"/>
       <c r="F23" s="230"/>
       <c r="G23" s="230" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H23" s="230"/>
       <c r="I23" s="23"/>
@@ -15871,7 +15864,7 @@
       <c r="L23" s="375"/>
       <c r="M23" s="56"/>
       <c r="O23" s="233" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P23" s="234"/>
     </row>
@@ -15881,12 +15874,12 @@
         <v>106</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E24" s="216"/>
       <c r="F24" s="230"/>
       <c r="G24" s="230" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H24" s="230"/>
       <c r="I24" s="23"/>
@@ -15895,7 +15888,7 @@
       <c r="L24" s="375"/>
       <c r="M24" s="56"/>
       <c r="O24" s="233" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P24" s="234"/>
     </row>
@@ -15905,12 +15898,12 @@
         <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E25" s="216"/>
       <c r="F25" s="230"/>
       <c r="G25" s="230" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H25" s="230"/>
       <c r="I25" s="23"/>
@@ -15919,7 +15912,7 @@
       <c r="L25" s="375"/>
       <c r="M25" s="56"/>
       <c r="O25" s="233" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P25" s="234"/>
     </row>
@@ -15945,7 +15938,7 @@
         <v>278</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E27" s="376" t="e">
         <f>'Final demand per energy carrier'!J41</f>
@@ -15957,7 +15950,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L27" s="380" t="e">
         <f>IF(E27&gt;0,TRUE,E27)</f>
@@ -15976,10 +15969,10 @@
     <row r="28" spans="2:16">
       <c r="B28" s="37"/>
       <c r="C28" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E28" s="377" t="e">
         <f>SUM('Final demand per energy carrier'!E42:G42)</f>
@@ -15991,7 +15984,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L28" s="380" t="e">
         <f>IF(E28&gt;0,TRUE,E28)</f>
@@ -16055,7 +16048,7 @@
     <row r="31" spans="2:16" ht="16" customHeight="1">
       <c r="B31" s="37"/>
       <c r="C31" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="376">
@@ -16092,7 +16085,7 @@
     <row r="33" spans="2:19">
       <c r="B33" s="37"/>
       <c r="C33" s="379" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="376">
@@ -16103,7 +16096,7 @@
       <c r="G33" s="224"/>
       <c r="H33" s="224"/>
       <c r="I33" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="55"/>
@@ -16115,7 +16108,7 @@
     <row r="34" spans="2:19">
       <c r="B34" s="37"/>
       <c r="C34" s="379" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="376">
@@ -16126,7 +16119,7 @@
       <c r="G34" s="224"/>
       <c r="H34" s="224"/>
       <c r="I34" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="55"/>
@@ -16138,7 +16131,7 @@
     <row r="35" spans="2:19">
       <c r="B35" s="37"/>
       <c r="C35" s="379" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="376">
@@ -16149,7 +16142,7 @@
       <c r="G35" s="224"/>
       <c r="H35" s="224"/>
       <c r="I35" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="55"/>
@@ -16177,7 +16170,7 @@
     <row r="37" spans="2:19" ht="30">
       <c r="B37" s="37"/>
       <c r="C37" s="378" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="376">
@@ -16214,7 +16207,7 @@
     <row r="39" spans="2:19" ht="16" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="59"/>
@@ -16232,7 +16225,7 @@
     <row r="40" spans="2:19" ht="16" thickBot="1">
       <c r="B40" s="37"/>
       <c r="C40" s="379" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="171"/>
@@ -16245,14 +16238,14 @@
       <c r="L40" s="156"/>
       <c r="M40" s="314"/>
       <c r="O40" s="233" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P40" s="234"/>
     </row>
     <row r="41" spans="2:19" ht="16" thickBot="1">
       <c r="B41" s="37"/>
       <c r="C41" s="379" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="171"/>
@@ -16265,7 +16258,7 @@
       <c r="L41" s="156"/>
       <c r="M41" s="314"/>
       <c r="O41" s="233" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P41" s="234"/>
       <c r="S41" s="312"/>
@@ -16273,7 +16266,7 @@
     <row r="42" spans="2:19" ht="16" thickBot="1">
       <c r="B42" s="37"/>
       <c r="C42" s="379" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="171"/>
@@ -16286,14 +16279,14 @@
       <c r="L42" s="156"/>
       <c r="M42" s="314"/>
       <c r="O42" s="233" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P42" s="234"/>
     </row>
     <row r="43" spans="2:19" ht="16" thickBot="1">
       <c r="B43" s="37"/>
       <c r="C43" s="379" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="171"/>
@@ -16306,14 +16299,14 @@
       <c r="L43" s="156"/>
       <c r="M43" s="56"/>
       <c r="O43" s="233" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P43" s="234"/>
     </row>
     <row r="44" spans="2:19" ht="16" thickBot="1">
       <c r="B44" s="37"/>
       <c r="C44" s="379" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="171"/>
@@ -16326,14 +16319,14 @@
       <c r="L44" s="157"/>
       <c r="M44" s="56"/>
       <c r="O44" s="233" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P44" s="234"/>
     </row>
     <row r="45" spans="2:19" ht="16" thickBot="1">
       <c r="B45" s="37"/>
       <c r="C45" s="379" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="171"/>
@@ -16346,7 +16339,7 @@
       <c r="L45" s="156"/>
       <c r="M45" s="56"/>
       <c r="O45" s="233" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P45" s="234"/>
       <c r="R45" s="312"/>
@@ -16399,7 +16392,7 @@
     <row r="48" spans="2:19" ht="16" thickBot="1">
       <c r="B48" s="37"/>
       <c r="C48" s="60" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D48" s="60"/>
       <c r="E48" s="63"/>
@@ -16417,7 +16410,7 @@
     <row r="49" spans="2:18" ht="16" thickBot="1">
       <c r="B49" s="37"/>
       <c r="C49" s="379" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="191"/>
@@ -16430,7 +16423,7 @@
       <c r="L49" s="156"/>
       <c r="M49" s="56"/>
       <c r="O49" s="233" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P49" s="237"/>
       <c r="R49" s="312"/>
@@ -16438,7 +16431,7 @@
     <row r="50" spans="2:18" ht="16" thickBot="1">
       <c r="B50" s="37"/>
       <c r="C50" s="379" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="171"/>
@@ -16451,7 +16444,7 @@
       <c r="L50" s="156"/>
       <c r="M50" s="56"/>
       <c r="O50" s="233" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P50" s="237"/>
     </row>
@@ -16471,7 +16464,7 @@
       <c r="L51" s="156"/>
       <c r="M51" s="56"/>
       <c r="O51" s="233" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P51" s="237"/>
     </row>
@@ -16523,7 +16516,7 @@
     <row r="54" spans="2:18">
       <c r="B54" s="37"/>
       <c r="C54" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="59"/>
@@ -16556,7 +16549,7 @@
       <c r="L55" s="55"/>
       <c r="M55" s="56"/>
       <c r="O55" s="233" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P55" s="237"/>
     </row>
@@ -16578,7 +16571,7 @@
       <c r="L56" s="55"/>
       <c r="M56" s="56"/>
       <c r="O56" s="233" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P56" s="7"/>
     </row>
@@ -16598,7 +16591,7 @@
       <c r="L57" s="55"/>
       <c r="M57" s="56"/>
       <c r="O57" s="233" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P57" s="7"/>
     </row>
@@ -16618,14 +16611,14 @@
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
       <c r="O58" s="233" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P58" s="7"/>
     </row>
     <row r="59" spans="2:18" ht="16" thickBot="1">
       <c r="B59" s="37"/>
       <c r="C59" s="379" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="171"/>
@@ -16638,7 +16631,7 @@
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
       <c r="O59" s="233" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P59" s="7"/>
     </row>
@@ -16660,7 +16653,7 @@
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="302" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
@@ -16679,7 +16672,7 @@
     <row r="62" spans="2:18">
       <c r="B62" s="30"/>
       <c r="C62" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="172">
@@ -16693,14 +16686,14 @@
       <c r="L62" s="8"/>
       <c r="M62" s="31"/>
       <c r="O62" s="233" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P62" s="7"/>
     </row>
     <row r="63" spans="2:18">
       <c r="B63" s="30"/>
       <c r="C63" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="172">
@@ -16714,7 +16707,7 @@
       <c r="L63" s="8"/>
       <c r="M63" s="31"/>
       <c r="O63" s="233" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P63" s="7"/>
     </row>
@@ -16736,7 +16729,7 @@
     <row r="65" spans="2:16">
       <c r="B65" s="30"/>
       <c r="C65" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="172">
@@ -16750,14 +16743,14 @@
       <c r="L65" s="8"/>
       <c r="M65" s="31"/>
       <c r="O65" s="233" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P65" s="7"/>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="30"/>
       <c r="C66" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="172">
@@ -16771,7 +16764,7 @@
       <c r="L66" s="8"/>
       <c r="M66" s="31"/>
       <c r="O66" s="233" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P66" s="7"/>
     </row>
@@ -16952,7 +16945,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="20">
       <c r="B2" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1">
@@ -23826,7 +23819,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="403" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C5" s="404"/>
       <c r="D5" s="404"/>
@@ -23851,15 +23844,15 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="324" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C7" s="325"/>
       <c r="D7" s="325"/>
       <c r="E7" s="326" t="s">
+        <v>565</v>
+      </c>
+      <c r="F7" s="322" t="s">
         <v>566</v>
-      </c>
-      <c r="F7" s="322" t="s">
-        <v>567</v>
       </c>
       <c r="G7" s="321"/>
       <c r="H7" s="322"/>
@@ -23868,7 +23861,7 @@
       <c r="K7" s="329"/>
       <c r="L7" s="333"/>
       <c r="M7" s="258" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="30">
@@ -23880,19 +23873,19 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="347" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>544</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I8" s="331" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J8" s="334" t="s">
         <v>232</v>
@@ -23910,16 +23903,16 @@
       <c r="D9" s="74"/>
       <c r="E9" s="332"/>
       <c r="F9" s="323" t="s">
+        <v>544</v>
+      </c>
+      <c r="G9" s="323" t="s">
         <v>545</v>
       </c>
-      <c r="G9" s="323" t="s">
+      <c r="H9" s="323" t="s">
+        <v>562</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>546</v>
-      </c>
-      <c r="H9" s="323" t="s">
-        <v>563</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>547</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
@@ -23947,17 +23940,17 @@
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="345" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F11" s="355"/>
       <c r="G11" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H11" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I11" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J11" s="366">
         <f>F11</f>
@@ -23969,7 +23962,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="258" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -23979,15 +23972,15 @@
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="345" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F12" s="355"/>
       <c r="G12" s="355"/>
       <c r="H12" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I12" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J12" s="366"/>
       <c r="K12" s="360" t="e">
@@ -23999,7 +23992,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="258" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -24009,15 +24002,15 @@
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="345" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F13" s="355"/>
       <c r="G13" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H13" s="355"/>
       <c r="I13" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J13" s="366"/>
       <c r="K13" s="360" t="e">
@@ -24029,7 +24022,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="258" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -24039,17 +24032,17 @@
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="345" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F14" s="355"/>
       <c r="G14" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H14" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I14" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J14" s="366">
         <f>F14</f>
@@ -24061,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="258" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -24071,17 +24064,17 @@
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="345" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F15" s="355"/>
       <c r="G15" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H15" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I15" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J15" s="366">
         <f>F15</f>
@@ -24093,7 +24086,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="258" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -24103,17 +24096,17 @@
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="345" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F16" s="355"/>
       <c r="G16" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H16" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I16" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J16" s="366">
         <f>F16</f>
@@ -24125,7 +24118,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="258" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -24147,17 +24140,17 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="345" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F18" s="355"/>
       <c r="G18" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H18" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I18" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J18" s="366">
         <f>F18</f>
@@ -24169,7 +24162,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="258" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -24179,17 +24172,17 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="345" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F19" s="355"/>
       <c r="G19" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H19" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I19" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J19" s="366">
         <f>F19</f>
@@ -24201,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="258" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -24211,17 +24204,17 @@
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="345" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F20" s="355"/>
       <c r="G20" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H20" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I20" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J20" s="366">
         <f>F20</f>
@@ -24233,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="258" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -24272,17 +24265,17 @@
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="345" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F23" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G23" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H23" s="355"/>
       <c r="I23" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J23" s="366"/>
       <c r="K23" s="360" t="e">
@@ -24294,7 +24287,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="258" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -24304,17 +24297,17 @@
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="345" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F24" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G24" s="355"/>
       <c r="H24" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I24" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J24" s="366"/>
       <c r="K24" s="360" t="e">
@@ -24326,7 +24319,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="258" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="2:13">
@@ -24336,17 +24329,17 @@
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="345" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F25" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G25" s="355"/>
       <c r="H25" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I25" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J25" s="366"/>
       <c r="K25" s="360" t="e">
@@ -24358,7 +24351,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="258" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -24409,7 +24402,7 @@
         <v>0.05</v>
       </c>
       <c r="M28" s="258" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -24432,7 +24425,7 @@
         <v>0.12</v>
       </c>
       <c r="M29" s="258" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -24442,16 +24435,16 @@
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="345" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F30" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G30" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H30" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I30" s="355"/>
       <c r="J30" s="366">
@@ -24464,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="258" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -24474,16 +24467,16 @@
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="345" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F31" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G31" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H31" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I31" s="355"/>
       <c r="J31" s="366">
@@ -24496,7 +24489,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="258" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -24506,16 +24499,16 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="345" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F32" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G32" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H32" s="355" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I32" s="355"/>
       <c r="J32" s="366">
@@ -24528,7 +24521,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="258" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="16" thickBot="1">

--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="929" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="929" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="csv_cooling_useful_insulation" sheetId="63" r:id="rId27"/>
     <sheet name="csv_light_saving_detection" sheetId="66" r:id="rId28"/>
     <sheet name="csv_light_saving_control" sheetId="67" r:id="rId29"/>
+    <sheet name="csv_ps_sector_electricity" sheetId="68" r:id="rId30"/>
   </sheets>
   <definedNames>
     <definedName name="base_year">Dashboard!$E$12</definedName>
@@ -62,7 +63,7 @@
     <definedName name="Final_demand_space_cooling">Dashboard!$E$24</definedName>
     <definedName name="Final_demand_space_heating">Dashboard!$E$23</definedName>
   </definedNames>
-  <calcPr calcId="140000" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -77,7 +78,7 @@
     <author>Quintel Intelligence</author>
   </authors>
   <commentList>
-    <comment ref="C55" authorId="0">
+    <comment ref="C59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0">
+    <comment ref="C60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="625">
   <si>
     <t>Changelog</t>
   </si>
@@ -243,9 +244,6 @@
   </si>
   <si>
     <t>Commercial and Public Services analysis</t>
-  </si>
-  <si>
-    <t>Lody Kuling</t>
   </si>
   <si>
     <t>Organization</t>
@@ -1015,9 +1013,6 @@
   </si>
   <si>
     <t xml:space="preserve">Final demand for heat </t>
-  </si>
-  <si>
-    <t>Final energy demand used for Electrical Appliances</t>
   </si>
   <si>
     <t>Final demand per energy carrier (TJ)</t>
@@ -1358,9 +1353,6 @@
     <t>The final demands per energy carrier for all energy applications are calculated here</t>
   </si>
   <si>
-    <t>In this sheet the shares per carrier per application needed for the Energy Transition Model are defined.</t>
-  </si>
-  <si>
     <t>Shares per technology per carrier</t>
   </si>
   <si>
@@ -2148,6 +2140,60 @@
   </si>
   <si>
     <t>buildings_final_demand_for_space_heating_network_gas_parent_share</t>
+  </si>
+  <si>
+    <t>Final electricity demand used for central ICT</t>
+  </si>
+  <si>
+    <t>Final electricity demand used for Electrical Appliances</t>
+  </si>
+  <si>
+    <t>Final_demand_industry_ict</t>
+  </si>
+  <si>
+    <t>industry_final_demand_ict_electricity</t>
+  </si>
+  <si>
+    <t>Indicate "yes" to add the central ICT sector; also input the required data in row 29</t>
+  </si>
+  <si>
+    <t>ict_split</t>
+  </si>
+  <si>
+    <t>Final energy demand for central ICT is a positive number</t>
+  </si>
+  <si>
+    <t>Central ICT</t>
+  </si>
+  <si>
+    <t>Electricity use</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>In this sheet the shares per carrier per application needed for the Energy Transition Model are defined. In the last section of the table, the electricity shares per sector are determined for the services sector and industry sector (central ICT).</t>
+  </si>
+  <si>
+    <t>buildings_local_production_electricity_parent_share</t>
+  </si>
+  <si>
+    <t>buildings_final_demand_electricity</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_other_ict_electricity</t>
+  </si>
+  <si>
+    <t>Rob Terwel</t>
+  </si>
+  <si>
+    <t>Created an optional split of the central ICT sector (directed to the industry sector in the graph)</t>
+  </si>
+  <si>
+    <t>csv_ps_sector_electricity</t>
+  </si>
+  <si>
+    <t>A CSV-file with a converter output share (parent_share) that sends part of the energy flow to the industry sector, and the rest to the services sector.</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2454,6 +2500,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3109,7 +3161,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1357">
+  <cellStyleXfs count="1391">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4467,8 +4519,42 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5134,8 +5220,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1357">
+  <cellStyles count="1391">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -5846,6 +5941,23 @@
     <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -6491,10 +6603,27 @@
     <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6555,6 +6684,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8960,6 +9109,63 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7250979" cy="276999"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082800" y="5461000"/>
+          <a:ext cx="7250979" cy="276999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>The ETM supports a detailed modelling of the central ICT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>sector, for which you need to provide additional data.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9291,7 +9497,7 @@
   <dimension ref="B2:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9305,7 +9511,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="20">
       <c r="B2" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -9323,13 +9529,13 @@
       </c>
       <c r="C5" s="26">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C6" s="26">
         <f>Dashboard!E11</f>
@@ -9339,7 +9545,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C7" s="198">
         <f>Dashboard!E12</f>
@@ -9353,7 +9559,7 @@
       </c>
       <c r="C8" s="206">
         <f>MAX(Changelog!B:B)</f>
-        <v>41782</v>
+        <v>42600</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -9362,13 +9568,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>621</v>
       </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>5</v>
@@ -9427,7 +9633,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -9441,14 +9647,14 @@
     <row r="21" spans="2:4">
       <c r="B21" s="21"/>
       <c r="C21" s="162" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="21"/>
       <c r="C22" s="163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="7"/>
     </row>
@@ -9462,7 +9668,7 @@
     <row r="24" spans="2:4">
       <c r="B24" s="19"/>
       <c r="C24" s="164" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -9476,7 +9682,7 @@
     <row r="26" spans="2:4">
       <c r="B26" s="19"/>
       <c r="C26" s="124" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D26" s="7"/>
     </row>
@@ -9561,10 +9767,10 @@
   <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9578,20 +9784,20 @@
   <sheetData>
     <row r="2" spans="2:5" ht="20">
       <c r="B2" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" ht="45" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>349</v>
+        <v>617</v>
       </c>
       <c r="C5" s="402"/>
       <c r="D5" s="402"/>
@@ -9600,21 +9806,21 @@
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5" ht="30">
       <c r="B7" s="201" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C7" s="283" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D7" s="167" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E7" s="168" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="279" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8" s="169"/>
       <c r="D8" s="4"/>
@@ -9623,7 +9829,7 @@
     <row r="9" spans="2:5">
       <c r="B9" s="280"/>
       <c r="C9" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="222" t="e">
         <f>SUM('Final demand per energy carrier'!E15:E23)</f>
@@ -9637,10 +9843,10 @@
     <row r="10" spans="2:5">
       <c r="B10" s="280"/>
       <c r="C10" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" s="222" t="e">
-        <f>'Final demand per energy carrier'!E42</f>
+        <f>'Final demand per energy carrier'!E45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="249" t="e">
@@ -9656,7 +9862,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="279" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C12" s="169"/>
       <c r="D12" s="223"/>
@@ -9665,7 +9871,7 @@
     <row r="13" spans="2:5">
       <c r="B13" s="280"/>
       <c r="C13" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="222" t="e">
         <f>SUM('Final demand per energy carrier'!F15:F23)</f>
@@ -9679,7 +9885,7 @@
     <row r="14" spans="2:5">
       <c r="B14" s="280"/>
       <c r="C14" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="222" t="e">
         <f>SUM('Final demand per energy carrier'!F26:F28)</f>
@@ -9693,10 +9899,10 @@
     <row r="15" spans="2:5">
       <c r="B15" s="280"/>
       <c r="C15" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D15" s="222" t="e">
-        <f>'Final demand per energy carrier'!F42</f>
+        <f>'Final demand per energy carrier'!F45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E15" s="249" t="e">
@@ -9712,7 +9918,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="279" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" s="169"/>
       <c r="D17" s="223"/>
@@ -9721,7 +9927,7 @@
     <row r="18" spans="2:5">
       <c r="B18" s="280"/>
       <c r="C18" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="222" t="e">
         <f>SUM('Final demand per energy carrier'!G15:G23)</f>
@@ -9735,10 +9941,10 @@
     <row r="19" spans="2:5">
       <c r="B19" s="280"/>
       <c r="C19" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D19" s="222" t="e">
-        <f>'Final demand per energy carrier'!G42</f>
+        <f>'Final demand per energy carrier'!G45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="249" t="e">
@@ -9754,7 +9960,7 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="279" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C21" s="169"/>
       <c r="D21" s="223"/>
@@ -9763,7 +9969,7 @@
     <row r="22" spans="2:5">
       <c r="B22" s="280"/>
       <c r="C22" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="222" t="e">
         <f>SUM('Final demand per energy carrier'!J15:J23)</f>
@@ -9777,7 +9983,7 @@
     <row r="23" spans="2:5">
       <c r="B23" s="280"/>
       <c r="C23" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="222" t="e">
         <f>SUM('Final demand per energy carrier'!J26:J28)</f>
@@ -9791,7 +9997,7 @@
     <row r="24" spans="2:5">
       <c r="B24" s="280"/>
       <c r="C24" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="222" t="e">
         <f>SUM('Final demand per energy carrier'!J31:J35)</f>
@@ -9805,10 +10011,10 @@
     <row r="25" spans="2:5">
       <c r="B25" s="280"/>
       <c r="C25" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D25" s="222" t="e">
-        <f>'Final demand per energy carrier'!J41</f>
+        <f>'Final demand per energy carrier'!J44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="249" t="e">
@@ -9816,11 +10022,47 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="16" thickBot="1">
-      <c r="B26" s="282"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="254"/>
+    <row r="26" spans="2:5">
+      <c r="B26" s="279" t="s">
+        <v>303</v>
+      </c>
+      <c r="C26" s="169"/>
+      <c r="D26" s="223"/>
+      <c r="E26" s="252"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="280"/>
+      <c r="C27" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="D27" s="222" t="e">
+        <f>SUM(D22:D25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="249" t="e">
+        <f>IF(SUM($D$27:$D$28)=0,1,D27/SUM($D$27:$D$28))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="280"/>
+      <c r="C28" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="D28" s="222">
+        <f>SUM('Final demand per energy carrier'!J41)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="249" t="e">
+        <f>IF(SUM($D$27:$D$28)=0,0,D28/SUM($D$27:$D$28))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="16" thickBot="1">
+      <c r="B29" s="282"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="254"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9844,7 +10086,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9860,13 +10102,13 @@
   <sheetData>
     <row r="2" spans="2:6" ht="20">
       <c r="B2" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="4"/>
@@ -9875,7 +10117,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="400" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C5" s="402"/>
       <c r="D5" s="402"/>
@@ -9885,24 +10127,24 @@
     <row r="6" spans="2:6" ht="16" thickBot="1"/>
     <row r="7" spans="2:6" ht="30">
       <c r="B7" s="201" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C7" s="274" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D7" s="283" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="167" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F7" s="168" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="279" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="276"/>
       <c r="D8" s="169"/>
@@ -9912,10 +10154,10 @@
     <row r="9" spans="2:6">
       <c r="B9" s="280"/>
       <c r="C9" s="60" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="187" t="e">
         <f>'Technology split final demand'!G11</f>
@@ -9930,7 +10172,7 @@
       <c r="B10" s="280"/>
       <c r="C10" s="60"/>
       <c r="D10" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="187" t="e">
         <f>'Technology split final demand'!G13</f>
@@ -9951,10 +10193,10 @@
     <row r="12" spans="2:6">
       <c r="B12" s="280"/>
       <c r="C12" s="60" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="187" t="e">
         <f>'Technology split final demand'!G12</f>
@@ -9969,7 +10211,7 @@
       <c r="B13" s="280"/>
       <c r="C13" s="60"/>
       <c r="D13" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="187" t="e">
         <f>'Technology split final demand'!G14</f>
@@ -9989,7 +10231,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="279" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="276"/>
       <c r="D15" s="169"/>
@@ -9999,10 +10241,10 @@
     <row r="16" spans="2:6">
       <c r="B16" s="280"/>
       <c r="C16" s="60" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="187" t="e">
         <f>'Technology split final demand'!G24</f>
@@ -10017,7 +10259,7 @@
       <c r="B17" s="280"/>
       <c r="C17" s="60"/>
       <c r="D17" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="187" t="e">
         <f>'Technology split final demand'!G25</f>
@@ -10037,7 +10279,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="279" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="276"/>
       <c r="D19" s="169"/>
@@ -10047,10 +10289,10 @@
     <row r="20" spans="2:6">
       <c r="B20" s="280"/>
       <c r="C20" s="60" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="187" t="e">
         <f>'Technology split final demand'!G28</f>
@@ -10065,7 +10307,7 @@
       <c r="B21" s="280"/>
       <c r="C21" s="60"/>
       <c r="D21" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="187" t="e">
         <f>'Technology split final demand'!G29</f>
@@ -10080,7 +10322,7 @@
       <c r="B22" s="280"/>
       <c r="C22" s="60"/>
       <c r="D22" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E22" s="187" t="e">
         <f>'Technology split final demand'!G30</f>
@@ -10095,7 +10337,7 @@
       <c r="B23" s="280"/>
       <c r="C23" s="60"/>
       <c r="D23" s="18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E23" s="187" t="e">
         <f>'Technology split final demand'!G31</f>
@@ -10110,7 +10352,7 @@
       <c r="B24" s="280"/>
       <c r="C24" s="60"/>
       <c r="D24" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="187" t="e">
         <f>'Technology split final demand'!G32</f>
@@ -10147,10 +10389,10 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:L43"/>
+  <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10165,7 +10407,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="20">
       <c r="B2" s="67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -10188,7 +10430,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10202,7 +10444,7 @@
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C5" s="402"/>
       <c r="D5" s="402"/>
@@ -10228,7 +10470,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -10254,34 +10496,34 @@
     </row>
     <row r="9" spans="1:11" ht="30">
       <c r="B9" s="68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E9" s="69" t="s">
+        <v>480</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>598</v>
+      </c>
+      <c r="G9" s="69" t="s">
+        <v>481</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>482</v>
+      </c>
+      <c r="I9" s="69" t="s">
         <v>483</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>601</v>
-      </c>
-      <c r="G9" s="69" t="s">
+      <c r="J9" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="K9" s="146" t="s">
         <v>485</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>486</v>
-      </c>
-      <c r="J9" s="69" t="s">
-        <v>487</v>
-      </c>
-      <c r="K9" s="146" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -10298,10 +10540,10 @@
     </row>
     <row r="11" spans="1:11" s="95" customFormat="1">
       <c r="B11" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="94"/>
       <c r="E11" s="218">
@@ -10359,7 +10601,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="B14" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
@@ -10375,7 +10617,7 @@
       <c r="A15" s="8"/>
       <c r="B15" s="73"/>
       <c r="C15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="75" t="e">
         <f>'Technology split final demand'!G11</f>
@@ -10396,7 +10638,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="73"/>
       <c r="C16" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="75" t="e">
         <f>'Technology split final demand'!G12</f>
@@ -10417,7 +10659,7 @@
       <c r="A17" s="8"/>
       <c r="B17" s="73"/>
       <c r="C17" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="75" t="e">
         <f>'Technology split final demand'!G13</f>
@@ -10438,7 +10680,7 @@
       <c r="A18" s="8"/>
       <c r="B18" s="73"/>
       <c r="C18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" s="75" t="e">
         <f>'Technology split final demand'!G14</f>
@@ -10459,7 +10701,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="73"/>
       <c r="C19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="75" t="e">
         <f>'Technology split final demand'!G15</f>
@@ -10480,7 +10722,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="73"/>
       <c r="C20" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="75" t="e">
         <f>'Technology split final demand'!G16</f>
@@ -10500,7 +10742,7 @@
     <row r="21" spans="1:11">
       <c r="B21" s="73"/>
       <c r="C21" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="75" t="e">
         <f>'Technology split final demand'!G18</f>
@@ -10521,7 +10763,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="73"/>
       <c r="C22" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="75" t="e">
         <f>'Technology split final demand'!G19</f>
@@ -10542,7 +10784,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="73"/>
       <c r="C23" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="75" t="e">
         <f>'Technology split final demand'!G20</f>
@@ -10574,7 +10816,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="B25" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
@@ -10589,7 +10831,7 @@
     <row r="26" spans="1:11">
       <c r="B26" s="73"/>
       <c r="C26" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="75" t="e">
         <f>'Technology split final demand'!G23</f>
@@ -10609,7 +10851,7 @@
     <row r="27" spans="1:11">
       <c r="B27" s="73"/>
       <c r="C27" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="75" t="e">
         <f>'Technology split final demand'!G24</f>
@@ -10629,7 +10871,7 @@
     <row r="28" spans="1:11">
       <c r="B28" s="73"/>
       <c r="C28" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="75" t="e">
         <f>'Technology split final demand'!G25</f>
@@ -10660,7 +10902,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="5"/>
@@ -10675,7 +10917,7 @@
     <row r="31" spans="1:11">
       <c r="B31" s="73"/>
       <c r="C31" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="75" t="e">
         <f>'Technology split final demand'!G28</f>
@@ -10695,7 +10937,7 @@
     <row r="32" spans="1:11">
       <c r="B32" s="73"/>
       <c r="C32" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="75" t="e">
         <f>'Technology split final demand'!G29</f>
@@ -10715,7 +10957,7 @@
     <row r="33" spans="2:12">
       <c r="B33" s="73"/>
       <c r="C33" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D33" s="75" t="e">
         <f>'Technology split final demand'!G30</f>
@@ -10735,7 +10977,7 @@
     <row r="34" spans="2:12">
       <c r="B34" s="73"/>
       <c r="C34" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D34" s="75" t="e">
         <f>'Technology split final demand'!G31</f>
@@ -10755,7 +10997,7 @@
     <row r="35" spans="2:12">
       <c r="B35" s="73"/>
       <c r="C35" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D35" s="75" t="e">
         <f>'Technology split final demand'!G32</f>
@@ -10786,7 +11028,7 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7"/>
@@ -10801,7 +11043,7 @@
     <row r="38" spans="2:12">
       <c r="B38" s="30"/>
       <c r="C38" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D38" s="75"/>
       <c r="E38" s="257" t="e">
@@ -10848,7 +11090,7 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="396" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -10862,69 +11104,124 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="30"/>
-      <c r="C41" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="257"/>
-      <c r="F41" s="257"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="257"/>
-      <c r="J41" s="257" t="e">
-        <f>J11-J38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K41" s="384"/>
+      <c r="C41" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="410" t="s">
+        <v>568</v>
+      </c>
+      <c r="F41" s="410" t="s">
+        <v>568</v>
+      </c>
+      <c r="G41" s="410" t="s">
+        <v>568</v>
+      </c>
+      <c r="H41" s="410" t="s">
+        <v>568</v>
+      </c>
+      <c r="I41" s="410" t="s">
+        <v>568</v>
+      </c>
+      <c r="J41" s="257" t="str">
+        <f>Dashboard!E29</f>
+        <v/>
+      </c>
+      <c r="K41" s="411" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="30"/>
-      <c r="C42" s="17" t="s">
-        <v>592</v>
-      </c>
-      <c r="D42" s="75"/>
-      <c r="E42" s="257" t="e">
+      <c r="C42" s="17"/>
+      <c r="D42" s="407"/>
+      <c r="E42" s="408"/>
+      <c r="F42" s="408"/>
+      <c r="G42" s="408"/>
+      <c r="H42" s="408"/>
+      <c r="I42" s="408"/>
+      <c r="J42" s="408"/>
+      <c r="K42" s="409"/>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="396" t="s">
+        <v>591</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="387"/>
+      <c r="F43" s="387"/>
+      <c r="G43" s="387"/>
+      <c r="H43" s="387"/>
+      <c r="I43" s="387"/>
+      <c r="J43" s="387"/>
+      <c r="K43" s="388"/>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="30"/>
+      <c r="C44" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" s="75"/>
+      <c r="E44" s="257"/>
+      <c r="F44" s="257"/>
+      <c r="G44" s="257"/>
+      <c r="H44" s="257"/>
+      <c r="I44" s="257"/>
+      <c r="J44" s="257" t="e">
+        <f>J11-J38-J41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" s="384"/>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="30"/>
+      <c r="C45" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="D45" s="75"/>
+      <c r="E45" s="257" t="e">
         <f>E11-E38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="257" t="e">
+      <c r="F45" s="257" t="e">
         <f>F11-F38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G42" s="257" t="e">
+      <c r="G45" s="257" t="e">
         <f>G11-G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="383" t="s">
-        <v>571</v>
-      </c>
-      <c r="I42" s="383" t="s">
-        <v>571</v>
-      </c>
-      <c r="J42" s="383" t="s">
-        <v>571</v>
-      </c>
-      <c r="K42" s="391" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="16" thickBot="1">
-      <c r="B43" s="47"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="392"/>
-      <c r="F43" s="392"/>
-      <c r="G43" s="392"/>
-      <c r="H43" s="392"/>
-      <c r="I43" s="392"/>
-      <c r="J43" s="392"/>
-      <c r="K43" s="393"/>
+      <c r="H45" s="383" t="s">
+        <v>568</v>
+      </c>
+      <c r="I45" s="383" t="s">
+        <v>568</v>
+      </c>
+      <c r="J45" s="383" t="s">
+        <v>568</v>
+      </c>
+      <c r="K45" s="391" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="16" thickBot="1">
+      <c r="B46" s="47"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="392"/>
+      <c r="F46" s="392"/>
+      <c r="G46" s="392"/>
+      <c r="H46" s="392"/>
+      <c r="I46" s="392"/>
+      <c r="J46" s="392"/>
+      <c r="K46" s="393"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E42:G42">
+  <conditionalFormatting sqref="E45:G45">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10947,7 +11244,7 @@
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10970,12 +11267,12 @@
   <sheetData>
     <row r="2" spans="2:10" ht="20">
       <c r="B2" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -10983,7 +11280,7 @@
     </row>
     <row r="5" spans="2:10" s="197" customFormat="1" ht="75" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C5" s="402"/>
       <c r="D5" s="402"/>
@@ -10992,7 +11289,7 @@
     <row r="6" spans="2:10" ht="16" thickBot="1"/>
     <row r="7" spans="2:10">
       <c r="B7" s="27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="28"/>
@@ -11012,22 +11309,22 @@
     </row>
     <row r="9" spans="2:10" ht="45">
       <c r="B9" s="68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="G9" s="108" t="s">
         <v>241</v>
-      </c>
-      <c r="F9" s="108" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="108" t="s">
-        <v>242</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>19</v>
@@ -11035,7 +11332,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="298"/>
@@ -11047,10 +11344,10 @@
     <row r="11" spans="2:10">
       <c r="B11" s="37"/>
       <c r="C11" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="185">
-        <f>Dashboard!E40</f>
+        <f>Dashboard!E44</f>
         <v>0</v>
       </c>
       <c r="E11" s="109">
@@ -11071,10 +11368,10 @@
     <row r="12" spans="2:10">
       <c r="B12" s="37"/>
       <c r="C12" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="185">
-        <f>Dashboard!E41</f>
+        <f>Dashboard!E45</f>
         <v>0</v>
       </c>
       <c r="E12" s="109" t="e">
@@ -11096,10 +11393,10 @@
     <row r="13" spans="2:10">
       <c r="B13" s="37"/>
       <c r="C13" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="185">
-        <f>Dashboard!E42</f>
+        <f>Dashboard!E46</f>
         <v>0</v>
       </c>
       <c r="E13" s="109" t="e">
@@ -11121,10 +11418,10 @@
     <row r="14" spans="2:10">
       <c r="B14" s="37"/>
       <c r="C14" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="185">
-        <f>Dashboard!E43</f>
+        <f>Dashboard!E47</f>
         <v>0</v>
       </c>
       <c r="E14" s="109">
@@ -11146,10 +11443,10 @@
     <row r="15" spans="2:10">
       <c r="B15" s="37"/>
       <c r="C15" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="185">
-        <f>Dashboard!E44</f>
+        <f>Dashboard!E48</f>
         <v>0</v>
       </c>
       <c r="E15" s="109">
@@ -11171,10 +11468,10 @@
     <row r="16" spans="2:10">
       <c r="B16" s="37"/>
       <c r="C16" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="185">
-        <f>Dashboard!E45</f>
+        <f>Dashboard!E49</f>
         <v>0</v>
       </c>
       <c r="E16" s="109">
@@ -11207,7 +11504,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="37"/>
       <c r="C18" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="185"/>
       <c r="E18" s="109"/>
@@ -11217,14 +11514,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H18" s="406" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J18" s="273"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="37"/>
       <c r="C19" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="185"/>
       <c r="E19" s="109"/>
@@ -11239,7 +11536,7 @@
     <row r="20" spans="2:10" ht="15" customHeight="1">
       <c r="B20" s="37"/>
       <c r="C20" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="185"/>
       <c r="E20" s="109"/>
@@ -11262,7 +11559,7 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="280" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="275"/>
       <c r="D22" s="285"/>
@@ -11274,10 +11571,10 @@
     <row r="23" spans="2:10">
       <c r="B23" s="280"/>
       <c r="C23" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="297">
-        <f>Dashboard!E49</f>
+        <f>Dashboard!E53</f>
         <v>0</v>
       </c>
       <c r="E23" s="192" t="e">
@@ -11297,10 +11594,10 @@
     <row r="24" spans="2:10">
       <c r="B24" s="280"/>
       <c r="C24" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="297">
-        <f>Dashboard!E50</f>
+        <f>Dashboard!E54</f>
         <v>0</v>
       </c>
       <c r="E24" s="192" t="e">
@@ -11320,10 +11617,10 @@
     <row r="25" spans="2:10">
       <c r="B25" s="280"/>
       <c r="C25" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="297">
-        <f>Dashboard!E51</f>
+        <f>Dashboard!E55</f>
         <v>0</v>
       </c>
       <c r="E25" s="192" t="e">
@@ -11351,7 +11648,7 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="280" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="275"/>
       <c r="D27" s="285"/>
@@ -11363,10 +11660,10 @@
     <row r="28" spans="2:10">
       <c r="B28" s="280"/>
       <c r="C28" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="297">
-        <f>Dashboard!E55</f>
+        <f>Dashboard!E59</f>
         <v>0</v>
       </c>
       <c r="E28" s="192">
@@ -11386,10 +11683,10 @@
     <row r="29" spans="2:10">
       <c r="B29" s="280"/>
       <c r="C29" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="297">
-        <f>Dashboard!E56</f>
+        <f>Dashboard!E60</f>
         <v>0</v>
       </c>
       <c r="E29" s="192">
@@ -11409,10 +11706,10 @@
     <row r="30" spans="2:10">
       <c r="B30" s="280"/>
       <c r="C30" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D30" s="297">
-        <f>Dashboard!E57</f>
+        <f>Dashboard!E61</f>
         <v>0</v>
       </c>
       <c r="E30" s="192">
@@ -11432,10 +11729,10 @@
     <row r="31" spans="2:10">
       <c r="B31" s="280"/>
       <c r="C31" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D31" s="297">
-        <f>Dashboard!E58</f>
+        <f>Dashboard!E62</f>
         <v>0</v>
       </c>
       <c r="E31" s="192">
@@ -11455,10 +11752,10 @@
     <row r="32" spans="2:10">
       <c r="B32" s="280"/>
       <c r="C32" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="297">
-        <f>Dashboard!E59</f>
+        <f>Dashboard!E63</f>
         <v>0</v>
       </c>
       <c r="E32" s="192">
@@ -11521,36 +11818,36 @@
   <sheetData>
     <row r="2" spans="2:4" ht="20">
       <c r="B2" s="67" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="45" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C5" s="401"/>
     </row>
     <row r="6" spans="2:4" ht="16" thickBot="1"/>
     <row r="7" spans="2:4" ht="30" customHeight="1">
       <c r="B7" s="194" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C7" s="195" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D7" s="196" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="193"/>
@@ -11558,7 +11855,7 @@
     <row r="9" spans="2:4">
       <c r="B9" s="73"/>
       <c r="C9" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D9" s="221">
         <f>'Fuel aggregation'!F11</f>
@@ -11568,7 +11865,7 @@
     <row r="10" spans="2:4">
       <c r="B10" s="73"/>
       <c r="C10" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D10" s="245" t="e">
         <f>D9/Final_demand_space_heating</f>
@@ -11582,7 +11879,7 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="193"/>
@@ -11590,7 +11887,7 @@
     <row r="13" spans="2:4">
       <c r="B13" s="73"/>
       <c r="C13" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D13" s="221">
         <f>'Fuel aggregation'!G11</f>
@@ -11600,7 +11897,7 @@
     <row r="14" spans="2:4">
       <c r="B14" s="73"/>
       <c r="C14" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D14" s="245" t="e">
         <f>D13/Final_demand_space_heating</f>
@@ -11614,7 +11911,7 @@
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="193"/>
@@ -11622,7 +11919,7 @@
     <row r="17" spans="2:4">
       <c r="B17" s="73"/>
       <c r="C17" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D17" s="221">
         <f>'Fuel aggregation'!I11</f>
@@ -11632,7 +11929,7 @@
     <row r="18" spans="2:4">
       <c r="B18" s="73"/>
       <c r="C18" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D18" s="245" t="e">
         <f>D17/Final_demand_space_heating</f>
@@ -11681,7 +11978,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="20">
       <c r="B2" s="67" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -11699,7 +11996,7 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11710,7 +12007,7 @@
     </row>
     <row r="5" spans="2:13" ht="60" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C5" s="402"/>
       <c r="D5" s="402"/>
@@ -11722,7 +12019,7 @@
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
     <row r="7" spans="2:13">
       <c r="B7" s="179" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="28"/>
@@ -11751,34 +12048,34 @@
     <row r="9" spans="2:13" ht="30">
       <c r="B9" s="181"/>
       <c r="C9" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>599</v>
+      </c>
+      <c r="E9" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>602</v>
-      </c>
-      <c r="E9" s="69" t="s">
+      <c r="F9" s="69" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="G9" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="G9" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>277</v>
-      </c>
       <c r="J9" s="69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K9" s="265" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L9" s="146" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -11796,7 +12093,7 @@
     </row>
     <row r="11" spans="2:13" ht="30">
       <c r="B11" s="183" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C11" s="220">
         <f>SUM('Corrected energy balance step 2'!C83:N83)+'Corrected energy balance step 2'!S83</f>
@@ -11866,13 +12163,13 @@
     </row>
     <row r="17" spans="10:11">
       <c r="J17" s="259" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K17" s="203"/>
     </row>
     <row r="18" spans="10:11">
       <c r="J18" s="260" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K18" s="261"/>
     </row>
@@ -11892,13 +12189,13 @@
     </row>
     <row r="21" spans="10:11">
       <c r="J21" s="260" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K21" s="261"/>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="260" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K22" s="261"/>
     </row>
@@ -11908,7 +12205,7 @@
     </row>
     <row r="24" spans="10:11">
       <c r="J24" s="262" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K24" s="263">
         <f>K11-Final_demand_residences</f>
@@ -11981,12 +12278,12 @@
   <sheetData>
     <row r="2" spans="2:9" ht="20">
       <c r="B2" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11994,7 +12291,7 @@
     </row>
     <row r="5" spans="2:9" ht="45" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C5" s="402"/>
       <c r="D5" s="402"/>
@@ -12003,7 +12300,7 @@
     <row r="6" spans="2:9" ht="16" thickBot="1"/>
     <row r="7" spans="2:9">
       <c r="B7" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -12015,22 +12312,22 @@
       <c r="B8" s="35"/>
       <c r="C8" s="101"/>
       <c r="D8" s="108" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G8" s="190" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="35"/>
       <c r="C9" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="299" t="e">
         <f>'Technology split final demand'!G11</f>
@@ -12054,7 +12351,7 @@
     <row r="10" spans="2:9">
       <c r="B10" s="35"/>
       <c r="C10" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="185" t="e">
         <f>'Technology split final demand'!G12</f>
@@ -12077,7 +12374,7 @@
     <row r="11" spans="2:9">
       <c r="B11" s="35"/>
       <c r="C11" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="185" t="e">
         <f>'Technology split final demand'!G13</f>
@@ -12100,7 +12397,7 @@
     <row r="12" spans="2:9">
       <c r="B12" s="35"/>
       <c r="C12" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" s="185" t="e">
         <f>'Technology split final demand'!G14</f>
@@ -12123,7 +12420,7 @@
     <row r="13" spans="2:9">
       <c r="B13" s="35"/>
       <c r="C13" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="185" t="e">
         <f>'Technology split final demand'!G15</f>
@@ -12146,7 +12443,7 @@
     <row r="14" spans="2:9">
       <c r="B14" s="35"/>
       <c r="C14" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="185" t="e">
         <f>'Technology split final demand'!G16</f>
@@ -12175,7 +12472,7 @@
     <row r="16" spans="2:9">
       <c r="B16" s="35"/>
       <c r="C16" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="185" t="e">
         <f>'Technology split final demand'!G18</f>
@@ -12198,7 +12495,7 @@
     <row r="17" spans="1:9">
       <c r="B17" s="35"/>
       <c r="C17" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="185" t="e">
         <f>'Technology split final demand'!G19</f>
@@ -12221,7 +12518,7 @@
     <row r="18" spans="1:9">
       <c r="B18" s="35"/>
       <c r="C18" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="187" t="e">
         <f>'Technology split final demand'!G20</f>
@@ -12311,20 +12608,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="242" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Technology shares'!F20</f>
@@ -12333,7 +12630,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="242" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Technology shares'!F21</f>
@@ -12342,7 +12639,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B5" s="284" t="e">
         <f>'Technology shares'!F22</f>
@@ -12351,7 +12648,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B6" s="284" t="e">
         <f>'Technology shares'!F23</f>
@@ -12360,7 +12657,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B7" s="284" t="e">
         <f>'Technology shares'!F24</f>
@@ -12396,20 +12693,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Technology shares'!F13</f>
@@ -12418,7 +12715,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Technology shares'!F12</f>
@@ -12452,7 +12749,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -12464,20 +12761,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Technology shares'!F17</f>
@@ -12486,7 +12783,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Technology shares'!F16</f>
@@ -12522,7 +12819,7 @@
   <dimension ref="B2:E50"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12572,7 +12869,7 @@
         <v>41452</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" s="309">
         <v>1.01</v>
@@ -12584,7 +12881,7 @@
         <v>41457</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="309">
         <v>1.02</v>
@@ -12596,7 +12893,7 @@
         <v>41457</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="309">
         <v>1.03</v>
@@ -12608,7 +12905,7 @@
         <v>41458</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D10" s="309">
         <v>1.04</v>
@@ -12620,7 +12917,7 @@
         <v>41459</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D11" s="309">
         <v>1.05</v>
@@ -12632,7 +12929,7 @@
         <v>41460</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D12" s="309">
         <v>1.06</v>
@@ -12644,7 +12941,7 @@
         <v>41463</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D13" s="309">
         <v>1.07</v>
@@ -12656,7 +12953,7 @@
         <v>41464</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D14" s="309">
         <v>1.08</v>
@@ -12668,7 +12965,7 @@
         <v>41464</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D15" s="309">
         <v>1.0900000000000001</v>
@@ -12680,7 +12977,7 @@
         <v>41465</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D16" s="308">
         <v>1.1000000000000001</v>
@@ -12692,7 +12989,7 @@
         <v>41465</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D17" s="309">
         <v>1.1100000000000001</v>
@@ -12704,7 +13001,7 @@
         <v>41467</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D18" s="309">
         <v>1.1200000000000001</v>
@@ -12716,7 +13013,7 @@
         <v>41470</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D19" s="309">
         <v>1.1299999999999999</v>
@@ -12728,7 +13025,7 @@
         <v>41472</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D20" s="309">
         <v>1.1499999999999999</v>
@@ -12740,7 +13037,7 @@
         <v>41481</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D21" s="309">
         <v>1.1599999999999999</v>
@@ -12752,7 +13049,7 @@
         <v>41484</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D22" s="309">
         <v>1.17</v>
@@ -12764,7 +13061,7 @@
         <v>41485</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D23" s="309">
         <v>1.18</v>
@@ -12776,7 +13073,7 @@
         <v>41485</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D24" s="309">
         <v>1.18</v>
@@ -12788,7 +13085,7 @@
         <v>41486</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D25" s="309">
         <v>1.19</v>
@@ -12800,7 +13097,7 @@
         <v>41487</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D26" s="309">
         <v>1.19</v>
@@ -12812,7 +13109,7 @@
         <v>41499</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D27" s="308">
         <v>1.2</v>
@@ -12824,7 +13121,7 @@
         <v>41500</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D28" s="309">
         <v>1.21</v>
@@ -12836,7 +13133,7 @@
         <v>41500</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D29" s="308">
         <v>1.22</v>
@@ -12848,7 +13145,7 @@
         <v>41502</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D30" s="308">
         <v>1.23</v>
@@ -12860,7 +13157,7 @@
         <v>41505</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D31" s="308">
         <v>1.24</v>
@@ -12872,7 +13169,7 @@
         <v>41506</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D32" s="308">
         <v>1.25</v>
@@ -12884,7 +13181,7 @@
         <v>41507</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D33" s="308">
         <v>1.26</v>
@@ -12896,7 +13193,7 @@
         <v>41509</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D34" s="308">
         <v>1.27</v>
@@ -12908,7 +13205,7 @@
         <v>41509</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D35" s="308">
         <v>1.28</v>
@@ -12917,10 +13214,10 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="305" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D36" s="308">
         <v>1.29</v>
@@ -12932,7 +13229,7 @@
         <v>41534</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D37" s="308">
         <v>1.3</v>
@@ -12944,7 +13241,7 @@
         <v>41542</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D38" s="308">
         <v>1.31</v>
@@ -12956,7 +13253,7 @@
         <v>41562</v>
       </c>
       <c r="C39" s="371" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D39" s="308">
         <v>1.32</v>
@@ -12968,7 +13265,7 @@
         <v>41578</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D40" s="308">
         <v>1.33</v>
@@ -12980,7 +13277,7 @@
         <v>41578</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D41" s="308">
         <v>1.34</v>
@@ -12992,7 +13289,7 @@
         <v>41782</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D42" s="308">
         <v>1.35</v>
@@ -13004,17 +13301,23 @@
         <v>41782</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D43" s="308">
         <v>1.36</v>
       </c>
       <c r="E43" s="307"/>
     </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="370"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="308"/>
+    <row r="44" spans="2:5" ht="30">
+      <c r="B44" s="370">
+        <v>42600</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>622</v>
+      </c>
+      <c r="D44" s="308">
+        <v>1.37</v>
+      </c>
       <c r="E44" s="307"/>
     </row>
     <row r="45" spans="2:5">
@@ -13072,20 +13375,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Technology shares'!F9</f>
@@ -13094,7 +13397,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Technology shares'!F10</f>
@@ -13139,20 +13442,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E9</f>
@@ -13161,7 +13464,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E10</f>
@@ -13206,20 +13509,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E13</f>
@@ -13228,7 +13531,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E14</f>
@@ -13237,7 +13540,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="205" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B5" s="284" t="e">
         <f>'Application shares'!E15</f>
@@ -13279,20 +13582,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E18</f>
@@ -13301,7 +13604,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E19</f>
@@ -13346,20 +13649,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B3" s="284" t="e">
         <f>'Application shares'!E22</f>
@@ -13368,7 +13671,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B4" s="284" t="e">
         <f>'Application shares'!E23</f>
@@ -13377,7 +13680,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="205" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B5" s="284" t="e">
         <f>'Application shares'!E24</f>
@@ -13386,7 +13689,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="205" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B6" s="284" t="e">
         <f>'Application shares'!E25</f>
@@ -13425,32 +13728,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="205" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="205" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B3" s="284">
-        <f>Dashboard!E62</f>
+        <f>Dashboard!E66</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="205" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B4" s="284">
-        <f>Dashboard!E63</f>
+        <f>Dashboard!E67</f>
         <v>0</v>
       </c>
     </row>
@@ -13493,20 +13796,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B3" s="284">
         <v>0</v>
@@ -13514,7 +13817,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B4" s="284">
         <v>1</v>
@@ -13559,20 +13862,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B3" s="284">
         <v>0</v>
@@ -13580,7 +13883,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B4" s="284">
         <v>1</v>
@@ -13625,20 +13928,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B3" s="284">
         <f>1-B4</f>
@@ -13647,10 +13950,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B4" s="284">
-        <f>Dashboard!E65</f>
+        <f>Dashboard!E69</f>
         <v>3.9E-2</v>
       </c>
     </row>
@@ -13693,20 +13996,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B3" s="284">
         <f>1-B4</f>
@@ -13715,10 +14018,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B4" s="284">
-        <f>Dashboard!E66</f>
+        <f>Dashboard!E70</f>
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
@@ -13747,10 +14050,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:C36"/>
+  <dimension ref="B2:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13763,15 +14066,15 @@
   <sheetData>
     <row r="2" spans="2:3" ht="20">
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -13780,10 +14083,10 @@
     </row>
     <row r="6" spans="2:3" ht="28" customHeight="1">
       <c r="B6" s="125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="28" customHeight="1">
@@ -13791,227 +14094,304 @@
         <v>0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28" customHeight="1">
       <c r="B8" s="125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28" customHeight="1">
       <c r="B9" s="125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="28" customHeight="1">
       <c r="B10" s="125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28" customHeight="1">
       <c r="B11" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="28" customHeight="1">
       <c r="B12" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="61" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1">
       <c r="B13" s="177" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="28" customHeight="1">
       <c r="B14" s="177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="28" customHeight="1">
       <c r="B15" s="300" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1">
       <c r="B16" s="300" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="28" customHeight="1">
       <c r="B17" s="126" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="28" customHeight="1">
       <c r="B18" s="126" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="28" customHeight="1">
       <c r="B19" s="174" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28" customHeight="1">
       <c r="B20" s="174" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="28" customHeight="1">
       <c r="B21" s="176" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="61" t="s">
         <v>318</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="28" customHeight="1">
       <c r="B22" s="178" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C22" s="256" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="28" customHeight="1">
       <c r="B23" s="178" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C23" s="256" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28" customHeight="1">
       <c r="B24" s="178" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C24" s="256" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="28" customHeight="1">
       <c r="B25" s="178" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C25" s="256" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="28" customHeight="1">
       <c r="B26" s="178" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C26" s="256" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="28" customHeight="1">
       <c r="B27" s="178" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C27" s="256" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" customHeight="1">
       <c r="B28" s="178" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C28" s="256" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28" customHeight="1">
       <c r="B29" s="178" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C29" s="256" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="28" customHeight="1">
       <c r="B30" s="178" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C30" s="256" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="28" customHeight="1">
       <c r="B31" s="178" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C31" s="256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" customHeight="1">
       <c r="B32" s="178" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C32" s="256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28" customHeight="1">
       <c r="B33" s="178" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C33" s="256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="28" customHeight="1">
       <c r="B34" s="178" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C34" s="256" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="28" customHeight="1"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="28" customHeight="1">
+      <c r="B35" s="178" t="s">
+        <v>623</v>
+      </c>
+      <c r="C35" s="256" t="s">
+        <v>624</v>
+      </c>
+    </row>
     <row r="36" spans="2:3" ht="28" customHeight="1"/>
+    <row r="37" spans="2:3" ht="28" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="205" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="205" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="284" t="e">
+        <f>'Application shares'!E27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="205" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="284" t="e">
+        <f>'Application shares'!E28</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="205"/>
+      <c r="B5" s="284"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="205"/>
+      <c r="B6" s="284"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="284"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14041,12 +14421,12 @@
   <sheetData>
     <row r="2" spans="2:2" ht="20">
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -14054,7 +14434,7 @@
     </row>
     <row r="6" spans="2:2" ht="75">
       <c r="B6" s="113" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -14062,7 +14442,7 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="129" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -14070,32 +14450,32 @@
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="131" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="55" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="55" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="55" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="131" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="131" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -14103,7 +14483,7 @@
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -14111,7 +14491,7 @@
     </row>
     <row r="20" spans="2:2" ht="105">
       <c r="B20" s="112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -14143,7 +14523,7 @@
   <sheetData>
     <row r="2" spans="2:80" ht="30">
       <c r="B2" s="117" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" s="114"/>
       <c r="D2" s="114"/>
@@ -14220,7 +14600,7 @@
     </row>
     <row r="3" spans="2:80" ht="18" customHeight="1">
       <c r="B3" s="118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="119"/>
       <c r="D3" s="119"/>
@@ -14297,7 +14677,7 @@
     </row>
     <row r="4" spans="2:80" ht="15" customHeight="1">
       <c r="B4" s="121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
@@ -14435,7 +14815,7 @@
     <row r="6" spans="2:80" ht="23">
       <c r="B6" s="116"/>
       <c r="C6" s="132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" s="116"/>
       <c r="E6" s="116"/>
@@ -14473,7 +14853,7 @@
       <c r="AK6" s="116"/>
       <c r="AM6" s="116"/>
       <c r="AN6" s="132" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AO6" s="116"/>
       <c r="AP6" s="116"/>
@@ -14507,7 +14887,7 @@
       <c r="BS6" s="116"/>
       <c r="BT6" s="116"/>
       <c r="BU6" s="132" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:80">
@@ -14547,26 +14927,26 @@
   <sheetData>
     <row r="2" spans="2:4" ht="20">
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="90" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C5" s="401"/>
     </row>
     <row r="6" spans="2:4" ht="16" thickBot="1"/>
     <row r="7" spans="2:4">
       <c r="B7" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
@@ -14578,18 +14958,18 @@
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="34" t="s">
         <v>38</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="36"/>
@@ -14597,61 +14977,61 @@
     <row r="11" spans="2:4" ht="90">
       <c r="B11" s="30"/>
       <c r="C11" s="39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D11" s="41"/>
     </row>
     <row r="12" spans="2:4" ht="45">
       <c r="B12" s="30"/>
       <c r="C12" s="39" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D12" s="41"/>
     </row>
     <row r="13" spans="2:4" ht="30">
       <c r="B13" s="38"/>
       <c r="C13" s="97" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D13" s="40"/>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="38"/>
       <c r="C14" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D14" s="40"/>
     </row>
     <row r="15" spans="2:4" ht="47" customHeight="1">
       <c r="B15" s="38"/>
       <c r="C15" s="97" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="2:4" ht="47" customHeight="1">
       <c r="B16" s="38"/>
       <c r="C16" s="97" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D16" s="40"/>
     </row>
     <row r="17" spans="2:4" ht="14" customHeight="1">
       <c r="B17" s="38"/>
       <c r="C17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14" customHeight="1">
       <c r="B18" s="38"/>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" thickBot="1">
@@ -14665,7 +15045,7 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
@@ -14677,18 +15057,18 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="33" t="s">
-        <v>38</v>
-      </c>
       <c r="D23" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="36"/>
@@ -14696,28 +15076,28 @@
     <row r="25" spans="2:4">
       <c r="B25" s="38"/>
       <c r="C25" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="38"/>
       <c r="C26" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="38"/>
       <c r="C27" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>262</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -14727,7 +15107,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="134" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="138"/>
       <c r="D29" s="135"/>
@@ -14735,55 +15115,55 @@
     <row r="30" spans="2:4">
       <c r="B30" s="30"/>
       <c r="C30" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="37"/>
       <c r="C31" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="30"/>
       <c r="C32" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="30"/>
       <c r="C33" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="30"/>
       <c r="C34" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="30"/>
       <c r="C35" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -14793,7 +15173,7 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="136"/>
@@ -14801,28 +15181,28 @@
     <row r="38" spans="2:4">
       <c r="B38" s="30"/>
       <c r="C38" s="137" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="30"/>
       <c r="C39" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="30"/>
       <c r="C40" s="137" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -14832,7 +15212,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="136"/>
@@ -14840,46 +15220,46 @@
     <row r="43" spans="2:4">
       <c r="B43" s="30"/>
       <c r="C43" s="137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="30"/>
       <c r="C44" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="30"/>
       <c r="C45" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="30"/>
       <c r="C46" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="30"/>
       <c r="C47" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -14889,7 +15269,7 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="136"/>
@@ -14897,37 +15277,37 @@
     <row r="50" spans="2:4">
       <c r="B50" s="37"/>
       <c r="C50" s="137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="30"/>
       <c r="C51" s="137" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="30"/>
       <c r="C52" s="137" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="30"/>
       <c r="C53" s="137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="16" thickBot="1">
@@ -14938,7 +15318,7 @@
     <row r="55" spans="2:4" ht="16" thickBot="1"/>
     <row r="56" spans="2:4">
       <c r="B56" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C56" s="29"/>
     </row>
@@ -14948,10 +15328,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="32" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C58" s="142" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -14960,82 +15340,82 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="30"/>
       <c r="C61" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="30"/>
       <c r="C62" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" s="30"/>
       <c r="C63" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="30"/>
       <c r="C64" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="30"/>
       <c r="C65" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="30"/>
       <c r="C66" s="143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="50"/>
       <c r="C67" s="143" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="30"/>
       <c r="C68" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="30"/>
       <c r="C69" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="30"/>
       <c r="C70" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="30"/>
       <c r="C71" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="30"/>
       <c r="C72" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="2:3">
@@ -15044,16 +15424,16 @@
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="37" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="37"/>
       <c r="C75" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="2:3">
@@ -15062,142 +15442,142 @@
     </row>
     <row r="77" spans="2:3">
       <c r="B77" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="37"/>
       <c r="C78" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="30"/>
       <c r="C79" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="B80" s="30"/>
       <c r="C80" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="B81" s="30"/>
       <c r="C81" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="B82" s="30"/>
       <c r="C82" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" s="30"/>
       <c r="C83" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" s="30"/>
       <c r="C84" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="2:3">
       <c r="B85" s="30"/>
       <c r="C85" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="30"/>
       <c r="C86" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" s="30"/>
       <c r="C87" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="30"/>
       <c r="C88" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="30"/>
       <c r="C89" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="B90" s="30"/>
       <c r="C90" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="B91" s="30"/>
       <c r="C91" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="B92" s="30"/>
       <c r="C92" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="30"/>
       <c r="C93" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="B94" s="30"/>
       <c r="C94" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="B95" s="30"/>
       <c r="C95" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="B96" s="30"/>
       <c r="C96" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="30"/>
       <c r="C97" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" s="30"/>
       <c r="C98" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" s="30"/>
       <c r="C99" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="2:3">
@@ -15206,16 +15586,16 @@
     </row>
     <row r="101" spans="2:3">
       <c r="B101" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="B102" s="30"/>
       <c r="C102" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="2:3">
@@ -15224,10 +15604,10 @@
     </row>
     <row r="104" spans="2:3">
       <c r="B104" s="49" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C104" s="149" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="2:3">
@@ -15236,10 +15616,10 @@
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C106" s="149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="2:3">
@@ -15248,10 +15628,10 @@
     </row>
     <row r="108" spans="2:3">
       <c r="B108" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C108" s="149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="2:3">
@@ -15260,130 +15640,130 @@
     </row>
     <row r="110" spans="2:3">
       <c r="B110" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" s="30"/>
       <c r="C111" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="2:3">
       <c r="B112" s="30"/>
       <c r="C112" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="2:3">
       <c r="B113" s="30"/>
       <c r="C113" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="2:3">
       <c r="B114" s="37"/>
       <c r="C114" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="2:3">
       <c r="B115" s="37"/>
       <c r="C115" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="2:3">
       <c r="B116" s="37"/>
       <c r="C116" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="2:3">
       <c r="B117" s="37"/>
       <c r="C117" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="2:3">
       <c r="B118" s="37"/>
       <c r="C118" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="2:3">
       <c r="B119" s="37"/>
       <c r="C119" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="2:3">
       <c r="B120" s="37"/>
       <c r="C120" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="2:3">
       <c r="B121" s="30"/>
       <c r="C121" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="2:3">
       <c r="B122" s="30"/>
       <c r="C122" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="2:3">
       <c r="B123" s="30"/>
       <c r="C123" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="2:3">
       <c r="B124" s="37"/>
       <c r="C124" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="2:3">
       <c r="B125" s="37"/>
       <c r="C125" s="42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="2:3">
       <c r="B126" s="37"/>
       <c r="C126" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="2:3">
       <c r="B127" s="37"/>
       <c r="C127" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="2:3">
       <c r="B128" s="37"/>
       <c r="C128" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" s="37"/>
       <c r="C129" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" s="30"/>
       <c r="C130" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="16" thickBot="1">
@@ -15392,7 +15772,7 @@
     </row>
     <row r="133" spans="2:3">
       <c r="B133" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C133" s="1">
         <v>3.6</v>
@@ -15417,15 +15797,15 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:S67"/>
+  <dimension ref="B2:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="67.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.6640625" style="1" customWidth="1"/>
@@ -15444,10 +15824,10 @@
   <sheetData>
     <row r="2" spans="2:16" ht="20">
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="207" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="5"/>
@@ -15460,7 +15840,7 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -15471,7 +15851,7 @@
     </row>
     <row r="5" spans="2:16" ht="45" customHeight="1">
       <c r="B5" s="400" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C5" s="402"/>
       <c r="D5" s="402"/>
@@ -15483,7 +15863,7 @@
     <row r="6" spans="2:16" ht="16" thickBot="1"/>
     <row r="7" spans="2:16">
       <c r="B7" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -15494,7 +15874,7 @@
       <c r="I7" s="53"/>
       <c r="J7" s="239"/>
       <c r="K7" s="159" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="53"/>
       <c r="M7" s="29"/>
@@ -15519,45 +15899,45 @@
     </row>
     <row r="9" spans="2:16">
       <c r="B9" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>97</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>98</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="316" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="54" t="s">
-        <v>101</v>
-      </c>
       <c r="M9" s="142" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O9" s="235" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P9" s="236" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -15568,7 +15948,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
       <c r="K10" s="372" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L10" s="373" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
@@ -15581,27 +15961,27 @@
     <row r="11" spans="2:16">
       <c r="B11" s="35"/>
       <c r="C11" s="60" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D11" s="60"/>
       <c r="E11" s="311"/>
       <c r="F11" s="15"/>
       <c r="G11" s="230" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H11" s="228"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L11" s="381" t="b">
-        <f>IF(COUNTBLANK(E11:E60)-COUNTBLANK(C11:C60)=3,TRUE,FALSE)</f>
+        <f>IF(COUNTBLANK(E11:E64)-COUNTBLANK(C11:C64)=3,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M11" s="65"/>
       <c r="O11" s="233" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P11" s="234">
         <f>IF(L11=TRUE,1,0)</f>
@@ -15611,13 +15991,13 @@
     <row r="12" spans="2:16">
       <c r="B12" s="35"/>
       <c r="C12" s="60" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="311"/>
       <c r="F12" s="15"/>
       <c r="G12" s="230" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H12" s="228"/>
       <c r="I12" s="15"/>
@@ -15626,7 +16006,7 @@
       <c r="L12" s="155"/>
       <c r="M12" s="65"/>
       <c r="O12" s="233" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P12" s="234"/>
     </row>
@@ -15657,7 +16037,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="64" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L14" s="155"/>
       <c r="M14" s="65"/>
@@ -15675,10 +16055,10 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="55" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L15" s="380" t="e">
-        <f>IF('Final demand per energy carrier'!E42&lt;0,FALSE,TRUE)</f>
+        <f>IF('Final demand per energy carrier'!E45&lt;0,FALSE,TRUE)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M15" s="314" t="e">
@@ -15702,10 +16082,10 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="55" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="L16" s="380" t="e">
-        <f>IF('Final demand per energy carrier'!F42&lt;0,FALSE,TRUE)</f>
+        <f>IF('Final demand per energy carrier'!F45&lt;0,FALSE,TRUE)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="314" t="e">
@@ -15729,10 +16109,10 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="55" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L17" s="380" t="e">
-        <f>IF('Final demand per energy carrier'!G42&lt;0,FALSE,TRUE)</f>
+        <f>IF('Final demand per energy carrier'!G45&lt;0,FALSE,TRUE)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="314" t="e">
@@ -15772,7 +16152,7 @@
       <c r="I19" s="317"/>
       <c r="J19" s="319"/>
       <c r="K19" s="320" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L19" s="399" t="b">
         <f>IF('Fuel aggregation'!J11=0,TRUE,'Fuel aggregation'!J11)</f>
@@ -15787,7 +16167,7 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -15806,10 +16186,10 @@
     <row r="21" spans="2:16">
       <c r="B21" s="37"/>
       <c r="C21" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>424</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>427</v>
       </c>
       <c r="E21" s="213">
         <f>Final_demand_residences</f>
@@ -15819,7 +16199,7 @@
       <c r="G21" s="230"/>
       <c r="H21" s="230"/>
       <c r="I21" s="8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="55"/>
@@ -15847,15 +16227,15 @@
     <row r="23" spans="2:16" ht="16" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E23" s="215"/>
       <c r="F23" s="230"/>
       <c r="G23" s="230" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H23" s="230"/>
       <c r="I23" s="23"/>
@@ -15864,22 +16244,22 @@
       <c r="L23" s="375"/>
       <c r="M23" s="56"/>
       <c r="O23" s="233" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P23" s="234"/>
     </row>
     <row r="24" spans="2:16" ht="16" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E24" s="216"/>
       <c r="F24" s="230"/>
       <c r="G24" s="230" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H24" s="230"/>
       <c r="I24" s="23"/>
@@ -15888,22 +16268,22 @@
       <c r="L24" s="375"/>
       <c r="M24" s="56"/>
       <c r="O24" s="233" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P24" s="234"/>
     </row>
     <row r="25" spans="2:16" ht="16" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E25" s="216"/>
       <c r="F25" s="230"/>
       <c r="G25" s="230" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H25" s="230"/>
       <c r="I25" s="23"/>
@@ -15912,7 +16292,7 @@
       <c r="L25" s="375"/>
       <c r="M25" s="56"/>
       <c r="O25" s="233" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P25" s="234"/>
     </row>
@@ -15932,226 +16312,231 @@
       <c r="O26" s="233"/>
       <c r="P26" s="234"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" ht="16" thickBot="1">
       <c r="B27" s="37"/>
-      <c r="C27" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="E27" s="376" t="e">
-        <f>'Final demand per energy carrier'!J41</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="217"/>
       <c r="F27" s="225"/>
       <c r="G27" s="230"/>
       <c r="H27" s="230"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="64" t="s">
-        <v>586</v>
-      </c>
-      <c r="L27" s="380" t="e">
-        <f>IF(E27&gt;0,TRUE,E27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="56" t="e">
-        <f>IF(L27=TRUE," ","Please adjust your final demands for space heating, space cooling and lighting, or alter the technology shares below.")</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K27" s="55"/>
+      <c r="L27" s="375"/>
+      <c r="M27" s="56"/>
       <c r="O27" s="233"/>
-      <c r="P27" s="234" t="e">
-        <f>IF(L27=TRUE,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16">
+      <c r="P27" s="234"/>
+    </row>
+    <row r="28" spans="2:16" ht="16" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="E28" s="377" t="e">
-        <f>SUM('Final demand per energy carrier'!E42:G42)</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="216"/>
       <c r="F28" s="225"/>
       <c r="G28" s="230"/>
       <c r="H28" s="230"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="64" t="s">
-        <v>587</v>
-      </c>
-      <c r="L28" s="380" t="e">
-        <f>IF(E28&gt;0,TRUE,E28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="56" t="e">
-        <f>IF(L28=TRUE," ","Please adjust your final demands for space heating, space cooling and/or lighting.")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="233"/>
-      <c r="P28" s="234" t="e">
-        <f>IF(L28=TRUE,1,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="144"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="58"/>
-      <c r="O29" s="233"/>
-      <c r="P29" s="234"/>
-    </row>
-    <row r="30" spans="2:16" ht="16" customHeight="1">
-      <c r="B30" s="37" t="s">
-        <v>92</v>
-      </c>
+      <c r="K28" s="55"/>
+      <c r="L28" s="375"/>
+      <c r="M28" s="56"/>
+      <c r="O28" s="233" t="s">
+        <v>612</v>
+      </c>
+      <c r="P28" s="234"/>
+    </row>
+    <row r="29" spans="2:16" ht="16" thickBot="1">
+      <c r="B29" s="37"/>
+      <c r="C29" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E29" s="216" t="str">
+        <f>IF(E28="no",0,"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="225"/>
+      <c r="G29" s="230" t="s">
+        <v>609</v>
+      </c>
+      <c r="H29" s="230"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="64" t="s">
+        <v>613</v>
+      </c>
+      <c r="L29" s="380" t="b">
+        <f>IF(E29&gt;=0,TRUE,E29)</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="56" t="str">
+        <f>IF(L29=TRUE," ","Please adjust your final demands for space heating, space cooling and lighting (and central ICT, if filled in), or alter the technology shares below.")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O29" s="233" t="s">
+        <v>610</v>
+      </c>
+      <c r="P29" s="234">
+        <f>IF(L29=TRUE,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="37"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
+      <c r="E30" s="217"/>
+      <c r="F30" s="225"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="230"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="L30" s="380">
-        <f>IF(SUM(E40:E45)=1,TRUE,SUM(E40:E45))</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="56" t="str">
-        <f>IF(L30=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
-        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
-      </c>
+      <c r="K30" s="55"/>
+      <c r="L30" s="375"/>
+      <c r="M30" s="56"/>
       <c r="O30" s="233"/>
-      <c r="P30" s="234">
-        <f>IF(L30=TRUE,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="16" customHeight="1">
+      <c r="P30" s="234"/>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31" s="37"/>
       <c r="C31" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="376">
-        <f>Final_demand_space_heating</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
+        <v>608</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E31" s="376" t="e">
+        <f>'Final demand per energy carrier'!J44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="225"/>
+      <c r="G31" s="230"/>
+      <c r="H31" s="230"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="315"/>
-      <c r="M31" s="314"/>
+      <c r="K31" s="64" t="s">
+        <v>583</v>
+      </c>
+      <c r="L31" s="380" t="e">
+        <f>IF(E31&gt;0,TRUE,E31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="56" t="e">
+        <f>IF(L31=TRUE," ","Please adjust your final demands for space heating, space cooling and lighting (and central ICT, if filled in), or alter the technology shares below.")</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O31" s="233"/>
-      <c r="P31" s="234"/>
-    </row>
-    <row r="32" spans="2:16" ht="16" customHeight="1">
+      <c r="P31" s="234" t="e">
+        <f>IF(L31=TRUE,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32" s="37"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="376"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="224"/>
-      <c r="H32" s="224"/>
+      <c r="C32" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E32" s="377" t="e">
+        <f>SUM('Final demand per energy carrier'!E45:G45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="225"/>
+      <c r="G32" s="230"/>
+      <c r="H32" s="230"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="315"/>
-      <c r="M32" s="314"/>
+      <c r="K32" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="L32" s="380" t="e">
+        <f>IF(E32&gt;0,TRUE,E32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="56" t="e">
+        <f>IF(L32=TRUE," ","Please adjust your final demands for space heating, space cooling and/or lighting (and central ICT, if filled in.")</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="233"/>
-      <c r="P32" s="234"/>
+      <c r="P32" s="234" t="e">
+        <f>IF(L32=TRUE,1,0)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="2:19">
-      <c r="B33" s="37"/>
-      <c r="C33" s="379" t="s">
-        <v>537</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="376">
-        <f>'Final demand extracted from EB'!D13</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="56"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="58"/>
       <c r="O33" s="233"/>
       <c r="P33" s="234"/>
     </row>
-    <row r="34" spans="2:19">
-      <c r="B34" s="37"/>
-      <c r="C34" s="379" t="s">
-        <v>538</v>
-      </c>
+    <row r="34" spans="2:19" ht="16" customHeight="1">
+      <c r="B34" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="376">
-        <f>'Final demand extracted from EB'!D9</f>
-        <v>0</v>
-      </c>
+      <c r="E34" s="175"/>
       <c r="F34" s="8"/>
       <c r="G34" s="224"/>
       <c r="H34" s="224"/>
-      <c r="I34" s="8" t="s">
-        <v>582</v>
-      </c>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="56"/>
+      <c r="K34" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" s="380">
+        <f>IF(SUM(E44:E49)=1,TRUE,SUM(E44:E49))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="56" t="str">
+        <f>IF(L34=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
+        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
+      </c>
       <c r="O34" s="233"/>
-      <c r="P34" s="234"/>
-    </row>
-    <row r="35" spans="2:19">
+      <c r="P34" s="234">
+        <f>IF(L34=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" ht="16" customHeight="1">
       <c r="B35" s="37"/>
-      <c r="C35" s="379" t="s">
-        <v>539</v>
+      <c r="C35" s="8" t="s">
+        <v>533</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="376">
-        <f>'Final demand extracted from EB'!D17</f>
+        <f>Final_demand_space_heating</f>
         <v>0</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="224"/>
       <c r="H35" s="224"/>
-      <c r="I35" s="8" t="s">
-        <v>582</v>
-      </c>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="55"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="56"/>
+      <c r="L35" s="315"/>
+      <c r="M35" s="314"/>
       <c r="O35" s="233"/>
       <c r="P35" s="234"/>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" ht="16" customHeight="1">
       <c r="B36" s="37"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -16162,25 +16547,27 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="55"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="56"/>
+      <c r="L36" s="315"/>
+      <c r="M36" s="314"/>
       <c r="O36" s="233"/>
       <c r="P36" s="234"/>
     </row>
-    <row r="37" spans="2:19" ht="30">
+    <row r="37" spans="2:19">
       <c r="B37" s="37"/>
-      <c r="C37" s="378" t="s">
-        <v>575</v>
+      <c r="C37" s="379" t="s">
+        <v>534</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="376">
-        <f>E31-SUM(E33:E35)</f>
+        <f>'Final demand extracted from EB'!D13</f>
         <v>0</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="224"/>
       <c r="H37" s="224"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="8" t="s">
+        <v>579</v>
+      </c>
       <c r="J37" s="8"/>
       <c r="K37" s="55"/>
       <c r="L37" s="156"/>
@@ -16190,13 +16577,20 @@
     </row>
     <row r="38" spans="2:19">
       <c r="B38" s="37"/>
-      <c r="C38" s="378"/>
+      <c r="C38" s="379" t="s">
+        <v>535</v>
+      </c>
       <c r="D38" s="8"/>
-      <c r="E38" s="313"/>
+      <c r="E38" s="376">
+        <f>'Final demand extracted from EB'!D9</f>
+        <v>0</v>
+      </c>
       <c r="F38" s="8"/>
       <c r="G38" s="224"/>
       <c r="H38" s="224"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="8" t="s">
+        <v>579</v>
+      </c>
       <c r="J38" s="8"/>
       <c r="K38" s="55"/>
       <c r="L38" s="156"/>
@@ -16204,17 +16598,22 @@
       <c r="O38" s="233"/>
       <c r="P38" s="234"/>
     </row>
-    <row r="39" spans="2:19" ht="16" thickBot="1">
+    <row r="39" spans="2:19">
       <c r="B39" s="37"/>
-      <c r="C39" s="8" t="s">
-        <v>574</v>
+      <c r="C39" s="379" t="s">
+        <v>536</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="59"/>
+      <c r="E39" s="376">
+        <f>'Final demand extracted from EB'!D17</f>
+        <v>0</v>
+      </c>
       <c r="F39" s="8"/>
       <c r="G39" s="224"/>
       <c r="H39" s="224"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="8" t="s">
+        <v>579</v>
+      </c>
       <c r="J39" s="8"/>
       <c r="K39" s="55"/>
       <c r="L39" s="156"/>
@@ -16222,91 +16621,81 @@
       <c r="O39" s="233"/>
       <c r="P39" s="234"/>
     </row>
-    <row r="40" spans="2:19" ht="16" thickBot="1">
+    <row r="40" spans="2:19">
       <c r="B40" s="37"/>
-      <c r="C40" s="379" t="s">
-        <v>576</v>
-      </c>
+      <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="171"/>
+      <c r="E40" s="376"/>
       <c r="F40" s="8"/>
       <c r="G40" s="224"/>
       <c r="H40" s="224"/>
-      <c r="I40" s="23"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="55"/>
       <c r="L40" s="156"/>
-      <c r="M40" s="314"/>
-      <c r="O40" s="233" t="s">
-        <v>516</v>
-      </c>
+      <c r="M40" s="56"/>
+      <c r="O40" s="233"/>
       <c r="P40" s="234"/>
     </row>
-    <row r="41" spans="2:19" ht="16" thickBot="1">
+    <row r="41" spans="2:19" ht="30">
       <c r="B41" s="37"/>
-      <c r="C41" s="379" t="s">
-        <v>577</v>
+      <c r="C41" s="378" t="s">
+        <v>572</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="171"/>
+      <c r="E41" s="376">
+        <f>E35-SUM(E37:E39)</f>
+        <v>0</v>
+      </c>
       <c r="F41" s="8"/>
       <c r="G41" s="224"/>
       <c r="H41" s="224"/>
-      <c r="I41" s="23"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="55"/>
       <c r="L41" s="156"/>
-      <c r="M41" s="314"/>
-      <c r="O41" s="233" t="s">
-        <v>532</v>
-      </c>
+      <c r="M41" s="56"/>
+      <c r="O41" s="233"/>
       <c r="P41" s="234"/>
-      <c r="S41" s="312"/>
-    </row>
-    <row r="42" spans="2:19" ht="16" thickBot="1">
+    </row>
+    <row r="42" spans="2:19">
       <c r="B42" s="37"/>
-      <c r="C42" s="379" t="s">
-        <v>578</v>
-      </c>
+      <c r="C42" s="378"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="171"/>
+      <c r="E42" s="313"/>
       <c r="F42" s="8"/>
       <c r="G42" s="224"/>
       <c r="H42" s="224"/>
-      <c r="I42" s="23"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="55"/>
       <c r="L42" s="156"/>
-      <c r="M42" s="314"/>
-      <c r="O42" s="233" t="s">
-        <v>517</v>
-      </c>
+      <c r="M42" s="56"/>
+      <c r="O42" s="233"/>
       <c r="P42" s="234"/>
     </row>
     <row r="43" spans="2:19" ht="16" thickBot="1">
       <c r="B43" s="37"/>
-      <c r="C43" s="379" t="s">
-        <v>579</v>
+      <c r="C43" s="8" t="s">
+        <v>571</v>
       </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="171"/>
+      <c r="E43" s="59"/>
       <c r="F43" s="8"/>
       <c r="G43" s="224"/>
       <c r="H43" s="224"/>
-      <c r="I43" s="23"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="55"/>
       <c r="L43" s="156"/>
       <c r="M43" s="56"/>
-      <c r="O43" s="233" t="s">
-        <v>518</v>
-      </c>
+      <c r="O43" s="233"/>
       <c r="P43" s="234"/>
     </row>
     <row r="44" spans="2:19" ht="16" thickBot="1">
       <c r="B44" s="37"/>
       <c r="C44" s="379" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="171"/>
@@ -16316,17 +16705,17 @@
       <c r="I44" s="23"/>
       <c r="J44" s="8"/>
       <c r="K44" s="55"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="56"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="314"/>
       <c r="O44" s="233" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="P44" s="234"/>
     </row>
     <row r="45" spans="2:19" ht="16" thickBot="1">
       <c r="B45" s="37"/>
       <c r="C45" s="379" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="171"/>
@@ -16337,74 +16726,71 @@
       <c r="J45" s="8"/>
       <c r="K45" s="55"/>
       <c r="L45" s="156"/>
-      <c r="M45" s="56"/>
+      <c r="M45" s="314"/>
       <c r="O45" s="233" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P45" s="234"/>
-      <c r="R45" s="312"/>
-    </row>
-    <row r="46" spans="2:19">
-      <c r="B46" s="144"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="211"/>
-      <c r="H46" s="211"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="158"/>
-      <c r="M46" s="58"/>
-      <c r="O46" s="233"/>
-      <c r="P46" s="237"/>
-    </row>
-    <row r="47" spans="2:19">
-      <c r="B47" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="175"/>
+      <c r="S45" s="312"/>
+    </row>
+    <row r="46" spans="2:19" ht="16" thickBot="1">
+      <c r="B46" s="37"/>
+      <c r="C46" s="379" t="s">
+        <v>575</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="224"/>
+      <c r="H46" s="224"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="314"/>
+      <c r="O46" s="233" t="s">
+        <v>514</v>
+      </c>
+      <c r="P46" s="234"/>
+    </row>
+    <row r="47" spans="2:19" ht="16" thickBot="1">
+      <c r="B47" s="37"/>
+      <c r="C47" s="379" t="s">
+        <v>576</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="171"/>
       <c r="F47" s="8"/>
       <c r="G47" s="224"/>
       <c r="H47" s="224"/>
-      <c r="I47" s="8"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="L47" s="380">
-        <f>IF(SUM(E49:E51)=1,TRUE,SUM(E49:E51))</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="56" t="str">
-        <f>IF(L47=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
-        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
-      </c>
-      <c r="O47" s="233"/>
-      <c r="P47" s="234">
-        <f>IF(L47=TRUE,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K47" s="55"/>
+      <c r="L47" s="156"/>
+      <c r="M47" s="56"/>
+      <c r="O47" s="233" t="s">
+        <v>515</v>
+      </c>
+      <c r="P47" s="234"/>
     </row>
     <row r="48" spans="2:19" ht="16" thickBot="1">
       <c r="B48" s="37"/>
-      <c r="C48" s="60" t="s">
-        <v>583</v>
-      </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="63"/>
+      <c r="C48" s="379" t="s">
+        <v>577</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="171"/>
       <c r="F48" s="8"/>
       <c r="G48" s="224"/>
       <c r="H48" s="224"/>
-      <c r="I48" s="8"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="8"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="156"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="157"/>
       <c r="M48" s="56"/>
-      <c r="O48" s="233"/>
+      <c r="O48" s="233" t="s">
+        <v>516</v>
+      </c>
       <c r="P48" s="234"/>
     </row>
     <row r="49" spans="2:18" ht="16" thickBot="1">
@@ -16413,7 +16799,7 @@
         <v>578</v>
       </c>
       <c r="D49" s="8"/>
-      <c r="E49" s="191"/>
+      <c r="E49" s="171"/>
       <c r="F49" s="8"/>
       <c r="G49" s="224"/>
       <c r="H49" s="224"/>
@@ -16423,338 +16809,344 @@
       <c r="L49" s="156"/>
       <c r="M49" s="56"/>
       <c r="O49" s="233" t="s">
-        <v>520</v>
-      </c>
-      <c r="P49" s="237"/>
+        <v>532</v>
+      </c>
+      <c r="P49" s="234"/>
       <c r="R49" s="312"/>
     </row>
-    <row r="50" spans="2:18" ht="16" thickBot="1">
-      <c r="B50" s="37"/>
-      <c r="C50" s="379" t="s">
-        <v>577</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="224"/>
-      <c r="H50" s="224"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="56"/>
-      <c r="O50" s="233" t="s">
-        <v>521</v>
-      </c>
+    <row r="50" spans="2:18">
+      <c r="B50" s="144"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="211"/>
+      <c r="H50" s="211"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="158"/>
+      <c r="M50" s="58"/>
+      <c r="O50" s="233"/>
       <c r="P50" s="237"/>
     </row>
-    <row r="51" spans="2:18" ht="16" thickBot="1">
-      <c r="B51" s="37"/>
-      <c r="C51" s="379" t="s">
-        <v>133</v>
-      </c>
+    <row r="51" spans="2:18">
+      <c r="B51" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="60"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="191"/>
+      <c r="E51" s="175"/>
       <c r="F51" s="8"/>
       <c r="G51" s="224"/>
       <c r="H51" s="224"/>
-      <c r="I51" s="23"/>
+      <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="56"/>
-      <c r="O51" s="233" t="s">
-        <v>522</v>
-      </c>
-      <c r="P51" s="237"/>
-    </row>
-    <row r="52" spans="2:18">
-      <c r="B52" s="144"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="211"/>
-      <c r="H52" s="211"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="158"/>
-      <c r="M52" s="58"/>
+      <c r="K51" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="L51" s="380">
+        <f>IF(SUM(E53:E55)=1,TRUE,SUM(E53:E55))</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="56" t="str">
+        <f>IF(L51=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
+        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
+      </c>
+      <c r="O51" s="233"/>
+      <c r="P51" s="234">
+        <f>IF(L51=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" ht="16" thickBot="1">
+      <c r="B52" s="37"/>
+      <c r="C52" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="224"/>
+      <c r="H52" s="224"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="56"/>
       <c r="O52" s="233"/>
-      <c r="P52" s="237"/>
-    </row>
-    <row r="53" spans="2:18">
-      <c r="B53" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="8"/>
+      <c r="P52" s="234"/>
+    </row>
+    <row r="53" spans="2:18" ht="16" thickBot="1">
+      <c r="B53" s="37"/>
+      <c r="C53" s="379" t="s">
+        <v>575</v>
+      </c>
       <c r="D53" s="8"/>
-      <c r="E53" s="175"/>
+      <c r="E53" s="191"/>
       <c r="F53" s="8"/>
       <c r="G53" s="224"/>
       <c r="H53" s="224"/>
-      <c r="I53" s="8"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="64" t="s">
-        <v>240</v>
-      </c>
-      <c r="L53" s="380">
-        <f>IF(SUM(E55:E59)=1,TRUE,SUM(E55:E59))</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="56" t="str">
-        <f>IF(L53=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
-        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
-      </c>
-      <c r="O53" s="238"/>
-      <c r="P53" s="234">
-        <f>IF(L53=TRUE,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18">
+      <c r="K53" s="55"/>
+      <c r="L53" s="156"/>
+      <c r="M53" s="56"/>
+      <c r="O53" s="233" t="s">
+        <v>517</v>
+      </c>
+      <c r="P53" s="237"/>
+      <c r="R53" s="312"/>
+    </row>
+    <row r="54" spans="2:18" ht="16" thickBot="1">
       <c r="B54" s="37"/>
-      <c r="C54" s="8" t="s">
-        <v>584</v>
+      <c r="C54" s="379" t="s">
+        <v>574</v>
       </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="59"/>
+      <c r="E54" s="171"/>
       <c r="F54" s="8"/>
       <c r="G54" s="224"/>
       <c r="H54" s="224"/>
-      <c r="I54" s="8"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="8"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="156"/>
       <c r="M54" s="56"/>
-      <c r="O54" s="238"/>
-      <c r="P54" s="234"/>
-    </row>
-    <row r="55" spans="2:18">
+      <c r="O54" s="233" t="s">
+        <v>518</v>
+      </c>
+      <c r="P54" s="237"/>
+    </row>
+    <row r="55" spans="2:18" ht="16" thickBot="1">
       <c r="B55" s="37"/>
       <c r="C55" s="379" t="s">
-        <v>134</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="172">
-        <v>0</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="191"/>
       <c r="F55" s="8"/>
       <c r="G55" s="224"/>
       <c r="H55" s="224"/>
-      <c r="I55" s="8"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="8"/>
       <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
+      <c r="L55" s="156"/>
       <c r="M55" s="56"/>
       <c r="O55" s="233" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P55" s="237"/>
     </row>
-    <row r="56" spans="2:18" ht="16" thickBot="1">
-      <c r="B56" s="37"/>
-      <c r="C56" s="379" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="172">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="224"/>
-      <c r="H56" s="224"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="56"/>
-      <c r="O56" s="233" t="s">
-        <v>524</v>
-      </c>
-      <c r="P56" s="7"/>
-    </row>
-    <row r="57" spans="2:18" ht="16" thickBot="1">
-      <c r="B57" s="37"/>
-      <c r="C57" s="379" t="s">
-        <v>335</v>
-      </c>
+    <row r="56" spans="2:18">
+      <c r="B56" s="144"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="211"/>
+      <c r="H56" s="211"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="158"/>
+      <c r="M56" s="58"/>
+      <c r="O56" s="233"/>
+      <c r="P56" s="237"/>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="171"/>
+      <c r="E57" s="175"/>
       <c r="F57" s="8"/>
       <c r="G57" s="224"/>
       <c r="H57" s="224"/>
-      <c r="I57" s="23"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="56"/>
-      <c r="O57" s="233" t="s">
-        <v>525</v>
-      </c>
-      <c r="P57" s="7"/>
-    </row>
-    <row r="58" spans="2:18" ht="16" thickBot="1">
+      <c r="K57" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="L57" s="380">
+        <f>IF(SUM(E59:E63)=1,TRUE,SUM(E59:E63))</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="56" t="str">
+        <f>IF(L57=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
+        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
+      </c>
+      <c r="O57" s="238"/>
+      <c r="P57" s="234">
+        <f>IF(L57=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18">
       <c r="B58" s="37"/>
-      <c r="C58" s="379" t="s">
-        <v>336</v>
+      <c r="C58" s="8" t="s">
+        <v>581</v>
       </c>
       <c r="D58" s="8"/>
-      <c r="E58" s="171"/>
+      <c r="E58" s="59"/>
       <c r="F58" s="8"/>
       <c r="G58" s="224"/>
       <c r="H58" s="224"/>
-      <c r="I58" s="23"/>
+      <c r="I58" s="8"/>
       <c r="J58" s="8"/>
-      <c r="K58" s="55"/>
+      <c r="K58" s="64"/>
       <c r="L58" s="55"/>
       <c r="M58" s="56"/>
-      <c r="O58" s="233" t="s">
-        <v>526</v>
-      </c>
-      <c r="P58" s="7"/>
-    </row>
-    <row r="59" spans="2:18" ht="16" thickBot="1">
+      <c r="O58" s="238"/>
+      <c r="P58" s="234"/>
+    </row>
+    <row r="59" spans="2:18">
       <c r="B59" s="37"/>
       <c r="C59" s="379" t="s">
-        <v>585</v>
+        <v>133</v>
       </c>
       <c r="D59" s="8"/>
-      <c r="E59" s="171"/>
+      <c r="E59" s="172">
+        <v>0</v>
+      </c>
       <c r="F59" s="8"/>
       <c r="G59" s="224"/>
       <c r="H59" s="224"/>
-      <c r="I59" s="23"/>
+      <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="55"/>
       <c r="L59" s="55"/>
       <c r="M59" s="56"/>
       <c r="O59" s="233" t="s">
-        <v>527</v>
-      </c>
-      <c r="P59" s="7"/>
+        <v>520</v>
+      </c>
+      <c r="P59" s="237"/>
     </row>
     <row r="60" spans="2:18" ht="16" thickBot="1">
-      <c r="B60" s="301"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="240"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="229"/>
-      <c r="H60" s="229"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="102"/>
-      <c r="K60" s="160"/>
-      <c r="L60" s="160"/>
-      <c r="M60" s="150"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="11"/>
-    </row>
-    <row r="61" spans="2:18">
-      <c r="B61" s="302" t="s">
-        <v>504</v>
-      </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="227"/>
-      <c r="H61" s="227"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="29"/>
-      <c r="O61" s="303"/>
-      <c r="P61" s="5"/>
-    </row>
-    <row r="62" spans="2:18">
-      <c r="B62" s="30"/>
-      <c r="C62" s="8" t="s">
-        <v>502</v>
+      <c r="B60" s="37"/>
+      <c r="C60" s="379" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="172">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="224"/>
+      <c r="H60" s="224"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="56"/>
+      <c r="O60" s="233" t="s">
+        <v>521</v>
+      </c>
+      <c r="P60" s="7"/>
+    </row>
+    <row r="61" spans="2:18" ht="16" thickBot="1">
+      <c r="B61" s="37"/>
+      <c r="C61" s="379" t="s">
+        <v>333</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="171"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="224"/>
+      <c r="H61" s="224"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="56"/>
+      <c r="O61" s="233" t="s">
+        <v>522</v>
+      </c>
+      <c r="P61" s="7"/>
+    </row>
+    <row r="62" spans="2:18" ht="16" thickBot="1">
+      <c r="B62" s="37"/>
+      <c r="C62" s="379" t="s">
+        <v>334</v>
       </c>
       <c r="D62" s="8"/>
-      <c r="E62" s="172">
-        <v>1</v>
-      </c>
+      <c r="E62" s="171"/>
       <c r="F62" s="8"/>
       <c r="G62" s="224"/>
-      <c r="I62" s="8"/>
+      <c r="H62" s="224"/>
+      <c r="I62" s="23"/>
       <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="31"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="55"/>
+      <c r="M62" s="56"/>
       <c r="O62" s="233" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="2:18">
-      <c r="B63" s="30"/>
-      <c r="C63" s="8" t="s">
-        <v>503</v>
+    <row r="63" spans="2:18" ht="16" thickBot="1">
+      <c r="B63" s="37"/>
+      <c r="C63" s="379" t="s">
+        <v>582</v>
       </c>
       <c r="D63" s="8"/>
-      <c r="E63" s="172">
-        <v>0</v>
-      </c>
+      <c r="E63" s="171"/>
       <c r="F63" s="8"/>
       <c r="G63" s="224"/>
-      <c r="I63" s="8"/>
+      <c r="H63" s="224"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="31"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="56"/>
       <c r="O63" s="233" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="2:18">
-      <c r="B64" s="30"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="172"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="224"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="31"/>
-      <c r="O64" s="233"/>
-      <c r="P64" s="7"/>
+    <row r="64" spans="2:18" ht="16" thickBot="1">
+      <c r="B64" s="301"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="240"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="229"/>
+      <c r="H64" s="229"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="160"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="150"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="11"/>
     </row>
     <row r="65" spans="2:16">
-      <c r="B65" s="30"/>
-      <c r="C65" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="172">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="224"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="31"/>
-      <c r="O65" s="233" t="s">
-        <v>530</v>
-      </c>
-      <c r="P65" s="7"/>
+      <c r="B65" s="302" t="s">
+        <v>501</v>
+      </c>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="227"/>
+      <c r="H65" s="227"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="29"/>
+      <c r="O65" s="303"/>
+      <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16">
       <c r="B66" s="30"/>
       <c r="C66" s="8" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="172">
-        <v>5.2999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="224"/>
@@ -16764,71 +17156,154 @@
       <c r="L66" s="8"/>
       <c r="M66" s="31"/>
       <c r="O66" s="233" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="P66" s="7"/>
     </row>
-    <row r="67" spans="2:16" ht="16" thickBot="1">
-      <c r="B67" s="47"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="229"/>
-      <c r="H67" s="229"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="102"/>
-      <c r="K67" s="102"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="103"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="11"/>
+    <row r="67" spans="2:16">
+      <c r="B67" s="30"/>
+      <c r="C67" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="172">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="224"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="31"/>
+      <c r="O67" s="233" t="s">
+        <v>526</v>
+      </c>
+      <c r="P67" s="7"/>
+    </row>
+    <row r="68" spans="2:16">
+      <c r="B68" s="30"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="224"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="31"/>
+      <c r="O68" s="233"/>
+      <c r="P68" s="7"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="B69" s="30"/>
+      <c r="C69" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="172">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="224"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="31"/>
+      <c r="O69" s="233" t="s">
+        <v>527</v>
+      </c>
+      <c r="P69" s="7"/>
+    </row>
+    <row r="70" spans="2:16">
+      <c r="B70" s="30"/>
+      <c r="C70" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="172">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="224"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="31"/>
+      <c r="O70" s="233" t="s">
+        <v>528</v>
+      </c>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" spans="2:16" ht="16" thickBot="1">
+      <c r="B71" s="47"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="229"/>
+      <c r="H71" s="229"/>
+      <c r="I71" s="102"/>
+      <c r="J71" s="102"/>
+      <c r="K71" s="102"/>
+      <c r="L71" s="102"/>
+      <c r="M71" s="103"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
+  <conditionalFormatting sqref="L34">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47">
+  <conditionalFormatting sqref="L57">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L53">
+  <conditionalFormatting sqref="L31">
     <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27">
+  <conditionalFormatting sqref="L32">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="L15:L17">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:L17">
+  <conditionalFormatting sqref="L19">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
+  <conditionalFormatting sqref="L29">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -16945,7 +17420,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="20">
       <c r="B2" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1">
@@ -16953,7 +17428,7 @@
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1">
       <c r="B4" s="129" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -16964,7 +17439,7 @@
     </row>
     <row r="5" spans="2:67" ht="60" customHeight="1">
       <c r="B5" s="200" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C5" s="199"/>
       <c r="D5" s="199"/>
@@ -16976,207 +17451,207 @@
     <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1"/>
     <row r="7" spans="2:67" ht="30" customHeight="1">
       <c r="B7" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="78" t="s">
+      <c r="U7" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="78" t="s">
+      <c r="V7" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="X7" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y7" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z7" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC7" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE7" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF7" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG7" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH7" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI7" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ7" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK7" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL7" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM7" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO7" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP7" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ7" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR7" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS7" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT7" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU7" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV7" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW7" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX7" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY7" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ7" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA7" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="U7" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="V7" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="W7" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="X7" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y7" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z7" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA7" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB7" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC7" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD7" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE7" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF7" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG7" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH7" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI7" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ7" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK7" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL7" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM7" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN7" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO7" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP7" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ7" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR7" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS7" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT7" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU7" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="AV7" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW7" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX7" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="AY7" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ7" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA7" s="78" t="s">
+      <c r="BB7" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="BB7" s="78" t="s">
+      <c r="BC7" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="BC7" s="78" t="s">
+      <c r="BD7" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="BD7" s="78" t="s">
+      <c r="BE7" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="BE7" s="78" t="s">
+      <c r="BF7" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="BF7" s="78" t="s">
+      <c r="BG7" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="BG7" s="78" t="s">
+      <c r="BH7" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="BH7" s="78" t="s">
+      <c r="BI7" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="BI7" s="78" t="s">
+      <c r="BJ7" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="BJ7" s="78" t="s">
+      <c r="BK7" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="BL7" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="BK7" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="BL7" s="78" t="s">
+      <c r="BM7" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="BM7" s="78" t="s">
+      <c r="BN7" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO7" s="80" t="s">
         <v>152</v>
-      </c>
-      <c r="BN7" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO7" s="80" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:67">
       <c r="B8" s="81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="82"/>
       <c r="D8" s="82"/>
@@ -17246,7 +17721,7 @@
     </row>
     <row r="9" spans="2:67">
       <c r="B9" s="84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -17316,7 +17791,7 @@
     </row>
     <row r="10" spans="2:67">
       <c r="B10" s="84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -17386,7 +17861,7 @@
     </row>
     <row r="11" spans="2:67">
       <c r="B11" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -17456,7 +17931,7 @@
     </row>
     <row r="12" spans="2:67">
       <c r="B12" s="84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -17526,7 +18001,7 @@
     </row>
     <row r="13" spans="2:67">
       <c r="B13" s="84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -17596,7 +18071,7 @@
     </row>
     <row r="14" spans="2:67" ht="16" thickBot="1">
       <c r="B14" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -17666,7 +18141,7 @@
     </row>
     <row r="15" spans="2:67" ht="16" thickBot="1">
       <c r="B15" s="85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" s="86"/>
       <c r="D15" s="86"/>
@@ -17736,7 +18211,7 @@
     </row>
     <row r="16" spans="2:67">
       <c r="B16" s="84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -17806,7 +18281,7 @@
     </row>
     <row r="17" spans="2:67" ht="16" thickBot="1">
       <c r="B17" s="84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -17876,7 +18351,7 @@
     </row>
     <row r="18" spans="2:67" ht="16" thickBot="1">
       <c r="B18" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
@@ -17946,7 +18421,7 @@
     </row>
     <row r="19" spans="2:67">
       <c r="B19" s="84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -18016,7 +18491,7 @@
     </row>
     <row r="20" spans="2:67">
       <c r="B20" s="84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -18086,7 +18561,7 @@
     </row>
     <row r="21" spans="2:67">
       <c r="B21" s="84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -18156,7 +18631,7 @@
     </row>
     <row r="22" spans="2:67">
       <c r="B22" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -18226,7 +18701,7 @@
     </row>
     <row r="23" spans="2:67">
       <c r="B23" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -18296,7 +18771,7 @@
     </row>
     <row r="24" spans="2:67">
       <c r="B24" s="89" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -18366,7 +18841,7 @@
     </row>
     <row r="25" spans="2:67">
       <c r="B25" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -18436,7 +18911,7 @@
     </row>
     <row r="26" spans="2:67">
       <c r="B26" s="84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -18506,7 +18981,7 @@
     </row>
     <row r="27" spans="2:67">
       <c r="B27" s="84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -18576,7 +19051,7 @@
     </row>
     <row r="28" spans="2:67">
       <c r="B28" s="84" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -18646,7 +19121,7 @@
     </row>
     <row r="29" spans="2:67">
       <c r="B29" s="84" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -18716,7 +19191,7 @@
     </row>
     <row r="30" spans="2:67">
       <c r="B30" s="84" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -18786,7 +19261,7 @@
     </row>
     <row r="31" spans="2:67">
       <c r="B31" s="84" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -18856,7 +19331,7 @@
     </row>
     <row r="32" spans="2:67">
       <c r="B32" s="84" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -18926,7 +19401,7 @@
     </row>
     <row r="33" spans="2:67">
       <c r="B33" s="84" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -18996,7 +19471,7 @@
     </row>
     <row r="34" spans="2:67">
       <c r="B34" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -19066,7 +19541,7 @@
     </row>
     <row r="35" spans="2:67">
       <c r="B35" s="84" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -19136,7 +19611,7 @@
     </row>
     <row r="36" spans="2:67">
       <c r="B36" s="84" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -19206,7 +19681,7 @@
     </row>
     <row r="37" spans="2:67">
       <c r="B37" s="84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -19276,7 +19751,7 @@
     </row>
     <row r="38" spans="2:67">
       <c r="B38" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -19346,7 +19821,7 @@
     </row>
     <row r="39" spans="2:67" ht="16" thickBot="1">
       <c r="B39" s="84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -19416,7 +19891,7 @@
     </row>
     <row r="40" spans="2:67" ht="16" thickBot="1">
       <c r="B40" s="85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="86"/>
       <c r="D40" s="86"/>
@@ -19486,7 +19961,7 @@
     </row>
     <row r="41" spans="2:67">
       <c r="B41" s="84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -19556,7 +20031,7 @@
     </row>
     <row r="42" spans="2:67">
       <c r="B42" s="84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -19626,7 +20101,7 @@
     </row>
     <row r="43" spans="2:67">
       <c r="B43" s="84" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -19696,7 +20171,7 @@
     </row>
     <row r="44" spans="2:67">
       <c r="B44" s="84" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -19766,7 +20241,7 @@
     </row>
     <row r="45" spans="2:67">
       <c r="B45" s="84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -19836,7 +20311,7 @@
     </row>
     <row r="46" spans="2:67">
       <c r="B46" s="84" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -19906,7 +20381,7 @@
     </row>
     <row r="47" spans="2:67">
       <c r="B47" s="84" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -19976,7 +20451,7 @@
     </row>
     <row r="48" spans="2:67">
       <c r="B48" s="84" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -20046,7 +20521,7 @@
     </row>
     <row r="49" spans="2:67">
       <c r="B49" s="84" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -20116,7 +20591,7 @@
     </row>
     <row r="50" spans="2:67">
       <c r="B50" s="84" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -20186,7 +20661,7 @@
     </row>
     <row r="51" spans="2:67">
       <c r="B51" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -20256,7 +20731,7 @@
     </row>
     <row r="52" spans="2:67">
       <c r="B52" s="84" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -20326,7 +20801,7 @@
     </row>
     <row r="53" spans="2:67">
       <c r="B53" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -20396,7 +20871,7 @@
     </row>
     <row r="54" spans="2:67">
       <c r="B54" s="84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -20466,7 +20941,7 @@
     </row>
     <row r="55" spans="2:67">
       <c r="B55" s="84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -20536,7 +21011,7 @@
     </row>
     <row r="56" spans="2:67">
       <c r="B56" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -20606,7 +21081,7 @@
     </row>
     <row r="57" spans="2:67">
       <c r="B57" s="84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -20676,7 +21151,7 @@
     </row>
     <row r="58" spans="2:67" ht="16" thickBot="1">
       <c r="B58" s="84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -20746,7 +21221,7 @@
     </row>
     <row r="59" spans="2:67" ht="16" thickBot="1">
       <c r="B59" s="85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C59" s="86"/>
       <c r="D59" s="86"/>
@@ -20816,7 +21291,7 @@
     </row>
     <row r="60" spans="2:67" ht="16" thickBot="1">
       <c r="B60" s="85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" s="86"/>
       <c r="D60" s="86"/>
@@ -20886,7 +21361,7 @@
     </row>
     <row r="61" spans="2:67">
       <c r="B61" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -20956,7 +21431,7 @@
     </row>
     <row r="62" spans="2:67">
       <c r="B62" s="84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -21026,7 +21501,7 @@
     </row>
     <row r="63" spans="2:67">
       <c r="B63" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -21096,7 +21571,7 @@
     </row>
     <row r="64" spans="2:67">
       <c r="B64" s="84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -21166,7 +21641,7 @@
     </row>
     <row r="65" spans="2:67">
       <c r="B65" s="84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -21236,7 +21711,7 @@
     </row>
     <row r="66" spans="2:67">
       <c r="B66" s="84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -21306,7 +21781,7 @@
     </row>
     <row r="67" spans="2:67">
       <c r="B67" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -21376,7 +21851,7 @@
     </row>
     <row r="68" spans="2:67">
       <c r="B68" s="84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -21446,7 +21921,7 @@
     </row>
     <row r="69" spans="2:67">
       <c r="B69" s="84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -21516,7 +21991,7 @@
     </row>
     <row r="70" spans="2:67">
       <c r="B70" s="84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -21586,7 +22061,7 @@
     </row>
     <row r="71" spans="2:67">
       <c r="B71" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -21656,7 +22131,7 @@
     </row>
     <row r="72" spans="2:67">
       <c r="B72" s="84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -21726,7 +22201,7 @@
     </row>
     <row r="73" spans="2:67" ht="16" thickBot="1">
       <c r="B73" s="84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -21796,7 +22271,7 @@
     </row>
     <row r="74" spans="2:67" ht="16" thickBot="1">
       <c r="B74" s="85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74" s="86"/>
       <c r="D74" s="86"/>
@@ -21866,7 +22341,7 @@
     </row>
     <row r="75" spans="2:67">
       <c r="B75" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -21936,7 +22411,7 @@
     </row>
     <row r="76" spans="2:67">
       <c r="B76" s="84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -22006,7 +22481,7 @@
     </row>
     <row r="77" spans="2:67">
       <c r="B77" s="84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -22076,7 +22551,7 @@
     </row>
     <row r="78" spans="2:67">
       <c r="B78" s="84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -22146,7 +22621,7 @@
     </row>
     <row r="79" spans="2:67">
       <c r="B79" s="84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -22216,7 +22691,7 @@
     </row>
     <row r="80" spans="2:67" ht="16" thickBot="1">
       <c r="B80" s="84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -22286,7 +22761,7 @@
     </row>
     <row r="81" spans="2:67" ht="16" thickBot="1">
       <c r="B81" s="85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="86"/>
       <c r="D81" s="86"/>
@@ -22356,7 +22831,7 @@
     </row>
     <row r="82" spans="2:67">
       <c r="B82" s="84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -22426,7 +22901,7 @@
     </row>
     <row r="83" spans="2:67">
       <c r="B83" s="84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -22496,7 +22971,7 @@
     </row>
     <row r="84" spans="2:67">
       <c r="B84" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -22566,7 +23041,7 @@
     </row>
     <row r="85" spans="2:67">
       <c r="B85" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -22636,7 +23111,7 @@
     </row>
     <row r="86" spans="2:67" ht="16" thickBot="1">
       <c r="B86" s="84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -22706,7 +23181,7 @@
     </row>
     <row r="87" spans="2:67" ht="16" thickBot="1">
       <c r="B87" s="85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C87" s="86"/>
       <c r="D87" s="86"/>
@@ -22776,7 +23251,7 @@
     </row>
     <row r="88" spans="2:67">
       <c r="B88" s="84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -22846,7 +23321,7 @@
     </row>
     <row r="89" spans="2:67">
       <c r="B89" s="84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -22916,7 +23391,7 @@
     </row>
     <row r="90" spans="2:67">
       <c r="B90" s="84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -22986,7 +23461,7 @@
     </row>
     <row r="91" spans="2:67" ht="16" thickBot="1">
       <c r="B91" s="84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -23056,7 +23531,7 @@
     </row>
     <row r="92" spans="2:67" ht="16" thickBot="1">
       <c r="B92" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C92" s="86"/>
       <c r="D92" s="86"/>
@@ -23126,7 +23601,7 @@
     </row>
     <row r="93" spans="2:67">
       <c r="B93" s="84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -23196,7 +23671,7 @@
     </row>
     <row r="94" spans="2:67">
       <c r="B94" s="84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -23266,7 +23741,7 @@
     </row>
     <row r="95" spans="2:67">
       <c r="B95" s="84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -23336,7 +23811,7 @@
     </row>
     <row r="96" spans="2:67" ht="16" thickBot="1">
       <c r="B96" s="84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -23406,7 +23881,7 @@
     </row>
     <row r="97" spans="2:67" ht="16" thickBot="1">
       <c r="B97" s="85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C97" s="86"/>
       <c r="D97" s="86"/>
@@ -23476,7 +23951,7 @@
     </row>
     <row r="98" spans="2:67">
       <c r="B98" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -23546,7 +24021,7 @@
     </row>
     <row r="99" spans="2:67">
       <c r="B99" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -23616,7 +24091,7 @@
     </row>
     <row r="100" spans="2:67">
       <c r="B100" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -23686,7 +24161,7 @@
     </row>
     <row r="101" spans="2:67" ht="16" thickBot="1">
       <c r="B101" s="91" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C101" s="48"/>
       <c r="D101" s="48"/>
@@ -23792,7 +24267,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="20">
       <c r="B2" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -23804,7 +24279,7 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="337" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="338"/>
       <c r="D4" s="338"/>
@@ -23819,7 +24294,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="403" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C5" s="404"/>
       <c r="D5" s="404"/>
@@ -23844,15 +24319,15 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="324" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C7" s="325"/>
       <c r="D7" s="325"/>
       <c r="E7" s="326" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F7" s="322" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G7" s="321"/>
       <c r="H7" s="322"/>
@@ -23861,40 +24336,40 @@
       <c r="K7" s="329"/>
       <c r="L7" s="333"/>
       <c r="M7" s="258" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="30">
       <c r="B8" s="330" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C8" s="298" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="347" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I8" s="331" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J8" s="334" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K8" s="335" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L8" s="336" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1">
@@ -23903,16 +24378,16 @@
       <c r="D9" s="74"/>
       <c r="E9" s="332"/>
       <c r="F9" s="323" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G9" s="323" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H9" s="323" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
@@ -23933,24 +24408,24 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="345" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F11" s="355"/>
       <c r="G11" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H11" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I11" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J11" s="366">
         <f>F11</f>
@@ -23962,25 +24437,25 @@
         <v>0</v>
       </c>
       <c r="M11" s="258" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="73"/>
       <c r="C12" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="345" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F12" s="355"/>
       <c r="G12" s="355"/>
       <c r="H12" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I12" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J12" s="366"/>
       <c r="K12" s="360" t="e">
@@ -23992,25 +24467,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="258" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="73"/>
       <c r="C13" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="345" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F13" s="355"/>
       <c r="G13" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H13" s="355"/>
       <c r="I13" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J13" s="366"/>
       <c r="K13" s="360" t="e">
@@ -24022,27 +24497,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="258" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="73"/>
       <c r="C14" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="345" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F14" s="355"/>
       <c r="G14" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H14" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I14" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J14" s="366">
         <f>F14</f>
@@ -24054,27 +24529,27 @@
         <v>0</v>
       </c>
       <c r="M14" s="258" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="73"/>
       <c r="C15" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="345" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F15" s="355"/>
       <c r="G15" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H15" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I15" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J15" s="366">
         <f>F15</f>
@@ -24086,27 +24561,27 @@
         <v>0</v>
       </c>
       <c r="M15" s="258" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="73"/>
       <c r="C16" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="345" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F16" s="355"/>
       <c r="G16" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H16" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I16" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J16" s="366">
         <f>F16</f>
@@ -24118,7 +24593,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="258" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -24136,21 +24611,21 @@
     <row r="18" spans="2:13">
       <c r="B18" s="73"/>
       <c r="C18" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="345" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F18" s="355"/>
       <c r="G18" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H18" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I18" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J18" s="366">
         <f>F18</f>
@@ -24162,27 +24637,27 @@
         <v>0</v>
       </c>
       <c r="M18" s="258" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="73"/>
       <c r="C19" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="345" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F19" s="355"/>
       <c r="G19" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H19" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I19" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J19" s="366">
         <f>F19</f>
@@ -24194,27 +24669,27 @@
         <v>0</v>
       </c>
       <c r="M19" s="258" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="73"/>
       <c r="C20" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="345" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F20" s="355"/>
       <c r="G20" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H20" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I20" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J20" s="366">
         <f>F20</f>
@@ -24226,7 +24701,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="258" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -24244,7 +24719,7 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -24261,21 +24736,21 @@
     <row r="23" spans="2:13">
       <c r="B23" s="73"/>
       <c r="C23" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="345" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F23" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G23" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H23" s="355"/>
       <c r="I23" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J23" s="366"/>
       <c r="K23" s="360" t="e">
@@ -24287,27 +24762,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="258" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="73"/>
       <c r="C24" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="345" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F24" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G24" s="355"/>
       <c r="H24" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I24" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J24" s="366"/>
       <c r="K24" s="360" t="e">
@@ -24319,27 +24794,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="258" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="73"/>
       <c r="C25" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="345" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F25" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G25" s="355"/>
       <c r="H25" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I25" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J25" s="366"/>
       <c r="K25" s="360" t="e">
@@ -24351,7 +24826,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="258" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="2:13">
@@ -24369,7 +24844,7 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -24385,7 +24860,7 @@
     <row r="28" spans="2:13">
       <c r="B28" s="73"/>
       <c r="C28" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="345"/>
@@ -24402,13 +24877,13 @@
         <v>0.05</v>
       </c>
       <c r="M28" s="258" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="73"/>
       <c r="C29" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="345"/>
@@ -24425,26 +24900,26 @@
         <v>0.12</v>
       </c>
       <c r="M29" s="258" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="73"/>
       <c r="C30" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="345" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F30" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G30" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H30" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I30" s="355"/>
       <c r="J30" s="366">
@@ -24457,26 +24932,26 @@
         <v>0</v>
       </c>
       <c r="M30" s="258" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="73"/>
       <c r="C31" s="17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="345" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F31" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G31" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H31" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I31" s="355"/>
       <c r="J31" s="366">
@@ -24489,26 +24964,26 @@
         <v>0</v>
       </c>
       <c r="M31" s="258" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="73"/>
       <c r="C32" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="345" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F32" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G32" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H32" s="355" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I32" s="355"/>
       <c r="J32" s="366">
@@ -24521,7 +24996,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="258" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="16" thickBot="1">

--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Git/etdataset/analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F2CB75-81BE-524A-A671-209AE834EA30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="929" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="929" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -63,7 +69,7 @@
     <definedName name="Final_demand_space_cooling">Dashboard!$E$24</definedName>
     <definedName name="Final_demand_space_heating">Dashboard!$E$23</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -73,12 +79,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Quintel Intelligence</author>
   </authors>
   <commentList>
-    <comment ref="C59" authorId="0">
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0">
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -132,44 +138,47 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>A satisfied Microsoft Office user</author>
   </authors>
   <commentList>
-    <comment ref="C83" authorId="0">
+    <comment ref="C83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">x  Not Applicable
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="D83" authorId="0">
+    <comment ref="D83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">x  Not Applicable
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="U83" authorId="0">
+    <comment ref="U83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">x  Not Applicable
 </t>
@@ -1188,6 +1197,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>) the energy balance resulting from the Power Plant-analysis (in TeraJoules) for your country in the table below. This data will be used in the analysis.</t>
@@ -2199,7 +2209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -2248,6 +2258,7 @@
       <sz val="16"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2263,11 +2274,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2275,6 +2288,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2288,6 +2302,7 @@
       <u/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2325,6 +2340,7 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2332,12 +2348,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2356,22 +2374,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2379,23 +2401,27 @@
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2403,18 +2429,21 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="5"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5199,6 +5228,15 @@
     <xf numFmtId="3" fontId="0" fillId="14" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5219,15 +5257,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1391">
@@ -6623,7 +6652,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6787,18 +6816,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCFFCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6831,7 +6858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="L-Shape 51"/>
+        <xdr:cNvPr id="52" name="L-Shape 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6896,7 +6929,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6959,7 +6998,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7022,7 +7067,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7084,7 +7135,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7147,7 +7204,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7208,7 +7271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7264,7 +7333,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7327,7 +7402,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7377,7 +7458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7446,7 +7533,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7496,7 +7589,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 278"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -7548,7 +7647,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7605,7 +7710,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="15" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="3"/>
           <a:endCxn id="26" idx="1"/>
@@ -7655,7 +7766,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="17" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -7704,7 +7821,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7754,7 +7877,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7815,7 +7944,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 278"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="49" idx="3"/>
           <a:endCxn id="19" idx="1"/>
@@ -7867,7 +8002,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="21" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="48" idx="1"/>
@@ -7917,7 +8058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21"/>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7973,7 +8120,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Elbow Connector 23"/>
+        <xdr:cNvPr id="24" name="Elbow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="62" idx="1"/>
@@ -8023,7 +8176,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8079,7 +8238,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="27" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="28" idx="1"/>
@@ -8129,7 +8294,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 27"/>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8185,7 +8356,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8246,7 +8423,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Elbow Connector 33"/>
+        <xdr:cNvPr id="34" name="Elbow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="3"/>
           <a:endCxn id="48" idx="0"/>
@@ -8296,7 +8479,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rectangle 34"/>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8352,7 +8541,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="43" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -8402,7 +8597,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Rectangle 61"/>
+        <xdr:cNvPr id="62" name="Rectangle 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8463,7 +8664,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Elbow Connector 23"/>
+        <xdr:cNvPr id="64" name="Elbow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="62" idx="3"/>
           <a:endCxn id="35" idx="0"/>
@@ -8513,7 +8720,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 47"/>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8569,7 +8782,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Elbow Connector 195"/>
+        <xdr:cNvPr id="51" name="Elbow Connector 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="3"/>
           <a:endCxn id="22" idx="1"/>
@@ -8619,7 +8838,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Elbow Connector 71"/>
+        <xdr:cNvPr id="100" name="Elbow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="3"/>
           <a:endCxn id="35" idx="1"/>
@@ -8669,7 +8894,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8730,7 +8961,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Straight Arrow Connector 278"/>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="48" idx="3"/>
           <a:endCxn id="35" idx="2"/>
@@ -8780,7 +9017,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Rectangle 89"/>
+        <xdr:cNvPr id="90" name="Rectangle 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8836,7 +9079,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="91" name="Elbow Connector 23"/>
+        <xdr:cNvPr id="91" name="Elbow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="62" idx="2"/>
           <a:endCxn id="90" idx="0"/>
@@ -8886,7 +9135,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="Elbow Connector 23"/>
+        <xdr:cNvPr id="95" name="Elbow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="90" idx="2"/>
           <a:endCxn id="48" idx="1"/>
@@ -8948,11 +9203,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11281"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000112C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -8960,6 +9218,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -8973,9 +9237,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>import data</a:t>
               </a:r>
@@ -9009,11 +9272,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11282"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000122C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -9021,6 +9287,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -9034,9 +9306,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>export to 'data/…/ouput' folder</a:t>
               </a:r>
@@ -9070,11 +9341,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11283"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000132C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -9082,6 +9356,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -9095,9 +9375,8 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
+                  <a:latin typeface="Lucida Grande" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Lucida Grande" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>optional: load different Dashbord values</a:t>
               </a:r>
@@ -9119,7 +9398,13 @@
     <xdr:ext cx="7250979" cy="276999"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9490,8 +9775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:D39"/>
@@ -9500,7 +9785,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -9509,12 +9794,12 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20">
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -9523,7 +9808,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
@@ -9533,7 +9818,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>336</v>
       </c>
@@ -9543,7 +9828,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>337</v>
       </c>
@@ -9553,7 +9838,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -9563,7 +9848,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
@@ -9572,7 +9857,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
@@ -9581,19 +9866,19 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="21" t="s">
         <v>10</v>
       </c>
@@ -9602,33 +9887,33 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="2:4" ht="16" thickBot="1">
+    <row r="15" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="2:4" ht="16" thickBot="1">
+    <row r="16" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="21"/>
       <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="21"/>
       <c r="C18" s="8"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="s">
         <v>15</v>
       </c>
@@ -9637,113 +9922,113 @@
       </c>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="21"/>
       <c r="C20" s="161" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="162" t="s">
         <v>291</v>
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="21"/>
       <c r="C22" s="163" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="19"/>
       <c r="C23" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
       <c r="C24" s="164" t="s">
         <v>292</v>
       </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="19"/>
       <c r="C25" s="165" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
       <c r="C26" s="124" t="s">
         <v>330</v>
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="212"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="19"/>
       <c r="C30" s="8"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="19"/>
       <c r="C31" s="8"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="19"/>
       <c r="C32" s="8"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="19"/>
       <c r="C33" s="8"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="19"/>
       <c r="C34" s="8"/>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="19"/>
       <c r="C35" s="8"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="19"/>
       <c r="C36" s="8"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="19"/>
       <c r="C37" s="8"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="19"/>
       <c r="C38" s="8"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="20"/>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
@@ -9763,8 +10048,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet10">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:E29"/>
@@ -9773,7 +10058,7 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="20.83203125" style="1" customWidth="1"/>
@@ -9782,12 +10067,12 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
@@ -9795,16 +10080,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:5" ht="45" customHeight="1">
-      <c r="B5" s="400" t="s">
+    <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="405" t="s">
         <v>617</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="401"/>
-    </row>
-    <row r="6" spans="2:5" ht="16" thickBot="1"/>
-    <row r="7" spans="2:5" ht="30">
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="406"/>
+    </row>
+    <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="201" t="s">
         <v>488</v>
       </c>
@@ -9818,7 +10103,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="279" t="s">
         <v>267</v>
       </c>
@@ -9826,7 +10111,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="136"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="280"/>
       <c r="C9" s="18" t="s">
         <v>121</v>
@@ -9840,7 +10125,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="280"/>
       <c r="C10" s="18" t="s">
         <v>305</v>
@@ -9854,13 +10139,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="37"/>
       <c r="C11" s="7"/>
       <c r="D11" s="217"/>
       <c r="E11" s="250"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="279" t="s">
         <v>597</v>
       </c>
@@ -9868,7 +10153,7 @@
       <c r="D12" s="223"/>
       <c r="E12" s="252"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="280"/>
       <c r="C13" s="18" t="s">
         <v>121</v>
@@ -9882,7 +10167,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="280"/>
       <c r="C14" s="18" t="s">
         <v>120</v>
@@ -9896,7 +10181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="280"/>
       <c r="C15" s="18" t="s">
         <v>305</v>
@@ -9910,13 +10195,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="281"/>
       <c r="C16" s="7"/>
       <c r="D16" s="217"/>
       <c r="E16" s="253"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="279" t="s">
         <v>269</v>
       </c>
@@ -9924,7 +10209,7 @@
       <c r="D17" s="223"/>
       <c r="E17" s="252"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="280"/>
       <c r="C18" s="18" t="s">
         <v>121</v>
@@ -9938,7 +10223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="280"/>
       <c r="C19" s="18" t="s">
         <v>305</v>
@@ -9952,13 +10237,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="280"/>
       <c r="C20" s="7"/>
       <c r="D20" s="217"/>
       <c r="E20" s="253"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="279" t="s">
         <v>303</v>
       </c>
@@ -9966,7 +10251,7 @@
       <c r="D21" s="223"/>
       <c r="E21" s="252"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="280"/>
       <c r="C22" s="18" t="s">
         <v>121</v>
@@ -9980,7 +10265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="280"/>
       <c r="C23" s="18" t="s">
         <v>120</v>
@@ -9994,7 +10279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="280"/>
       <c r="C24" s="18" t="s">
         <v>90</v>
@@ -10008,7 +10293,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="280"/>
       <c r="C25" s="18" t="s">
         <v>264</v>
@@ -10022,7 +10307,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="279" t="s">
         <v>303</v>
       </c>
@@ -10030,7 +10315,7 @@
       <c r="D26" s="223"/>
       <c r="E26" s="252"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="280"/>
       <c r="C27" s="18" t="s">
         <v>616</v>
@@ -10044,7 +10329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="280"/>
       <c r="C28" s="18" t="s">
         <v>614</v>
@@ -10058,7 +10343,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="16" thickBot="1">
+    <row r="29" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="282"/>
       <c r="C29" s="154"/>
       <c r="D29" s="166"/>
@@ -10079,8 +10364,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:F25"/>
@@ -10089,7 +10374,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -10100,13 +10385,13 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="20">
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
@@ -10115,17 +10400,17 @@
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="400" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="405" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="401"/>
-    </row>
-    <row r="6" spans="2:6" ht="16" thickBot="1"/>
-    <row r="7" spans="2:6" ht="30">
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="407"/>
+      <c r="F5" s="406"/>
+    </row>
+    <row r="6" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="201" t="s">
         <v>487</v>
       </c>
@@ -10142,7 +10427,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="279" t="s">
         <v>91</v>
       </c>
@@ -10151,7 +10436,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="136"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="280"/>
       <c r="C9" s="60" t="s">
         <v>489</v>
@@ -10168,7 +10453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="280"/>
       <c r="C10" s="60"/>
       <c r="D10" s="18" t="s">
@@ -10183,14 +10468,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="37"/>
       <c r="C11" s="277"/>
       <c r="D11" s="7"/>
       <c r="E11" s="172"/>
       <c r="F11" s="250"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="280"/>
       <c r="C12" s="60" t="s">
         <v>490</v>
@@ -10207,7 +10492,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="280"/>
       <c r="C13" s="60"/>
       <c r="D13" s="18" t="s">
@@ -10222,14 +10507,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="281"/>
       <c r="C14" s="278"/>
       <c r="D14" s="7"/>
       <c r="E14" s="172"/>
       <c r="F14" s="253"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="279" t="s">
         <v>104</v>
       </c>
@@ -10238,7 +10523,7 @@
       <c r="E15" s="251"/>
       <c r="F15" s="252"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="280"/>
       <c r="C16" s="60" t="s">
         <v>491</v>
@@ -10255,7 +10540,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="280"/>
       <c r="C17" s="60"/>
       <c r="D17" s="18" t="s">
@@ -10270,14 +10555,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="280"/>
       <c r="C18" s="60"/>
       <c r="D18" s="7"/>
       <c r="E18" s="172"/>
       <c r="F18" s="253"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="279" t="s">
         <v>90</v>
       </c>
@@ -10286,7 +10571,7 @@
       <c r="E19" s="251"/>
       <c r="F19" s="252"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="280"/>
       <c r="C20" s="60" t="s">
         <v>491</v>
@@ -10303,7 +10588,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="280"/>
       <c r="C21" s="60"/>
       <c r="D21" s="18" t="s">
@@ -10318,7 +10603,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="280"/>
       <c r="C22" s="60"/>
       <c r="D22" s="18" t="s">
@@ -10333,7 +10618,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="280"/>
       <c r="C23" s="60"/>
       <c r="D23" s="18" t="s">
@@ -10348,7 +10633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="280"/>
       <c r="C24" s="60"/>
       <c r="D24" s="18" t="s">
@@ -10363,7 +10648,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16" thickBot="1">
+    <row r="25" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="282"/>
       <c r="C25" s="105"/>
       <c r="D25" s="170"/>
@@ -10385,8 +10670,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet13">
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A2:L46"/>
@@ -10395,7 +10680,7 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
@@ -10405,7 +10690,7 @@
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20">
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>229</v>
       </c>
@@ -10419,7 +10704,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -10428,7 +10713,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
@@ -10442,21 +10727,21 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1">
-      <c r="B5" s="400" t="s">
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="405" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="401"/>
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="407"/>
+      <c r="F5" s="406"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="202"/>
       <c r="J5" s="202"/>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -10468,7 +10753,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>229</v>
       </c>
@@ -10482,7 +10767,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="29"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="30"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -10494,7 +10779,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:11" ht="30">
+    <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
         <v>339</v>
       </c>
@@ -10526,7 +10811,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="73"/>
       <c r="C10" s="72"/>
       <c r="D10" s="76"/>
@@ -10538,7 +10823,7 @@
       <c r="J10" s="72"/>
       <c r="K10" s="147"/>
     </row>
-    <row r="11" spans="1:11" s="95" customFormat="1">
+    <row r="11" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
         <v>137</v>
       </c>
@@ -10575,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="73"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18"/>
@@ -10587,7 +10872,7 @@
       <c r="J12" s="218"/>
       <c r="K12" s="219"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="73"/>
       <c r="C13" s="72"/>
       <c r="D13" s="71"/>
@@ -10599,7 +10884,7 @@
       <c r="J13" s="397"/>
       <c r="K13" s="398"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="49" t="s">
         <v>121</v>
       </c>
@@ -10613,7 +10898,7 @@
       <c r="J14" s="387"/>
       <c r="K14" s="388"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="73"/>
       <c r="C15" s="17" t="s">
@@ -10634,7 +10919,7 @@
       <c r="J15" s="257"/>
       <c r="K15" s="384"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="73"/>
       <c r="C16" s="17" t="s">
@@ -10655,7 +10940,7 @@
       </c>
       <c r="K16" s="384"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="73"/>
       <c r="C17" s="17" t="s">
@@ -10676,7 +10961,7 @@
       <c r="J17" s="257"/>
       <c r="K17" s="384"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="73"/>
       <c r="C18" s="17" t="s">
@@ -10697,7 +10982,7 @@
       </c>
       <c r="K18" s="384"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="73"/>
       <c r="C19" s="17" t="s">
@@ -10718,7 +11003,7 @@
       <c r="J19" s="257"/>
       <c r="K19" s="384"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="73"/>
       <c r="C20" s="17" t="s">
@@ -10739,7 +11024,7 @@
       <c r="J20" s="257"/>
       <c r="K20" s="384"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
       <c r="C21" s="17" t="s">
         <v>126</v>
@@ -10759,7 +11044,7 @@
       <c r="J21" s="257"/>
       <c r="K21" s="384"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="73"/>
       <c r="C22" s="17" t="s">
@@ -10780,7 +11065,7 @@
       <c r="J22" s="257"/>
       <c r="K22" s="384"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="73"/>
       <c r="C23" s="17" t="s">
@@ -10801,7 +11086,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="30"/>
       <c r="C24" s="8"/>
@@ -10814,7 +11099,7 @@
       <c r="J24" s="385"/>
       <c r="K24" s="386"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="49" t="s">
         <v>120</v>
       </c>
@@ -10828,7 +11113,7 @@
       <c r="J25" s="387"/>
       <c r="K25" s="388"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
       <c r="C26" s="17" t="s">
         <v>123</v>
@@ -10848,7 +11133,7 @@
       <c r="J26" s="257"/>
       <c r="K26" s="384"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
       <c r="C27" s="17" t="s">
         <v>124</v>
@@ -10868,7 +11153,7 @@
       </c>
       <c r="K27" s="384"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
       <c r="C28" s="17" t="s">
         <v>132</v>
@@ -10888,7 +11173,7 @@
       </c>
       <c r="K28" s="384"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="43"/>
       <c r="C29" s="10"/>
       <c r="D29" s="7"/>
@@ -10900,7 +11185,7 @@
       <c r="J29" s="389"/>
       <c r="K29" s="390"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="37" t="s">
         <v>90</v>
       </c>
@@ -10914,7 +11199,7 @@
       <c r="J30" s="385"/>
       <c r="K30" s="386"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
       <c r="C31" s="17" t="s">
         <v>133</v>
@@ -10934,7 +11219,7 @@
       </c>
       <c r="K31" s="384"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
       <c r="C32" s="17" t="s">
         <v>134</v>
@@ -10954,7 +11239,7 @@
       </c>
       <c r="K32" s="384"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>
       <c r="C33" s="17" t="s">
         <v>333</v>
@@ -10974,7 +11259,7 @@
       </c>
       <c r="K33" s="384"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="73"/>
       <c r="C34" s="17" t="s">
         <v>334</v>
@@ -10994,7 +11279,7 @@
       </c>
       <c r="K34" s="384"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="73"/>
       <c r="C35" s="17" t="s">
         <v>135</v>
@@ -11014,7 +11299,7 @@
       </c>
       <c r="K35" s="384"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="43"/>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
@@ -11026,7 +11311,7 @@
       <c r="J36" s="389"/>
       <c r="K36" s="390"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="37" t="s">
         <v>340</v>
       </c>
@@ -11040,7 +11325,7 @@
       <c r="J37" s="385"/>
       <c r="K37" s="386"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" t="s">
         <v>588</v>
@@ -11076,7 +11361,7 @@
       </c>
       <c r="L38" s="30"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="8"/>
       <c r="D39" s="7"/>
@@ -11088,7 +11373,7 @@
       <c r="J39" s="385"/>
       <c r="K39" s="386"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="396" t="s">
         <v>614</v>
       </c>
@@ -11102,48 +11387,48 @@
       <c r="J40" s="387"/>
       <c r="K40" s="388"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="8" t="s">
         <v>615</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="410" t="s">
+      <c r="E41" s="403" t="s">
         <v>568</v>
       </c>
-      <c r="F41" s="410" t="s">
+      <c r="F41" s="403" t="s">
         <v>568</v>
       </c>
-      <c r="G41" s="410" t="s">
+      <c r="G41" s="403" t="s">
         <v>568</v>
       </c>
-      <c r="H41" s="410" t="s">
+      <c r="H41" s="403" t="s">
         <v>568</v>
       </c>
-      <c r="I41" s="410" t="s">
+      <c r="I41" s="403" t="s">
         <v>568</v>
       </c>
       <c r="J41" s="257" t="str">
         <f>Dashboard!E29</f>
         <v/>
       </c>
-      <c r="K41" s="411" t="s">
+      <c r="K41" s="404" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="407"/>
-      <c r="E42" s="408"/>
-      <c r="F42" s="408"/>
-      <c r="G42" s="408"/>
-      <c r="H42" s="408"/>
-      <c r="I42" s="408"/>
-      <c r="J42" s="408"/>
-      <c r="K42" s="409"/>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="D42" s="400"/>
+      <c r="E42" s="401"/>
+      <c r="F42" s="401"/>
+      <c r="G42" s="401"/>
+      <c r="H42" s="401"/>
+      <c r="I42" s="401"/>
+      <c r="J42" s="401"/>
+      <c r="K42" s="402"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="396" t="s">
         <v>591</v>
       </c>
@@ -11157,7 +11442,7 @@
       <c r="J43" s="387"/>
       <c r="K43" s="388"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="17" t="s">
         <v>264</v>
@@ -11174,7 +11459,7 @@
       </c>
       <c r="K44" s="384"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="17" t="s">
         <v>589</v>
@@ -11205,7 +11490,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="16" thickBot="1">
+    <row r="46" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="47"/>
       <c r="C46" s="102"/>
       <c r="D46" s="154"/>
@@ -11237,8 +11522,8 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet12">
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:J33"/>
@@ -11247,7 +11532,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
@@ -11265,12 +11550,12 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="20">
+    <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
@@ -11278,16 +11563,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:10" s="197" customFormat="1" ht="75" customHeight="1">
-      <c r="B5" s="400" t="s">
+    <row r="5" spans="2:10" s="197" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="405" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="401"/>
-    </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="406"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>495</v>
       </c>
@@ -11298,7 +11583,7 @@
       <c r="G7" s="53"/>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="30"/>
       <c r="C8" s="8"/>
       <c r="D8" s="15"/>
@@ -11307,7 +11592,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="31"/>
     </row>
-    <row r="9" spans="2:10" ht="45">
+    <row r="9" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
         <v>339</v>
       </c>
@@ -11330,7 +11615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
         <v>121</v>
       </c>
@@ -11341,7 +11626,7 @@
       <c r="G10" s="298"/>
       <c r="H10" s="36"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="37"/>
       <c r="C11" s="17" t="s">
         <v>122</v>
@@ -11365,7 +11650,7 @@
       <c r="H11" s="100"/>
       <c r="J11" s="273"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
       <c r="C12" s="17" t="s">
         <v>124</v>
@@ -11390,7 +11675,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="273"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="37"/>
       <c r="C13" s="17" t="s">
         <v>123</v>
@@ -11415,7 +11700,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="273"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="37"/>
       <c r="C14" s="17" t="s">
         <v>125</v>
@@ -11440,7 +11725,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="273"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="37"/>
       <c r="C15" s="17" t="s">
         <v>127</v>
@@ -11465,7 +11750,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="273"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="37"/>
       <c r="C16" s="17" t="s">
         <v>128</v>
@@ -11490,7 +11775,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="273"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="37"/>
       <c r="C17" s="8"/>
       <c r="D17" s="186"/>
@@ -11501,7 +11786,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="273"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
       <c r="C18" s="17" t="s">
         <v>126</v>
@@ -11513,12 +11798,12 @@
         <f>'Final demand extracted from EB'!D14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="406" t="s">
+      <c r="H18" s="411" t="s">
         <v>307</v>
       </c>
       <c r="J18" s="273"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="37"/>
       <c r="C19" s="17" t="s">
         <v>129</v>
@@ -11530,10 +11815,10 @@
         <f>'Final demand extracted from EB'!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="406"/>
+      <c r="H19" s="411"/>
       <c r="J19" s="273"/>
     </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1">
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37"/>
       <c r="C20" s="17" t="s">
         <v>130</v>
@@ -11545,10 +11830,10 @@
         <f>'Final demand extracted from EB'!D18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="406"/>
+      <c r="H20" s="411"/>
       <c r="J20" s="273"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="144"/>
       <c r="C21" s="10"/>
       <c r="D21" s="293"/>
@@ -11557,7 +11842,7 @@
       <c r="G21" s="294"/>
       <c r="H21" s="295"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="280" t="s">
         <v>104</v>
       </c>
@@ -11568,7 +11853,7 @@
       <c r="G22" s="285"/>
       <c r="H22" s="286"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="280"/>
       <c r="C23" s="17" t="s">
         <v>123</v>
@@ -11591,7 +11876,7 @@
       </c>
       <c r="H23" s="104"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="280"/>
       <c r="C24" s="17" t="s">
         <v>124</v>
@@ -11614,7 +11899,7 @@
       </c>
       <c r="H24" s="104"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="280"/>
       <c r="C25" s="17" t="s">
         <v>132</v>
@@ -11637,7 +11922,7 @@
       </c>
       <c r="H25" s="104"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="296"/>
       <c r="C26" s="289"/>
       <c r="D26" s="290"/>
@@ -11646,7 +11931,7 @@
       <c r="G26" s="291"/>
       <c r="H26" s="292"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="280" t="s">
         <v>90</v>
       </c>
@@ -11657,7 +11942,7 @@
       <c r="G27" s="285"/>
       <c r="H27" s="286"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="280"/>
       <c r="C28" s="17" t="s">
         <v>133</v>
@@ -11680,7 +11965,7 @@
       </c>
       <c r="H28" s="104"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="280"/>
       <c r="C29" s="17" t="s">
         <v>134</v>
@@ -11703,7 +11988,7 @@
       </c>
       <c r="H29" s="104"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="280"/>
       <c r="C30" s="17" t="s">
         <v>333</v>
@@ -11726,7 +12011,7 @@
       </c>
       <c r="H30" s="104"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="280"/>
       <c r="C31" s="17" t="s">
         <v>334</v>
@@ -11749,7 +12034,7 @@
       </c>
       <c r="H31" s="104"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="280"/>
       <c r="C32" s="17" t="s">
         <v>135</v>
@@ -11772,7 +12057,7 @@
       </c>
       <c r="H32" s="104"/>
     </row>
-    <row r="33" spans="2:8" ht="16" thickBot="1">
+    <row r="33" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="282"/>
       <c r="C33" s="105"/>
       <c r="D33" s="105"/>
@@ -11797,8 +12082,8 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet14" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet14">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B2:D19"/>
@@ -11807,7 +12092,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
@@ -11816,25 +12101,25 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20">
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="2:4" ht="45" customHeight="1">
-      <c r="B5" s="400" t="s">
+    <row r="5" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="405" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="401"/>
-    </row>
-    <row r="6" spans="2:4" ht="16" thickBot="1"/>
-    <row r="7" spans="2:4" ht="30" customHeight="1">
+      <c r="C5" s="406"/>
+    </row>
+    <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="194" t="s">
         <v>326</v>
       </c>
@@ -11845,14 +12130,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="49" t="s">
         <v>304</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="193"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="73"/>
       <c r="C9" s="17" t="s">
         <v>311</v>
@@ -11862,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="73"/>
       <c r="C10" s="17" t="s">
         <v>296</v>
@@ -11872,19 +12157,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="151"/>
       <c r="C11" s="10"/>
       <c r="D11" s="152"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="193"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="73"/>
       <c r="C13" s="17" t="s">
         <v>312</v>
@@ -11894,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
       <c r="C14" s="17" t="s">
         <v>298</v>
@@ -11904,19 +12189,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="151"/>
       <c r="C15" s="10"/>
       <c r="D15" s="152"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="49" t="s">
         <v>130</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="193"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="C17" s="18" t="s">
         <v>310</v>
@@ -11926,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="C18" s="18" t="s">
         <v>297</v>
@@ -11936,7 +12221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16" thickBot="1">
+    <row r="19" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="188"/>
       <c r="C19" s="154"/>
       <c r="D19" s="189"/>
@@ -11956,17 +12241,15 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet15" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet15">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="145"/>
     <col min="2" max="2" width="27.83203125" style="145" bestFit="1" customWidth="1"/>
@@ -11976,7 +12259,7 @@
     <col min="13" max="16384" width="10.83203125" style="145"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20">
+    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>308</v>
       </c>
@@ -11986,7 +12269,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -11994,7 +12277,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
@@ -12005,19 +12288,19 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:13" ht="60" customHeight="1">
-      <c r="B5" s="400" t="s">
+    <row r="5" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="405" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="401"/>
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="407"/>
+      <c r="F5" s="406"/>
       <c r="G5" s="99"/>
       <c r="H5" s="99"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1"/>
-    <row r="7" spans="2:13">
+    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="179" t="s">
         <v>229</v>
       </c>
@@ -12032,7 +12315,7 @@
       <c r="K7" s="264"/>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="180"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -12045,7 +12328,7 @@
       <c r="K8" s="180"/>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="2:13" ht="30">
+    <row r="9" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="181"/>
       <c r="C9" s="69" t="s">
         <v>273</v>
@@ -12078,7 +12361,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="182"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
@@ -12091,7 +12374,7 @@
       <c r="K10" s="266"/>
       <c r="L10" s="147"/>
     </row>
-    <row r="11" spans="2:13" ht="30">
+    <row r="11" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="183" t="s">
         <v>277</v>
       </c>
@@ -12104,11 +12387,11 @@
         <v>0</v>
       </c>
       <c r="E11" s="220">
-        <f>SUM('Corrected energy balance step 2'!U83:AQ83)</f>
+        <f>SUM('Corrected energy balance step 2'!U83:AQ83,'Corrected energy balance step 2'!AW83:AY83)</f>
         <v>0</v>
       </c>
       <c r="F11" s="220">
-        <f>'Corrected energy balance step 2'!AU83+'Corrected energy balance step 2'!AZ83</f>
+        <f>'Corrected energy balance step 2'!AU83+'Corrected energy balance step 2'!AZ83+'Corrected energy balance step 2'!BA83</f>
         <v>0</v>
       </c>
       <c r="G11" s="220">
@@ -12120,11 +12403,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="220">
-        <f>'Corrected energy balance step 2'!BM83</f>
+        <f>'Corrected energy balance step 2'!BM83+'Corrected energy balance step 2'!BF83</f>
         <v>0</v>
       </c>
       <c r="J11" s="220">
-        <f>SUM('Corrected energy balance step 2'!O83:R83,'Corrected energy balance step 2'!AR83:AT83,'Corrected energy balance step 2'!AV83:BE83,'Corrected energy balance step 2'!BF83:BG83,'Corrected energy balance step 2'!BI83:BK83)</f>
+        <f>SUM('Corrected energy balance step 2'!O83:R83,'Corrected energy balance step 2'!AR83:AT83,'Corrected energy balance step 2'!BB83:BE83,'Corrected energy balance step 2'!BG83,'Corrected energy balance step 2'!BI83:BK83)</f>
         <v>0</v>
       </c>
       <c r="K11" s="267">
@@ -12136,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="184"/>
       <c r="C12" s="148"/>
       <c r="D12" s="148"/>
@@ -12149,61 +12432,61 @@
       <c r="K12" s="272"/>
       <c r="L12" s="271"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J13" s="269"/>
       <c r="K13" s="270"/>
       <c r="L13" s="270"/>
       <c r="M13" s="269"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J14" s="269"/>
       <c r="K14" s="269"/>
       <c r="L14" s="269"/>
       <c r="M14" s="269"/>
     </row>
-    <row r="17" spans="10:11">
+    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J17" s="259" t="s">
         <v>473</v>
       </c>
       <c r="K17" s="203"/>
     </row>
-    <row r="18" spans="10:11">
+    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J18" s="260" t="s">
         <v>474</v>
       </c>
       <c r="K18" s="261"/>
     </row>
-    <row r="19" spans="10:11">
+    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J19" s="260" t="str">
         <f>"- total demand of aggregated carriers"</f>
         <v>- total demand of aggregated carriers</v>
       </c>
       <c r="K19" s="261"/>
     </row>
-    <row r="20" spans="10:11">
+    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J20" s="260" t="str">
         <f>"- total demand in energy balance (IEA)"</f>
         <v>- total demand in energy balance (IEA)</v>
       </c>
       <c r="K20" s="261"/>
     </row>
-    <row r="21" spans="10:11">
+    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J21" s="260" t="s">
         <v>475</v>
       </c>
       <c r="K21" s="261"/>
     </row>
-    <row r="22" spans="10:11">
+    <row r="22" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J22" s="260" t="s">
         <v>476</v>
       </c>
       <c r="K22" s="261"/>
     </row>
-    <row r="23" spans="10:11">
+    <row r="23" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J23" s="260"/>
       <c r="K23" s="261"/>
     </row>
-    <row r="24" spans="10:11">
+    <row r="24" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J24" s="262" t="s">
         <v>477</v>
       </c>
@@ -12249,8 +12532,8 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet16" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet16">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A2:I35"/>
@@ -12259,7 +12542,7 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
@@ -12276,12 +12559,12 @@
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20">
+    <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
@@ -12289,16 +12572,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:9" ht="45" customHeight="1">
-      <c r="B5" s="400" t="s">
+    <row r="5" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="405" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="401"/>
-    </row>
-    <row r="6" spans="2:9" ht="16" thickBot="1"/>
-    <row r="7" spans="2:9">
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="406"/>
+    </row>
+    <row r="6" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>91</v>
       </c>
@@ -12308,7 +12591,7 @@
       <c r="F7" s="53"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="2:9" ht="45">
+    <row r="8" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B8" s="35"/>
       <c r="C8" s="101"/>
       <c r="D8" s="108" t="s">
@@ -12324,7 +12607,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="35"/>
       <c r="C9" s="17" t="s">
         <v>122</v>
@@ -12348,7 +12631,7 @@
       <c r="H9" s="273"/>
       <c r="I9" s="258"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="35"/>
       <c r="C10" s="17" t="s">
         <v>124</v>
@@ -12371,7 +12654,7 @@
       </c>
       <c r="I10" s="258"/>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="35"/>
       <c r="C11" s="17" t="s">
         <v>123</v>
@@ -12394,7 +12677,7 @@
       </c>
       <c r="I11" s="258"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="35"/>
       <c r="C12" s="17" t="s">
         <v>125</v>
@@ -12417,7 +12700,7 @@
       </c>
       <c r="I12" s="258"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="35"/>
       <c r="C13" s="17" t="s">
         <v>127</v>
@@ -12440,7 +12723,7 @@
       </c>
       <c r="I13" s="258"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
       <c r="C14" s="17" t="s">
         <v>128</v>
@@ -12463,13 +12746,13 @@
       </c>
       <c r="I14" s="258"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="D15" s="8"/>
       <c r="H15" s="30"/>
       <c r="I15" s="258"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="35"/>
       <c r="C16" s="17" t="s">
         <v>126</v>
@@ -12492,7 +12775,7 @@
       </c>
       <c r="I16" s="258"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="35"/>
       <c r="C17" s="17" t="s">
         <v>129</v>
@@ -12515,7 +12798,7 @@
       </c>
       <c r="I17" s="258"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="35"/>
       <c r="C18" s="17" t="s">
         <v>130</v>
@@ -12537,7 +12820,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1">
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="47"/>
       <c r="C19" s="102"/>
       <c r="D19" s="102"/>
@@ -12545,31 +12828,31 @@
       <c r="F19" s="102"/>
       <c r="G19" s="103"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
     </row>
   </sheetData>
@@ -12590,8 +12873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet17" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr codeName="Sheet17">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -12600,18 +12883,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -12619,7 +12902,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="242" t="s">
         <v>370</v>
       </c>
@@ -12628,7 +12911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="242" t="s">
         <v>373</v>
       </c>
@@ -12637,7 +12920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -12646,7 +12929,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>371</v>
       </c>
@@ -12655,7 +12938,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>372</v>
       </c>
@@ -12676,8 +12959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet18" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr codeName="Sheet18">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -12686,17 +12969,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -12704,7 +12987,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
         <v>378</v>
       </c>
@@ -12713,7 +12996,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
         <v>379</v>
       </c>
@@ -12722,13 +13005,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -12743,8 +13026,8 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet19" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr codeName="Sheet19">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -12753,18 +13036,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -12772,7 +13055,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
         <v>381</v>
       </c>
@@ -12781,7 +13064,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
         <v>382</v>
       </c>
@@ -12790,14 +13073,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="241"/>
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -12812,8 +13095,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:E50"/>
@@ -12822,7 +13105,7 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -12831,12 +13114,12 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20">
+    <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
@@ -12847,12 +13130,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="6"/>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="304">
         <v>41450</v>
       </c>
@@ -12864,7 +13147,7 @@
       </c>
       <c r="E6" s="307"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="305">
         <v>41452</v>
       </c>
@@ -12876,7 +13159,7 @@
       </c>
       <c r="E7" s="307"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="305">
         <v>41457</v>
       </c>
@@ -12888,7 +13171,7 @@
       </c>
       <c r="E8" s="307"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="305">
         <v>41457</v>
       </c>
@@ -12900,7 +13183,7 @@
       </c>
       <c r="E9" s="307"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="305">
         <v>41458</v>
       </c>
@@ -12912,7 +13195,7 @@
       </c>
       <c r="E10" s="307"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="305">
         <v>41459</v>
       </c>
@@ -12924,7 +13207,7 @@
       </c>
       <c r="E11" s="307"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="305">
         <v>41460</v>
       </c>
@@ -12936,7 +13219,7 @@
       </c>
       <c r="E12" s="307"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="305">
         <v>41463</v>
       </c>
@@ -12948,7 +13231,7 @@
       </c>
       <c r="E13" s="307"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="305">
         <v>41464</v>
       </c>
@@ -12960,7 +13243,7 @@
       </c>
       <c r="E14" s="307"/>
     </row>
-    <row r="15" spans="2:5" ht="30">
+    <row r="15" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="305">
         <v>41464</v>
       </c>
@@ -12972,7 +13255,7 @@
       </c>
       <c r="E15" s="307"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="305">
         <v>41465</v>
       </c>
@@ -12984,7 +13267,7 @@
       </c>
       <c r="E16" s="307"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="305">
         <v>41465</v>
       </c>
@@ -12996,7 +13279,7 @@
       </c>
       <c r="E17" s="307"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="305">
         <v>41467</v>
       </c>
@@ -13008,7 +13291,7 @@
       </c>
       <c r="E18" s="307"/>
     </row>
-    <row r="19" spans="2:5" ht="30">
+    <row r="19" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="305">
         <v>41470</v>
       </c>
@@ -13020,7 +13303,7 @@
       </c>
       <c r="E19" s="307"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="305">
         <v>41472</v>
       </c>
@@ -13032,7 +13315,7 @@
       </c>
       <c r="E20" s="307"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="305">
         <v>41481</v>
       </c>
@@ -13044,7 +13327,7 @@
       </c>
       <c r="E21" s="307"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="305">
         <v>41484</v>
       </c>
@@ -13056,7 +13339,7 @@
       </c>
       <c r="E22" s="307"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="305">
         <v>41485</v>
       </c>
@@ -13068,7 +13351,7 @@
       </c>
       <c r="E23" s="307"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="305">
         <v>41485</v>
       </c>
@@ -13080,7 +13363,7 @@
       </c>
       <c r="E24" s="307"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="305">
         <v>41486</v>
       </c>
@@ -13092,7 +13375,7 @@
       </c>
       <c r="E25" s="307"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="305">
         <v>41487</v>
       </c>
@@ -13104,7 +13387,7 @@
       </c>
       <c r="E26" s="307"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="305">
         <v>41499</v>
       </c>
@@ -13116,7 +13399,7 @@
       </c>
       <c r="E27" s="307"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="305">
         <v>41500</v>
       </c>
@@ -13128,7 +13411,7 @@
       </c>
       <c r="E28" s="307"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="305">
         <v>41500</v>
       </c>
@@ -13140,7 +13423,7 @@
       </c>
       <c r="E29" s="307"/>
     </row>
-    <row r="30" spans="2:5" ht="30">
+    <row r="30" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" s="305">
         <v>41502</v>
       </c>
@@ -13152,7 +13435,7 @@
       </c>
       <c r="E30" s="307"/>
     </row>
-    <row r="31" spans="2:5" ht="135">
+    <row r="31" spans="2:5" ht="160" x14ac:dyDescent="0.2">
       <c r="B31" s="305">
         <v>41505</v>
       </c>
@@ -13164,7 +13447,7 @@
       </c>
       <c r="E31" s="307"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="305">
         <v>41506</v>
       </c>
@@ -13176,7 +13459,7 @@
       </c>
       <c r="E32" s="307"/>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="305">
         <v>41507</v>
       </c>
@@ -13188,7 +13471,7 @@
       </c>
       <c r="E33" s="307"/>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="305">
         <v>41509</v>
       </c>
@@ -13200,7 +13483,7 @@
       </c>
       <c r="E34" s="307"/>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="305">
         <v>41509</v>
       </c>
@@ -13212,7 +13495,7 @@
       </c>
       <c r="E35" s="307"/>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="305" t="s">
         <v>538</v>
       </c>
@@ -13224,7 +13507,7 @@
       </c>
       <c r="E36" s="307"/>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="305">
         <v>41534</v>
       </c>
@@ -13236,7 +13519,7 @@
       </c>
       <c r="E37" s="307"/>
     </row>
-    <row r="38" spans="2:5" ht="30">
+    <row r="38" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B38" s="305">
         <v>41542</v>
       </c>
@@ -13248,7 +13531,7 @@
       </c>
       <c r="E38" s="307"/>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="370">
         <v>41562</v>
       </c>
@@ -13260,7 +13543,7 @@
       </c>
       <c r="E39" s="307"/>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="370">
         <v>41578</v>
       </c>
@@ -13272,7 +13555,7 @@
       </c>
       <c r="E40" s="307"/>
     </row>
-    <row r="41" spans="2:5" ht="30">
+    <row r="41" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="370">
         <v>41578</v>
       </c>
@@ -13284,7 +13567,7 @@
       </c>
       <c r="E41" s="307"/>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="370">
         <v>41782</v>
       </c>
@@ -13296,7 +13579,7 @@
       </c>
       <c r="E42" s="307"/>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="370">
         <v>41782</v>
       </c>
@@ -13308,7 +13591,7 @@
       </c>
       <c r="E43" s="307"/>
     </row>
-    <row r="44" spans="2:5" ht="30">
+    <row r="44" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B44" s="370">
         <v>42600</v>
       </c>
@@ -13320,32 +13603,32 @@
       </c>
       <c r="E44" s="307"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="305"/>
       <c r="C45" s="39"/>
       <c r="D45" s="308"/>
       <c r="E45" s="307"/>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="306"/>
       <c r="C46" s="45"/>
       <c r="D46" s="310"/>
       <c r="E46" s="307"/>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="307"/>
       <c r="D47" s="307"/>
       <c r="E47" s="307"/>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="307"/>
       <c r="D48" s="307"/>
       <c r="E48" s="307"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="307"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="307"/>
     </row>
   </sheetData>
@@ -13360,25 +13643,25 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet20" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr codeName="Sheet20">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -13386,7 +13669,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
         <v>385</v>
       </c>
@@ -13395,7 +13678,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
         <v>386</v>
       </c>
@@ -13404,13 +13687,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -13425,8 +13708,8 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet21" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr codeName="Sheet21">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -13435,17 +13718,17 @@
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -13453,7 +13736,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
         <v>388</v>
       </c>
@@ -13462,7 +13745,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
         <v>389</v>
       </c>
@@ -13471,13 +13754,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -13492,8 +13775,8 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet22" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr codeName="Sheet22">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -13502,17 +13785,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -13520,7 +13803,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
         <v>603</v>
       </c>
@@ -13529,7 +13812,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
         <v>604</v>
       </c>
@@ -13538,7 +13821,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="205" t="s">
         <v>605</v>
       </c>
@@ -13547,10 +13830,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -13565,8 +13848,8 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet23" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr codeName="Sheet23">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -13575,17 +13858,17 @@
       <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -13593,7 +13876,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
         <v>392</v>
       </c>
@@ -13602,7 +13885,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
         <v>393</v>
       </c>
@@ -13611,13 +13894,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -13632,8 +13915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet24" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr codeName="Sheet24">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -13642,17 +13925,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -13660,7 +13943,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
         <v>377</v>
       </c>
@@ -13669,7 +13952,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
         <v>383</v>
       </c>
@@ -13678,7 +13961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="205" t="s">
         <v>375</v>
       </c>
@@ -13687,7 +13970,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="205" t="s">
         <v>395</v>
       </c>
@@ -13696,7 +13979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -13711,8 +13994,8 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet25" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr codeName="Sheet25">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -13721,17 +14004,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -13739,7 +14022,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
         <v>397</v>
       </c>
@@ -13748,7 +14031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
         <v>398</v>
       </c>
@@ -13757,13 +14040,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -13778,8 +14061,8 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet26" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr codeName="Sheet26">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -13788,18 +14071,18 @@
       <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -13807,7 +14090,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>400</v>
       </c>
@@ -13815,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>401</v>
       </c>
@@ -13823,13 +14106,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -13844,8 +14127,8 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet29" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <sheetPr codeName="Sheet29">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -13854,18 +14137,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -13873,7 +14156,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>402</v>
       </c>
@@ -13881,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>404</v>
       </c>
@@ -13889,13 +14172,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -13910,8 +14193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet32" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <sheetPr codeName="Sheet32">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -13920,18 +14203,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -13939,7 +14222,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>406</v>
       </c>
@@ -13948,7 +14231,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>407</v>
       </c>
@@ -13957,13 +14240,13 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -13978,8 +14261,8 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet33" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <sheetPr codeName="Sheet33">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -13988,18 +14271,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -14007,7 +14290,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>409</v>
       </c>
@@ -14016,7 +14299,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>410</v>
       </c>
@@ -14025,13 +14308,13 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -14046,8 +14329,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:C37"/>
@@ -14056,7 +14339,7 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -14064,12 +14347,12 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="111" t="s">
         <v>23</v>
       </c>
@@ -14077,11 +14360,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="54"/>
       <c r="C5" s="16"/>
     </row>
-    <row r="6" spans="2:3" ht="28" customHeight="1">
+    <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
         <v>251</v>
       </c>
@@ -14089,7 +14372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="28" customHeight="1">
+    <row r="7" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="125" t="s">
         <v>0</v>
       </c>
@@ -14097,7 +14380,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="28" customHeight="1">
+    <row r="8" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="125" t="s">
         <v>22</v>
       </c>
@@ -14105,7 +14388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="28" customHeight="1">
+    <row r="9" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="125" t="s">
         <v>26</v>
       </c>
@@ -14113,7 +14396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="28" customHeight="1">
+    <row r="10" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="125" t="s">
         <v>252</v>
       </c>
@@ -14121,7 +14404,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="28" customHeight="1">
+    <row r="11" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="125" t="s">
         <v>27</v>
       </c>
@@ -14129,7 +14412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="28" customHeight="1">
+    <row r="12" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="173" t="s">
         <v>29</v>
       </c>
@@ -14137,7 +14420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="28" customHeight="1">
+    <row r="13" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="177" t="s">
         <v>453</v>
       </c>
@@ -14145,7 +14428,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="28" customHeight="1">
+    <row r="14" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="177" t="s">
         <v>237</v>
       </c>
@@ -14153,7 +14436,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="28" customHeight="1">
+    <row r="15" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="300" t="s">
         <v>493</v>
       </c>
@@ -14161,7 +14444,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="28" customHeight="1">
+    <row r="16" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="300" t="s">
         <v>494</v>
       </c>
@@ -14169,7 +14452,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="28" customHeight="1">
+    <row r="17" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="126" t="s">
         <v>229</v>
       </c>
@@ -14177,7 +14460,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="28" customHeight="1">
+    <row r="18" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="126" t="s">
         <v>496</v>
       </c>
@@ -14185,7 +14468,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="28" customHeight="1">
+    <row r="19" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="174" t="s">
         <v>315</v>
       </c>
@@ -14193,7 +14476,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="28" customHeight="1">
+    <row r="20" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="174" t="s">
         <v>281</v>
       </c>
@@ -14201,7 +14484,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="28" customHeight="1">
+    <row r="21" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="176" t="s">
         <v>316</v>
       </c>
@@ -14209,7 +14492,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="28" customHeight="1">
+    <row r="22" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="178" t="s">
         <v>433</v>
       </c>
@@ -14217,7 +14500,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="28" customHeight="1">
+    <row r="23" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="178" t="s">
         <v>434</v>
       </c>
@@ -14225,7 +14508,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="28" customHeight="1">
+    <row r="24" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="178" t="s">
         <v>435</v>
       </c>
@@ -14233,7 +14516,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="28" customHeight="1">
+    <row r="25" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="178" t="s">
         <v>436</v>
       </c>
@@ -14241,7 +14524,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="28" customHeight="1">
+    <row r="26" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="178" t="s">
         <v>437</v>
       </c>
@@ -14249,7 +14532,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="28" customHeight="1">
+    <row r="27" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="178" t="s">
         <v>438</v>
       </c>
@@ -14257,7 +14540,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="28" customHeight="1">
+    <row r="28" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="178" t="s">
         <v>439</v>
       </c>
@@ -14265,7 +14548,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="28" customHeight="1">
+    <row r="29" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="178" t="s">
         <v>440</v>
       </c>
@@ -14273,7 +14556,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="28" customHeight="1">
+    <row r="30" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="178" t="s">
         <v>441</v>
       </c>
@@ -14281,7 +14564,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="28" customHeight="1">
+    <row r="31" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="178" t="s">
         <v>442</v>
       </c>
@@ -14289,7 +14572,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="28" customHeight="1">
+    <row r="32" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="178" t="s">
         <v>443</v>
       </c>
@@ -14297,7 +14580,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="28" customHeight="1">
+    <row r="33" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="178" t="s">
         <v>444</v>
       </c>
@@ -14305,7 +14588,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="28" customHeight="1">
+    <row r="34" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="178" t="s">
         <v>445</v>
       </c>
@@ -14313,7 +14596,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="28" customHeight="1">
+    <row r="35" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="178" t="s">
         <v>623</v>
       </c>
@@ -14321,8 +14604,8 @@
         <v>624</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="28" customHeight="1"/>
-    <row r="37" spans="2:3" ht="28" customHeight="1"/>
+    <row r="36" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14335,8 +14618,8 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
@@ -14345,17 +14628,17 @@
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>369</v>
       </c>
@@ -14363,7 +14646,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
         <v>619</v>
       </c>
@@ -14372,7 +14655,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
         <v>620</v>
       </c>
@@ -14381,15 +14664,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="205"/>
       <c r="B5" s="284"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="205"/>
       <c r="B6" s="284"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="284"/>
     </row>
   </sheetData>
@@ -14404,92 +14687,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="143.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="20">
+    <row r="2" spans="2:2" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="111" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" s="64"/>
     </row>
-    <row r="6" spans="2:2" ht="75">
+    <row r="6" spans="2:2" ht="80" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="128"/>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="129" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="130"/>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="131" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="55" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="55" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="55" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="131" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="131" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="57"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="111" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="64"/>
     </row>
-    <row r="20" spans="2:2" ht="105">
+    <row r="20" spans="2:2" ht="112" x14ac:dyDescent="0.2">
       <c r="B20" s="112" t="s">
         <v>256</v>
       </c>
@@ -14506,8 +14789,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:CB8"/>
@@ -14516,12 +14799,12 @@
       <selection activeCell="AP54" sqref="AP54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="2.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" ht="30">
+    <row r="2" spans="2:80" ht="31" x14ac:dyDescent="0.2">
       <c r="B2" s="117" t="s">
         <v>250</v>
       </c>
@@ -14598,7 +14881,7 @@
       <c r="BU2" s="114"/>
       <c r="BV2" s="114"/>
     </row>
-    <row r="3" spans="2:80" ht="18" customHeight="1">
+    <row r="3" spans="2:80" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="118" t="s">
         <v>94</v>
       </c>
@@ -14675,7 +14958,7 @@
       <c r="BU3" s="114"/>
       <c r="BV3" s="114"/>
     </row>
-    <row r="4" spans="2:80" ht="15" customHeight="1">
+    <row r="4" spans="2:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="121" t="s">
         <v>249</v>
       </c>
@@ -14752,7 +15035,7 @@
       <c r="BU4" s="115"/>
       <c r="BV4" s="115"/>
     </row>
-    <row r="5" spans="2:80" ht="15" customHeight="1">
+    <row r="5" spans="2:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q5" s="116"/>
       <c r="R5" s="116"/>
       <c r="S5" s="116"/>
@@ -14812,7 +15095,7 @@
       <c r="BU5" s="116"/>
       <c r="BV5" s="116"/>
     </row>
-    <row r="6" spans="2:80" ht="23">
+    <row r="6" spans="2:80" ht="24" x14ac:dyDescent="0.2">
       <c r="B6" s="116"/>
       <c r="C6" s="132" t="s">
         <v>246</v>
@@ -14890,7 +15173,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="2:80">
+    <row r="8" spans="2:80" x14ac:dyDescent="0.2">
       <c r="CB8" s="107"/>
     </row>
   </sheetData>
@@ -14906,8 +15189,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6">
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="B2:D133"/>
@@ -14916,7 +15199,7 @@
       <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
@@ -14925,38 +15208,38 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20">
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="2:4" ht="90" customHeight="1">
-      <c r="B5" s="400" t="s">
+    <row r="5" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="405" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="401"/>
-    </row>
-    <row r="6" spans="2:4" ht="16" thickBot="1"/>
-    <row r="7" spans="2:4">
+      <c r="C5" s="406"/>
+    </row>
+    <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="30"/>
       <c r="C8" s="8"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
         <v>36</v>
       </c>
@@ -14967,56 +15250,56 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="96" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="36"/>
     </row>
-    <row r="11" spans="2:4" ht="90">
+    <row r="11" spans="2:4" ht="96" x14ac:dyDescent="0.2">
       <c r="B11" s="30"/>
       <c r="C11" s="39" t="s">
         <v>323</v>
       </c>
       <c r="D11" s="41"/>
     </row>
-    <row r="12" spans="2:4" ht="45">
+    <row r="12" spans="2:4" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="30"/>
       <c r="C12" s="39" t="s">
         <v>320</v>
       </c>
       <c r="D12" s="41"/>
     </row>
-    <row r="13" spans="2:4" ht="30">
+    <row r="13" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
       <c r="C13" s="97" t="s">
         <v>324</v>
       </c>
       <c r="D13" s="40"/>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="38"/>
       <c r="C14" s="97" t="s">
         <v>236</v>
       </c>
       <c r="D14" s="40"/>
     </row>
-    <row r="15" spans="2:4" ht="47" customHeight="1">
+    <row r="15" spans="2:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="38"/>
       <c r="C15" s="97" t="s">
         <v>412</v>
       </c>
       <c r="D15" s="40"/>
     </row>
-    <row r="16" spans="2:4" ht="47" customHeight="1">
+    <row r="16" spans="2:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="38"/>
       <c r="C16" s="97" t="s">
         <v>502</v>
       </c>
       <c r="D16" s="40"/>
     </row>
-    <row r="17" spans="2:4" ht="14" customHeight="1">
+    <row r="17" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="38"/>
       <c r="C17" t="s">
         <v>402</v>
@@ -15025,7 +15308,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="14" customHeight="1">
+    <row r="18" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38"/>
       <c r="C18" t="s">
         <v>400</v>
@@ -15034,28 +15317,28 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16" thickBot="1">
+    <row r="19" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="47"/>
       <c r="C19" s="140"/>
       <c r="D19" s="141"/>
     </row>
-    <row r="20" spans="2:4" s="8" customFormat="1" ht="16" thickBot="1">
+    <row r="20" spans="2:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="98"/>
       <c r="D20" s="99"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
         <v>238</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="30"/>
       <c r="C22" s="8"/>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>36</v>
       </c>
@@ -15066,14 +15349,14 @@
         <v>258</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="36"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="44" t="s">
         <v>259</v>
@@ -15082,7 +15365,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
       <c r="C26" s="44" t="s">
         <v>260</v>
@@ -15091,7 +15374,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
       <c r="C27" s="44" t="s">
         <v>261</v>
@@ -15100,19 +15383,19 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="38"/>
       <c r="C28" s="139"/>
       <c r="D28" s="133"/>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="134" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="138"/>
       <c r="D29" s="135"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="30"/>
       <c r="C30" s="17" t="s">
         <v>110</v>
@@ -15121,7 +15404,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="37"/>
       <c r="C31" s="17" t="s">
         <v>106</v>
@@ -15130,7 +15413,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="30"/>
       <c r="C32" s="17" t="s">
         <v>108</v>
@@ -15139,7 +15422,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="30"/>
       <c r="C33" s="17" t="s">
         <v>111</v>
@@ -15148,7 +15431,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="30"/>
       <c r="C34" s="17" t="s">
         <v>109</v>
@@ -15157,7 +15440,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="30"/>
       <c r="C35" s="17" t="s">
         <v>107</v>
@@ -15166,19 +15449,19 @@
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="30"/>
       <c r="C36" s="8"/>
       <c r="D36" s="31"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="49" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="136"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" s="137" t="s">
         <v>112</v>
@@ -15187,7 +15470,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
       <c r="C39" s="17" t="s">
         <v>113</v>
@@ -15196,7 +15479,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="30"/>
       <c r="C40" s="137" t="s">
         <v>114</v>
@@ -15205,19 +15488,19 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="8"/>
       <c r="D41" s="31"/>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="136"/>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="137" t="s">
         <v>232</v>
@@ -15226,7 +15509,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="17" t="s">
         <v>233</v>
@@ -15235,7 +15518,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="17" t="s">
         <v>332</v>
@@ -15244,7 +15527,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="17" t="s">
         <v>234</v>
@@ -15253,7 +15536,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="17" t="s">
         <v>235</v>
@@ -15262,19 +15545,19 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="30"/>
       <c r="C48" s="8"/>
       <c r="D48" s="31"/>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="49" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="136"/>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="37"/>
       <c r="C50" s="137" t="s">
         <v>115</v>
@@ -15283,7 +15566,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="137" t="s">
         <v>116</v>
@@ -15292,7 +15575,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="30"/>
       <c r="C52" s="137" t="s">
         <v>117</v>
@@ -15301,7 +15584,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="30"/>
       <c r="C53" s="137" t="s">
         <v>118</v>
@@ -15310,23 +15593,23 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="16" thickBot="1">
+    <row r="54" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="47"/>
       <c r="C54" s="102"/>
       <c r="D54" s="103"/>
     </row>
-    <row r="55" spans="2:4" ht="16" thickBot="1"/>
-    <row r="56" spans="2:4">
+    <row r="55" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="27" t="s">
         <v>265</v>
       </c>
       <c r="C56" s="29"/>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
       <c r="C57" s="31"/>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="32" t="s">
         <v>530</v>
       </c>
@@ -15334,11 +15617,11 @@
         <v>266</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="35"/>
       <c r="C59" s="36"/>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="37" t="s">
         <v>267</v>
       </c>
@@ -15346,83 +15629,83 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="30"/>
       <c r="C61" s="42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="30"/>
       <c r="C62" s="42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="30"/>
       <c r="C63" s="42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="30"/>
       <c r="C64" s="42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="30"/>
       <c r="C65" s="42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="30"/>
       <c r="C66" s="143" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="50"/>
       <c r="C67" s="143" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="30"/>
       <c r="C68" s="42" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="30"/>
       <c r="C69" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="30"/>
       <c r="C70" s="42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="30"/>
       <c r="C71" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="30"/>
       <c r="C72" s="42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="43"/>
       <c r="C73" s="46"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="37" t="s">
         <v>597</v>
       </c>
@@ -15430,17 +15713,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="37"/>
       <c r="C75" s="42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="144"/>
       <c r="C76" s="46"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="37" t="s">
         <v>269</v>
       </c>
@@ -15448,143 +15731,143 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="37"/>
       <c r="C78" s="42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="30"/>
       <c r="C79" s="42" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="30"/>
       <c r="C80" s="42" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="30"/>
       <c r="C81" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="30"/>
       <c r="C82" s="42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="30"/>
       <c r="C83" s="42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="30"/>
       <c r="C84" s="42" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="30"/>
       <c r="C85" s="42" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="30"/>
       <c r="C86" s="42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="30"/>
       <c r="C87" s="42" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="30"/>
       <c r="C88" s="42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="30"/>
       <c r="C89" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="30"/>
       <c r="C90" s="42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="30"/>
       <c r="C91" s="42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="30"/>
       <c r="C92" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="30"/>
       <c r="C93" s="42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="30"/>
       <c r="C94" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="30"/>
       <c r="C95" s="42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="30"/>
       <c r="C96" s="42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="30"/>
       <c r="C97" s="42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="30"/>
       <c r="C98" s="42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="30"/>
       <c r="C99" s="42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="43"/>
       <c r="C100" s="46"/>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="37" t="s">
         <v>270</v>
       </c>
@@ -15592,17 +15875,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="30"/>
       <c r="C102" s="42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="30"/>
       <c r="C103" s="42"/>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="49" t="s">
         <v>279</v>
       </c>
@@ -15610,11 +15893,11 @@
         <v>279</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="37"/>
       <c r="C105" s="42"/>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="49" t="s">
         <v>151</v>
       </c>
@@ -15622,11 +15905,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="37"/>
       <c r="C107" s="42"/>
     </row>
-    <row r="108" spans="2:3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="49" t="s">
         <v>150</v>
       </c>
@@ -15634,11 +15917,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="144"/>
       <c r="C109" s="46"/>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="50" t="s">
         <v>93</v>
       </c>
@@ -15646,131 +15929,131 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="30"/>
       <c r="C111" s="42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="30"/>
       <c r="C112" s="42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="30"/>
       <c r="C113" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="37"/>
       <c r="C114" s="42" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="37"/>
       <c r="C115" s="42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="2:3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="37"/>
       <c r="C116" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="2:3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="37"/>
       <c r="C117" s="42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="37"/>
       <c r="C118" s="42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="37"/>
       <c r="C119" s="42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="120" spans="2:3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="37"/>
       <c r="C120" s="42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="2:3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="30"/>
       <c r="C121" s="42" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="2:3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="30"/>
       <c r="C122" s="42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="123" spans="2:3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="30"/>
       <c r="C123" s="42" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="124" spans="2:3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="37"/>
       <c r="C124" s="42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="2:3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="37"/>
       <c r="C125" s="42" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="126" spans="2:3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="37"/>
       <c r="C126" s="42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="2:3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="37"/>
       <c r="C127" s="42" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="128" spans="2:3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="37"/>
       <c r="C128" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="37"/>
       <c r="C129" s="42" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="30"/>
       <c r="C130" s="41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="16" thickBot="1">
+    <row r="131" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B131" s="47"/>
       <c r="C131" s="51"/>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
         <v>293</v>
       </c>
@@ -15793,15 +16076,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
@@ -15822,7 +16105,7 @@
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="20">
+    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
@@ -15832,13 +16115,13 @@
       <c r="L2" s="13"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="2:16" ht="20">
+    <row r="3" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="K3" s="209"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="52" t="s">
         <v>94</v>
       </c>
@@ -15849,19 +16132,19 @@
       <c r="L4" s="8"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="2:16" ht="45" customHeight="1">
-      <c r="B5" s="400" t="s">
+    <row r="5" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="405" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="401"/>
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="406"/>
       <c r="K5" s="208"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="2:16" ht="16" thickBot="1"/>
-    <row r="7" spans="2:16">
+    <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>27</v>
       </c>
@@ -15881,7 +16164,7 @@
       <c r="O7" s="231"/>
       <c r="P7" s="232"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="30"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -15897,7 +16180,7 @@
       <c r="O8" s="233"/>
       <c r="P8" s="234"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
         <v>96</v>
       </c>
@@ -15935,7 +16218,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
         <v>39</v>
       </c>
@@ -15958,7 +16241,7 @@
       <c r="O10" s="231"/>
       <c r="P10" s="232"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35"/>
       <c r="C11" s="60" t="s">
         <v>336</v>
@@ -15988,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="35"/>
       <c r="C12" s="60" t="s">
         <v>417</v>
@@ -16010,7 +16293,7 @@
       </c>
       <c r="P12" s="234"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="35"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -16026,7 +16309,7 @@
       <c r="O13" s="233"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -16044,7 +16327,7 @@
       <c r="O14" s="233"/>
       <c r="P14" s="234"/>
     </row>
-    <row r="15" spans="2:16" ht="15" customHeight="1">
+    <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="35"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -16071,7 +16354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="35"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -16098,7 +16381,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="35"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -16125,7 +16408,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="35"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -16141,7 +16424,7 @@
       <c r="O18" s="233"/>
       <c r="P18" s="234"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="32"/>
       <c r="C19" s="317"/>
       <c r="D19" s="317"/>
@@ -16165,7 +16448,7 @@
       <c r="O19" s="233"/>
       <c r="P19" s="234"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="s">
         <v>101</v>
       </c>
@@ -16183,7 +16466,7 @@
       <c r="O20" s="233"/>
       <c r="P20" s="234"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="37"/>
       <c r="C21" s="8" t="s">
         <v>421</v>
@@ -16208,7 +16491,7 @@
       <c r="O21" s="233"/>
       <c r="P21" s="234"/>
     </row>
-    <row r="22" spans="2:16" ht="16" thickBot="1">
+    <row r="22" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -16224,7 +16507,7 @@
       <c r="O22" s="233"/>
       <c r="P22" s="234"/>
     </row>
-    <row r="23" spans="2:16" ht="16" thickBot="1">
+    <row r="23" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="8" t="s">
         <v>102</v>
@@ -16248,7 +16531,7 @@
       </c>
       <c r="P23" s="234"/>
     </row>
-    <row r="24" spans="2:16" ht="16" thickBot="1">
+    <row r="24" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="8" t="s">
         <v>105</v>
@@ -16272,7 +16555,7 @@
       </c>
       <c r="P24" s="234"/>
     </row>
-    <row r="25" spans="2:16" ht="16" thickBot="1">
+    <row r="25" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="8" t="s">
         <v>103</v>
@@ -16296,7 +16579,7 @@
       </c>
       <c r="P25" s="234"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="37"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -16312,7 +16595,7 @@
       <c r="O26" s="233"/>
       <c r="P26" s="234"/>
     </row>
-    <row r="27" spans="2:16" ht="16" thickBot="1">
+    <row r="27" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -16328,7 +16611,7 @@
       <c r="O27" s="233"/>
       <c r="P27" s="234"/>
     </row>
-    <row r="28" spans="2:16" ht="16" thickBot="1">
+    <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="8" t="s">
         <v>611</v>
@@ -16348,7 +16631,7 @@
       </c>
       <c r="P28" s="234"/>
     </row>
-    <row r="29" spans="2:16" ht="16" thickBot="1">
+    <row r="29" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="8" t="s">
         <v>607</v>
@@ -16386,7 +16669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="37"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -16402,7 +16685,7 @@
       <c r="O30" s="233"/>
       <c r="P30" s="234"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="37"/>
       <c r="C31" s="8" t="s">
         <v>608</v>
@@ -16436,7 +16719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="37"/>
       <c r="C32" s="8" t="s">
         <v>585</v>
@@ -16470,7 +16753,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="144"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -16486,7 +16769,7 @@
       <c r="O33" s="233"/>
       <c r="P33" s="234"/>
     </row>
-    <row r="34" spans="2:19" ht="16" customHeight="1">
+    <row r="34" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="37" t="s">
         <v>91</v>
       </c>
@@ -16515,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:19" ht="16" customHeight="1">
+    <row r="35" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37"/>
       <c r="C35" s="8" t="s">
         <v>533</v>
@@ -16536,7 +16819,7 @@
       <c r="O35" s="233"/>
       <c r="P35" s="234"/>
     </row>
-    <row r="36" spans="2:19" ht="16" customHeight="1">
+    <row r="36" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="37"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -16552,7 +16835,7 @@
       <c r="O36" s="233"/>
       <c r="P36" s="234"/>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
       <c r="C37" s="379" t="s">
         <v>534</v>
@@ -16575,7 +16858,7 @@
       <c r="O37" s="233"/>
       <c r="P37" s="234"/>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="37"/>
       <c r="C38" s="379" t="s">
         <v>535</v>
@@ -16598,7 +16881,7 @@
       <c r="O38" s="233"/>
       <c r="P38" s="234"/>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="37"/>
       <c r="C39" s="379" t="s">
         <v>536</v>
@@ -16621,7 +16904,7 @@
       <c r="O39" s="233"/>
       <c r="P39" s="234"/>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="37"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -16637,7 +16920,7 @@
       <c r="O40" s="233"/>
       <c r="P40" s="234"/>
     </row>
-    <row r="41" spans="2:19" ht="30">
+    <row r="41" spans="2:19" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="37"/>
       <c r="C41" s="378" t="s">
         <v>572</v>
@@ -16658,7 +16941,7 @@
       <c r="O41" s="233"/>
       <c r="P41" s="234"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="37"/>
       <c r="C42" s="378"/>
       <c r="D42" s="8"/>
@@ -16674,7 +16957,7 @@
       <c r="O42" s="233"/>
       <c r="P42" s="234"/>
     </row>
-    <row r="43" spans="2:19" ht="16" thickBot="1">
+    <row r="43" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="8" t="s">
         <v>571</v>
@@ -16692,7 +16975,7 @@
       <c r="O43" s="233"/>
       <c r="P43" s="234"/>
     </row>
-    <row r="44" spans="2:19" ht="16" thickBot="1">
+    <row r="44" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
       <c r="C44" s="379" t="s">
         <v>573</v>
@@ -16712,7 +16995,7 @@
       </c>
       <c r="P44" s="234"/>
     </row>
-    <row r="45" spans="2:19" ht="16" thickBot="1">
+    <row r="45" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="379" t="s">
         <v>574</v>
@@ -16733,7 +17016,7 @@
       <c r="P45" s="234"/>
       <c r="S45" s="312"/>
     </row>
-    <row r="46" spans="2:19" ht="16" thickBot="1">
+    <row r="46" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
       <c r="C46" s="379" t="s">
         <v>575</v>
@@ -16753,7 +17036,7 @@
       </c>
       <c r="P46" s="234"/>
     </row>
-    <row r="47" spans="2:19" ht="16" thickBot="1">
+    <row r="47" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
       <c r="C47" s="379" t="s">
         <v>576</v>
@@ -16773,7 +17056,7 @@
       </c>
       <c r="P47" s="234"/>
     </row>
-    <row r="48" spans="2:19" ht="16" thickBot="1">
+    <row r="48" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
       <c r="C48" s="379" t="s">
         <v>577</v>
@@ -16793,7 +17076,7 @@
       </c>
       <c r="P48" s="234"/>
     </row>
-    <row r="49" spans="2:18" ht="16" thickBot="1">
+    <row r="49" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="37"/>
       <c r="C49" s="379" t="s">
         <v>578</v>
@@ -16814,7 +17097,7 @@
       <c r="P49" s="234"/>
       <c r="R49" s="312"/>
     </row>
-    <row r="50" spans="2:18">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="144"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -16830,7 +17113,7 @@
       <c r="O50" s="233"/>
       <c r="P50" s="237"/>
     </row>
-    <row r="51" spans="2:18">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="37" t="s">
         <v>104</v>
       </c>
@@ -16859,7 +17142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="16" thickBot="1">
+    <row r="52" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="37"/>
       <c r="C52" s="60" t="s">
         <v>580</v>
@@ -16877,7 +17160,7 @@
       <c r="O52" s="233"/>
       <c r="P52" s="234"/>
     </row>
-    <row r="53" spans="2:18" ht="16" thickBot="1">
+    <row r="53" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="37"/>
       <c r="C53" s="379" t="s">
         <v>575</v>
@@ -16898,7 +17181,7 @@
       <c r="P53" s="237"/>
       <c r="R53" s="312"/>
     </row>
-    <row r="54" spans="2:18" ht="16" thickBot="1">
+    <row r="54" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="37"/>
       <c r="C54" s="379" t="s">
         <v>574</v>
@@ -16918,7 +17201,7 @@
       </c>
       <c r="P54" s="237"/>
     </row>
-    <row r="55" spans="2:18" ht="16" thickBot="1">
+    <row r="55" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="37"/>
       <c r="C55" s="379" t="s">
         <v>132</v>
@@ -16938,7 +17221,7 @@
       </c>
       <c r="P55" s="237"/>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="144"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -16954,7 +17237,7 @@
       <c r="O56" s="233"/>
       <c r="P56" s="237"/>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="37" t="s">
         <v>90</v>
       </c>
@@ -16983,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="37"/>
       <c r="C58" s="8" t="s">
         <v>581</v>
@@ -17001,7 +17284,7 @@
       <c r="O58" s="238"/>
       <c r="P58" s="234"/>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="37"/>
       <c r="C59" s="379" t="s">
         <v>133</v>
@@ -17023,7 +17306,7 @@
       </c>
       <c r="P59" s="237"/>
     </row>
-    <row r="60" spans="2:18" ht="16" thickBot="1">
+    <row r="60" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="37"/>
       <c r="C60" s="379" t="s">
         <v>134</v>
@@ -17045,7 +17328,7 @@
       </c>
       <c r="P60" s="7"/>
     </row>
-    <row r="61" spans="2:18" ht="16" thickBot="1">
+    <row r="61" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="37"/>
       <c r="C61" s="379" t="s">
         <v>333</v>
@@ -17065,7 +17348,7 @@
       </c>
       <c r="P61" s="7"/>
     </row>
-    <row r="62" spans="2:18" ht="16" thickBot="1">
+    <row r="62" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="37"/>
       <c r="C62" s="379" t="s">
         <v>334</v>
@@ -17085,7 +17368,7 @@
       </c>
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="2:18" ht="16" thickBot="1">
+    <row r="63" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="37"/>
       <c r="C63" s="379" t="s">
         <v>582</v>
@@ -17105,7 +17388,7 @@
       </c>
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="2:18" ht="16" thickBot="1">
+    <row r="64" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="301"/>
       <c r="C64" s="102"/>
       <c r="D64" s="102"/>
@@ -17121,7 +17404,7 @@
       <c r="O64" s="20"/>
       <c r="P64" s="11"/>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="302" t="s">
         <v>501</v>
       </c>
@@ -17139,7 +17422,7 @@
       <c r="O65" s="303"/>
       <c r="P65" s="5"/>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" s="30"/>
       <c r="C66" s="8" t="s">
         <v>499</v>
@@ -17160,7 +17443,7 @@
       </c>
       <c r="P66" s="7"/>
     </row>
-    <row r="67" spans="2:16">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="30"/>
       <c r="C67" s="8" t="s">
         <v>500</v>
@@ -17181,7 +17464,7 @@
       </c>
       <c r="P67" s="7"/>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="30"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17196,7 +17479,7 @@
       <c r="O68" s="233"/>
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="30"/>
       <c r="C69" s="8" t="s">
         <v>503</v>
@@ -17217,7 +17500,7 @@
       </c>
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="30"/>
       <c r="C70" s="8" t="s">
         <v>504</v>
@@ -17238,7 +17521,7 @@
       </c>
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="2:16" ht="16" thickBot="1">
+    <row r="71" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="47"/>
       <c r="C71" s="102"/>
       <c r="D71" s="102"/>
@@ -17336,7 +17619,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -17359,7 +17641,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -17382,11 +17663,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -17397,20 +17676,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:BO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="AQ27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="53.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -17418,15 +17697,15 @@
     <col min="68" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:67" ht="20">
+    <row r="2" spans="2:67" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="2:67" ht="15" customHeight="1">
+    <row r="3" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="2:67" ht="15" customHeight="1">
+    <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="129" t="s">
         <v>94</v>
       </c>
@@ -17437,7 +17716,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="2:67" ht="60" customHeight="1">
+    <row r="5" spans="2:67" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="200" t="s">
         <v>329</v>
       </c>
@@ -17448,8 +17727,8 @@
       <c r="G5" s="199"/>
       <c r="H5" s="199"/>
     </row>
-    <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1"/>
-    <row r="7" spans="2:67" ht="30" customHeight="1">
+    <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="77" t="s">
         <v>138</v>
       </c>
@@ -17649,7 +17928,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="2:67">
+    <row r="8" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B8" s="81" t="s">
         <v>153</v>
       </c>
@@ -17719,7 +17998,7 @@
       <c r="BN8" s="61"/>
       <c r="BO8" s="83"/>
     </row>
-    <row r="9" spans="2:67">
+    <row r="9" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B9" s="84" t="s">
         <v>154</v>
       </c>
@@ -17789,7 +18068,7 @@
       <c r="BN9" s="62"/>
       <c r="BO9" s="42"/>
     </row>
-    <row r="10" spans="2:67">
+    <row r="10" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B10" s="84" t="s">
         <v>155</v>
       </c>
@@ -17859,7 +18138,7 @@
       <c r="BN10" s="62"/>
       <c r="BO10" s="42"/>
     </row>
-    <row r="11" spans="2:67">
+    <row r="11" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B11" s="84" t="s">
         <v>156</v>
       </c>
@@ -17929,7 +18208,7 @@
       <c r="BN11" s="62"/>
       <c r="BO11" s="42"/>
     </row>
-    <row r="12" spans="2:67">
+    <row r="12" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B12" s="84" t="s">
         <v>157</v>
       </c>
@@ -17999,7 +18278,7 @@
       <c r="BN12" s="62"/>
       <c r="BO12" s="42"/>
     </row>
-    <row r="13" spans="2:67">
+    <row r="13" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B13" s="84" t="s">
         <v>158</v>
       </c>
@@ -18069,7 +18348,7 @@
       <c r="BN13" s="62"/>
       <c r="BO13" s="42"/>
     </row>
-    <row r="14" spans="2:67" ht="16" thickBot="1">
+    <row r="14" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="84" t="s">
         <v>159</v>
       </c>
@@ -18139,7 +18418,7 @@
       <c r="BN14" s="62"/>
       <c r="BO14" s="42"/>
     </row>
-    <row r="15" spans="2:67" ht="16" thickBot="1">
+    <row r="15" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="85" t="s">
         <v>160</v>
       </c>
@@ -18209,7 +18488,7 @@
       <c r="BN15" s="87"/>
       <c r="BO15" s="88"/>
     </row>
-    <row r="16" spans="2:67">
+    <row r="16" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B16" s="84" t="s">
         <v>161</v>
       </c>
@@ -18279,7 +18558,7 @@
       <c r="BN16" s="62"/>
       <c r="BO16" s="42"/>
     </row>
-    <row r="17" spans="2:67" ht="16" thickBot="1">
+    <row r="17" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="84" t="s">
         <v>162</v>
       </c>
@@ -18349,7 +18628,7 @@
       <c r="BN17" s="62"/>
       <c r="BO17" s="42"/>
     </row>
-    <row r="18" spans="2:67" ht="16" thickBot="1">
+    <row r="18" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="85" t="s">
         <v>163</v>
       </c>
@@ -18419,7 +18698,7 @@
       <c r="BN18" s="87"/>
       <c r="BO18" s="88"/>
     </row>
-    <row r="19" spans="2:67">
+    <row r="19" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B19" s="84" t="s">
         <v>164</v>
       </c>
@@ -18489,7 +18768,7 @@
       <c r="BN19" s="62"/>
       <c r="BO19" s="42"/>
     </row>
-    <row r="20" spans="2:67">
+    <row r="20" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B20" s="84" t="s">
         <v>165</v>
       </c>
@@ -18559,7 +18838,7 @@
       <c r="BN20" s="62"/>
       <c r="BO20" s="42"/>
     </row>
-    <row r="21" spans="2:67">
+    <row r="21" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B21" s="84" t="s">
         <v>166</v>
       </c>
@@ -18629,7 +18908,7 @@
       <c r="BN21" s="62"/>
       <c r="BO21" s="42"/>
     </row>
-    <row r="22" spans="2:67">
+    <row r="22" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B22" s="84" t="s">
         <v>167</v>
       </c>
@@ -18699,7 +18978,7 @@
       <c r="BN22" s="62"/>
       <c r="BO22" s="42"/>
     </row>
-    <row r="23" spans="2:67">
+    <row r="23" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B23" s="84" t="s">
         <v>168</v>
       </c>
@@ -18769,7 +19048,7 @@
       <c r="BN23" s="62"/>
       <c r="BO23" s="42"/>
     </row>
-    <row r="24" spans="2:67">
+    <row r="24" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B24" s="89" t="s">
         <v>169</v>
       </c>
@@ -18839,7 +19118,7 @@
       <c r="BN24" s="90"/>
       <c r="BO24" s="46"/>
     </row>
-    <row r="25" spans="2:67">
+    <row r="25" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B25" s="84" t="s">
         <v>170</v>
       </c>
@@ -18909,7 +19188,7 @@
       <c r="BN25" s="62"/>
       <c r="BO25" s="42"/>
     </row>
-    <row r="26" spans="2:67">
+    <row r="26" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B26" s="84" t="s">
         <v>171</v>
       </c>
@@ -18979,7 +19258,7 @@
       <c r="BN26" s="62"/>
       <c r="BO26" s="42"/>
     </row>
-    <row r="27" spans="2:67">
+    <row r="27" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
         <v>172</v>
       </c>
@@ -19049,7 +19328,7 @@
       <c r="BN27" s="62"/>
       <c r="BO27" s="42"/>
     </row>
-    <row r="28" spans="2:67">
+    <row r="28" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B28" s="84" t="s">
         <v>352</v>
       </c>
@@ -19119,7 +19398,7 @@
       <c r="BN28" s="62"/>
       <c r="BO28" s="42"/>
     </row>
-    <row r="29" spans="2:67">
+    <row r="29" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B29" s="84" t="s">
         <v>353</v>
       </c>
@@ -19189,7 +19468,7 @@
       <c r="BN29" s="62"/>
       <c r="BO29" s="42"/>
     </row>
-    <row r="30" spans="2:67">
+    <row r="30" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B30" s="84" t="s">
         <v>354</v>
       </c>
@@ -19259,7 +19538,7 @@
       <c r="BN30" s="62"/>
       <c r="BO30" s="42"/>
     </row>
-    <row r="31" spans="2:67">
+    <row r="31" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B31" s="84" t="s">
         <v>355</v>
       </c>
@@ -19329,7 +19608,7 @@
       <c r="BN31" s="62"/>
       <c r="BO31" s="42"/>
     </row>
-    <row r="32" spans="2:67">
+    <row r="32" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B32" s="84" t="s">
         <v>356</v>
       </c>
@@ -19399,7 +19678,7 @@
       <c r="BN32" s="62"/>
       <c r="BO32" s="42"/>
     </row>
-    <row r="33" spans="2:67">
+    <row r="33" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B33" s="84" t="s">
         <v>357</v>
       </c>
@@ -19469,7 +19748,7 @@
       <c r="BN33" s="62"/>
       <c r="BO33" s="42"/>
     </row>
-    <row r="34" spans="2:67">
+    <row r="34" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B34" s="84" t="s">
         <v>173</v>
       </c>
@@ -19539,7 +19818,7 @@
       <c r="BN34" s="62"/>
       <c r="BO34" s="42"/>
     </row>
-    <row r="35" spans="2:67">
+    <row r="35" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B35" s="84" t="s">
         <v>358</v>
       </c>
@@ -19609,7 +19888,7 @@
       <c r="BN35" s="62"/>
       <c r="BO35" s="42"/>
     </row>
-    <row r="36" spans="2:67">
+    <row r="36" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B36" s="84" t="s">
         <v>359</v>
       </c>
@@ -19679,7 +19958,7 @@
       <c r="BN36" s="62"/>
       <c r="BO36" s="42"/>
     </row>
-    <row r="37" spans="2:67">
+    <row r="37" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B37" s="84" t="s">
         <v>174</v>
       </c>
@@ -19749,7 +20028,7 @@
       <c r="BN37" s="62"/>
       <c r="BO37" s="42"/>
     </row>
-    <row r="38" spans="2:67">
+    <row r="38" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B38" s="84" t="s">
         <v>175</v>
       </c>
@@ -19819,7 +20098,7 @@
       <c r="BN38" s="62"/>
       <c r="BO38" s="42"/>
     </row>
-    <row r="39" spans="2:67" ht="16" thickBot="1">
+    <row r="39" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="84" t="s">
         <v>176</v>
       </c>
@@ -19889,7 +20168,7 @@
       <c r="BN39" s="62"/>
       <c r="BO39" s="42"/>
     </row>
-    <row r="40" spans="2:67" ht="16" thickBot="1">
+    <row r="40" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="85" t="s">
         <v>177</v>
       </c>
@@ -19959,7 +20238,7 @@
       <c r="BN40" s="87"/>
       <c r="BO40" s="88"/>
     </row>
-    <row r="41" spans="2:67">
+    <row r="41" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B41" s="84" t="s">
         <v>178</v>
       </c>
@@ -20029,7 +20308,7 @@
       <c r="BN41" s="62"/>
       <c r="BO41" s="42"/>
     </row>
-    <row r="42" spans="2:67">
+    <row r="42" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B42" s="84" t="s">
         <v>179</v>
       </c>
@@ -20099,7 +20378,7 @@
       <c r="BN42" s="62"/>
       <c r="BO42" s="42"/>
     </row>
-    <row r="43" spans="2:67">
+    <row r="43" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B43" s="84" t="s">
         <v>360</v>
       </c>
@@ -20169,7 +20448,7 @@
       <c r="BN43" s="62"/>
       <c r="BO43" s="42"/>
     </row>
-    <row r="44" spans="2:67">
+    <row r="44" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B44" s="84" t="s">
         <v>361</v>
       </c>
@@ -20239,7 +20518,7 @@
       <c r="BN44" s="62"/>
       <c r="BO44" s="42"/>
     </row>
-    <row r="45" spans="2:67">
+    <row r="45" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B45" s="84" t="s">
         <v>180</v>
       </c>
@@ -20309,7 +20588,7 @@
       <c r="BN45" s="62"/>
       <c r="BO45" s="42"/>
     </row>
-    <row r="46" spans="2:67">
+    <row r="46" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B46" s="84" t="s">
         <v>362</v>
       </c>
@@ -20379,7 +20658,7 @@
       <c r="BN46" s="62"/>
       <c r="BO46" s="42"/>
     </row>
-    <row r="47" spans="2:67">
+    <row r="47" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B47" s="84" t="s">
         <v>363</v>
       </c>
@@ -20449,7 +20728,7 @@
       <c r="BN47" s="62"/>
       <c r="BO47" s="42"/>
     </row>
-    <row r="48" spans="2:67">
+    <row r="48" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B48" s="84" t="s">
         <v>364</v>
       </c>
@@ -20519,7 +20798,7 @@
       <c r="BN48" s="62"/>
       <c r="BO48" s="42"/>
     </row>
-    <row r="49" spans="2:67">
+    <row r="49" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B49" s="84" t="s">
         <v>365</v>
       </c>
@@ -20589,7 +20868,7 @@
       <c r="BN49" s="62"/>
       <c r="BO49" s="42"/>
     </row>
-    <row r="50" spans="2:67">
+    <row r="50" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B50" s="84" t="s">
         <v>366</v>
       </c>
@@ -20659,7 +20938,7 @@
       <c r="BN50" s="62"/>
       <c r="BO50" s="42"/>
     </row>
-    <row r="51" spans="2:67">
+    <row r="51" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B51" s="84" t="s">
         <v>181</v>
       </c>
@@ -20729,7 +21008,7 @@
       <c r="BN51" s="62"/>
       <c r="BO51" s="42"/>
     </row>
-    <row r="52" spans="2:67">
+    <row r="52" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B52" s="84" t="s">
         <v>367</v>
       </c>
@@ -20799,7 +21078,7 @@
       <c r="BN52" s="62"/>
       <c r="BO52" s="42"/>
     </row>
-    <row r="53" spans="2:67">
+    <row r="53" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B53" s="84" t="s">
         <v>182</v>
       </c>
@@ -20869,7 +21148,7 @@
       <c r="BN53" s="62"/>
       <c r="BO53" s="42"/>
     </row>
-    <row r="54" spans="2:67">
+    <row r="54" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B54" s="84" t="s">
         <v>183</v>
       </c>
@@ -20939,7 +21218,7 @@
       <c r="BN54" s="62"/>
       <c r="BO54" s="42"/>
     </row>
-    <row r="55" spans="2:67">
+    <row r="55" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B55" s="84" t="s">
         <v>184</v>
       </c>
@@ -21009,7 +21288,7 @@
       <c r="BN55" s="62"/>
       <c r="BO55" s="42"/>
     </row>
-    <row r="56" spans="2:67">
+    <row r="56" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B56" s="84" t="s">
         <v>175</v>
       </c>
@@ -21079,7 +21358,7 @@
       <c r="BN56" s="62"/>
       <c r="BO56" s="42"/>
     </row>
-    <row r="57" spans="2:67">
+    <row r="57" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B57" s="84" t="s">
         <v>185</v>
       </c>
@@ -21149,7 +21428,7 @@
       <c r="BN57" s="62"/>
       <c r="BO57" s="42"/>
     </row>
-    <row r="58" spans="2:67" ht="16" thickBot="1">
+    <row r="58" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="84" t="s">
         <v>186</v>
       </c>
@@ -21219,7 +21498,7 @@
       <c r="BN58" s="62"/>
       <c r="BO58" s="42"/>
     </row>
-    <row r="59" spans="2:67" ht="16" thickBot="1">
+    <row r="59" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="85" t="s">
         <v>187</v>
       </c>
@@ -21289,7 +21568,7 @@
       <c r="BN59" s="87"/>
       <c r="BO59" s="88"/>
     </row>
-    <row r="60" spans="2:67" ht="16" thickBot="1">
+    <row r="60" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="85" t="s">
         <v>31</v>
       </c>
@@ -21359,7 +21638,7 @@
       <c r="BN60" s="87"/>
       <c r="BO60" s="88"/>
     </row>
-    <row r="61" spans="2:67">
+    <row r="61" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B61" s="84" t="s">
         <v>188</v>
       </c>
@@ -21429,7 +21708,7 @@
       <c r="BN61" s="62"/>
       <c r="BO61" s="42"/>
     </row>
-    <row r="62" spans="2:67">
+    <row r="62" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B62" s="84" t="s">
         <v>189</v>
       </c>
@@ -21499,7 +21778,7 @@
       <c r="BN62" s="62"/>
       <c r="BO62" s="42"/>
     </row>
-    <row r="63" spans="2:67">
+    <row r="63" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B63" s="84" t="s">
         <v>190</v>
       </c>
@@ -21569,7 +21848,7 @@
       <c r="BN63" s="62"/>
       <c r="BO63" s="42"/>
     </row>
-    <row r="64" spans="2:67">
+    <row r="64" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B64" s="84" t="s">
         <v>191</v>
       </c>
@@ -21639,7 +21918,7 @@
       <c r="BN64" s="62"/>
       <c r="BO64" s="42"/>
     </row>
-    <row r="65" spans="2:67">
+    <row r="65" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B65" s="84" t="s">
         <v>192</v>
       </c>
@@ -21709,7 +21988,7 @@
       <c r="BN65" s="62"/>
       <c r="BO65" s="42"/>
     </row>
-    <row r="66" spans="2:67">
+    <row r="66" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B66" s="84" t="s">
         <v>193</v>
       </c>
@@ -21779,7 +22058,7 @@
       <c r="BN66" s="62"/>
       <c r="BO66" s="42"/>
     </row>
-    <row r="67" spans="2:67">
+    <row r="67" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B67" s="84" t="s">
         <v>194</v>
       </c>
@@ -21849,7 +22128,7 @@
       <c r="BN67" s="62"/>
       <c r="BO67" s="42"/>
     </row>
-    <row r="68" spans="2:67">
+    <row r="68" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B68" s="84" t="s">
         <v>195</v>
       </c>
@@ -21919,7 +22198,7 @@
       <c r="BN68" s="62"/>
       <c r="BO68" s="42"/>
     </row>
-    <row r="69" spans="2:67">
+    <row r="69" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B69" s="84" t="s">
         <v>196</v>
       </c>
@@ -21989,7 +22268,7 @@
       <c r="BN69" s="62"/>
       <c r="BO69" s="42"/>
     </row>
-    <row r="70" spans="2:67">
+    <row r="70" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B70" s="84" t="s">
         <v>197</v>
       </c>
@@ -22059,7 +22338,7 @@
       <c r="BN70" s="62"/>
       <c r="BO70" s="42"/>
     </row>
-    <row r="71" spans="2:67">
+    <row r="71" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B71" s="84" t="s">
         <v>198</v>
       </c>
@@ -22129,7 +22408,7 @@
       <c r="BN71" s="62"/>
       <c r="BO71" s="42"/>
     </row>
-    <row r="72" spans="2:67">
+    <row r="72" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B72" s="84" t="s">
         <v>199</v>
       </c>
@@ -22199,7 +22478,7 @@
       <c r="BN72" s="62"/>
       <c r="BO72" s="42"/>
     </row>
-    <row r="73" spans="2:67" ht="16" thickBot="1">
+    <row r="73" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="84" t="s">
         <v>200</v>
       </c>
@@ -22269,7 +22548,7 @@
       <c r="BN73" s="62"/>
       <c r="BO73" s="42"/>
     </row>
-    <row r="74" spans="2:67" ht="16" thickBot="1">
+    <row r="74" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="85" t="s">
         <v>201</v>
       </c>
@@ -22339,7 +22618,7 @@
       <c r="BN74" s="87"/>
       <c r="BO74" s="88"/>
     </row>
-    <row r="75" spans="2:67">
+    <row r="75" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B75" s="84" t="s">
         <v>202</v>
       </c>
@@ -22409,7 +22688,7 @@
       <c r="BN75" s="62"/>
       <c r="BO75" s="42"/>
     </row>
-    <row r="76" spans="2:67">
+    <row r="76" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B76" s="84" t="s">
         <v>203</v>
       </c>
@@ -22479,7 +22758,7 @@
       <c r="BN76" s="62"/>
       <c r="BO76" s="42"/>
     </row>
-    <row r="77" spans="2:67">
+    <row r="77" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B77" s="84" t="s">
         <v>204</v>
       </c>
@@ -22549,7 +22828,7 @@
       <c r="BN77" s="62"/>
       <c r="BO77" s="42"/>
     </row>
-    <row r="78" spans="2:67">
+    <row r="78" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B78" s="84" t="s">
         <v>205</v>
       </c>
@@ -22619,7 +22898,7 @@
       <c r="BN78" s="62"/>
       <c r="BO78" s="42"/>
     </row>
-    <row r="79" spans="2:67">
+    <row r="79" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B79" s="84" t="s">
         <v>206</v>
       </c>
@@ -22689,7 +22968,7 @@
       <c r="BN79" s="62"/>
       <c r="BO79" s="42"/>
     </row>
-    <row r="80" spans="2:67" ht="16" thickBot="1">
+    <row r="80" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="84" t="s">
         <v>207</v>
       </c>
@@ -22759,7 +23038,7 @@
       <c r="BN80" s="62"/>
       <c r="BO80" s="42"/>
     </row>
-    <row r="81" spans="2:67" ht="16" thickBot="1">
+    <row r="81" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="85" t="s">
         <v>93</v>
       </c>
@@ -22829,7 +23108,7 @@
       <c r="BN81" s="87"/>
       <c r="BO81" s="88"/>
     </row>
-    <row r="82" spans="2:67">
+    <row r="82" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B82" s="84" t="s">
         <v>208</v>
       </c>
@@ -22899,7 +23178,7 @@
       <c r="BN82" s="62"/>
       <c r="BO82" s="42"/>
     </row>
-    <row r="83" spans="2:67">
+    <row r="83" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B83" s="84" t="s">
         <v>209</v>
       </c>
@@ -22969,7 +23248,7 @@
       <c r="BN83"/>
       <c r="BO83"/>
     </row>
-    <row r="84" spans="2:67">
+    <row r="84" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B84" s="84" t="s">
         <v>210</v>
       </c>
@@ -23039,7 +23318,7 @@
       <c r="BN84" s="62"/>
       <c r="BO84" s="42"/>
     </row>
-    <row r="85" spans="2:67">
+    <row r="85" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B85" s="84" t="s">
         <v>211</v>
       </c>
@@ -23109,7 +23388,7 @@
       <c r="BN85" s="62"/>
       <c r="BO85" s="42"/>
     </row>
-    <row r="86" spans="2:67" ht="16" thickBot="1">
+    <row r="86" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="84" t="s">
         <v>212</v>
       </c>
@@ -23179,7 +23458,7 @@
       <c r="BN86" s="62"/>
       <c r="BO86" s="42"/>
     </row>
-    <row r="87" spans="2:67" ht="16" thickBot="1">
+    <row r="87" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="85" t="s">
         <v>213</v>
       </c>
@@ -23249,7 +23528,7 @@
       <c r="BN87" s="87"/>
       <c r="BO87" s="88"/>
     </row>
-    <row r="88" spans="2:67">
+    <row r="88" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B88" s="84" t="s">
         <v>214</v>
       </c>
@@ -23319,7 +23598,7 @@
       <c r="BN88" s="62"/>
       <c r="BO88" s="42"/>
     </row>
-    <row r="89" spans="2:67">
+    <row r="89" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B89" s="84" t="s">
         <v>215</v>
       </c>
@@ -23389,7 +23668,7 @@
       <c r="BN89" s="62"/>
       <c r="BO89" s="42"/>
     </row>
-    <row r="90" spans="2:67">
+    <row r="90" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B90" s="84" t="s">
         <v>216</v>
       </c>
@@ -23459,7 +23738,7 @@
       <c r="BN90" s="62"/>
       <c r="BO90" s="42"/>
     </row>
-    <row r="91" spans="2:67" ht="16" thickBot="1">
+    <row r="91" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="84" t="s">
         <v>217</v>
       </c>
@@ -23529,7 +23808,7 @@
       <c r="BN91" s="62"/>
       <c r="BO91" s="42"/>
     </row>
-    <row r="92" spans="2:67" ht="16" thickBot="1">
+    <row r="92" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B92" s="85" t="s">
         <v>218</v>
       </c>
@@ -23599,7 +23878,7 @@
       <c r="BN92" s="87"/>
       <c r="BO92" s="88"/>
     </row>
-    <row r="93" spans="2:67">
+    <row r="93" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B93" s="84" t="s">
         <v>219</v>
       </c>
@@ -23669,7 +23948,7 @@
       <c r="BN93" s="62"/>
       <c r="BO93" s="42"/>
     </row>
-    <row r="94" spans="2:67">
+    <row r="94" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B94" s="84" t="s">
         <v>220</v>
       </c>
@@ -23739,7 +24018,7 @@
       <c r="BN94" s="62"/>
       <c r="BO94" s="42"/>
     </row>
-    <row r="95" spans="2:67">
+    <row r="95" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B95" s="84" t="s">
         <v>221</v>
       </c>
@@ -23809,7 +24088,7 @@
       <c r="BN95" s="62"/>
       <c r="BO95" s="42"/>
     </row>
-    <row r="96" spans="2:67" ht="16" thickBot="1">
+    <row r="96" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="84" t="s">
         <v>222</v>
       </c>
@@ -23879,7 +24158,7 @@
       <c r="BN96" s="62"/>
       <c r="BO96" s="42"/>
     </row>
-    <row r="97" spans="2:67" ht="16" thickBot="1">
+    <row r="97" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="85" t="s">
         <v>223</v>
       </c>
@@ -23949,7 +24228,7 @@
       <c r="BN97" s="87"/>
       <c r="BO97" s="88"/>
     </row>
-    <row r="98" spans="2:67">
+    <row r="98" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B98" s="84" t="s">
         <v>224</v>
       </c>
@@ -24019,7 +24298,7 @@
       <c r="BN98" s="62"/>
       <c r="BO98" s="42"/>
     </row>
-    <row r="99" spans="2:67">
+    <row r="99" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B99" s="84" t="s">
         <v>225</v>
       </c>
@@ -24089,7 +24368,7 @@
       <c r="BN99" s="62"/>
       <c r="BO99" s="42"/>
     </row>
-    <row r="100" spans="2:67">
+    <row r="100" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B100" s="84" t="s">
         <v>226</v>
       </c>
@@ -24159,7 +24438,7 @@
       <c r="BN100" s="62"/>
       <c r="BO100" s="42"/>
     </row>
-    <row r="101" spans="2:67" ht="16" thickBot="1">
+    <row r="101" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="91" t="s">
         <v>227</v>
       </c>
@@ -24241,15 +24520,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet9">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
@@ -24265,7 +24544,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20">
+    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>237</v>
       </c>
@@ -24277,7 +24556,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="337" t="s">
         <v>94</v>
       </c>
@@ -24292,13 +24571,13 @@
       <c r="K4" s="342"/>
       <c r="L4" s="340"/>
     </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="403" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="408" t="s">
         <v>564</v>
       </c>
-      <c r="C5" s="404"/>
-      <c r="D5" s="404"/>
-      <c r="E5" s="405"/>
+      <c r="C5" s="409"/>
+      <c r="D5" s="409"/>
+      <c r="E5" s="410"/>
       <c r="F5" s="343"/>
       <c r="G5" s="224"/>
       <c r="H5" s="224"/>
@@ -24307,7 +24586,7 @@
       <c r="K5" s="224"/>
       <c r="L5" s="340"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1">
+    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -24317,7 +24596,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="324" t="s">
         <v>561</v>
       </c>
@@ -24339,7 +24618,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="30">
+    <row r="8" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="330" t="s">
         <v>339</v>
       </c>
@@ -24372,7 +24651,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1">
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="43"/>
       <c r="C9" s="10"/>
       <c r="D9" s="74"/>
@@ -24393,7 +24672,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="295"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="70"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
@@ -24406,7 +24685,7 @@
       <c r="K10" s="269"/>
       <c r="L10" s="349"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
         <v>91</v>
       </c>
@@ -24440,7 +24719,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="73"/>
       <c r="C12" s="17" t="s">
         <v>124</v>
@@ -24470,7 +24749,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="73"/>
       <c r="C13" s="17" t="s">
         <v>123</v>
@@ -24500,7 +24779,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
       <c r="C14" s="17" t="s">
         <v>125</v>
@@ -24532,7 +24811,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="73"/>
       <c r="C15" s="17" t="s">
         <v>127</v>
@@ -24564,7 +24843,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="73"/>
       <c r="C16" s="17" t="s">
         <v>128</v>
@@ -24596,7 +24875,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="E17" s="19"/>
       <c r="F17" s="356"/>
@@ -24608,7 +24887,7 @@
       <c r="L17" s="350"/>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="C18" s="17" t="s">
         <v>126</v>
@@ -24640,7 +24919,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="73"/>
       <c r="C19" s="17" t="s">
         <v>129</v>
@@ -24672,7 +24951,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
       <c r="C20" s="17" t="s">
         <v>130</v>
@@ -24704,7 +24983,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -24717,7 +24996,7 @@
       <c r="K21" s="360"/>
       <c r="L21" s="361"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="49" t="s">
         <v>104</v>
       </c>
@@ -24733,7 +25012,7 @@
       <c r="L22" s="363"/>
       <c r="M22" s="258"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="73"/>
       <c r="C23" s="17" t="s">
         <v>123</v>
@@ -24765,7 +25044,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
       <c r="C24" s="17" t="s">
         <v>124</v>
@@ -24797,7 +25076,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="73"/>
       <c r="C25" s="17" t="s">
         <v>132</v>
@@ -24829,7 +25108,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="43"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -24842,7 +25121,7 @@
       <c r="K26" s="364"/>
       <c r="L26" s="365"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="37" t="s">
         <v>90</v>
       </c>
@@ -24857,7 +25136,7 @@
       <c r="K27" s="360"/>
       <c r="L27" s="361"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
       <c r="C28" s="17" t="s">
         <v>133</v>
@@ -24880,7 +25159,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="73"/>
       <c r="C29" s="17" t="s">
         <v>134</v>
@@ -24903,7 +25182,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="73"/>
       <c r="C30" s="17" t="s">
         <v>333</v>
@@ -24935,7 +25214,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
       <c r="C31" s="17" t="s">
         <v>334</v>
@@ -24967,7 +25246,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
       <c r="C32" s="17" t="s">
         <v>135</v>
@@ -24999,7 +25278,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="16" thickBot="1">
+    <row r="33" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="47"/>
       <c r="C33" s="102"/>
       <c r="D33" s="102"/>
@@ -25012,27 +25291,27 @@
       <c r="K33" s="352"/>
       <c r="L33" s="353"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J34" s="145"/>
       <c r="K34" s="145"/>
       <c r="L34" s="350"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J35" s="145"/>
       <c r="K35" s="145"/>
       <c r="L35" s="350"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J36" s="145"/>
       <c r="K36" s="145"/>
       <c r="L36" s="350"/>
     </row>
-    <row r="37" spans="2:12" ht="23">
+    <row r="37" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="J37" s="354"/>
       <c r="K37" s="145"/>
       <c r="L37" s="350"/>
     </row>
-    <row r="38" spans="2:12" ht="23">
+    <row r="38" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="J38" s="354"/>
       <c r="K38" s="145"/>
       <c r="L38" s="350"/>

--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Git/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F2CB75-81BE-524A-A671-209AE834EA30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9332A74-E481-D147-A50D-96ECA217F18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="929" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" tabRatio="929" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -47,30 +47,41 @@
   <definedNames>
     <definedName name="base_year">Dashboard!$E$12</definedName>
     <definedName name="country">Dashboard!$E$11</definedName>
-    <definedName name="Eff_cooling_airco">technical_specs!$L$25</definedName>
-    <definedName name="Eff_cooling_pump">technical_specs!$L$23</definedName>
-    <definedName name="Eff_cooling_pump_storage">technical_specs!$L$24</definedName>
-    <definedName name="Eff_lighting_lamp_fluorescent">technical_specs!$L$29</definedName>
-    <definedName name="Eff_lighting_lamp_incandescent">technical_specs!$L$28</definedName>
-    <definedName name="Eff_lighting_led">technical_specs!$L$32</definedName>
-    <definedName name="Eff_lighting_tube_fluorescent_efficient">technical_specs!$L$31</definedName>
-    <definedName name="Eff_lighting_tube_fluorescent_standartd">technical_specs!$L$30</definedName>
+    <definedName name="Eff_cooling_air_heatpump">technical_specs!$L$27</definedName>
+    <definedName name="Eff_cooling_airco">technical_specs!$L$26</definedName>
+    <definedName name="Eff_cooling_pump">technical_specs!$L$24</definedName>
+    <definedName name="Eff_cooling_pump_storage">technical_specs!$L$25</definedName>
+    <definedName name="Eff_lighting_lamp_fluorescent">technical_specs!$L$31</definedName>
+    <definedName name="Eff_lighting_lamp_incandescent">technical_specs!$L$30</definedName>
+    <definedName name="Eff_lighting_led">technical_specs!$L$34</definedName>
+    <definedName name="Eff_lighting_tube_fluorescent_efficient">technical_specs!$L$33</definedName>
+    <definedName name="Eff_lighting_tube_fluorescent_standartd">technical_specs!$L$32</definedName>
+    <definedName name="Eff_space_heating_air_heatpump">technical_specs!$M$18+technical_specs!$L$17</definedName>
     <definedName name="Eff_space_heating_coal">technical_specs!$L$15</definedName>
-    <definedName name="Eff_space_heating_district">technical_specs!$L$20</definedName>
+    <definedName name="Eff_space_heating_district">technical_specs!$L$21</definedName>
     <definedName name="Eff_space_heating_electric">technical_specs!$L$14</definedName>
     <definedName name="Eff_space_heating_gas">technical_specs!$L$11</definedName>
     <definedName name="Eff_space_heating_oil">technical_specs!$L$16</definedName>
     <definedName name="Eff_space_heating_pump_gas">technical_specs!$L$13</definedName>
     <definedName name="Eff_space_heating_pump_storage">technical_specs!$L$12</definedName>
-    <definedName name="Eff_space_heating_solar_thermal">technical_specs!$L$18</definedName>
-    <definedName name="Eff_space_heating_woodpellets">technical_specs!$L$19</definedName>
+    <definedName name="Eff_space_heating_solar_thermal">technical_specs!$L$19</definedName>
+    <definedName name="Eff_space_heating_woodpellets">technical_specs!$L$20</definedName>
     <definedName name="Final_demand_lighting">Dashboard!$E$25</definedName>
     <definedName name="Final_demand_residences">'Fuel aggregation'!$L$11</definedName>
     <definedName name="Final_demand_space_cooling">Dashboard!$E$24</definedName>
     <definedName name="Final_demand_space_heating">Dashboard!$E$23</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -84,13 +95,13 @@
     <author>Quintel Intelligence</author>
   </authors>
   <commentList>
-    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -99,17 +110,26 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-These technologies are currently not supported by the ETM
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">These technologies are currently not supported by the ETM
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -189,8 +209,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="636">
   <si>
     <t>Changelog</t>
   </si>
@@ -1980,9 +2022,6 @@
     <t>buildings_space_heater_crude_oil.converter</t>
   </si>
   <si>
-    <t>buildings_space_heater_solar_thermal.converter</t>
-  </si>
-  <si>
     <t>buildings_space_heater_wood_pellets.converter</t>
   </si>
   <si>
@@ -2204,6 +2243,42 @@
   </si>
   <si>
     <t>A CSV-file with a converter output share (parent_share) that sends part of the energy flow to the industry sector, and the rest to the services sector.</t>
+  </si>
+  <si>
+    <t>buildings_space_heater_heatpump_air_water_electricity</t>
+  </si>
+  <si>
+    <t>Electric air heat pump</t>
+  </si>
+  <si>
+    <t>Electric air heatpumps</t>
+  </si>
+  <si>
+    <t>Electric air heatpump</t>
+  </si>
+  <si>
+    <t>buildings_cooling_heatpump_air_water_electricity.converter</t>
+  </si>
+  <si>
+    <t>Eff_cooling_air_heatpump</t>
+  </si>
+  <si>
+    <t>buildings_space_heater_heatpump_air_water_electricity.converter</t>
+  </si>
+  <si>
+    <t>buildings_cooling_heatpump_air_water_electricity</t>
+  </si>
+  <si>
+    <t>Eff_space_heating_air_heatpump</t>
+  </si>
+  <si>
+    <t>services_space_heating_share_air_heatpump</t>
+  </si>
+  <si>
+    <t>services_space_cooling_share_air_heatpump</t>
+  </si>
+  <si>
+    <t>buildings_space_heater_solar_thermal</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2291,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2445,6 +2520,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -4984,7 +5072,6 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5237,6 +5324,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6650,7 +6738,7 @@
     <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -9233,7 +9321,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9302,7 +9390,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9371,7 +9459,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -9853,7 +9941,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -10082,7 +10170,7 @@
     </row>
     <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="405" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C5" s="407"/>
       <c r="D5" s="407"/>
@@ -10093,7 +10181,7 @@
       <c r="B7" s="201" t="s">
         <v>488</v>
       </c>
-      <c r="C7" s="283" t="s">
+      <c r="C7" s="282" t="s">
         <v>339</v>
       </c>
       <c r="D7" s="167" t="s">
@@ -10104,7 +10192,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="279" t="s">
+      <c r="B8" s="278" t="s">
         <v>267</v>
       </c>
       <c r="C8" s="169"/>
@@ -10112,7 +10200,7 @@
       <c r="E8" s="136"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="280"/>
+      <c r="B9" s="279"/>
       <c r="C9" s="18" t="s">
         <v>121</v>
       </c>
@@ -10120,13 +10208,13 @@
         <f>SUM('Final demand per energy carrier'!E15:E23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E9" s="249" t="e">
+      <c r="E9" s="248" t="e">
         <f>IF(SUM($D$9:$D$10)=0,0,D9/SUM($D$9:$D$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="280"/>
+      <c r="B10" s="279"/>
       <c r="C10" s="18" t="s">
         <v>305</v>
       </c>
@@ -10134,7 +10222,7 @@
         <f>'Final demand per energy carrier'!E45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="249" t="e">
+      <c r="E10" s="248" t="e">
         <f>IF(SUM($D$9:$D$10)=0,1,D10/SUM($D$9:$D$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -10143,18 +10231,18 @@
       <c r="B11" s="37"/>
       <c r="C11" s="7"/>
       <c r="D11" s="217"/>
-      <c r="E11" s="250"/>
+      <c r="E11" s="249"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="279" t="s">
-        <v>597</v>
+      <c r="B12" s="278" t="s">
+        <v>596</v>
       </c>
       <c r="C12" s="169"/>
       <c r="D12" s="223"/>
-      <c r="E12" s="252"/>
+      <c r="E12" s="251"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="280"/>
+      <c r="B13" s="279"/>
       <c r="C13" s="18" t="s">
         <v>121</v>
       </c>
@@ -10162,13 +10250,13 @@
         <f>SUM('Final demand per energy carrier'!F15:F23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="249" t="e">
+      <c r="E13" s="248" t="e">
         <f>IF(SUM($D$13:$D$15)=0,0,D13/SUM($D$13:$D$15))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="280"/>
+      <c r="B14" s="279"/>
       <c r="C14" s="18" t="s">
         <v>120</v>
       </c>
@@ -10176,13 +10264,13 @@
         <f>SUM('Final demand per energy carrier'!F26:F28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="249" t="e">
+      <c r="E14" s="248" t="e">
         <f>IF(SUM($D$13:$D$15)=0,0,D14/SUM($D$13:$D$15))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="280"/>
+      <c r="B15" s="279"/>
       <c r="C15" s="18" t="s">
         <v>305</v>
       </c>
@@ -10190,27 +10278,27 @@
         <f>'Final demand per energy carrier'!F45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="249" t="e">
+      <c r="E15" s="248" t="e">
         <f>IF(SUM($D$13:$D$15)=0,1,D15/SUM($D$13:$D$15))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="281"/>
+      <c r="B16" s="280"/>
       <c r="C16" s="7"/>
       <c r="D16" s="217"/>
-      <c r="E16" s="253"/>
+      <c r="E16" s="252"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="279" t="s">
+      <c r="B17" s="278" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="169"/>
       <c r="D17" s="223"/>
-      <c r="E17" s="252"/>
+      <c r="E17" s="251"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="280"/>
+      <c r="B18" s="279"/>
       <c r="C18" s="18" t="s">
         <v>121</v>
       </c>
@@ -10218,13 +10306,13 @@
         <f>SUM('Final demand per energy carrier'!G15:G23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="249" t="e">
+      <c r="E18" s="248" t="e">
         <f>IF(SUM($D$18:$D$19)=0,0,D18/SUM($D$18:$D$19))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="280"/>
+      <c r="B19" s="279"/>
       <c r="C19" s="18" t="s">
         <v>305</v>
       </c>
@@ -10232,27 +10320,27 @@
         <f>'Final demand per energy carrier'!G45</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="249" t="e">
+      <c r="E19" s="248" t="e">
         <f>IF(SUM($D$18:$D$19)=0,1,D19/SUM($D$18:$D$19))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="280"/>
+      <c r="B20" s="279"/>
       <c r="C20" s="7"/>
       <c r="D20" s="217"/>
-      <c r="E20" s="253"/>
+      <c r="E20" s="252"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="279" t="s">
+      <c r="B21" s="278" t="s">
         <v>303</v>
       </c>
       <c r="C21" s="169"/>
       <c r="D21" s="223"/>
-      <c r="E21" s="252"/>
+      <c r="E21" s="251"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="280"/>
+      <c r="B22" s="279"/>
       <c r="C22" s="18" t="s">
         <v>121</v>
       </c>
@@ -10260,13 +10348,13 @@
         <f>SUM('Final demand per energy carrier'!J15:J23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="249" t="e">
+      <c r="E22" s="248" t="e">
         <f>IF(SUM($D$22:$D$25)=0,0,D22/SUM($D$22:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="280"/>
+      <c r="B23" s="279"/>
       <c r="C23" s="18" t="s">
         <v>120</v>
       </c>
@@ -10274,13 +10362,13 @@
         <f>SUM('Final demand per energy carrier'!J26:J28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="249" t="e">
+      <c r="E23" s="248" t="e">
         <f t="shared" ref="E23:E24" si="0">IF(SUM($D$22:$D$25)=0,0,D23/SUM($D$22:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="280"/>
+      <c r="B24" s="279"/>
       <c r="C24" s="18" t="s">
         <v>90</v>
       </c>
@@ -10288,13 +10376,13 @@
         <f>SUM('Final demand per energy carrier'!J31:J35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="249" t="e">
+      <c r="E24" s="248" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="280"/>
+      <c r="B25" s="279"/>
       <c r="C25" s="18" t="s">
         <v>264</v>
       </c>
@@ -10302,52 +10390,52 @@
         <f>'Final demand per energy carrier'!J44</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="249" t="e">
+      <c r="E25" s="248" t="e">
         <f>IF(SUM($D$22:$D$25)=0,1,D25/SUM($D$22:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="279" t="s">
+      <c r="B26" s="278" t="s">
         <v>303</v>
       </c>
       <c r="C26" s="169"/>
       <c r="D26" s="223"/>
-      <c r="E26" s="252"/>
+      <c r="E26" s="251"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="280"/>
+      <c r="B27" s="279"/>
       <c r="C27" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D27" s="222" t="e">
         <f>SUM(D22:D25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="249" t="e">
+      <c r="E27" s="248" t="e">
         <f>IF(SUM($D$27:$D$28)=0,1,D27/SUM($D$27:$D$28))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="280"/>
+      <c r="B28" s="279"/>
       <c r="C28" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D28" s="222">
         <f>SUM('Final demand per energy carrier'!J41)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="249" t="e">
+      <c r="E28" s="248" t="e">
         <f>IF(SUM($D$27:$D$28)=0,0,D28/SUM($D$27:$D$28))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="282"/>
+      <c r="B29" s="281"/>
       <c r="C29" s="154"/>
       <c r="D29" s="166"/>
-      <c r="E29" s="254"/>
+      <c r="E29" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10368,10 +10456,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:F25"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10414,10 +10502,10 @@
       <c r="B7" s="201" t="s">
         <v>487</v>
       </c>
-      <c r="C7" s="274" t="s">
+      <c r="C7" s="273" t="s">
         <v>488</v>
       </c>
-      <c r="D7" s="283" t="s">
+      <c r="D7" s="282" t="s">
         <v>228</v>
       </c>
       <c r="E7" s="167" t="s">
@@ -10428,16 +10516,16 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="279" t="s">
+      <c r="B8" s="278" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="276"/>
+      <c r="C8" s="275"/>
       <c r="D8" s="169"/>
       <c r="E8" s="4"/>
       <c r="F8" s="136"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="280"/>
+      <c r="B9" s="279"/>
       <c r="C9" s="60" t="s">
         <v>489</v>
       </c>
@@ -10448,13 +10536,13 @@
         <f>'Technology split final demand'!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="249" t="e">
+      <c r="F9" s="248" t="e">
         <f>IF(SUM($E$9:$E$10)=0,1,E9/SUM($E$9:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="280"/>
+      <c r="B10" s="279"/>
       <c r="C10" s="60"/>
       <c r="D10" s="18" t="s">
         <v>123</v>
@@ -10463,20 +10551,20 @@
         <f>'Technology split final demand'!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="249" t="e">
+      <c r="F10" s="248" t="e">
         <f>IF(SUM($E$9:$E$10)=0,0,E10/SUM($E$9:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="37"/>
-      <c r="C11" s="277"/>
+      <c r="C11" s="276"/>
       <c r="D11" s="7"/>
       <c r="E11" s="172"/>
-      <c r="F11" s="250"/>
+      <c r="F11" s="249"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="280"/>
+      <c r="B12" s="279"/>
       <c r="C12" s="60" t="s">
         <v>490</v>
       </c>
@@ -10487,13 +10575,13 @@
         <f>'Technology split final demand'!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="249" t="e">
-        <f>IF(SUM($E$12:$E$13)=0,1,E12/SUM($E$12:$E$13))</f>
+      <c r="F12" s="248" t="e">
+        <f>IF(SUM($E$12:$E$14)=0,1,E12/SUM($E$12:$E$14))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="280"/>
+      <c r="B13" s="279"/>
       <c r="C13" s="60"/>
       <c r="D13" s="18" t="s">
         <v>125</v>
@@ -10502,158 +10590,188 @@
         <f>'Technology split final demand'!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="249" t="e">
-        <f>IF(SUM($E$12:$E$13)=0,0,E13/SUM($E$12:$E$13))</f>
+      <c r="F13" s="248" t="e">
+        <f t="shared" ref="F13:F14" si="0">IF(SUM($E$12:$E$14)=0,1,E13/SUM($E$12:$E$14))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="281"/>
-      <c r="C14" s="278"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="253"/>
+      <c r="B14" s="279"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="E14" s="187" t="e">
+        <f>'Technology split final demand'!G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="248" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="279" t="s">
+      <c r="B15" s="280"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="252"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="278" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="276"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="252"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="280"/>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="275"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="250"/>
+      <c r="F16" s="251"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="279"/>
+      <c r="C17" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="E16" s="187" t="e">
-        <f>'Technology split final demand'!G24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="249" t="e">
-        <f>IF(SUM($E$16:$E$17)=0,0,E16/SUM($E$16:$E$17))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="280"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="18" t="s">
-        <v>132</v>
       </c>
       <c r="E17" s="187" t="e">
         <f>'Technology split final demand'!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="249" t="e">
-        <f>IF(SUM($E$16:$E$17)=0,1,E17/SUM($E$16:$E$17))</f>
+      <c r="F17" s="248" t="e">
+        <f>IF(SUM($E$17:$E$19)=0,0,E17/SUM($E$17:$E$19))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="280"/>
+      <c r="B18" s="279"/>
       <c r="C18" s="60"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="253"/>
+      <c r="D18" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="187" t="e">
+        <f>'Technology split final demand'!G26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="248" t="e">
+        <f t="shared" ref="F18:F19" si="1">IF(SUM($E$17:$E$19)=0,0,E18/SUM($E$17:$E$19))</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="279" t="s">
+      <c r="B19" s="279"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="E19" s="187" t="e">
+        <f>'Technology split final demand'!G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="248" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="279"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="252"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="276"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="251"/>
-      <c r="F19" s="252"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="280"/>
-      <c r="C20" s="60" t="s">
+      <c r="C21" s="275"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="251"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="279"/>
+      <c r="C22" s="60" t="s">
         <v>491</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="E20" s="187" t="e">
-        <f>'Technology split final demand'!G28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="249" t="e">
-        <f>IF(SUM($E$20:$E$24)=0,1,E20/SUM($E$20:$E$24))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="280"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="187" t="e">
-        <f>'Technology split final demand'!G29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="249" t="e">
-        <f>IF(SUM($E$20:$E$24)=0,0,E21/SUM($E$20:$E$24))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="280"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="18" t="s">
-        <v>333</v>
       </c>
       <c r="E22" s="187" t="e">
         <f>'Technology split final demand'!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="249" t="e">
-        <f>IF(SUM($E$20:$E$24)=0,0,E22/SUM($E$20:$E$24))</f>
+      <c r="F22" s="248" t="e">
+        <f>IF(SUM($E$22:$E$26)=0,1,E22/SUM($E$22:$E$26))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="280"/>
+      <c r="B23" s="279"/>
       <c r="C23" s="60"/>
       <c r="D23" s="18" t="s">
-        <v>334</v>
+        <v>134</v>
       </c>
       <c r="E23" s="187" t="e">
         <f>'Technology split final demand'!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="249" t="e">
-        <f>IF(SUM($E$20:$E$24)=0,0,E23/SUM($E$20:$E$24))</f>
+      <c r="F23" s="248" t="e">
+        <f>IF(SUM($E$22:$E$26)=0,0,E23/SUM($E$22:$E$26))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="280"/>
+      <c r="B24" s="279"/>
       <c r="C24" s="60"/>
       <c r="D24" s="18" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="E24" s="187" t="e">
         <f>'Technology split final demand'!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="249" t="e">
-        <f>IF(SUM($E$20:$E$24)=0,0,E24/SUM($E$20:$E$24))</f>
+      <c r="F24" s="248" t="e">
+        <f>IF(SUM($E$22:$E$26)=0,0,E24/SUM($E$22:$E$26))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="282"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="243"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="279"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="187" t="e">
+        <f>'Technology split final demand'!G33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="248" t="e">
+        <f>IF(SUM($E$22:$E$26)=0,0,E25/SUM($E$22:$E$26))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="279"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="187" t="e">
+        <f>'Technology split final demand'!G34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="248" t="e">
+        <f>IF(SUM($E$22:$E$26)=0,0,E26/SUM($E$22:$E$26))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="281"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10787,13 +10905,13 @@
         <v>131</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>480</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G9" s="69" t="s">
         <v>481</v>
@@ -10876,13 +10994,13 @@
       <c r="B13" s="73"/>
       <c r="C13" s="72"/>
       <c r="D13" s="71"/>
-      <c r="E13" s="397"/>
-      <c r="F13" s="397"/>
-      <c r="G13" s="397"/>
-      <c r="H13" s="397"/>
-      <c r="I13" s="397"/>
-      <c r="J13" s="397"/>
-      <c r="K13" s="398"/>
+      <c r="E13" s="396"/>
+      <c r="F13" s="396"/>
+      <c r="G13" s="396"/>
+      <c r="H13" s="396"/>
+      <c r="I13" s="396"/>
+      <c r="J13" s="396"/>
+      <c r="K13" s="397"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="49" t="s">
@@ -10890,13 +11008,13 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="387"/>
-      <c r="F14" s="387"/>
-      <c r="G14" s="387"/>
-      <c r="H14" s="387"/>
-      <c r="I14" s="387"/>
-      <c r="J14" s="387"/>
-      <c r="K14" s="388"/>
+      <c r="E14" s="386"/>
+      <c r="F14" s="386"/>
+      <c r="G14" s="386"/>
+      <c r="H14" s="386"/>
+      <c r="I14" s="386"/>
+      <c r="J14" s="386"/>
+      <c r="K14" s="387"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -10908,16 +11026,16 @@
         <f>'Technology split final demand'!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="383"/>
-      <c r="F15" s="257" t="e">
+      <c r="E15" s="382"/>
+      <c r="F15" s="256" t="e">
         <f>D15*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="257"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="257"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="384"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="383"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
@@ -10929,16 +11047,16 @@
         <f>'Technology split final demand'!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="383"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="257" t="e">
+      <c r="E16" s="382"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256" t="e">
         <f>D16*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="384"/>
+      <c r="K16" s="383"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
@@ -10950,16 +11068,16 @@
         <f>'Technology split final demand'!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="383"/>
-      <c r="F17" s="257" t="e">
+      <c r="E17" s="382"/>
+      <c r="F17" s="256" t="e">
         <f>D17*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="257"/>
-      <c r="H17" s="257"/>
-      <c r="I17" s="257"/>
-      <c r="J17" s="257"/>
-      <c r="K17" s="384"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="256"/>
+      <c r="K17" s="383"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
@@ -10971,16 +11089,16 @@
         <f>'Technology split final demand'!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="383"/>
-      <c r="F18" s="257"/>
-      <c r="G18" s="257"/>
-      <c r="H18" s="257"/>
-      <c r="I18" s="257"/>
-      <c r="J18" s="257" t="e">
+      <c r="E18" s="382"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="256" t="e">
         <f>D18*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="384"/>
+      <c r="K18" s="383"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -10992,16 +11110,16 @@
         <f>'Technology split final demand'!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="257" t="e">
+      <c r="E19" s="256" t="e">
         <f>D19*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="257"/>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="257"/>
-      <c r="K19" s="384"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="383"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
@@ -11013,16 +11131,16 @@
         <f>'Technology split final demand'!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="383"/>
-      <c r="F20" s="257"/>
-      <c r="G20" s="257" t="e">
+      <c r="E20" s="382"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256" t="e">
         <f>D20*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="257"/>
-      <c r="I20" s="257"/>
-      <c r="J20" s="257"/>
-      <c r="K20" s="384"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="256"/>
+      <c r="K20" s="383"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
@@ -11030,19 +11148,19 @@
         <v>126</v>
       </c>
       <c r="D21" s="75" t="e">
-        <f>'Technology split final demand'!G18</f>
+        <f>'Technology split final demand'!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
-      <c r="H21" s="257"/>
-      <c r="I21" s="257" t="e">
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256" t="e">
         <f>D21*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="257"/>
-      <c r="K21" s="384"/>
+      <c r="J21" s="256"/>
+      <c r="K21" s="383"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
@@ -11051,19 +11169,19 @@
         <v>129</v>
       </c>
       <c r="D22" s="75" t="e">
-        <f>'Technology split final demand'!G19</f>
+        <f>'Technology split final demand'!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
-      <c r="H22" s="257" t="e">
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256" t="e">
         <f>D22*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="257"/>
-      <c r="J22" s="257"/>
-      <c r="K22" s="384"/>
+      <c r="I22" s="256"/>
+      <c r="J22" s="256"/>
+      <c r="K22" s="383"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
@@ -11072,16 +11190,16 @@
         <v>130</v>
       </c>
       <c r="D23" s="75" t="e">
-        <f>'Technology split final demand'!G20</f>
+        <f>'Technology split final demand'!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="257"/>
-      <c r="F23" s="257"/>
-      <c r="G23" s="257"/>
-      <c r="H23" s="257"/>
-      <c r="I23" s="257"/>
-      <c r="J23" s="257"/>
-      <c r="K23" s="384" t="e">
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="256"/>
+      <c r="K23" s="383" t="e">
         <f>D23*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
@@ -11091,13 +11209,13 @@
       <c r="B24" s="30"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="385"/>
-      <c r="F24" s="385"/>
-      <c r="G24" s="385"/>
-      <c r="H24" s="385"/>
-      <c r="I24" s="385"/>
-      <c r="J24" s="385"/>
-      <c r="K24" s="386"/>
+      <c r="E24" s="384"/>
+      <c r="F24" s="384"/>
+      <c r="G24" s="384"/>
+      <c r="H24" s="384"/>
+      <c r="I24" s="384"/>
+      <c r="J24" s="384"/>
+      <c r="K24" s="385"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="49" t="s">
@@ -11105,13 +11223,13 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="387"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="387"/>
-      <c r="H25" s="387"/>
-      <c r="I25" s="387"/>
-      <c r="J25" s="387"/>
-      <c r="K25" s="388"/>
+      <c r="E25" s="386"/>
+      <c r="F25" s="386"/>
+      <c r="G25" s="386"/>
+      <c r="H25" s="386"/>
+      <c r="I25" s="386"/>
+      <c r="J25" s="386"/>
+      <c r="K25" s="387"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
@@ -11119,19 +11237,19 @@
         <v>123</v>
       </c>
       <c r="D26" s="75" t="e">
-        <f>'Technology split final demand'!G23</f>
+        <f>'Technology split final demand'!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="257"/>
-      <c r="F26" s="257" t="e">
+      <c r="E26" s="256"/>
+      <c r="F26" s="256" t="e">
         <f>D26*Final_demand_space_cooling</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="257"/>
-      <c r="H26" s="257"/>
-      <c r="I26" s="257"/>
-      <c r="J26" s="257"/>
-      <c r="K26" s="384"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="256"/>
+      <c r="K26" s="383"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
@@ -11139,19 +11257,19 @@
         <v>124</v>
       </c>
       <c r="D27" s="75" t="e">
-        <f>'Technology split final demand'!G24</f>
+        <f>'Technology split final demand'!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="257"/>
-      <c r="F27" s="257"/>
-      <c r="G27" s="257"/>
-      <c r="H27" s="257"/>
-      <c r="I27" s="257"/>
-      <c r="J27" s="257" t="e">
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="256" t="e">
         <f>D27*Final_demand_space_cooling</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="384"/>
+      <c r="K27" s="383"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
@@ -11159,31 +11277,31 @@
         <v>132</v>
       </c>
       <c r="D28" s="75" t="e">
-        <f>'Technology split final demand'!G25</f>
+        <f>'Technology split final demand'!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="257"/>
-      <c r="F28" s="257"/>
-      <c r="G28" s="257"/>
-      <c r="H28" s="257"/>
-      <c r="I28" s="257"/>
-      <c r="J28" s="257" t="e">
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="256" t="e">
         <f>D28*Final_demand_space_cooling</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="384"/>
+      <c r="K28" s="383"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="43"/>
       <c r="C29" s="10"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="389"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="389"/>
-      <c r="H29" s="389"/>
-      <c r="I29" s="389"/>
-      <c r="J29" s="389"/>
-      <c r="K29" s="390"/>
+      <c r="E29" s="388"/>
+      <c r="F29" s="388"/>
+      <c r="G29" s="388"/>
+      <c r="H29" s="388"/>
+      <c r="I29" s="388"/>
+      <c r="J29" s="388"/>
+      <c r="K29" s="389"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="37" t="s">
@@ -11191,13 +11309,13 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="385"/>
-      <c r="F30" s="385"/>
-      <c r="G30" s="385"/>
-      <c r="H30" s="385"/>
-      <c r="I30" s="385"/>
-      <c r="J30" s="385"/>
-      <c r="K30" s="386"/>
+      <c r="E30" s="384"/>
+      <c r="F30" s="384"/>
+      <c r="G30" s="384"/>
+      <c r="H30" s="384"/>
+      <c r="I30" s="384"/>
+      <c r="J30" s="384"/>
+      <c r="K30" s="385"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
@@ -11205,19 +11323,19 @@
         <v>133</v>
       </c>
       <c r="D31" s="75" t="e">
-        <f>'Technology split final demand'!G28</f>
+        <f>'Technology split final demand'!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="257"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="257"/>
-      <c r="I31" s="257"/>
-      <c r="J31" s="257" t="e">
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="256" t="e">
         <f>D31*Final_demand_lighting</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="384"/>
+      <c r="K31" s="383"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
@@ -11225,19 +11343,19 @@
         <v>134</v>
       </c>
       <c r="D32" s="75" t="e">
-        <f>'Technology split final demand'!G29</f>
+        <f>'Technology split final demand'!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="257"/>
-      <c r="F32" s="257"/>
-      <c r="G32" s="257"/>
-      <c r="H32" s="257"/>
-      <c r="I32" s="257"/>
-      <c r="J32" s="257" t="e">
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="256" t="e">
         <f>D32*Final_demand_lighting</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="384"/>
+      <c r="K32" s="383"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>
@@ -11245,19 +11363,19 @@
         <v>333</v>
       </c>
       <c r="D33" s="75" t="e">
-        <f>'Technology split final demand'!G30</f>
+        <f>'Technology split final demand'!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="257"/>
-      <c r="F33" s="257"/>
-      <c r="G33" s="257"/>
-      <c r="H33" s="257"/>
-      <c r="I33" s="257"/>
-      <c r="J33" s="257" t="e">
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="256" t="e">
         <f>D33*Final_demand_lighting</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="384"/>
+      <c r="K33" s="383"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="73"/>
@@ -11265,19 +11383,19 @@
         <v>334</v>
       </c>
       <c r="D34" s="75" t="e">
-        <f>'Technology split final demand'!G31</f>
+        <f>'Technology split final demand'!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="257"/>
-      <c r="F34" s="257"/>
-      <c r="G34" s="257"/>
-      <c r="H34" s="257"/>
-      <c r="I34" s="257"/>
-      <c r="J34" s="257" t="e">
+      <c r="E34" s="256"/>
+      <c r="F34" s="256"/>
+      <c r="G34" s="256"/>
+      <c r="H34" s="256"/>
+      <c r="I34" s="256"/>
+      <c r="J34" s="256" t="e">
         <f>D34*Final_demand_lighting</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="384"/>
+      <c r="K34" s="383"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="73"/>
@@ -11285,31 +11403,31 @@
         <v>135</v>
       </c>
       <c r="D35" s="75" t="e">
-        <f>'Technology split final demand'!G32</f>
+        <f>'Technology split final demand'!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="257"/>
-      <c r="F35" s="257"/>
-      <c r="G35" s="257"/>
-      <c r="H35" s="257"/>
-      <c r="I35" s="257"/>
-      <c r="J35" s="257" t="e">
+      <c r="E35" s="256"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="256"/>
+      <c r="H35" s="256"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="256" t="e">
         <f>D35*Final_demand_lighting</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="384"/>
+      <c r="K35" s="383"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="43"/>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="389"/>
-      <c r="F36" s="389"/>
-      <c r="G36" s="389"/>
-      <c r="H36" s="389"/>
-      <c r="I36" s="389"/>
-      <c r="J36" s="389"/>
-      <c r="K36" s="390"/>
+      <c r="E36" s="388"/>
+      <c r="F36" s="388"/>
+      <c r="G36" s="388"/>
+      <c r="H36" s="388"/>
+      <c r="I36" s="388"/>
+      <c r="J36" s="388"/>
+      <c r="K36" s="389"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="37" t="s">
@@ -11317,45 +11435,45 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="385"/>
-      <c r="F37" s="385"/>
-      <c r="G37" s="385"/>
-      <c r="H37" s="385"/>
-      <c r="I37" s="385"/>
-      <c r="J37" s="385"/>
-      <c r="K37" s="386"/>
+      <c r="E37" s="384"/>
+      <c r="F37" s="384"/>
+      <c r="G37" s="384"/>
+      <c r="H37" s="384"/>
+      <c r="I37" s="384"/>
+      <c r="J37" s="384"/>
+      <c r="K37" s="385"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="30"/>
       <c r="C38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D38" s="75"/>
-      <c r="E38" s="257" t="e">
+      <c r="E38" s="256" t="e">
         <f t="shared" ref="E38:K38" si="0">SUM(E15:E35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="257" t="e">
+      <c r="F38" s="256" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="257" t="e">
+      <c r="G38" s="256" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="257" t="e">
+      <c r="H38" s="256" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="257" t="e">
+      <c r="I38" s="256" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="257" t="e">
+      <c r="J38" s="256" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="257" t="e">
+      <c r="K38" s="256" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -11365,82 +11483,82 @@
       <c r="B39" s="30"/>
       <c r="C39" s="8"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="385"/>
-      <c r="F39" s="385"/>
-      <c r="G39" s="385"/>
-      <c r="H39" s="385"/>
-      <c r="I39" s="385"/>
-      <c r="J39" s="385"/>
-      <c r="K39" s="386"/>
+      <c r="E39" s="384"/>
+      <c r="F39" s="384"/>
+      <c r="G39" s="384"/>
+      <c r="H39" s="384"/>
+      <c r="I39" s="384"/>
+      <c r="J39" s="384"/>
+      <c r="K39" s="385"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="396" t="s">
-        <v>614</v>
+      <c r="B40" s="395" t="s">
+        <v>613</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="387"/>
-      <c r="F40" s="387"/>
-      <c r="G40" s="387"/>
-      <c r="H40" s="387"/>
-      <c r="I40" s="387"/>
-      <c r="J40" s="387"/>
-      <c r="K40" s="388"/>
+      <c r="E40" s="386"/>
+      <c r="F40" s="386"/>
+      <c r="G40" s="386"/>
+      <c r="H40" s="386"/>
+      <c r="I40" s="386"/>
+      <c r="J40" s="386"/>
+      <c r="K40" s="387"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="403" t="s">
-        <v>568</v>
-      </c>
-      <c r="F41" s="403" t="s">
-        <v>568</v>
-      </c>
-      <c r="G41" s="403" t="s">
-        <v>568</v>
-      </c>
-      <c r="H41" s="403" t="s">
-        <v>568</v>
-      </c>
-      <c r="I41" s="403" t="s">
-        <v>568</v>
-      </c>
-      <c r="J41" s="257" t="str">
+      <c r="E41" s="402" t="s">
+        <v>567</v>
+      </c>
+      <c r="F41" s="402" t="s">
+        <v>567</v>
+      </c>
+      <c r="G41" s="402" t="s">
+        <v>567</v>
+      </c>
+      <c r="H41" s="402" t="s">
+        <v>567</v>
+      </c>
+      <c r="I41" s="402" t="s">
+        <v>567</v>
+      </c>
+      <c r="J41" s="256" t="str">
         <f>Dashboard!E29</f>
         <v/>
       </c>
-      <c r="K41" s="404" t="s">
-        <v>568</v>
+      <c r="K41" s="403" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="400"/>
-      <c r="E42" s="401"/>
-      <c r="F42" s="401"/>
-      <c r="G42" s="401"/>
-      <c r="H42" s="401"/>
-      <c r="I42" s="401"/>
-      <c r="J42" s="401"/>
-      <c r="K42" s="402"/>
+      <c r="D42" s="399"/>
+      <c r="E42" s="400"/>
+      <c r="F42" s="400"/>
+      <c r="G42" s="400"/>
+      <c r="H42" s="400"/>
+      <c r="I42" s="400"/>
+      <c r="J42" s="400"/>
+      <c r="K42" s="401"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="396" t="s">
-        <v>591</v>
+      <c r="B43" s="395" t="s">
+        <v>590</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="387"/>
-      <c r="F43" s="387"/>
-      <c r="G43" s="387"/>
-      <c r="H43" s="387"/>
-      <c r="I43" s="387"/>
-      <c r="J43" s="387"/>
-      <c r="K43" s="388"/>
+      <c r="E43" s="386"/>
+      <c r="F43" s="386"/>
+      <c r="G43" s="386"/>
+      <c r="H43" s="386"/>
+      <c r="I43" s="386"/>
+      <c r="J43" s="386"/>
+      <c r="K43" s="387"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
@@ -11448,59 +11566,59 @@
         <v>264</v>
       </c>
       <c r="D44" s="75"/>
-      <c r="E44" s="257"/>
-      <c r="F44" s="257"/>
-      <c r="G44" s="257"/>
-      <c r="H44" s="257"/>
-      <c r="I44" s="257"/>
-      <c r="J44" s="257" t="e">
+      <c r="E44" s="256"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
+      <c r="H44" s="256"/>
+      <c r="I44" s="256"/>
+      <c r="J44" s="256" t="e">
         <f>J11-J38-J41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="384"/>
+      <c r="K44" s="383"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D45" s="75"/>
-      <c r="E45" s="257" t="e">
+      <c r="E45" s="256" t="e">
         <f>E11-E38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="257" t="e">
+      <c r="F45" s="256" t="e">
         <f>F11-F38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="257" t="e">
+      <c r="G45" s="256" t="e">
         <f>G11-G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="383" t="s">
-        <v>568</v>
-      </c>
-      <c r="I45" s="383" t="s">
-        <v>568</v>
-      </c>
-      <c r="J45" s="383" t="s">
-        <v>568</v>
-      </c>
-      <c r="K45" s="391" t="s">
-        <v>568</v>
+      <c r="H45" s="382" t="s">
+        <v>567</v>
+      </c>
+      <c r="I45" s="382" t="s">
+        <v>567</v>
+      </c>
+      <c r="J45" s="382" t="s">
+        <v>567</v>
+      </c>
+      <c r="K45" s="390" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="47"/>
       <c r="C46" s="102"/>
       <c r="D46" s="154"/>
-      <c r="E46" s="392"/>
-      <c r="F46" s="392"/>
-      <c r="G46" s="392"/>
-      <c r="H46" s="392"/>
-      <c r="I46" s="392"/>
-      <c r="J46" s="392"/>
-      <c r="K46" s="393"/>
+      <c r="E46" s="391"/>
+      <c r="F46" s="391"/>
+      <c r="G46" s="391"/>
+      <c r="H46" s="391"/>
+      <c r="I46" s="391"/>
+      <c r="J46" s="391"/>
+      <c r="K46" s="392"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11526,10 +11644,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:J33"/>
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11620,10 +11738,10 @@
         <v>121</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="298"/>
-      <c r="E10" s="298"/>
-      <c r="F10" s="298"/>
-      <c r="G10" s="298"/>
+      <c r="D10" s="297"/>
+      <c r="E10" s="297"/>
+      <c r="F10" s="297"/>
+      <c r="G10" s="297"/>
       <c r="H10" s="36"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -11640,15 +11758,15 @@
         <v>0</v>
       </c>
       <c r="F11" s="185" t="e">
-        <f t="shared" ref="F11:F16" si="0">D11/E11</f>
+        <f t="shared" ref="F11:F17" si="0">D11/E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="246" t="e">
-        <f>F11/SUM($F$11:$F$16)*(1-SUM($G$18:$G$20))</f>
+      <c r="G11" s="404" t="e">
+        <f>F11/SUM($F$11:$F$17)*(1-SUM($G$19:$G$21))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="100"/>
-      <c r="J11" s="273"/>
+      <c r="J11" s="272"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
@@ -11667,13 +11785,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="246" t="e">
-        <f t="shared" ref="G12:G16" si="1">F12/SUM($F$11:$F$16)*(1-SUM($G$18:$G$20))</f>
+      <c r="G12" s="404" t="e">
+        <f t="shared" ref="G12:G17" si="1">F12/SUM($F$11:$F$17)*(1-SUM($G$19:$G$21))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="100"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="273"/>
+      <c r="J12" s="272"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="37"/>
@@ -11692,13 +11810,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="246" t="e">
+      <c r="G13" s="404" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="273"/>
+      <c r="J13" s="272"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="37"/>
@@ -11717,13 +11835,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="246" t="e">
+      <c r="G14" s="404" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="273"/>
+      <c r="J14" s="272"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="37"/>
@@ -11742,13 +11860,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="246" t="e">
+      <c r="G15" s="404" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="273"/>
+      <c r="J15" s="272"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="37"/>
@@ -11767,309 +11885,357 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="246" t="e">
+      <c r="G16" s="404" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="273"/>
+      <c r="J16" s="272"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="37"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="31"/>
+      <c r="C17" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="D17" s="185">
+        <f>Dashboard!E51</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="109" t="e" cm="1">
+        <f t="array" ref="E17">Eff_space_heating_air_heatpump</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="185" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="404" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="42"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="273"/>
+      <c r="J17" s="272"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
-      <c r="C18" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="185"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="248" t="e">
-        <f>'Final demand extracted from EB'!D14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="411" t="s">
-        <v>307</v>
-      </c>
-      <c r="J18" s="273"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="272"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="37"/>
       <c r="C19" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D19" s="185"/>
       <c r="E19" s="109"/>
       <c r="F19" s="110"/>
-      <c r="G19" s="248" t="e">
-        <f>'Final demand extracted from EB'!D10</f>
+      <c r="G19" s="247" t="e">
+        <f>'Final demand extracted from EB'!D14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="411"/>
-      <c r="J19" s="273"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="411" t="s">
+        <v>307</v>
+      </c>
+      <c r="J19" s="272"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="37"/>
       <c r="C20" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="185"/>
       <c r="E20" s="109"/>
       <c r="F20" s="110"/>
-      <c r="G20" s="248" t="e">
+      <c r="G20" s="247" t="e">
+        <f>'Final demand extracted from EB'!D10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="411"/>
+      <c r="J20" s="272"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="37"/>
+      <c r="C21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="185"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="247" t="e">
         <f>'Final demand extracted from EB'!D18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="411"/>
-      <c r="J20" s="273"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="144"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="293"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="294"/>
-      <c r="H21" s="295"/>
+      <c r="H21" s="411"/>
+      <c r="J21" s="272"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="280" t="s">
+      <c r="B22" s="144"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="292"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="293"/>
+      <c r="H22" s="294"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="279" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="275"/>
-      <c r="D22" s="285"/>
-      <c r="E22" s="275"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="285"/>
-      <c r="H22" s="286"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="280"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="274"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="274"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="284"/>
+      <c r="H23" s="285"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="279"/>
+      <c r="C24" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="297">
-        <f>Dashboard!E53</f>
+      <c r="D24" s="296">
+        <f>Dashboard!E54</f>
         <v>0</v>
       </c>
-      <c r="E23" s="192" t="e">
+      <c r="E24" s="192" t="e">
         <f>Eff_cooling_pump</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="287" t="e">
-        <f>D23/E23</f>
+      <c r="F24" s="286" t="e">
+        <f>D24/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="288" t="e">
-        <f>F23/SUM($F$23:$F$25)</f>
+      <c r="G24" s="287" t="e">
+        <f>F24/SUM($F$24:$F$27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="104"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="280"/>
-      <c r="C24" s="17" t="s">
+      <c r="H24" s="104"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="279"/>
+      <c r="C25" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="297">
-        <f>Dashboard!E54</f>
+      <c r="D25" s="296">
+        <f>Dashboard!E55</f>
         <v>0</v>
       </c>
-      <c r="E24" s="192" t="e">
+      <c r="E25" s="192" t="e">
         <f>Eff_cooling_pump_storage</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="287" t="e">
-        <f>D24/E24</f>
+      <c r="F25" s="286" t="e">
+        <f>D25/E25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="288" t="e">
-        <f>F24/SUM($F$23:$F$25)</f>
+      <c r="G25" s="287" t="e">
+        <f t="shared" ref="G25:G27" si="2">F25/SUM($F$24:$F$27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="104"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="280"/>
-      <c r="C25" s="17" t="s">
+      <c r="H25" s="104"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="279"/>
+      <c r="C26" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="297">
-        <f>Dashboard!E55</f>
+      <c r="D26" s="296">
+        <f>Dashboard!E56</f>
         <v>0</v>
       </c>
-      <c r="E25" s="192" t="e">
+      <c r="E26" s="192" t="e">
         <f>Eff_cooling_airco</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="287" t="e">
-        <f>D25/E25</f>
+      <c r="F26" s="286" t="e">
+        <f>D26/E26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="288" t="e">
-        <f>F25/SUM($F$23:$F$25)</f>
+      <c r="G26" s="287" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="104"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="296"/>
-      <c r="C26" s="289"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="289"/>
-      <c r="G26" s="291"/>
-      <c r="H26" s="292"/>
+      <c r="H26" s="104"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="280" t="s">
+      <c r="B27" s="279"/>
+      <c r="C27" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="D27" s="296">
+        <f>Dashboard!E57</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="192" t="e" cm="1">
+        <f t="array" ref="E27">Eff_cooling_air_heatpump</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="286" t="e">
+        <f>D27/E27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="287" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="104"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="295"/>
+      <c r="C28" s="288"/>
+      <c r="D28" s="289"/>
+      <c r="E28" s="288"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="291"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="279" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="275"/>
-      <c r="D27" s="285"/>
-      <c r="E27" s="275"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="285"/>
-      <c r="H27" s="286"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="280"/>
-      <c r="C28" s="17" t="s">
+      <c r="C29" s="274"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="274"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="285"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="279"/>
+      <c r="C30" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="297">
-        <f>Dashboard!E59</f>
+      <c r="D30" s="296">
+        <f>Dashboard!E61</f>
         <v>0</v>
       </c>
-      <c r="E28" s="192">
+      <c r="E30" s="192">
         <f>Eff_lighting_lamp_incandescent</f>
         <v>0.05</v>
       </c>
-      <c r="F28" s="287">
-        <f>D28/E28</f>
+      <c r="F30" s="286">
+        <f>D30/E30</f>
         <v>0</v>
       </c>
-      <c r="G28" s="288" t="e">
-        <f>F28/SUM($F$28:$F$32)</f>
+      <c r="G30" s="287" t="e">
+        <f>F30/SUM($F$30:$F$34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="104"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="280"/>
-      <c r="C29" s="17" t="s">
+      <c r="H30" s="104"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="279"/>
+      <c r="C31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="297">
-        <f>Dashboard!E60</f>
+      <c r="D31" s="296">
+        <f>Dashboard!E62</f>
         <v>0</v>
       </c>
-      <c r="E29" s="192">
+      <c r="E31" s="192">
         <f>Eff_lighting_lamp_fluorescent</f>
         <v>0.12</v>
       </c>
-      <c r="F29" s="287">
-        <f>D29/E29</f>
+      <c r="F31" s="286">
+        <f>D31/E31</f>
         <v>0</v>
       </c>
-      <c r="G29" s="288" t="e">
-        <f>F29/SUM($F$28:$F$32)</f>
+      <c r="G31" s="287" t="e">
+        <f>F31/SUM($F$30:$F$34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="104"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="280"/>
-      <c r="C30" s="17" t="s">
+      <c r="H31" s="104"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="279"/>
+      <c r="C32" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="297">
-        <f>Dashboard!E61</f>
+      <c r="D32" s="296">
+        <f>Dashboard!E63</f>
         <v>0</v>
       </c>
-      <c r="E30" s="192">
+      <c r="E32" s="192">
         <f>Eff_lighting_tube_fluorescent_standartd</f>
         <v>0</v>
       </c>
-      <c r="F30" s="287" t="e">
-        <f>D30/E30</f>
+      <c r="F32" s="286" t="e">
+        <f>D32/E32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="288" t="e">
-        <f>F30/SUM($F$28:$F$32)</f>
+      <c r="G32" s="287" t="e">
+        <f>F32/SUM($F$30:$F$34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="104"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="280"/>
-      <c r="C31" s="17" t="s">
+      <c r="H32" s="104"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="279"/>
+      <c r="C33" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D31" s="297">
-        <f>Dashboard!E62</f>
+      <c r="D33" s="296">
+        <f>Dashboard!E64</f>
         <v>0</v>
       </c>
-      <c r="E31" s="192">
+      <c r="E33" s="192">
         <f>Eff_lighting_tube_fluorescent_efficient</f>
         <v>0</v>
       </c>
-      <c r="F31" s="287" t="e">
-        <f>D31/E31</f>
+      <c r="F33" s="286" t="e">
+        <f>D33/E33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="288" t="e">
-        <f>F31/SUM($F$28:$F$32)</f>
+      <c r="G33" s="287" t="e">
+        <f>F33/SUM($F$30:$F$34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="104"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="280"/>
-      <c r="C32" s="17" t="s">
+      <c r="H33" s="104"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="279"/>
+      <c r="C34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="297">
-        <f>Dashboard!E63</f>
+      <c r="D34" s="296">
+        <f>Dashboard!E65</f>
         <v>0</v>
       </c>
-      <c r="E32" s="192">
+      <c r="E34" s="192">
         <f>Eff_lighting_led</f>
         <v>0</v>
       </c>
-      <c r="F32" s="287" t="e">
-        <f>D32/E32</f>
+      <c r="F34" s="286" t="e">
+        <f>D34/E34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="288" t="e">
-        <f>F32/SUM($F$28:$F$32)</f>
+      <c r="G34" s="287" t="e">
+        <f>F34/SUM($F$30:$F$34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="104"/>
-    </row>
-    <row r="33" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="282"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="106"/>
+      <c r="H34" s="104"/>
+    </row>
+    <row r="35" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="281"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="244"/>
+      <c r="H35" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H19:H21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -12312,7 +12478,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
-      <c r="K7" s="264"/>
+      <c r="K7" s="263"/>
       <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -12334,7 +12500,7 @@
         <v>273</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>274</v>
@@ -12354,7 +12520,7 @@
       <c r="J9" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="K9" s="265" t="s">
+      <c r="K9" s="264" t="s">
         <v>471</v>
       </c>
       <c r="L9" s="146" t="s">
@@ -12371,7 +12537,7 @@
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="266"/>
+      <c r="K10" s="265"/>
       <c r="L10" s="147"/>
     </row>
     <row r="11" spans="2:13" ht="32" x14ac:dyDescent="0.2">
@@ -12410,11 +12576,11 @@
         <f>SUM('Corrected energy balance step 2'!O83:R83,'Corrected energy balance step 2'!AR83:AT83,'Corrected energy balance step 2'!BB83:BE83,'Corrected energy balance step 2'!BG83,'Corrected energy balance step 2'!BI83:BK83)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="267">
+      <c r="K11" s="266">
         <f>SUM(C10:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="268">
+      <c r="L11" s="267">
         <f>'Corrected energy balance step 2'!$BN$83</f>
         <v>0</v>
       </c>
@@ -12429,68 +12595,68 @@
       <c r="H12" s="148"/>
       <c r="I12" s="148"/>
       <c r="J12" s="148"/>
-      <c r="K12" s="272"/>
-      <c r="L12" s="271"/>
+      <c r="K12" s="271"/>
+      <c r="L12" s="270"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J13" s="269"/>
-      <c r="K13" s="270"/>
-      <c r="L13" s="270"/>
-      <c r="M13" s="269"/>
+      <c r="J13" s="268"/>
+      <c r="K13" s="269"/>
+      <c r="L13" s="269"/>
+      <c r="M13" s="268"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J14" s="269"/>
-      <c r="K14" s="269"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="269"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="268"/>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J17" s="259" t="s">
+      <c r="J17" s="258" t="s">
         <v>473</v>
       </c>
       <c r="K17" s="203"/>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J18" s="260" t="s">
+      <c r="J18" s="259" t="s">
         <v>474</v>
       </c>
-      <c r="K18" s="261"/>
+      <c r="K18" s="260"/>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J19" s="260" t="str">
+      <c r="J19" s="259" t="str">
         <f>"- total demand of aggregated carriers"</f>
         <v>- total demand of aggregated carriers</v>
       </c>
-      <c r="K19" s="261"/>
+      <c r="K19" s="260"/>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J20" s="260" t="str">
+      <c r="J20" s="259" t="str">
         <f>"- total demand in energy balance (IEA)"</f>
         <v>- total demand in energy balance (IEA)</v>
       </c>
-      <c r="K20" s="261"/>
+      <c r="K20" s="260"/>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J21" s="260" t="s">
+      <c r="J21" s="259" t="s">
         <v>475</v>
       </c>
-      <c r="K21" s="261"/>
+      <c r="K21" s="260"/>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J22" s="260" t="s">
+      <c r="J22" s="259" t="s">
         <v>476</v>
       </c>
-      <c r="K22" s="261"/>
+      <c r="K22" s="260"/>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J23" s="260"/>
-      <c r="K23" s="261"/>
+      <c r="J23" s="259"/>
+      <c r="K23" s="260"/>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J24" s="262" t="s">
+      <c r="J24" s="261" t="s">
         <v>477</v>
       </c>
-      <c r="K24" s="263">
+      <c r="K24" s="262">
         <f>K11-Final_demand_residences</f>
         <v>0</v>
       </c>
@@ -12536,10 +12702,10 @@
   <sheetPr codeName="Sheet16">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12612,7 +12778,7 @@
       <c r="C9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="299" t="e">
+      <c r="D9" s="298" t="e">
         <f>'Technology split final demand'!G11</f>
         <v>#DIV/0!</v>
       </c>
@@ -12624,12 +12790,12 @@
         <f>Eff_space_heating_gas*E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="255" t="e">
-        <f>F9/SUM($F$9:$F$18)</f>
+      <c r="G9" s="254" t="e">
+        <f>F9/SUM($F$9:$F$19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="273"/>
-      <c r="I9" s="258"/>
+      <c r="H9" s="272"/>
+      <c r="I9" s="257"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="35"/>
@@ -12648,11 +12814,11 @@
         <f>Eff_space_heating_pump_storage*E10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="255" t="e">
-        <f t="shared" ref="G10:G18" si="1">F10/SUM($F$9:$F$18)</f>
+      <c r="G10" s="254" t="e">
+        <f t="shared" ref="G10:G19" si="1">F10/SUM($F$9:$F$19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="258"/>
+      <c r="I10" s="257"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="35"/>
@@ -12671,11 +12837,11 @@
         <f>Eff_space_heating_pump_gas*E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="255" t="e">
+      <c r="G11" s="254" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="258"/>
+      <c r="I11" s="257"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="35"/>
@@ -12694,11 +12860,11 @@
         <f>Eff_space_heating_electric*E12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="255" t="e">
+      <c r="G12" s="254" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="258"/>
+      <c r="I12" s="257"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="35"/>
@@ -12717,11 +12883,11 @@
         <f>Eff_space_heating_coal*E13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="255" t="e">
+      <c r="G13" s="254" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="258"/>
+      <c r="I13" s="257"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
@@ -12740,45 +12906,45 @@
         <f>Eff_space_heating_oil*E14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="255" t="e">
+      <c r="G14" s="254" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="258"/>
+      <c r="I14" s="257"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="D15" s="8"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="258"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="D15" s="185" t="e">
+        <f>'Technology split final demand'!G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="222" t="e">
+        <f t="shared" ref="E15" si="2">D15*Final_demand_space_heating</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="222" t="e">
+        <f>Eff_space_heating_oil*E15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="254" t="e">
+        <f t="shared" ref="G15" si="3">F15/SUM($F$9:$F$19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="257"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="35"/>
-      <c r="C16" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="185" t="e">
-        <f>'Technology split final demand'!G18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="222" t="e">
-        <f>D16*Final_demand_space_heating</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="222" t="e">
-        <f>Eff_space_heating_solar_thermal*E16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="255" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="258"/>
+      <c r="B16" s="30"/>
+      <c r="D16" s="8"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="257"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="35"/>
       <c r="C17" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D17" s="185" t="e">
         <f>'Technology split final demand'!G19</f>
@@ -12789,21 +12955,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F17" s="222" t="e">
-        <f>Eff_space_heating_woodpellets*E17</f>
+        <f>Eff_space_heating_solar_thermal*E17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="255" t="e">
+      <c r="G17" s="254" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="258"/>
+      <c r="I17" s="257"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="35"/>
       <c r="C18" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="187" t="e">
+        <v>129</v>
+      </c>
+      <c r="D18" s="185" t="e">
         <f>'Technology split final demand'!G20</f>
         <v>#DIV/0!</v>
       </c>
@@ -12812,24 +12978,44 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="222" t="e">
-        <f>Eff_space_heating_district*E18</f>
+        <f>Eff_space_heating_woodpellets*E18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="255" t="e">
+      <c r="G18" s="254" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="I18" s="257"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="35"/>
+      <c r="C19" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="187" t="e">
+        <f>'Technology split final demand'!G21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="222" t="e">
+        <f>D19*Final_demand_space_heating</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="222" t="e">
+        <f>Eff_space_heating_district*E19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="254" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
@@ -12846,14 +13032,17 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12862,7 +13051,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="G9:G10 G16:G18 G11:G14" emptyCellReference="1"/>
+    <ignoredError sqref="G9:G10 G17:G19 G11:G14" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -12906,8 +13095,8 @@
       <c r="A3" s="242" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="284" t="e">
-        <f>'Technology shares'!F20</f>
+      <c r="B3" s="283" t="e">
+        <f>'Technology shares'!F22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12915,8 +13104,8 @@
       <c r="A4" s="242" t="s">
         <v>373</v>
       </c>
-      <c r="B4" s="284" t="e">
-        <f>'Technology shares'!F21</f>
+      <c r="B4" s="283" t="e">
+        <f>'Technology shares'!F23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12924,8 +13113,8 @@
       <c r="A5" t="s">
         <v>374</v>
       </c>
-      <c r="B5" s="284" t="e">
-        <f>'Technology shares'!F22</f>
+      <c r="B5" s="283" t="e">
+        <f>'Technology shares'!F24</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12933,8 +13122,8 @@
       <c r="A6" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="284" t="e">
-        <f>'Technology shares'!F23</f>
+      <c r="B6" s="283" t="e">
+        <f>'Technology shares'!F25</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12942,8 +13131,8 @@
       <c r="A7" t="s">
         <v>372</v>
       </c>
-      <c r="B7" s="284" t="e">
-        <f>'Technology shares'!F24</f>
+      <c r="B7" s="283" t="e">
+        <f>'Technology shares'!F26</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12966,7 +13155,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12991,7 +13180,7 @@
       <c r="A3" s="205" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="284" t="e">
+      <c r="B3" s="283" t="e">
         <f>'Technology shares'!F13</f>
         <v>#DIV/0!</v>
       </c>
@@ -13000,19 +13189,25 @@
       <c r="A4" s="205" t="s">
         <v>379</v>
       </c>
-      <c r="B4" s="284" t="e">
+      <c r="B4" s="283" t="e">
         <f>'Technology shares'!F12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="284"/>
+      <c r="A5" s="205" t="s">
+        <v>624</v>
+      </c>
+      <c r="B5" s="283" t="e">
+        <f>'Technology shares'!F13</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13033,7 +13228,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13059,8 +13254,8 @@
       <c r="A3" s="205" t="s">
         <v>381</v>
       </c>
-      <c r="B3" s="284" t="e">
-        <f>'Technology shares'!F17</f>
+      <c r="B3" s="283" t="e">
+        <f>'Technology shares'!F18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13068,20 +13263,25 @@
       <c r="A4" s="205" t="s">
         <v>382</v>
       </c>
-      <c r="B4" s="284" t="e">
-        <f>'Technology shares'!F16</f>
+      <c r="B4" s="283" t="e">
+        <f>'Technology shares'!F17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="241"/>
-      <c r="B5" s="284"/>
+      <c r="A5" s="241" t="s">
+        <v>631</v>
+      </c>
+      <c r="B5" s="283" t="e">
+        <f>'Technology shares'!F19</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13136,500 +13336,500 @@
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="304">
+      <c r="B6" s="303">
         <v>41450</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="308">
+      <c r="D6" s="307">
         <v>1</v>
       </c>
-      <c r="E6" s="307"/>
+      <c r="E6" s="306"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="305">
+      <c r="B7" s="304">
         <v>41452</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="309">
+      <c r="D7" s="308">
         <v>1.01</v>
       </c>
-      <c r="E7" s="307"/>
+      <c r="E7" s="306"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="305">
+      <c r="B8" s="304">
         <v>41457</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="309">
+      <c r="D8" s="308">
         <v>1.02</v>
       </c>
-      <c r="E8" s="307"/>
+      <c r="E8" s="306"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="305">
+      <c r="B9" s="304">
         <v>41457</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="309">
+      <c r="D9" s="308">
         <v>1.03</v>
       </c>
-      <c r="E9" s="307"/>
+      <c r="E9" s="306"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="305">
+      <c r="B10" s="304">
         <v>41458</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="309">
+      <c r="D10" s="308">
         <v>1.04</v>
       </c>
-      <c r="E10" s="307"/>
+      <c r="E10" s="306"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="305">
+      <c r="B11" s="304">
         <v>41459</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="309">
+      <c r="D11" s="308">
         <v>1.05</v>
       </c>
-      <c r="E11" s="307"/>
+      <c r="E11" s="306"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="305">
+      <c r="B12" s="304">
         <v>41460</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D12" s="309">
+      <c r="D12" s="308">
         <v>1.06</v>
       </c>
-      <c r="E12" s="307"/>
+      <c r="E12" s="306"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="305">
+      <c r="B13" s="304">
         <v>41463</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="309">
+      <c r="D13" s="308">
         <v>1.07</v>
       </c>
-      <c r="E13" s="307"/>
+      <c r="E13" s="306"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="305">
+      <c r="B14" s="304">
         <v>41464</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="D14" s="309">
+      <c r="D14" s="308">
         <v>1.08</v>
       </c>
-      <c r="E14" s="307"/>
+      <c r="E14" s="306"/>
     </row>
     <row r="15" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B15" s="305">
+      <c r="B15" s="304">
         <v>41464</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>302</v>
       </c>
-      <c r="D15" s="309">
+      <c r="D15" s="308">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E15" s="307"/>
+      <c r="E15" s="306"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="305">
+      <c r="B16" s="304">
         <v>41465</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="D16" s="308">
+      <c r="D16" s="307">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E16" s="307"/>
+      <c r="E16" s="306"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="305">
+      <c r="B17" s="304">
         <v>41465</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="D17" s="309">
+      <c r="D17" s="308">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E17" s="307"/>
+      <c r="E17" s="306"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="305">
+      <c r="B18" s="304">
         <v>41467</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="D18" s="309">
+      <c r="D18" s="308">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E18" s="307"/>
+      <c r="E18" s="306"/>
     </row>
     <row r="19" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B19" s="305">
+      <c r="B19" s="304">
         <v>41470</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="D19" s="309">
+      <c r="D19" s="308">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E19" s="307"/>
+      <c r="E19" s="306"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="305">
+      <c r="B20" s="304">
         <v>41472</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D20" s="309">
+      <c r="D20" s="308">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E20" s="307"/>
+      <c r="E20" s="306"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="305">
+      <c r="B21" s="304">
         <v>41481</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="D21" s="309">
+      <c r="D21" s="308">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E21" s="307"/>
+      <c r="E21" s="306"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="305">
+      <c r="B22" s="304">
         <v>41484</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>368</v>
       </c>
-      <c r="D22" s="309">
+      <c r="D22" s="308">
         <v>1.17</v>
       </c>
-      <c r="E22" s="307"/>
+      <c r="E22" s="306"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="305">
+      <c r="B23" s="304">
         <v>41485</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="D23" s="309">
+      <c r="D23" s="308">
         <v>1.18</v>
       </c>
-      <c r="E23" s="307"/>
+      <c r="E23" s="306"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="305">
+      <c r="B24" s="304">
         <v>41485</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="D24" s="309">
+      <c r="D24" s="308">
         <v>1.18</v>
       </c>
-      <c r="E24" s="307"/>
+      <c r="E24" s="306"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="305">
+      <c r="B25" s="304">
         <v>41486</v>
       </c>
       <c r="C25" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="D25" s="309">
+      <c r="D25" s="308">
         <v>1.19</v>
       </c>
-      <c r="E25" s="307"/>
+      <c r="E25" s="306"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="305">
+      <c r="B26" s="304">
         <v>41487</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="D26" s="309">
+      <c r="D26" s="308">
         <v>1.19</v>
       </c>
-      <c r="E26" s="307"/>
+      <c r="E26" s="306"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="305">
+      <c r="B27" s="304">
         <v>41499</v>
       </c>
       <c r="C27" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="D27" s="308">
+      <c r="D27" s="307">
         <v>1.2</v>
       </c>
-      <c r="E27" s="307"/>
+      <c r="E27" s="306"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="305">
+      <c r="B28" s="304">
         <v>41500</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="D28" s="309">
+      <c r="D28" s="308">
         <v>1.21</v>
       </c>
-      <c r="E28" s="307"/>
+      <c r="E28" s="306"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="305">
+      <c r="B29" s="304">
         <v>41500</v>
       </c>
       <c r="C29" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="D29" s="308">
+      <c r="D29" s="307">
         <v>1.22</v>
       </c>
-      <c r="E29" s="307"/>
+      <c r="E29" s="306"/>
     </row>
     <row r="30" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B30" s="305">
+      <c r="B30" s="304">
         <v>41502</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="D30" s="308">
+      <c r="D30" s="307">
         <v>1.23</v>
       </c>
-      <c r="E30" s="307"/>
+      <c r="E30" s="306"/>
     </row>
     <row r="31" spans="2:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="B31" s="305">
+      <c r="B31" s="304">
         <v>41505</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="D31" s="308">
+      <c r="D31" s="307">
         <v>1.24</v>
       </c>
-      <c r="E31" s="307"/>
+      <c r="E31" s="306"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="305">
+      <c r="B32" s="304">
         <v>41506</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="D32" s="308">
+      <c r="D32" s="307">
         <v>1.25</v>
       </c>
-      <c r="E32" s="307"/>
+      <c r="E32" s="306"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="305">
+      <c r="B33" s="304">
         <v>41507</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="D33" s="308">
+      <c r="D33" s="307">
         <v>1.26</v>
       </c>
-      <c r="E33" s="307"/>
+      <c r="E33" s="306"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="305">
+      <c r="B34" s="304">
         <v>41509</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="D34" s="308">
+      <c r="D34" s="307">
         <v>1.27</v>
       </c>
-      <c r="E34" s="307"/>
+      <c r="E34" s="306"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="305">
+      <c r="B35" s="304">
         <v>41509</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="D35" s="308">
+      <c r="D35" s="307">
         <v>1.28</v>
       </c>
-      <c r="E35" s="307"/>
+      <c r="E35" s="306"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="305" t="s">
+      <c r="B36" s="304" t="s">
         <v>538</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="D36" s="308">
+      <c r="D36" s="307">
         <v>1.29</v>
       </c>
-      <c r="E36" s="307"/>
+      <c r="E36" s="306"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="305">
+      <c r="B37" s="304">
         <v>41534</v>
       </c>
       <c r="C37" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="D37" s="307">
+        <v>1.3</v>
+      </c>
+      <c r="E37" s="306"/>
+    </row>
+    <row r="38" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B38" s="304">
+        <v>41542</v>
+      </c>
+      <c r="C38" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="D37" s="308">
-        <v>1.3</v>
-      </c>
-      <c r="E37" s="307"/>
-    </row>
-    <row r="38" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="B38" s="305">
-        <v>41542</v>
-      </c>
-      <c r="C38" s="39" t="s">
+      <c r="D38" s="307">
+        <v>1.31</v>
+      </c>
+      <c r="E38" s="306"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="369">
+        <v>41562</v>
+      </c>
+      <c r="C39" s="370" t="s">
         <v>566</v>
       </c>
-      <c r="D38" s="308">
-        <v>1.31</v>
-      </c>
-      <c r="E38" s="307"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="370">
-        <v>41562</v>
-      </c>
-      <c r="C39" s="371" t="s">
-        <v>567</v>
-      </c>
-      <c r="D39" s="308">
+      <c r="D39" s="307">
         <v>1.32</v>
       </c>
-      <c r="E39" s="307"/>
+      <c r="E39" s="306"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="370">
+      <c r="B40" s="369">
         <v>41578</v>
       </c>
       <c r="C40" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="D40" s="307">
+        <v>1.33</v>
+      </c>
+      <c r="E40" s="306"/>
+    </row>
+    <row r="41" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B41" s="369">
+        <v>41578</v>
+      </c>
+      <c r="C41" s="39" t="s">
         <v>595</v>
       </c>
-      <c r="D40" s="308">
-        <v>1.33</v>
-      </c>
-      <c r="E40" s="307"/>
-    </row>
-    <row r="41" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B41" s="370">
-        <v>41578</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>596</v>
-      </c>
-      <c r="D41" s="308">
+      <c r="D41" s="307">
         <v>1.34</v>
       </c>
-      <c r="E41" s="307"/>
+      <c r="E41" s="306"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="370">
+      <c r="B42" s="369">
         <v>41782</v>
       </c>
       <c r="C42" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="D42" s="307">
+        <v>1.35</v>
+      </c>
+      <c r="E42" s="306"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="369">
+        <v>41782</v>
+      </c>
+      <c r="C43" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="D42" s="308">
-        <v>1.35</v>
-      </c>
-      <c r="E42" s="307"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="370">
-        <v>41782</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>602</v>
-      </c>
-      <c r="D43" s="308">
+      <c r="D43" s="307">
         <v>1.36</v>
       </c>
-      <c r="E43" s="307"/>
+      <c r="E43" s="306"/>
     </row>
     <row r="44" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B44" s="370">
+      <c r="B44" s="369">
         <v>42600</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>622</v>
-      </c>
-      <c r="D44" s="308">
+        <v>621</v>
+      </c>
+      <c r="D44" s="307">
         <v>1.37</v>
       </c>
-      <c r="E44" s="307"/>
+      <c r="E44" s="306"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="305"/>
+      <c r="B45" s="304"/>
       <c r="C45" s="39"/>
-      <c r="D45" s="308"/>
-      <c r="E45" s="307"/>
+      <c r="D45" s="307"/>
+      <c r="E45" s="306"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="306"/>
+      <c r="B46" s="305"/>
       <c r="C46" s="45"/>
-      <c r="D46" s="310"/>
-      <c r="E46" s="307"/>
+      <c r="D46" s="309"/>
+      <c r="E46" s="306"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="307"/>
-      <c r="D47" s="307"/>
-      <c r="E47" s="307"/>
+      <c r="B47" s="306"/>
+      <c r="D47" s="306"/>
+      <c r="E47" s="306"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="307"/>
-      <c r="D48" s="307"/>
-      <c r="E48" s="307"/>
+      <c r="B48" s="306"/>
+      <c r="D48" s="306"/>
+      <c r="E48" s="306"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="307"/>
+      <c r="B49" s="306"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="307"/>
+      <c r="B50" s="306"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13658,7 +13858,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -13673,7 +13873,7 @@
       <c r="A3" s="205" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="284" t="e">
+      <c r="B3" s="283" t="e">
         <f>'Technology shares'!F9</f>
         <v>#DIV/0!</v>
       </c>
@@ -13682,19 +13882,19 @@
       <c r="A4" s="205" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="284" t="e">
+      <c r="B4" s="283" t="e">
         <f>'Technology shares'!F10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="284"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13740,7 +13940,7 @@
       <c r="A3" s="205" t="s">
         <v>388</v>
       </c>
-      <c r="B3" s="284" t="e">
+      <c r="B3" s="283" t="e">
         <f>'Application shares'!E9</f>
         <v>#DIV/0!</v>
       </c>
@@ -13749,19 +13949,19 @@
       <c r="A4" s="205" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="284" t="e">
+      <c r="B4" s="283" t="e">
         <f>'Application shares'!E10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="284"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13805,36 +14005,36 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>603</v>
-      </c>
-      <c r="B3" s="284" t="e">
+        <v>602</v>
+      </c>
+      <c r="B3" s="283" t="e">
         <f>'Application shares'!E13</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>604</v>
-      </c>
-      <c r="B4" s="284" t="e">
+        <v>603</v>
+      </c>
+      <c r="B4" s="283" t="e">
         <f>'Application shares'!E14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="205" t="s">
-        <v>605</v>
-      </c>
-      <c r="B5" s="284" t="e">
+        <v>604</v>
+      </c>
+      <c r="B5" s="283" t="e">
         <f>'Application shares'!E15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13880,7 +14080,7 @@
       <c r="A3" s="205" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="284" t="e">
+      <c r="B3" s="283" t="e">
         <f>'Application shares'!E18</f>
         <v>#DIV/0!</v>
       </c>
@@ -13889,19 +14089,19 @@
       <c r="A4" s="205" t="s">
         <v>393</v>
       </c>
-      <c r="B4" s="284" t="e">
+      <c r="B4" s="283" t="e">
         <f>'Application shares'!E19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="284"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13947,7 +14147,7 @@
       <c r="A3" s="205" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="284" t="e">
+      <c r="B3" s="283" t="e">
         <f>'Application shares'!E22</f>
         <v>#DIV/0!</v>
       </c>
@@ -13956,7 +14156,7 @@
       <c r="A4" s="205" t="s">
         <v>383</v>
       </c>
-      <c r="B4" s="284" t="e">
+      <c r="B4" s="283" t="e">
         <f>'Application shares'!E23</f>
         <v>#DIV/0!</v>
       </c>
@@ -13965,7 +14165,7 @@
       <c r="A5" s="205" t="s">
         <v>375</v>
       </c>
-      <c r="B5" s="284" t="e">
+      <c r="B5" s="283" t="e">
         <f>'Application shares'!E24</f>
         <v>#DIV/0!</v>
       </c>
@@ -13974,13 +14174,13 @@
       <c r="A6" s="205" t="s">
         <v>395</v>
       </c>
-      <c r="B6" s="284" t="e">
+      <c r="B6" s="283" t="e">
         <f>'Application shares'!E25</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14026,8 +14226,8 @@
       <c r="A3" s="205" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="284">
-        <f>Dashboard!E66</f>
+      <c r="B3" s="283">
+        <f>Dashboard!E68</f>
         <v>1</v>
       </c>
     </row>
@@ -14035,19 +14235,19 @@
       <c r="A4" s="205" t="s">
         <v>398</v>
       </c>
-      <c r="B4" s="284">
-        <f>Dashboard!E67</f>
+      <c r="B4" s="283">
+        <f>Dashboard!E69</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="284"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14094,7 +14294,7 @@
       <c r="A3" t="s">
         <v>400</v>
       </c>
-      <c r="B3" s="284">
+      <c r="B3" s="283">
         <v>0</v>
       </c>
     </row>
@@ -14102,18 +14302,18 @@
       <c r="A4" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="284">
+      <c r="B4" s="283">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="284"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14160,7 +14360,7 @@
       <c r="A3" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="284">
+      <c r="B3" s="283">
         <v>0</v>
       </c>
     </row>
@@ -14168,18 +14368,18 @@
       <c r="A4" t="s">
         <v>404</v>
       </c>
-      <c r="B4" s="284">
+      <c r="B4" s="283">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="284"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14226,7 +14426,7 @@
       <c r="A3" t="s">
         <v>406</v>
       </c>
-      <c r="B3" s="284">
+      <c r="B3" s="283">
         <f>1-B4</f>
         <v>0.96099999999999997</v>
       </c>
@@ -14235,19 +14435,19 @@
       <c r="A4" t="s">
         <v>407</v>
       </c>
-      <c r="B4" s="284">
-        <f>Dashboard!E69</f>
+      <c r="B4" s="283">
+        <f>Dashboard!E71</f>
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="284"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14294,7 +14494,7 @@
       <c r="A3" t="s">
         <v>409</v>
       </c>
-      <c r="B3" s="284">
+      <c r="B3" s="283">
         <f>1-B4</f>
         <v>0.94699999999999995</v>
       </c>
@@ -14303,19 +14503,19 @@
       <c r="A4" t="s">
         <v>410</v>
       </c>
-      <c r="B4" s="284">
-        <f>Dashboard!E70</f>
+      <c r="B4" s="283">
+        <f>Dashboard!E72</f>
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="284"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14437,7 +14637,7 @@
       </c>
     </row>
     <row r="15" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="300" t="s">
+      <c r="B15" s="299" t="s">
         <v>493</v>
       </c>
       <c r="C15" s="61" t="s">
@@ -14445,7 +14645,7 @@
       </c>
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="300" t="s">
+      <c r="B16" s="299" t="s">
         <v>494</v>
       </c>
       <c r="C16" s="61" t="s">
@@ -14496,7 +14696,7 @@
       <c r="B22" s="178" t="s">
         <v>433</v>
       </c>
-      <c r="C22" s="256" t="s">
+      <c r="C22" s="255" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14504,7 +14704,7 @@
       <c r="B23" s="178" t="s">
         <v>434</v>
       </c>
-      <c r="C23" s="256" t="s">
+      <c r="C23" s="255" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14512,7 +14712,7 @@
       <c r="B24" s="178" t="s">
         <v>435</v>
       </c>
-      <c r="C24" s="256" t="s">
+      <c r="C24" s="255" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14520,7 +14720,7 @@
       <c r="B25" s="178" t="s">
         <v>436</v>
       </c>
-      <c r="C25" s="256" t="s">
+      <c r="C25" s="255" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14528,7 +14728,7 @@
       <c r="B26" s="178" t="s">
         <v>437</v>
       </c>
-      <c r="C26" s="256" t="s">
+      <c r="C26" s="255" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14536,7 +14736,7 @@
       <c r="B27" s="178" t="s">
         <v>438</v>
       </c>
-      <c r="C27" s="256" t="s">
+      <c r="C27" s="255" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14544,7 +14744,7 @@
       <c r="B28" s="178" t="s">
         <v>439</v>
       </c>
-      <c r="C28" s="256" t="s">
+      <c r="C28" s="255" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14552,7 +14752,7 @@
       <c r="B29" s="178" t="s">
         <v>440</v>
       </c>
-      <c r="C29" s="256" t="s">
+      <c r="C29" s="255" t="s">
         <v>432</v>
       </c>
     </row>
@@ -14560,7 +14760,7 @@
       <c r="B30" s="178" t="s">
         <v>441</v>
       </c>
-      <c r="C30" s="256" t="s">
+      <c r="C30" s="255" t="s">
         <v>497</v>
       </c>
     </row>
@@ -14568,7 +14768,7 @@
       <c r="B31" s="178" t="s">
         <v>442</v>
       </c>
-      <c r="C31" s="256" t="s">
+      <c r="C31" s="255" t="s">
         <v>498</v>
       </c>
     </row>
@@ -14576,7 +14776,7 @@
       <c r="B32" s="178" t="s">
         <v>443</v>
       </c>
-      <c r="C32" s="256" t="s">
+      <c r="C32" s="255" t="s">
         <v>498</v>
       </c>
     </row>
@@ -14584,7 +14784,7 @@
       <c r="B33" s="178" t="s">
         <v>444</v>
       </c>
-      <c r="C33" s="256" t="s">
+      <c r="C33" s="255" t="s">
         <v>498</v>
       </c>
     </row>
@@ -14592,16 +14792,16 @@
       <c r="B34" s="178" t="s">
         <v>445</v>
       </c>
-      <c r="C34" s="256" t="s">
+      <c r="C34" s="255" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="178" t="s">
+        <v>622</v>
+      </c>
+      <c r="C35" s="255" t="s">
         <v>623</v>
-      </c>
-      <c r="C35" s="256" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14635,7 +14835,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -14648,32 +14848,32 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>619</v>
-      </c>
-      <c r="B3" s="284" t="e">
+        <v>618</v>
+      </c>
+      <c r="B3" s="283" t="e">
         <f>'Application shares'!E27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>620</v>
-      </c>
-      <c r="B4" s="284" t="e">
+        <v>619</v>
+      </c>
+      <c r="B4" s="283" t="e">
         <f>'Application shares'!E28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="205"/>
-      <c r="B5" s="284"/>
+      <c r="B5" s="283"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="205"/>
-      <c r="B6" s="284"/>
+      <c r="B6" s="283"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="284"/>
+      <c r="B7" s="283"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14717,7 +14917,7 @@
     </row>
     <row r="6" spans="2:2" ht="80" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
@@ -15707,7 +15907,7 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="37" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C74" s="42" t="s">
         <v>268</v>
@@ -16043,7 +16243,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B130" s="30"/>
       <c r="C130" s="41" t="s">
         <v>32</v>
@@ -16080,9 +16280,11 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:S71"/>
+  <dimension ref="B2:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -16202,7 +16404,7 @@
         <v>38</v>
       </c>
       <c r="J9" s="33"/>
-      <c r="K9" s="316" t="s">
+      <c r="K9" s="315" t="s">
         <v>99</v>
       </c>
       <c r="L9" s="54" t="s">
@@ -16230,10 +16432,10 @@
       <c r="H10" s="228"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="372" t="s">
-        <v>569</v>
-      </c>
-      <c r="L10" s="373" t="b">
+      <c r="K10" s="371" t="s">
+        <v>568</v>
+      </c>
+      <c r="L10" s="372" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -16247,7 +16449,7 @@
         <v>336</v>
       </c>
       <c r="D11" s="60"/>
-      <c r="E11" s="311"/>
+      <c r="E11" s="310"/>
       <c r="F11" s="15"/>
       <c r="G11" s="230" t="s">
         <v>430</v>
@@ -16258,8 +16460,8 @@
       <c r="K11" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="L11" s="381" t="b">
-        <f>IF(COUNTBLANK(E11:E64)-COUNTBLANK(C11:C64)=3,TRUE,FALSE)</f>
+      <c r="L11" s="380" t="b">
+        <f>IF(COUNTBLANK(E11:E66)-COUNTBLANK(C11:C66)=3,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M11" s="65"/>
@@ -16277,7 +16479,7 @@
         <v>417</v>
       </c>
       <c r="D12" s="60"/>
-      <c r="E12" s="311"/>
+      <c r="E12" s="310"/>
       <c r="F12" s="15"/>
       <c r="G12" s="230" t="s">
         <v>431</v>
@@ -16303,9 +16505,9 @@
       <c r="H13" s="228"/>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="394"/>
+      <c r="K13" s="393"/>
       <c r="L13" s="155"/>
-      <c r="M13" s="395"/>
+      <c r="M13" s="394"/>
       <c r="O13" s="233"/>
       <c r="P13" s="7"/>
     </row>
@@ -16320,7 +16522,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="64" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L14" s="155"/>
       <c r="M14" s="65"/>
@@ -16338,13 +16540,13 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="55" t="s">
-        <v>593</v>
-      </c>
-      <c r="L15" s="380" t="e">
+        <v>592</v>
+      </c>
+      <c r="L15" s="379" t="e">
         <f>IF('Final demand per energy carrier'!E45&lt;0,FALSE,TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="314" t="e">
+      <c r="M15" s="313" t="e">
         <f>IF(L15=TRUE," ","The demand for coal in 'other appliances' is negative. Have a look at the 'Final demand per energy carrier' sheet. Please correct the application and/or technology splits in the dashboard. ")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16365,13 +16567,13 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="55" t="s">
-        <v>592</v>
-      </c>
-      <c r="L16" s="380" t="e">
+        <v>591</v>
+      </c>
+      <c r="L16" s="379" t="e">
         <f>IF('Final demand per energy carrier'!F45&lt;0,FALSE,TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="314" t="e">
+      <c r="M16" s="313" t="e">
         <f>IF(L16=TRUE," ","The demand for network gas in 'other appliances' is negative. Have a look at the 'Final demand per energy carrier' sheet. Please correct the application and/or technology splits in the dashboard. ")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16392,13 +16594,13 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="55" t="s">
-        <v>594</v>
-      </c>
-      <c r="L17" s="380" t="e">
+        <v>593</v>
+      </c>
+      <c r="L17" s="379" t="e">
         <f>IF('Final demand per energy carrier'!G45&lt;0,FALSE,TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="314" t="e">
+      <c r="M17" s="313" t="e">
         <f>IF(L17=TRUE," ","The demand for oil in 'other appliances' is negative. Have a look at the 'Final demand per energy carrier' sheet. Please correct the application and/or technology splits in the dashboard. ")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16426,22 +16628,22 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="32"/>
-      <c r="C19" s="317"/>
-      <c r="D19" s="317"/>
-      <c r="E19" s="317"/>
-      <c r="F19" s="317"/>
-      <c r="G19" s="318"/>
-      <c r="H19" s="318"/>
-      <c r="I19" s="317"/>
-      <c r="J19" s="319"/>
-      <c r="K19" s="320" t="s">
-        <v>586</v>
-      </c>
-      <c r="L19" s="399" t="b">
+      <c r="C19" s="316"/>
+      <c r="D19" s="316"/>
+      <c r="E19" s="316"/>
+      <c r="F19" s="316"/>
+      <c r="G19" s="317"/>
+      <c r="H19" s="317"/>
+      <c r="I19" s="316"/>
+      <c r="J19" s="318"/>
+      <c r="K19" s="319" t="s">
+        <v>585</v>
+      </c>
+      <c r="L19" s="398" t="b">
         <f>IF('Fuel aggregation'!J11=0,TRUE,'Fuel aggregation'!J11)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="382" t="str">
+      <c r="M19" s="381" t="str">
         <f>IF(L19=TRUE," ","(TJ) There are energy flows related to the services sector that cannot be processed by the ETM. If the amount of disregarded energy is relatively large, consider contacting Quintel Intelligence. Have a look at the fuel aggregation sheet.")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -16461,7 +16663,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="55"/>
-      <c r="L20" s="374"/>
+      <c r="L20" s="373"/>
       <c r="M20" s="56"/>
       <c r="O20" s="233"/>
       <c r="P20" s="234"/>
@@ -16482,11 +16684,11 @@
       <c r="G21" s="230"/>
       <c r="H21" s="230"/>
       <c r="I21" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="55"/>
-      <c r="L21" s="375"/>
+      <c r="L21" s="374"/>
       <c r="M21" s="56"/>
       <c r="O21" s="233"/>
       <c r="P21" s="234"/>
@@ -16502,7 +16704,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="55"/>
-      <c r="L22" s="375"/>
+      <c r="L22" s="374"/>
       <c r="M22" s="56"/>
       <c r="O22" s="233"/>
       <c r="P22" s="234"/>
@@ -16524,7 +16726,7 @@
       <c r="I23" s="23"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="375"/>
+      <c r="L23" s="374"/>
       <c r="M23" s="56"/>
       <c r="O23" s="233" t="s">
         <v>510</v>
@@ -16548,7 +16750,7 @@
       <c r="I24" s="23"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="375"/>
+      <c r="L24" s="374"/>
       <c r="M24" s="56"/>
       <c r="O24" s="233" t="s">
         <v>511</v>
@@ -16572,7 +16774,7 @@
       <c r="I25" s="23"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="375"/>
+      <c r="L25" s="374"/>
       <c r="M25" s="56"/>
       <c r="O25" s="233" t="s">
         <v>512</v>
@@ -16590,7 +16792,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="55"/>
-      <c r="L26" s="375"/>
+      <c r="L26" s="374"/>
       <c r="M26" s="56"/>
       <c r="O26" s="233"/>
       <c r="P26" s="234"/>
@@ -16606,7 +16808,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="55"/>
-      <c r="L27" s="375"/>
+      <c r="L27" s="374"/>
       <c r="M27" s="56"/>
       <c r="O27" s="233"/>
       <c r="P27" s="234"/>
@@ -16614,7 +16816,7 @@
     <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="216"/>
@@ -16624,17 +16826,17 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="55"/>
-      <c r="L28" s="375"/>
+      <c r="L28" s="374"/>
       <c r="M28" s="56"/>
       <c r="O28" s="233" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P28" s="234"/>
     </row>
     <row r="29" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>424</v>
@@ -16645,15 +16847,15 @@
       </c>
       <c r="F29" s="225"/>
       <c r="G29" s="230" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H29" s="230"/>
       <c r="I29" s="23"/>
       <c r="J29" s="8"/>
       <c r="K29" s="64" t="s">
-        <v>613</v>
-      </c>
-      <c r="L29" s="380" t="b">
+        <v>612</v>
+      </c>
+      <c r="L29" s="379" t="b">
         <f>IF(E29&gt;=0,TRUE,E29)</f>
         <v>1</v>
       </c>
@@ -16662,7 +16864,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O29" s="233" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P29" s="234">
         <f>IF(L29=TRUE,1,0)</f>
@@ -16680,7 +16882,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="55"/>
-      <c r="L30" s="375"/>
+      <c r="L30" s="374"/>
       <c r="M30" s="56"/>
       <c r="O30" s="233"/>
       <c r="P30" s="234"/>
@@ -16688,12 +16890,12 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="37"/>
       <c r="C31" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="E31" s="376" t="e">
+      <c r="E31" s="375" t="e">
         <f>'Final demand per energy carrier'!J44</f>
         <v>#DIV/0!</v>
       </c>
@@ -16703,9 +16905,9 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="64" t="s">
-        <v>583</v>
-      </c>
-      <c r="L31" s="380" t="e">
+        <v>582</v>
+      </c>
+      <c r="L31" s="379" t="e">
         <f>IF(E31&gt;0,TRUE,E31)</f>
         <v>#DIV/0!</v>
       </c>
@@ -16722,12 +16924,12 @@
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="37"/>
       <c r="C32" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="E32" s="377" t="e">
+      <c r="E32" s="376" t="e">
         <f>SUM('Final demand per energy carrier'!E45:G45)</f>
         <v>#DIV/0!</v>
       </c>
@@ -16737,9 +16939,9 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="64" t="s">
-        <v>584</v>
-      </c>
-      <c r="L32" s="380" t="e">
+        <v>583</v>
+      </c>
+      <c r="L32" s="379" t="e">
         <f>IF(E32&gt;0,TRUE,E32)</f>
         <v>#DIV/0!</v>
       </c>
@@ -16784,8 +16986,8 @@
       <c r="K34" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="L34" s="380">
-        <f>IF(SUM(E44:E49)=1,TRUE,SUM(E44:E49))</f>
+      <c r="L34" s="379">
+        <f>IF(SUM(E44:E50)=1,TRUE,SUM(E44:E50))</f>
         <v>0</v>
       </c>
       <c r="M34" s="56" t="str">
@@ -16804,7 +17006,7 @@
         <v>533</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="376">
+      <c r="E35" s="375">
         <f>Final_demand_space_heating</f>
         <v>0</v>
       </c>
@@ -16814,8 +17016,8 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="55"/>
-      <c r="L35" s="315"/>
-      <c r="M35" s="314"/>
+      <c r="L35" s="314"/>
+      <c r="M35" s="313"/>
       <c r="O35" s="233"/>
       <c r="P35" s="234"/>
     </row>
@@ -16823,25 +17025,25 @@
       <c r="B36" s="37"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="376"/>
+      <c r="E36" s="375"/>
       <c r="F36" s="8"/>
       <c r="G36" s="224"/>
       <c r="H36" s="224"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="55"/>
-      <c r="L36" s="315"/>
-      <c r="M36" s="314"/>
+      <c r="L36" s="314"/>
+      <c r="M36" s="313"/>
       <c r="O36" s="233"/>
       <c r="P36" s="234"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
-      <c r="C37" s="379" t="s">
+      <c r="C37" s="378" t="s">
         <v>534</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="376">
+      <c r="E37" s="375">
         <f>'Final demand extracted from EB'!D13</f>
         <v>0</v>
       </c>
@@ -16849,7 +17051,7 @@
       <c r="G37" s="224"/>
       <c r="H37" s="224"/>
       <c r="I37" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="55"/>
@@ -16860,11 +17062,11 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="37"/>
-      <c r="C38" s="379" t="s">
+      <c r="C38" s="378" t="s">
         <v>535</v>
       </c>
       <c r="D38" s="8"/>
-      <c r="E38" s="376">
+      <c r="E38" s="375">
         <f>'Final demand extracted from EB'!D9</f>
         <v>0</v>
       </c>
@@ -16872,7 +17074,7 @@
       <c r="G38" s="224"/>
       <c r="H38" s="224"/>
       <c r="I38" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="55"/>
@@ -16883,11 +17085,11 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="37"/>
-      <c r="C39" s="379" t="s">
+      <c r="C39" s="378" t="s">
         <v>536</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="376">
+      <c r="E39" s="375">
         <f>'Final demand extracted from EB'!D17</f>
         <v>0</v>
       </c>
@@ -16895,7 +17097,7 @@
       <c r="G39" s="224"/>
       <c r="H39" s="224"/>
       <c r="I39" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="55"/>
@@ -16908,7 +17110,7 @@
       <c r="B40" s="37"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="376"/>
+      <c r="E40" s="375"/>
       <c r="F40" s="8"/>
       <c r="G40" s="224"/>
       <c r="H40" s="224"/>
@@ -16922,11 +17124,11 @@
     </row>
     <row r="41" spans="2:19" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="37"/>
-      <c r="C41" s="378" t="s">
-        <v>572</v>
+      <c r="C41" s="377" t="s">
+        <v>571</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="376">
+      <c r="E41" s="375">
         <f>E35-SUM(E37:E39)</f>
         <v>0</v>
       </c>
@@ -16943,9 +17145,9 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="37"/>
-      <c r="C42" s="378"/>
+      <c r="C42" s="377"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="313"/>
+      <c r="E42" s="312"/>
       <c r="F42" s="8"/>
       <c r="G42" s="224"/>
       <c r="H42" s="224"/>
@@ -16960,7 +17162,7 @@
     <row r="43" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="59"/>
@@ -16977,8 +17179,8 @@
     </row>
     <row r="44" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
-      <c r="C44" s="379" t="s">
-        <v>573</v>
+      <c r="C44" s="378" t="s">
+        <v>572</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="171"/>
@@ -16989,7 +17191,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="55"/>
       <c r="L44" s="156"/>
-      <c r="M44" s="314"/>
+      <c r="M44" s="313"/>
       <c r="O44" s="233" t="s">
         <v>513</v>
       </c>
@@ -16997,8 +17199,8 @@
     </row>
     <row r="45" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
-      <c r="C45" s="379" t="s">
-        <v>574</v>
+      <c r="C45" s="378" t="s">
+        <v>573</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="171"/>
@@ -17009,17 +17211,17 @@
       <c r="J45" s="8"/>
       <c r="K45" s="55"/>
       <c r="L45" s="156"/>
-      <c r="M45" s="314"/>
+      <c r="M45" s="313"/>
       <c r="O45" s="233" t="s">
         <v>529</v>
       </c>
       <c r="P45" s="234"/>
-      <c r="S45" s="312"/>
+      <c r="S45" s="311"/>
     </row>
     <row r="46" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
-      <c r="C46" s="379" t="s">
-        <v>575</v>
+      <c r="C46" s="378" t="s">
+        <v>574</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="171"/>
@@ -17030,7 +17232,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="55"/>
       <c r="L46" s="156"/>
-      <c r="M46" s="314"/>
+      <c r="M46" s="313"/>
       <c r="O46" s="233" t="s">
         <v>514</v>
       </c>
@@ -17038,8 +17240,8 @@
     </row>
     <row r="47" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
-      <c r="C47" s="379" t="s">
-        <v>576</v>
+      <c r="C47" s="378" t="s">
+        <v>575</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="171"/>
@@ -17058,8 +17260,8 @@
     </row>
     <row r="48" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
-      <c r="C48" s="379" t="s">
-        <v>577</v>
+      <c r="C48" s="378" t="s">
+        <v>576</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="171"/>
@@ -17078,8 +17280,8 @@
     </row>
     <row r="49" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="37"/>
-      <c r="C49" s="379" t="s">
-        <v>578</v>
+      <c r="C49" s="378" t="s">
+        <v>577</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="171"/>
@@ -17095,99 +17297,99 @@
         <v>532</v>
       </c>
       <c r="P49" s="234"/>
-      <c r="R49" s="312"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="144"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="211"/>
-      <c r="H50" s="211"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="158"/>
-      <c r="M50" s="58"/>
-      <c r="O50" s="233"/>
-      <c r="P50" s="237"/>
+      <c r="R49" s="311"/>
+    </row>
+    <row r="50" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="37"/>
+      <c r="C50" s="378" t="s">
+        <v>626</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="224"/>
+      <c r="H50" s="224"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="156"/>
+      <c r="M50" s="56"/>
+      <c r="O50" s="233" t="s">
+        <v>633</v>
+      </c>
+      <c r="P50" s="234"/>
+      <c r="R50" s="311"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="144"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="211"/>
+      <c r="H51" s="211"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="158"/>
+      <c r="M51" s="58"/>
+      <c r="O51" s="233"/>
+      <c r="P51" s="237"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="175"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="224"/>
-      <c r="H51" s="224"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="L51" s="380">
-        <f>IF(SUM(E53:E55)=1,TRUE,SUM(E53:E55))</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="56" t="str">
-        <f>IF(L51=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
-        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
-      </c>
-      <c r="O51" s="233"/>
-      <c r="P51" s="234">
-        <f>IF(L51=TRUE,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="37"/>
-      <c r="C52" s="60" t="s">
-        <v>580</v>
-      </c>
+      <c r="C52" s="60"/>
       <c r="D52" s="60"/>
-      <c r="E52" s="63"/>
+      <c r="E52" s="175"/>
       <c r="F52" s="8"/>
       <c r="G52" s="224"/>
       <c r="H52" s="224"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="156"/>
-      <c r="M52" s="56"/>
+      <c r="K52" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="L52" s="379">
+        <f>IF(SUM(E54:E57)=1,TRUE,SUM(E54:E57))</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="56" t="str">
+        <f>IF(L52=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
+        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
+      </c>
       <c r="O52" s="233"/>
-      <c r="P52" s="234"/>
-    </row>
-    <row r="53" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="234">
+        <f>IF(L52=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="37"/>
-      <c r="C53" s="379" t="s">
-        <v>575</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="191"/>
+      <c r="C53" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="8"/>
       <c r="G53" s="224"/>
       <c r="H53" s="224"/>
-      <c r="I53" s="23"/>
+      <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-      <c r="K53" s="55"/>
+      <c r="K53" s="64"/>
       <c r="L53" s="156"/>
       <c r="M53" s="56"/>
-      <c r="O53" s="233" t="s">
-        <v>517</v>
-      </c>
-      <c r="P53" s="237"/>
-      <c r="R53" s="312"/>
-    </row>
-    <row r="54" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="233"/>
+      <c r="P53" s="234"/>
+    </row>
+    <row r="54" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="37"/>
-      <c r="C54" s="379" t="s">
+      <c r="C54" s="378" t="s">
         <v>574</v>
       </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="171"/>
+      <c r="E54" s="191"/>
       <c r="F54" s="8"/>
       <c r="G54" s="224"/>
       <c r="H54" s="224"/>
@@ -17197,17 +17399,18 @@
       <c r="L54" s="156"/>
       <c r="M54" s="56"/>
       <c r="O54" s="233" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P54" s="237"/>
+      <c r="R54" s="311"/>
     </row>
     <row r="55" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="37"/>
-      <c r="C55" s="379" t="s">
-        <v>132</v>
-      </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="191"/>
+      <c r="C55" s="378" t="s">
+        <v>573</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="171"/>
       <c r="F55" s="8"/>
       <c r="G55" s="224"/>
       <c r="H55" s="224"/>
@@ -17217,161 +17420,161 @@
       <c r="L55" s="156"/>
       <c r="M55" s="56"/>
       <c r="O55" s="233" t="s">
+        <v>518</v>
+      </c>
+      <c r="P55" s="237"/>
+    </row>
+    <row r="56" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="37"/>
+      <c r="C56" s="378" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="E56" s="191"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="224"/>
+      <c r="H56" s="224"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="56"/>
+      <c r="O56" s="233" t="s">
         <v>519</v>
       </c>
-      <c r="P55" s="237"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="144"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="211"/>
-      <c r="H56" s="211"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="158"/>
-      <c r="M56" s="58"/>
-      <c r="O56" s="233"/>
       <c r="P56" s="237"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="175"/>
+    <row r="57" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="37"/>
+      <c r="C57" s="378" t="s">
+        <v>626</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="191"/>
       <c r="F57" s="8"/>
       <c r="G57" s="224"/>
       <c r="H57" s="224"/>
-      <c r="I57" s="8"/>
+      <c r="I57" s="23"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="L57" s="380">
-        <f>IF(SUM(E59:E63)=1,TRUE,SUM(E59:E63))</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="56" t="str">
-        <f>IF(L57=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
-        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
-      </c>
-      <c r="O57" s="238"/>
-      <c r="P57" s="234">
-        <f>IF(L57=TRUE,1,0)</f>
-        <v>0</v>
-      </c>
+      <c r="K57" s="55"/>
+      <c r="L57" s="156"/>
+      <c r="M57" s="56"/>
+      <c r="O57" s="233" t="s">
+        <v>634</v>
+      </c>
+      <c r="P57" s="237"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="37"/>
-      <c r="C58" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D58" s="8"/>
+      <c r="B58" s="144"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="59"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="224"/>
-      <c r="H58" s="224"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="56"/>
-      <c r="O58" s="238"/>
-      <c r="P58" s="234"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="211"/>
+      <c r="H58" s="211"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="158"/>
+      <c r="M58" s="58"/>
+      <c r="O58" s="233"/>
+      <c r="P58" s="237"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="37"/>
-      <c r="C59" s="379" t="s">
-        <v>133</v>
-      </c>
+      <c r="B59" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="8"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="172">
-        <v>0</v>
-      </c>
+      <c r="E59" s="175"/>
       <c r="F59" s="8"/>
       <c r="G59" s="224"/>
       <c r="H59" s="224"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="56"/>
-      <c r="O59" s="233" t="s">
-        <v>520</v>
-      </c>
-      <c r="P59" s="237"/>
-    </row>
-    <row r="60" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K59" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="L59" s="379">
+        <f>IF(SUM(E61:E65)=1,TRUE,SUM(E61:E65))</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="56" t="str">
+        <f>IF(L59=TRUE," ","If this check is red please adjust the percentages of heat delivered by the technologies to the left.")</f>
+        <v>If this check is red please adjust the percentages of heat delivered by the technologies to the left.</v>
+      </c>
+      <c r="O59" s="238"/>
+      <c r="P59" s="234">
+        <f>IF(L59=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="37"/>
-      <c r="C60" s="379" t="s">
-        <v>134</v>
+      <c r="C60" s="8" t="s">
+        <v>580</v>
       </c>
       <c r="D60" s="8"/>
-      <c r="E60" s="172">
-        <v>0</v>
-      </c>
+      <c r="E60" s="59"/>
       <c r="F60" s="8"/>
       <c r="G60" s="224"/>
       <c r="H60" s="224"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
-      <c r="K60" s="55"/>
+      <c r="K60" s="64"/>
       <c r="L60" s="55"/>
       <c r="M60" s="56"/>
-      <c r="O60" s="233" t="s">
-        <v>521</v>
-      </c>
-      <c r="P60" s="7"/>
-    </row>
-    <row r="61" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="238"/>
+      <c r="P60" s="234"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61" s="37"/>
-      <c r="C61" s="379" t="s">
-        <v>333</v>
+      <c r="C61" s="378" t="s">
+        <v>133</v>
       </c>
       <c r="D61" s="8"/>
-      <c r="E61" s="171"/>
+      <c r="E61" s="172">
+        <v>0</v>
+      </c>
       <c r="F61" s="8"/>
       <c r="G61" s="224"/>
       <c r="H61" s="224"/>
-      <c r="I61" s="23"/>
+      <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="55"/>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
       <c r="O61" s="233" t="s">
-        <v>522</v>
-      </c>
-      <c r="P61" s="7"/>
+        <v>520</v>
+      </c>
+      <c r="P61" s="237"/>
     </row>
     <row r="62" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="37"/>
-      <c r="C62" s="379" t="s">
-        <v>334</v>
+      <c r="C62" s="378" t="s">
+        <v>134</v>
       </c>
       <c r="D62" s="8"/>
-      <c r="E62" s="171"/>
+      <c r="E62" s="172">
+        <v>0</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="224"/>
       <c r="H62" s="224"/>
-      <c r="I62" s="23"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="55"/>
       <c r="L62" s="55"/>
       <c r="M62" s="56"/>
       <c r="O62" s="233" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="P62" s="7"/>
     </row>
     <row r="63" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="37"/>
-      <c r="C63" s="379" t="s">
-        <v>582</v>
+      <c r="C63" s="378" t="s">
+        <v>333</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="171"/>
@@ -17384,91 +17587,93 @@
       <c r="L63" s="55"/>
       <c r="M63" s="56"/>
       <c r="O63" s="233" t="s">
+        <v>522</v>
+      </c>
+      <c r="P63" s="7"/>
+    </row>
+    <row r="64" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="37"/>
+      <c r="C64" s="378" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="171"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="224"/>
+      <c r="H64" s="224"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="56"/>
+      <c r="O64" s="233" t="s">
+        <v>523</v>
+      </c>
+      <c r="P64" s="7"/>
+    </row>
+    <row r="65" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="37"/>
+      <c r="C65" s="378" t="s">
+        <v>581</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="171"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="224"/>
+      <c r="H65" s="224"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="56"/>
+      <c r="O65" s="233" t="s">
         <v>524</v>
       </c>
-      <c r="P63" s="7"/>
-    </row>
-    <row r="64" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="301"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="240"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="229"/>
-      <c r="H64" s="229"/>
-      <c r="I64" s="102"/>
-      <c r="J64" s="102"/>
-      <c r="K64" s="160"/>
-      <c r="L64" s="160"/>
-      <c r="M64" s="150"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="11"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B65" s="302" t="s">
+      <c r="P65" s="7"/>
+    </row>
+    <row r="66" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="300"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="240"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="229"/>
+      <c r="H66" s="229"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="102"/>
+      <c r="K66" s="160"/>
+      <c r="L66" s="160"/>
+      <c r="M66" s="150"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" s="301" t="s">
         <v>501</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="227"/>
-      <c r="H65" s="227"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="29"/>
-      <c r="O65" s="303"/>
-      <c r="P65" s="5"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B66" s="30"/>
-      <c r="C66" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="172">
-        <v>1</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="224"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="31"/>
-      <c r="O66" s="233" t="s">
-        <v>525</v>
-      </c>
-      <c r="P66" s="7"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="30"/>
-      <c r="C67" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="172">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="224"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="31"/>
-      <c r="O67" s="233" t="s">
-        <v>526</v>
-      </c>
-      <c r="P67" s="7"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="227"/>
+      <c r="H67" s="227"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="29"/>
+      <c r="O67" s="302"/>
+      <c r="P67" s="5"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="30"/>
-      <c r="C68" s="8"/>
+      <c r="C68" s="8" t="s">
+        <v>499</v>
+      </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="172"/>
+      <c r="E68" s="172">
+        <v>1</v>
+      </c>
       <c r="F68" s="8"/>
       <c r="G68" s="224"/>
       <c r="I68" s="8"/>
@@ -17476,17 +17681,19 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="31"/>
-      <c r="O68" s="233"/>
+      <c r="O68" s="233" t="s">
+        <v>525</v>
+      </c>
       <c r="P68" s="7"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="30"/>
       <c r="C69" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="172">
-        <v>3.9E-2</v>
+        <v>0</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="224"/>
@@ -17496,19 +17703,15 @@
       <c r="L69" s="8"/>
       <c r="M69" s="31"/>
       <c r="O69" s="233" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P69" s="7"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="30"/>
-      <c r="C70" s="8" t="s">
-        <v>504</v>
-      </c>
+      <c r="C70" s="8"/>
       <c r="D70" s="8"/>
-      <c r="E70" s="172">
-        <v>5.2999999999999999E-2</v>
-      </c>
+      <c r="E70" s="172"/>
       <c r="F70" s="8"/>
       <c r="G70" s="224"/>
       <c r="I70" s="8"/>
@@ -17516,26 +17719,66 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="31"/>
-      <c r="O70" s="233" t="s">
+      <c r="O70" s="233"/>
+      <c r="P70" s="7"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" s="30"/>
+      <c r="C71" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="172">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="224"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="31"/>
+      <c r="O71" s="233" t="s">
+        <v>527</v>
+      </c>
+      <c r="P71" s="7"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B72" s="30"/>
+      <c r="C72" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="172">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="224"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="31"/>
+      <c r="O72" s="233" t="s">
         <v>528</v>
       </c>
-      <c r="P70" s="7"/>
-    </row>
-    <row r="71" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="47"/>
-      <c r="C71" s="102"/>
-      <c r="D71" s="102"/>
-      <c r="E71" s="102"/>
-      <c r="F71" s="102"/>
-      <c r="G71" s="229"/>
-      <c r="H71" s="229"/>
-      <c r="I71" s="102"/>
-      <c r="J71" s="102"/>
-      <c r="K71" s="102"/>
-      <c r="L71" s="102"/>
-      <c r="M71" s="103"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="11"/>
+      <c r="P72" s="7"/>
+    </row>
+    <row r="73" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="47"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="229"/>
+      <c r="H73" s="229"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="102"/>
+      <c r="M73" s="103"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17556,12 +17799,12 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
+  <conditionalFormatting sqref="L52">
     <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
+  <conditionalFormatting sqref="L59">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -17683,7 +17926,7 @@
   <dimension ref="B2:BO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="AQ27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight"/>
@@ -24524,9 +24767,11 @@
   <sheetPr codeName="Sheet9">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:M38"/>
+  <dimension ref="B2:M40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24557,34 +24802,34 @@
       <c r="I2" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="337" t="s">
+      <c r="B4" s="336" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="338"/>
-      <c r="D4" s="338"/>
-      <c r="E4" s="339"/>
-      <c r="F4" s="341"/>
-      <c r="G4" s="342"/>
-      <c r="H4" s="342"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
-      <c r="K4" s="342"/>
-      <c r="L4" s="340"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="337"/>
+      <c r="E4" s="338"/>
+      <c r="F4" s="340"/>
+      <c r="G4" s="341"/>
+      <c r="H4" s="341"/>
+      <c r="I4" s="341"/>
+      <c r="J4" s="341"/>
+      <c r="K4" s="341"/>
+      <c r="L4" s="339"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="408" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="409"/>
       <c r="D5" s="409"/>
       <c r="E5" s="410"/>
-      <c r="F5" s="343"/>
+      <c r="F5" s="342"/>
       <c r="G5" s="224"/>
       <c r="H5" s="224"/>
       <c r="I5" s="224"/>
       <c r="J5" s="224"/>
       <c r="K5" s="224"/>
-      <c r="L5" s="340"/>
+      <c r="L5" s="339"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -24597,36 +24842,36 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="324" t="s">
+      <c r="B7" s="323" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" s="324"/>
+      <c r="D7" s="324"/>
+      <c r="E7" s="325" t="s">
         <v>561</v>
       </c>
-      <c r="C7" s="325"/>
-      <c r="D7" s="325"/>
-      <c r="E7" s="326" t="s">
+      <c r="F7" s="321" t="s">
         <v>562</v>
       </c>
-      <c r="F7" s="322" t="s">
-        <v>563</v>
-      </c>
-      <c r="G7" s="321"/>
-      <c r="H7" s="322"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="328"/>
-      <c r="K7" s="329"/>
-      <c r="L7" s="333"/>
-      <c r="M7" s="258" t="s">
+      <c r="G7" s="320"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="327"/>
+      <c r="K7" s="328"/>
+      <c r="L7" s="332"/>
+      <c r="M7" s="257" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="B8" s="330" t="s">
+    <row r="8" spans="2:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="B8" s="329" t="s">
         <v>339</v>
       </c>
-      <c r="C8" s="298" t="s">
+      <c r="C8" s="297" t="s">
         <v>228</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="347" t="s">
+      <c r="E8" s="346" t="s">
         <v>416</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -24638,16 +24883,16 @@
       <c r="H8" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="I8" s="331" t="s">
-        <v>560</v>
-      </c>
-      <c r="J8" s="334" t="s">
+      <c r="I8" s="330" t="s">
+        <v>559</v>
+      </c>
+      <c r="J8" s="333" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="335" t="s">
+      <c r="K8" s="334" t="s">
         <v>230</v>
       </c>
-      <c r="L8" s="336" t="s">
+      <c r="L8" s="335" t="s">
         <v>286</v>
       </c>
     </row>
@@ -24655,35 +24900,35 @@
       <c r="B9" s="43"/>
       <c r="C9" s="10"/>
       <c r="D9" s="74"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="323" t="s">
+      <c r="E9" s="331"/>
+      <c r="F9" s="322" t="s">
         <v>541</v>
       </c>
-      <c r="G9" s="323" t="s">
+      <c r="G9" s="322" t="s">
         <v>542</v>
       </c>
-      <c r="H9" s="323" t="s">
-        <v>559</v>
+      <c r="H9" s="322" t="s">
+        <v>558</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>543</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="295"/>
+      <c r="L9" s="294"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="70"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
-      <c r="E10" s="344"/>
+      <c r="E10" s="343"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
-      <c r="J10" s="348"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="349"/>
+      <c r="J10" s="347"/>
+      <c r="K10" s="268"/>
+      <c r="L10" s="348"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
@@ -24693,29 +24938,29 @@
         <v>122</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="345" t="s">
+      <c r="E11" s="344" t="s">
         <v>544</v>
       </c>
-      <c r="F11" s="355"/>
-      <c r="G11" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H11" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I11" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J11" s="366">
+      <c r="F11" s="354"/>
+      <c r="G11" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H11" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I11" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J11" s="365">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="360"/>
-      <c r="L11" s="361">
+      <c r="K11" s="359"/>
+      <c r="L11" s="360">
         <f>J11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="258" t="s">
+      <c r="M11" s="257" t="s">
         <v>459</v>
       </c>
     </row>
@@ -24725,27 +24970,27 @@
         <v>124</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="345" t="s">
+      <c r="E12" s="344" t="s">
         <v>545</v>
       </c>
-      <c r="F12" s="355"/>
-      <c r="G12" s="355"/>
-      <c r="H12" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I12" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J12" s="366"/>
-      <c r="K12" s="360" t="e">
+      <c r="F12" s="354"/>
+      <c r="G12" s="354"/>
+      <c r="H12" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I12" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J12" s="365"/>
+      <c r="K12" s="359" t="e">
         <f>1/G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="361" t="e">
+      <c r="L12" s="360" t="e">
         <f>K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="258" t="s">
+      <c r="M12" s="257" t="s">
         <v>462</v>
       </c>
     </row>
@@ -24755,27 +25000,27 @@
         <v>123</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="345" t="s">
+      <c r="E13" s="344" t="s">
         <v>546</v>
       </c>
-      <c r="F13" s="355"/>
-      <c r="G13" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H13" s="355"/>
-      <c r="I13" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J13" s="366"/>
-      <c r="K13" s="360" t="e">
+      <c r="F13" s="354"/>
+      <c r="G13" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H13" s="354"/>
+      <c r="I13" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J13" s="365"/>
+      <c r="K13" s="359" t="e">
         <f>1/H13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="361" t="e">
+      <c r="L13" s="360" t="e">
         <f>K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="258" t="s">
+      <c r="M13" s="257" t="s">
         <v>478</v>
       </c>
     </row>
@@ -24785,29 +25030,29 @@
         <v>125</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="345" t="s">
+      <c r="E14" s="344" t="s">
         <v>547</v>
       </c>
-      <c r="F14" s="355"/>
-      <c r="G14" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H14" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I14" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J14" s="366">
+      <c r="F14" s="354"/>
+      <c r="G14" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H14" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I14" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J14" s="365">
         <f>F14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="360"/>
-      <c r="L14" s="361">
+      <c r="K14" s="359"/>
+      <c r="L14" s="360">
         <f t="shared" ref="L14" si="0">J14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="258" t="s">
+      <c r="M14" s="257" t="s">
         <v>458</v>
       </c>
     </row>
@@ -24817,29 +25062,29 @@
         <v>127</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="345" t="s">
+      <c r="E15" s="344" t="s">
         <v>548</v>
       </c>
-      <c r="F15" s="355"/>
-      <c r="G15" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H15" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I15" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J15" s="366">
+      <c r="F15" s="354"/>
+      <c r="G15" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H15" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I15" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J15" s="365">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="360"/>
-      <c r="L15" s="361">
+      <c r="K15" s="359"/>
+      <c r="L15" s="360">
         <f>J15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="258" t="s">
+      <c r="M15" s="257" t="s">
         <v>461</v>
       </c>
     </row>
@@ -24849,472 +25094,534 @@
         <v>128</v>
       </c>
       <c r="D16" s="17"/>
-      <c r="E16" s="345" t="s">
+      <c r="E16" s="344" t="s">
         <v>549</v>
       </c>
-      <c r="F16" s="355"/>
-      <c r="G16" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H16" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I16" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J16" s="366">
+      <c r="F16" s="354"/>
+      <c r="G16" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H16" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I16" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J16" s="365">
         <f>F16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="360"/>
-      <c r="L16" s="361">
+      <c r="K16" s="359"/>
+      <c r="L16" s="360">
         <f>J16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="258" t="s">
+      <c r="M16" s="257" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="356"/>
-      <c r="G17" s="356"/>
-      <c r="H17" s="356"/>
-      <c r="I17" s="356"/>
-      <c r="J17" s="366"/>
-      <c r="K17" s="350"/>
-      <c r="L17" s="350"/>
-      <c r="M17" s="30"/>
+      <c r="C17" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="344" t="s">
+        <v>630</v>
+      </c>
+      <c r="F17" s="354"/>
+      <c r="G17" s="354"/>
+      <c r="H17" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I17" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J17" s="365"/>
+      <c r="K17" s="359" t="e">
+        <f>1/G17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="360" t="e">
+        <f>K17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" s="257" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
-      <c r="C18" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="345" t="s">
-        <v>550</v>
-      </c>
+      <c r="E18" s="19"/>
       <c r="F18" s="355"/>
-      <c r="G18" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H18" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I18" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J18" s="366">
-        <f>F18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="360"/>
-      <c r="L18" s="361">
-        <f>J18</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="258" t="s">
-        <v>455</v>
-      </c>
+      <c r="G18" s="355"/>
+      <c r="H18" s="355"/>
+      <c r="I18" s="355"/>
+      <c r="J18" s="365"/>
+      <c r="K18" s="349"/>
+      <c r="L18" s="349"/>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="73"/>
       <c r="C19" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="345" t="s">
-        <v>551</v>
-      </c>
-      <c r="F19" s="355"/>
-      <c r="G19" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H19" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I19" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J19" s="366">
+      <c r="E19" s="344" t="s">
+        <v>635</v>
+      </c>
+      <c r="F19" s="354"/>
+      <c r="G19" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H19" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I19" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J19" s="365">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="360"/>
-      <c r="L19" s="361">
+      <c r="K19" s="359"/>
+      <c r="L19" s="360">
         <f>J19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="258" t="s">
-        <v>457</v>
+      <c r="M19" s="257" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
       <c r="C20" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="345" t="s">
-        <v>552</v>
-      </c>
-      <c r="F20" s="355"/>
-      <c r="G20" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H20" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I20" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J20" s="366">
+      <c r="E20" s="344" t="s">
+        <v>550</v>
+      </c>
+      <c r="F20" s="354"/>
+      <c r="G20" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H20" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I20" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J20" s="365">
         <f>F20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="360"/>
-      <c r="L20" s="361">
+      <c r="K20" s="359"/>
+      <c r="L20" s="360">
         <f>J20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="258" t="s">
+      <c r="M20" s="257" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="73"/>
+      <c r="C21" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="344" t="s">
+        <v>551</v>
+      </c>
+      <c r="F21" s="354"/>
+      <c r="G21" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H21" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I21" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J21" s="365">
+        <f>F21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="359"/>
+      <c r="L21" s="360">
+        <f>J21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="257" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="30"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="357"/>
-      <c r="G21" s="357"/>
-      <c r="H21" s="357"/>
-      <c r="I21" s="357"/>
-      <c r="J21" s="366"/>
-      <c r="K21" s="360"/>
-      <c r="L21" s="361"/>
-    </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="356"/>
+      <c r="G22" s="356"/>
+      <c r="H22" s="356"/>
+      <c r="I22" s="356"/>
+      <c r="J22" s="365"/>
+      <c r="K22" s="359"/>
+      <c r="L22" s="360"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="358"/>
-      <c r="G22" s="358"/>
-      <c r="H22" s="358"/>
-      <c r="I22" s="358"/>
-      <c r="J22" s="367"/>
-      <c r="K22" s="362"/>
-      <c r="L22" s="363"/>
-      <c r="M22" s="258"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="73"/>
-      <c r="C23" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="345" t="s">
-        <v>553</v>
-      </c>
-      <c r="F23" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="G23" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H23" s="355"/>
-      <c r="I23" s="355" t="s">
-        <v>568</v>
-      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="302"/>
+      <c r="F23" s="357"/>
+      <c r="G23" s="357"/>
+      <c r="H23" s="357"/>
+      <c r="I23" s="357"/>
       <c r="J23" s="366"/>
-      <c r="K23" s="360" t="e">
-        <f>1/H23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="361" t="e">
-        <f>K23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="258" t="s">
-        <v>464</v>
-      </c>
+      <c r="K23" s="361"/>
+      <c r="L23" s="362"/>
+      <c r="M23" s="257"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
       <c r="C24" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="345" t="s">
-        <v>554</v>
-      </c>
-      <c r="F24" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="G24" s="355"/>
-      <c r="H24" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I24" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J24" s="366"/>
-      <c r="K24" s="360" t="e">
-        <f>1/G24</f>
+      <c r="E24" s="344" t="s">
+        <v>552</v>
+      </c>
+      <c r="F24" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="G24" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H24" s="354"/>
+      <c r="I24" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J24" s="365"/>
+      <c r="K24" s="359" t="e">
+        <f>1/H24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="361" t="e">
+      <c r="L24" s="360" t="e">
         <f>K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="258" t="s">
-        <v>465</v>
+      <c r="M24" s="257" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="73"/>
       <c r="C25" s="17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="345" t="s">
-        <v>555</v>
-      </c>
-      <c r="F25" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="G25" s="355"/>
-      <c r="H25" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I25" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="J25" s="366"/>
-      <c r="K25" s="360" t="e">
+      <c r="E25" s="344" t="s">
+        <v>553</v>
+      </c>
+      <c r="F25" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="G25" s="354"/>
+      <c r="H25" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I25" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J25" s="365"/>
+      <c r="K25" s="359" t="e">
         <f>1/G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="361" t="e">
+      <c r="L25" s="360" t="e">
         <f>K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="258" t="s">
+      <c r="M25" s="257" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="73"/>
+      <c r="C26" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="344" t="s">
+        <v>554</v>
+      </c>
+      <c r="F26" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="G26" s="354"/>
+      <c r="H26" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I26" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J26" s="365"/>
+      <c r="K26" s="359" t="e">
+        <f>1/G26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="360" t="e">
+        <f>K26</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="257" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="43"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="359"/>
-      <c r="G26" s="359"/>
-      <c r="H26" s="359"/>
-      <c r="I26" s="359"/>
-      <c r="J26" s="368"/>
-      <c r="K26" s="364"/>
-      <c r="L26" s="365"/>
-    </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="73"/>
+      <c r="C27" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="344" t="s">
+        <v>628</v>
+      </c>
+      <c r="F27" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="G27" s="354"/>
+      <c r="H27" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I27" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="J27" s="365"/>
+      <c r="K27" s="359" t="e">
+        <f>1/G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="360" t="e">
+        <f>K27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" s="257" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="43"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="358"/>
+      <c r="G28" s="358"/>
+      <c r="H28" s="358"/>
+      <c r="I28" s="358"/>
+      <c r="J28" s="367"/>
+      <c r="K28" s="363"/>
+      <c r="L28" s="364"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="357"/>
-      <c r="G27" s="357"/>
-      <c r="H27" s="357"/>
-      <c r="I27" s="357"/>
-      <c r="J27" s="366"/>
-      <c r="K27" s="360"/>
-      <c r="L27" s="361"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="73"/>
-      <c r="C28" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="345"/>
-      <c r="F28" s="355"/>
-      <c r="G28" s="355"/>
-      <c r="H28" s="355"/>
-      <c r="I28" s="355"/>
-      <c r="J28" s="369">
-        <v>0.05</v>
-      </c>
-      <c r="K28" s="360"/>
-      <c r="L28" s="361">
-        <f>J28</f>
-        <v>0.05</v>
-      </c>
-      <c r="M28" s="258" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="73"/>
-      <c r="C29" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="345"/>
-      <c r="F29" s="355"/>
-      <c r="G29" s="355"/>
-      <c r="H29" s="355"/>
-      <c r="I29" s="355"/>
-      <c r="J29" s="369">
-        <v>0.12</v>
-      </c>
-      <c r="K29" s="360"/>
-      <c r="L29" s="361">
-        <f>J29</f>
-        <v>0.12</v>
-      </c>
-      <c r="M29" s="258" t="s">
-        <v>468</v>
-      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="356"/>
+      <c r="G29" s="356"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="356"/>
+      <c r="J29" s="365"/>
+      <c r="K29" s="359"/>
+      <c r="L29" s="360"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="73"/>
       <c r="C30" s="17" t="s">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="345" t="s">
-        <v>557</v>
-      </c>
-      <c r="F30" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="G30" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H30" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I30" s="355"/>
-      <c r="J30" s="366">
-        <f>I30</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="360"/>
-      <c r="L30" s="361">
+      <c r="E30" s="344"/>
+      <c r="F30" s="354"/>
+      <c r="G30" s="354"/>
+      <c r="H30" s="354"/>
+      <c r="I30" s="354"/>
+      <c r="J30" s="368">
+        <v>0.05</v>
+      </c>
+      <c r="K30" s="359"/>
+      <c r="L30" s="360">
         <f>J30</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="258" t="s">
-        <v>469</v>
+        <v>0.05</v>
+      </c>
+      <c r="M30" s="257" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
       <c r="C31" s="17" t="s">
-        <v>334</v>
+        <v>134</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="345" t="s">
-        <v>556</v>
-      </c>
-      <c r="F31" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="G31" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H31" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I31" s="355"/>
-      <c r="J31" s="366">
-        <f>I31</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="360"/>
-      <c r="L31" s="361">
+      <c r="E31" s="344"/>
+      <c r="F31" s="354"/>
+      <c r="G31" s="354"/>
+      <c r="H31" s="354"/>
+      <c r="I31" s="354"/>
+      <c r="J31" s="368">
+        <v>0.12</v>
+      </c>
+      <c r="K31" s="359"/>
+      <c r="L31" s="360">
         <f>J31</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="258" t="s">
-        <v>470</v>
+        <v>0.12</v>
+      </c>
+      <c r="M31" s="257" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
       <c r="C32" s="17" t="s">
-        <v>135</v>
+        <v>333</v>
       </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="345" t="s">
-        <v>558</v>
-      </c>
-      <c r="F32" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="G32" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="H32" s="355" t="s">
-        <v>568</v>
-      </c>
-      <c r="I32" s="355"/>
-      <c r="J32" s="366">
+      <c r="E32" s="344" t="s">
+        <v>556</v>
+      </c>
+      <c r="F32" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="G32" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H32" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I32" s="354"/>
+      <c r="J32" s="365">
         <f>I32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="360"/>
-      <c r="L32" s="361">
+      <c r="K32" s="359"/>
+      <c r="L32" s="360">
         <f>J32</f>
         <v>0</v>
       </c>
-      <c r="M32" s="258" t="s">
+      <c r="M32" s="257" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="73"/>
+      <c r="C33" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="344" t="s">
+        <v>555</v>
+      </c>
+      <c r="F33" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="G33" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H33" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I33" s="354"/>
+      <c r="J33" s="365">
+        <f>I33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="359"/>
+      <c r="L33" s="360">
+        <f>J33</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="257" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="73"/>
+      <c r="C34" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="344" t="s">
+        <v>557</v>
+      </c>
+      <c r="F34" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="G34" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="H34" s="354" t="s">
+        <v>567</v>
+      </c>
+      <c r="I34" s="354"/>
+      <c r="J34" s="365">
+        <f>I34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="359"/>
+      <c r="L34" s="360">
+        <f>J34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="257" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="47"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="346"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="351"/>
-      <c r="K33" s="352"/>
-      <c r="L33" s="353"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="350"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="350"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="47"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="345"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="350"/>
+      <c r="K35" s="351"/>
+      <c r="L35" s="352"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="J36" s="145"/>
       <c r="K36" s="145"/>
-      <c r="L36" s="350"/>
-    </row>
-    <row r="37" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="J37" s="354"/>
+      <c r="L36" s="349"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J37" s="145"/>
       <c r="K37" s="145"/>
-      <c r="L37" s="350"/>
-    </row>
-    <row r="38" spans="2:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="J38" s="354"/>
+      <c r="L37" s="349"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J38" s="145"/>
       <c r="K38" s="145"/>
-      <c r="L38" s="350"/>
+      <c r="L38" s="349"/>
+    </row>
+    <row r="39" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="J39" s="353"/>
+      <c r="K39" s="145"/>
+      <c r="L39" s="349"/>
+    </row>
+    <row r="40" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+      <c r="J40" s="353"/>
+      <c r="K40" s="145"/>
+      <c r="L40" s="349"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lottevanvlimmeren/Code/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9332A74-E481-D147-A50D-96ECA217F18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1E3440-EACD-3C41-B0DB-82570AAE5B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" tabRatio="929" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-28300" windowWidth="25600" windowHeight="28300" tabRatio="929" firstSheet="18" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -51,11 +51,11 @@
     <definedName name="Eff_cooling_airco">technical_specs!$L$26</definedName>
     <definedName name="Eff_cooling_pump">technical_specs!$L$24</definedName>
     <definedName name="Eff_cooling_pump_storage">technical_specs!$L$25</definedName>
-    <definedName name="Eff_lighting_lamp_fluorescent">technical_specs!$L$31</definedName>
-    <definedName name="Eff_lighting_lamp_incandescent">technical_specs!$L$30</definedName>
-    <definedName name="Eff_lighting_led">technical_specs!$L$34</definedName>
-    <definedName name="Eff_lighting_tube_fluorescent_efficient">technical_specs!$L$33</definedName>
-    <definedName name="Eff_lighting_tube_fluorescent_standartd">technical_specs!$L$32</definedName>
+    <definedName name="Eff_lighting_lamp_fluorescent">technical_specs!#REF!</definedName>
+    <definedName name="Eff_lighting_lamp_incandescent">technical_specs!#REF!</definedName>
+    <definedName name="Eff_lighting_led">technical_specs!$L$32</definedName>
+    <definedName name="Eff_lighting_tube_fluorescent_efficient">technical_specs!$L$31</definedName>
+    <definedName name="Eff_lighting_tube_fluorescent_standartd">technical_specs!$L$30</definedName>
     <definedName name="Eff_space_heating_air_heatpump">technical_specs!$M$18+technical_specs!$L$17</definedName>
     <definedName name="Eff_space_heating_coal">technical_specs!$L$15</definedName>
     <definedName name="Eff_space_heating_district">technical_specs!$L$21</definedName>
@@ -90,74 +90,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Quintel Intelligence</author>
-  </authors>
-  <commentList>
-    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Quintel Intelligence:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">These technologies are currently not supported by the ETM
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Quintel Intelligence:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This technology is currently not supported by the ETM</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>A satisfied Microsoft Office user</author>
@@ -232,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="624">
   <si>
     <t>Changelog</t>
   </si>
@@ -631,12 +563,6 @@
   </si>
   <si>
     <t>Airconditioning</t>
-  </si>
-  <si>
-    <t>Incandescent lamps</t>
-  </si>
-  <si>
-    <t>Fluorescent lamps</t>
   </si>
   <si>
     <t>LED lamps</t>
@@ -1474,18 +1400,12 @@
     <t>key</t>
   </si>
   <si>
-    <t>buildings_lighting_incandescent_lamp_electricity</t>
-  </si>
-  <si>
     <t>buildings_lighting_efficient_fluorescent_electricity</t>
   </si>
   <si>
     <t>buildings_lighting_led_electricity</t>
   </si>
   <si>
-    <t>buildings_lighting_fluorescent_lamp_electricity</t>
-  </si>
-  <si>
     <t>buildings_lighting_standard_fluorescent_electricity</t>
   </si>
   <si>
@@ -1765,12 +1685,6 @@
     <t>Eff_lighting_led</t>
   </si>
   <si>
-    <t>Eff_lighting_lamp_incandescent</t>
-  </si>
-  <si>
-    <t>Eff_lighting_lamp_fluorescent</t>
-  </si>
-  <si>
     <t>Eff_lighting_tube_fluorescent_standartd</t>
   </si>
   <si>
@@ -1832,12 +1746,6 @@
   </si>
   <si>
     <t>Network Gas</t>
-  </si>
-  <si>
-    <t>Electriity</t>
-  </si>
-  <si>
-    <t>Electrcity</t>
   </si>
   <si>
     <t>Share per technology and carrier</t>
@@ -1932,21 +1840,6 @@
     <t>services_space_cooling_share_airco</t>
   </si>
   <si>
-    <t>services_lighting_incandescent_lamp</t>
-  </si>
-  <si>
-    <t>services_lighting_fluorescent_lamp</t>
-  </si>
-  <si>
-    <t>services_lighting_fluorescent_tube</t>
-  </si>
-  <si>
-    <t>services_lighting_efficient_fluorescent_tube</t>
-  </si>
-  <si>
-    <t>services_lighting_LED_tube</t>
-  </si>
-  <si>
     <t>services_biomass_used_in space_heating</t>
   </si>
   <si>
@@ -2233,9 +2126,6 @@
     <t>industry_final_demand_for_other_ict_electricity</t>
   </si>
   <si>
-    <t>Rob Terwel</t>
-  </si>
-  <si>
     <t>Created an optional split of the central ICT sector (directed to the industry sector in the graph)</t>
   </si>
   <si>
@@ -2279,6 +2169,12 @@
   </si>
   <si>
     <t>buildings_space_heater_solar_thermal</t>
+  </si>
+  <si>
+    <t>Lotte van Vlimmeren</t>
+  </si>
+  <si>
+    <t>Removed incandescent and fluorescent lighting from analysis</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2187,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2433,19 +2329,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2520,19 +2403,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -4671,7 +4541,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="412">
+  <cellXfs count="410">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4999,24 +4869,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5055,20 +4925,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5088,7 +4957,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5100,7 +4969,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5108,10 +4977,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5122,10 +4991,10 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5141,7 +5010,7 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5173,7 +5042,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5233,7 +5102,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5241,7 +5110,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -5256,7 +5125,6 @@
     <xf numFmtId="165" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9870,7 +9738,7 @@
   <dimension ref="B2:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9884,7 +9752,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -9902,13 +9770,13 @@
       </c>
       <c r="C5" s="26">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C6" s="26">
         <f>Dashboard!E11</f>
@@ -9918,7 +9786,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C7" s="198">
         <f>Dashboard!E12</f>
@@ -9932,7 +9800,7 @@
       </c>
       <c r="C8" s="206">
         <f>MAX(Changelog!B:B)</f>
-        <v>42600</v>
+        <v>44607</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -9941,7 +9809,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -10006,7 +9874,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D19" s="7"/>
     </row>
@@ -10020,7 +9888,7 @@
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="162" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D21" s="7"/>
     </row>
@@ -10041,7 +9909,7 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="19"/>
       <c r="C24" s="164" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D24" s="7"/>
     </row>
@@ -10055,7 +9923,7 @@
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="19"/>
       <c r="C26" s="124" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D26" s="7"/>
     </row>
@@ -10142,7 +10010,7 @@
   </sheetPr>
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -10157,7 +10025,7 @@
   <sheetData>
     <row r="2" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -10169,38 +10037,38 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="405" t="s">
-        <v>616</v>
-      </c>
-      <c r="C5" s="407"/>
-      <c r="D5" s="407"/>
-      <c r="E5" s="406"/>
+      <c r="B5" s="403" t="s">
+        <v>603</v>
+      </c>
+      <c r="C5" s="405"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="404"/>
     </row>
     <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="201" t="s">
-        <v>488</v>
-      </c>
-      <c r="C7" s="282" t="s">
-        <v>339</v>
+        <v>482</v>
+      </c>
+      <c r="C7" s="281" t="s">
+        <v>337</v>
       </c>
       <c r="D7" s="167" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E7" s="168" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="278" t="s">
-        <v>267</v>
+      <c r="B8" s="277" t="s">
+        <v>265</v>
       </c>
       <c r="C8" s="169"/>
       <c r="D8" s="4"/>
       <c r="E8" s="136"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="279"/>
+      <c r="B9" s="278"/>
       <c r="C9" s="18" t="s">
         <v>121</v>
       </c>
@@ -10208,21 +10076,21 @@
         <f>SUM('Final demand per energy carrier'!E15:E23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E9" s="248" t="e">
+      <c r="E9" s="247" t="e">
         <f>IF(SUM($D$9:$D$10)=0,0,D9/SUM($D$9:$D$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="279"/>
+      <c r="B10" s="278"/>
       <c r="C10" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D10" s="222" t="e">
-        <f>'Final demand per energy carrier'!E45</f>
+        <f>'Final demand per energy carrier'!E43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="248" t="e">
+      <c r="E10" s="247" t="e">
         <f>IF(SUM($D$9:$D$10)=0,1,D10/SUM($D$9:$D$10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -10231,18 +10099,18 @@
       <c r="B11" s="37"/>
       <c r="C11" s="7"/>
       <c r="D11" s="217"/>
-      <c r="E11" s="249"/>
+      <c r="E11" s="248"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="278" t="s">
-        <v>596</v>
+      <c r="B12" s="277" t="s">
+        <v>583</v>
       </c>
       <c r="C12" s="169"/>
       <c r="D12" s="223"/>
-      <c r="E12" s="251"/>
+      <c r="E12" s="250"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="279"/>
+      <c r="B13" s="278"/>
       <c r="C13" s="18" t="s">
         <v>121</v>
       </c>
@@ -10250,13 +10118,13 @@
         <f>SUM('Final demand per energy carrier'!F15:F23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="248" t="e">
+      <c r="E13" s="247" t="e">
         <f>IF(SUM($D$13:$D$15)=0,0,D13/SUM($D$13:$D$15))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="279"/>
+      <c r="B14" s="278"/>
       <c r="C14" s="18" t="s">
         <v>120</v>
       </c>
@@ -10264,41 +10132,41 @@
         <f>SUM('Final demand per energy carrier'!F26:F28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="248" t="e">
+      <c r="E14" s="247" t="e">
         <f>IF(SUM($D$13:$D$15)=0,0,D14/SUM($D$13:$D$15))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="279"/>
+      <c r="B15" s="278"/>
       <c r="C15" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D15" s="222" t="e">
-        <f>'Final demand per energy carrier'!F45</f>
+        <f>'Final demand per energy carrier'!F43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="248" t="e">
+      <c r="E15" s="247" t="e">
         <f>IF(SUM($D$13:$D$15)=0,1,D15/SUM($D$13:$D$15))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="280"/>
+      <c r="B16" s="279"/>
       <c r="C16" s="7"/>
       <c r="D16" s="217"/>
-      <c r="E16" s="252"/>
+      <c r="E16" s="251"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="278" t="s">
-        <v>269</v>
+      <c r="B17" s="277" t="s">
+        <v>267</v>
       </c>
       <c r="C17" s="169"/>
       <c r="D17" s="223"/>
-      <c r="E17" s="251"/>
+      <c r="E17" s="250"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="279"/>
+      <c r="B18" s="278"/>
       <c r="C18" s="18" t="s">
         <v>121</v>
       </c>
@@ -10306,41 +10174,41 @@
         <f>SUM('Final demand per energy carrier'!G15:G23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="248" t="e">
+      <c r="E18" s="247" t="e">
         <f>IF(SUM($D$18:$D$19)=0,0,D18/SUM($D$18:$D$19))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="279"/>
+      <c r="B19" s="278"/>
       <c r="C19" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D19" s="222" t="e">
-        <f>'Final demand per energy carrier'!G45</f>
+        <f>'Final demand per energy carrier'!G43</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="248" t="e">
+      <c r="E19" s="247" t="e">
         <f>IF(SUM($D$18:$D$19)=0,1,D19/SUM($D$18:$D$19))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="279"/>
+      <c r="B20" s="278"/>
       <c r="C20" s="7"/>
       <c r="D20" s="217"/>
-      <c r="E20" s="252"/>
+      <c r="E20" s="251"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="278" t="s">
-        <v>303</v>
+      <c r="B21" s="277" t="s">
+        <v>301</v>
       </c>
       <c r="C21" s="169"/>
       <c r="D21" s="223"/>
-      <c r="E21" s="251"/>
+      <c r="E21" s="250"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="279"/>
+      <c r="B22" s="278"/>
       <c r="C22" s="18" t="s">
         <v>121</v>
       </c>
@@ -10348,13 +10216,13 @@
         <f>SUM('Final demand per energy carrier'!J15:J23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="248" t="e">
+      <c r="E22" s="247" t="e">
         <f>IF(SUM($D$22:$D$25)=0,0,D22/SUM($D$22:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="279"/>
+      <c r="B23" s="278"/>
       <c r="C23" s="18" t="s">
         <v>120</v>
       </c>
@@ -10362,80 +10230,80 @@
         <f>SUM('Final demand per energy carrier'!J26:J28)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="248" t="e">
+      <c r="E23" s="247" t="e">
         <f t="shared" ref="E23:E24" si="0">IF(SUM($D$22:$D$25)=0,0,D23/SUM($D$22:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="279"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="18" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="222" t="e">
-        <f>SUM('Final demand per energy carrier'!J31:J35)</f>
+        <f>SUM('Final demand per energy carrier'!J31:J33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="248" t="e">
+      <c r="E24" s="247" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="279"/>
+      <c r="B25" s="278"/>
       <c r="C25" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D25" s="222" t="e">
-        <f>'Final demand per energy carrier'!J44</f>
+        <f>'Final demand per energy carrier'!J42</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="248" t="e">
+      <c r="E25" s="247" t="e">
         <f>IF(SUM($D$22:$D$25)=0,1,D25/SUM($D$22:$D$25))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="278" t="s">
-        <v>303</v>
+      <c r="B26" s="277" t="s">
+        <v>301</v>
       </c>
       <c r="C26" s="169"/>
       <c r="D26" s="223"/>
-      <c r="E26" s="251"/>
+      <c r="E26" s="250"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="279"/>
+      <c r="B27" s="278"/>
       <c r="C27" s="18" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="D27" s="222" t="e">
         <f>SUM(D22:D25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="248" t="e">
+      <c r="E27" s="247" t="e">
         <f>IF(SUM($D$27:$D$28)=0,1,D27/SUM($D$27:$D$28))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="279"/>
+      <c r="B28" s="278"/>
       <c r="C28" s="18" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D28" s="222">
-        <f>SUM('Final demand per energy carrier'!J41)</f>
+        <f>SUM('Final demand per energy carrier'!J39)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="248" t="e">
+      <c r="E28" s="247" t="e">
         <f>IF(SUM($D$27:$D$28)=0,0,D28/SUM($D$27:$D$28))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="281"/>
+      <c r="B29" s="280"/>
       <c r="C29" s="154"/>
       <c r="D29" s="166"/>
-      <c r="E29" s="253"/>
+      <c r="E29" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10456,10 +10324,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10475,7 +10343,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -10489,45 +10357,45 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="405" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="407"/>
-      <c r="D5" s="407"/>
-      <c r="E5" s="407"/>
-      <c r="F5" s="406"/>
+      <c r="B5" s="403" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="405"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="405"/>
+      <c r="F5" s="404"/>
     </row>
     <row r="6" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="201" t="s">
-        <v>487</v>
-      </c>
-      <c r="C7" s="273" t="s">
-        <v>488</v>
-      </c>
-      <c r="D7" s="282" t="s">
-        <v>228</v>
+        <v>481</v>
+      </c>
+      <c r="C7" s="272" t="s">
+        <v>482</v>
+      </c>
+      <c r="D7" s="281" t="s">
+        <v>226</v>
       </c>
       <c r="E7" s="167" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F7" s="168" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="278" t="s">
+      <c r="B8" s="277" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="275"/>
+      <c r="C8" s="274"/>
       <c r="D8" s="169"/>
       <c r="E8" s="4"/>
       <c r="F8" s="136"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="279"/>
+      <c r="B9" s="278"/>
       <c r="C9" s="60" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>122</v>
@@ -10536,13 +10404,13 @@
         <f>'Technology split final demand'!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="248" t="e">
+      <c r="F9" s="247" t="e">
         <f>IF(SUM($E$9:$E$10)=0,1,E9/SUM($E$9:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="279"/>
+      <c r="B10" s="278"/>
       <c r="C10" s="60"/>
       <c r="D10" s="18" t="s">
         <v>123</v>
@@ -10551,22 +10419,22 @@
         <f>'Technology split final demand'!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="248" t="e">
+      <c r="F10" s="247" t="e">
         <f>IF(SUM($E$9:$E$10)=0,0,E10/SUM($E$9:$E$10))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="37"/>
-      <c r="C11" s="276"/>
+      <c r="C11" s="275"/>
       <c r="D11" s="7"/>
       <c r="E11" s="172"/>
-      <c r="F11" s="249"/>
+      <c r="F11" s="248"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="279"/>
+      <c r="B12" s="278"/>
       <c r="C12" s="60" t="s">
-        <v>490</v>
+        <v>148</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>124</v>
@@ -10575,13 +10443,13 @@
         <f>'Technology split final demand'!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="248" t="e">
+      <c r="F12" s="247" t="e">
         <f>IF(SUM($E$12:$E$14)=0,1,E12/SUM($E$12:$E$14))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="279"/>
+      <c r="B13" s="278"/>
       <c r="C13" s="60"/>
       <c r="D13" s="18" t="s">
         <v>125</v>
@@ -10590,46 +10458,46 @@
         <f>'Technology split final demand'!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="248" t="e">
+      <c r="F13" s="247" t="e">
         <f t="shared" ref="F13:F14" si="0">IF(SUM($E$12:$E$14)=0,1,E13/SUM($E$12:$E$14))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="279"/>
+      <c r="B14" s="278"/>
       <c r="C14" s="60"/>
       <c r="D14" s="18" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="E14" s="187" t="e">
         <f>'Technology split final demand'!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="248" t="e">
+      <c r="F14" s="247" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="280"/>
-      <c r="C15" s="277"/>
+      <c r="B15" s="279"/>
+      <c r="C15" s="276"/>
       <c r="D15" s="7"/>
       <c r="E15" s="172"/>
-      <c r="F15" s="252"/>
+      <c r="F15" s="251"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="278" t="s">
+      <c r="B16" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="275"/>
+      <c r="C16" s="274"/>
       <c r="D16" s="169"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="251"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="250"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="279"/>
+      <c r="B17" s="278"/>
       <c r="C17" s="60" t="s">
-        <v>491</v>
+        <v>148</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>124</v>
@@ -10638,13 +10506,13 @@
         <f>'Technology split final demand'!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="248" t="e">
+      <c r="F17" s="247" t="e">
         <f>IF(SUM($E$17:$E$19)=0,0,E17/SUM($E$17:$E$19))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="279"/>
+      <c r="B18" s="278"/>
       <c r="C18" s="60"/>
       <c r="D18" s="18" t="s">
         <v>132</v>
@@ -10653,125 +10521,93 @@
         <f>'Technology split final demand'!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="248" t="e">
+      <c r="F18" s="247" t="e">
         <f t="shared" ref="F18:F19" si="1">IF(SUM($E$17:$E$19)=0,0,E18/SUM($E$17:$E$19))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="279"/>
+      <c r="B19" s="278"/>
       <c r="C19" s="60"/>
       <c r="D19" s="18" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="E19" s="187" t="e">
         <f>'Technology split final demand'!G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="248" t="e">
+      <c r="F19" s="247" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="279"/>
+      <c r="B20" s="278"/>
       <c r="C20" s="60"/>
       <c r="D20" s="7"/>
       <c r="E20" s="172"/>
-      <c r="F20" s="252"/>
+      <c r="F20" s="251"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="278" t="s">
+      <c r="B21" s="277" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="275"/>
+      <c r="C21" s="274"/>
       <c r="D21" s="169"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="251"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="250"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="279"/>
-      <c r="C22" s="60" t="s">
-        <v>491</v>
-      </c>
+      <c r="B22" s="278"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="18" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="E22" s="187" t="e">
         <f>'Technology split final demand'!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="248" t="e">
-        <f>IF(SUM($E$22:$E$26)=0,1,E22/SUM($E$22:$E$26))</f>
+      <c r="F22" s="247" t="e">
+        <f>IF(SUM($E$22:$E$24)=0,0,E22/SUM($E$22:$E$24))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="279"/>
+      <c r="B23" s="278"/>
       <c r="C23" s="60"/>
       <c r="D23" s="18" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="E23" s="187" t="e">
         <f>'Technology split final demand'!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="248" t="e">
-        <f>IF(SUM($E$22:$E$26)=0,0,E23/SUM($E$22:$E$26))</f>
+      <c r="F23" s="247" t="e">
+        <f>IF(SUM($E$22:$E$24)=0,0,E23/SUM($E$22:$E$24))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="279"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="60"/>
       <c r="D24" s="18" t="s">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="E24" s="187" t="e">
         <f>'Technology split final demand'!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="248" t="e">
-        <f>IF(SUM($E$22:$E$26)=0,0,E24/SUM($E$22:$E$26))</f>
+      <c r="F24" s="247" t="e">
+        <f>IF(SUM($E$22:$E$24)=0,0,E24/SUM($E$22:$E$24))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="279"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="E25" s="187" t="e">
-        <f>'Technology split final demand'!G33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="248" t="e">
-        <f>IF(SUM($E$22:$E$26)=0,0,E25/SUM($E$22:$E$26))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="279"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="187" t="e">
-        <f>'Technology split final demand'!G34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="248" t="e">
-        <f>IF(SUM($E$22:$E$26)=0,0,E26/SUM($E$22:$E$26))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="281"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="243"/>
+    <row r="25" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="280"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10792,10 +10628,10 @@
   <sheetPr codeName="Sheet13">
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:L46"/>
+  <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10810,7 +10646,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -10846,13 +10682,13 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="405" t="s">
-        <v>420</v>
-      </c>
-      <c r="C5" s="407"/>
-      <c r="D5" s="407"/>
-      <c r="E5" s="407"/>
-      <c r="F5" s="406"/>
+      <c r="B5" s="403" t="s">
+        <v>416</v>
+      </c>
+      <c r="C5" s="405"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="405"/>
+      <c r="F5" s="404"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="202"/>
@@ -10873,7 +10709,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -10899,34 +10735,34 @@
     </row>
     <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C9" s="74" t="s">
         <v>131</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K9" s="146" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -10943,7 +10779,7 @@
     </row>
     <row r="11" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" s="93" t="s">
         <v>119</v>
@@ -10994,13 +10830,13 @@
       <c r="B13" s="73"/>
       <c r="C13" s="72"/>
       <c r="D13" s="71"/>
-      <c r="E13" s="396"/>
-      <c r="F13" s="396"/>
-      <c r="G13" s="396"/>
-      <c r="H13" s="396"/>
-      <c r="I13" s="396"/>
-      <c r="J13" s="396"/>
-      <c r="K13" s="397"/>
+      <c r="E13" s="394"/>
+      <c r="F13" s="394"/>
+      <c r="G13" s="394"/>
+      <c r="H13" s="394"/>
+      <c r="I13" s="394"/>
+      <c r="J13" s="394"/>
+      <c r="K13" s="395"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="49" t="s">
@@ -11008,13 +10844,13 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="386"/>
-      <c r="F14" s="386"/>
-      <c r="G14" s="386"/>
-      <c r="H14" s="386"/>
-      <c r="I14" s="386"/>
-      <c r="J14" s="386"/>
-      <c r="K14" s="387"/>
+      <c r="E14" s="384"/>
+      <c r="F14" s="384"/>
+      <c r="G14" s="384"/>
+      <c r="H14" s="384"/>
+      <c r="I14" s="384"/>
+      <c r="J14" s="384"/>
+      <c r="K14" s="385"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -11026,16 +10862,16 @@
         <f>'Technology split final demand'!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="382"/>
-      <c r="F15" s="256" t="e">
+      <c r="E15" s="380"/>
+      <c r="F15" s="255" t="e">
         <f>D15*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="383"/>
+      <c r="G15" s="255"/>
+      <c r="H15" s="255"/>
+      <c r="I15" s="255"/>
+      <c r="J15" s="255"/>
+      <c r="K15" s="381"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
@@ -11047,16 +10883,16 @@
         <f>'Technology split final demand'!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="382"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256" t="e">
+      <c r="E16" s="380"/>
+      <c r="F16" s="255"/>
+      <c r="G16" s="255"/>
+      <c r="H16" s="255"/>
+      <c r="I16" s="255"/>
+      <c r="J16" s="255" t="e">
         <f>D16*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="383"/>
+      <c r="K16" s="381"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
@@ -11068,16 +10904,16 @@
         <f>'Technology split final demand'!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="382"/>
-      <c r="F17" s="256" t="e">
+      <c r="E17" s="380"/>
+      <c r="F17" s="255" t="e">
         <f>D17*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="383"/>
+      <c r="G17" s="255"/>
+      <c r="H17" s="255"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="255"/>
+      <c r="K17" s="381"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
@@ -11089,16 +10925,16 @@
         <f>'Technology split final demand'!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="382"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256" t="e">
+      <c r="E18" s="380"/>
+      <c r="F18" s="255"/>
+      <c r="G18" s="255"/>
+      <c r="H18" s="255"/>
+      <c r="I18" s="255"/>
+      <c r="J18" s="255" t="e">
         <f>D18*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="383"/>
+      <c r="K18" s="381"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -11110,16 +10946,16 @@
         <f>'Technology split final demand'!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="256" t="e">
+      <c r="E19" s="255" t="e">
         <f>D19*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="256"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="256"/>
-      <c r="K19" s="383"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="255"/>
+      <c r="H19" s="255"/>
+      <c r="I19" s="255"/>
+      <c r="J19" s="255"/>
+      <c r="K19" s="381"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
@@ -11131,16 +10967,16 @@
         <f>'Technology split final demand'!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="382"/>
-      <c r="F20" s="256"/>
-      <c r="G20" s="256" t="e">
+      <c r="E20" s="380"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="255" t="e">
         <f>D20*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="256"/>
-      <c r="I20" s="256"/>
-      <c r="J20" s="256"/>
-      <c r="K20" s="383"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="255"/>
+      <c r="K20" s="381"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
@@ -11151,16 +10987,16 @@
         <f>'Technology split final demand'!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256" t="e">
+      <c r="E21" s="255"/>
+      <c r="F21" s="255"/>
+      <c r="G21" s="255"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="255" t="e">
         <f>D21*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="256"/>
-      <c r="K21" s="383"/>
+      <c r="J21" s="255"/>
+      <c r="K21" s="381"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
@@ -11172,16 +11008,16 @@
         <f>'Technology split final demand'!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256" t="e">
+      <c r="E22" s="255"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+      <c r="H22" s="255" t="e">
         <f>D22*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="256"/>
-      <c r="J22" s="256"/>
-      <c r="K22" s="383"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="255"/>
+      <c r="K22" s="381"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
@@ -11193,13 +11029,13 @@
         <f>'Technology split final demand'!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="383" t="e">
+      <c r="E23" s="255"/>
+      <c r="F23" s="255"/>
+      <c r="G23" s="255"/>
+      <c r="H23" s="255"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="255"/>
+      <c r="K23" s="381" t="e">
         <f>D23*Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
@@ -11209,13 +11045,13 @@
       <c r="B24" s="30"/>
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="384"/>
-      <c r="F24" s="384"/>
-      <c r="G24" s="384"/>
-      <c r="H24" s="384"/>
-      <c r="I24" s="384"/>
-      <c r="J24" s="384"/>
-      <c r="K24" s="385"/>
+      <c r="E24" s="382"/>
+      <c r="F24" s="382"/>
+      <c r="G24" s="382"/>
+      <c r="H24" s="382"/>
+      <c r="I24" s="382"/>
+      <c r="J24" s="382"/>
+      <c r="K24" s="383"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="49" t="s">
@@ -11223,13 +11059,13 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="386"/>
-      <c r="G25" s="386"/>
-      <c r="H25" s="386"/>
-      <c r="I25" s="386"/>
-      <c r="J25" s="386"/>
-      <c r="K25" s="387"/>
+      <c r="E25" s="384"/>
+      <c r="F25" s="384"/>
+      <c r="G25" s="384"/>
+      <c r="H25" s="384"/>
+      <c r="I25" s="384"/>
+      <c r="J25" s="384"/>
+      <c r="K25" s="385"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
@@ -11240,16 +11076,16 @@
         <f>'Technology split final demand'!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256" t="e">
+      <c r="E26" s="255"/>
+      <c r="F26" s="255" t="e">
         <f>D26*Final_demand_space_cooling</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="256"/>
-      <c r="K26" s="383"/>
+      <c r="G26" s="255"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="255"/>
+      <c r="K26" s="381"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
@@ -11260,16 +11096,16 @@
         <f>'Technology split final demand'!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="256" t="e">
+      <c r="E27" s="255"/>
+      <c r="F27" s="255"/>
+      <c r="G27" s="255"/>
+      <c r="H27" s="255"/>
+      <c r="I27" s="255"/>
+      <c r="J27" s="255" t="e">
         <f>D27*Final_demand_space_cooling</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="383"/>
+      <c r="K27" s="381"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
@@ -11280,28 +11116,28 @@
         <f>'Technology split final demand'!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256"/>
-      <c r="J28" s="256" t="e">
+      <c r="E28" s="255"/>
+      <c r="F28" s="255"/>
+      <c r="G28" s="255"/>
+      <c r="H28" s="255"/>
+      <c r="I28" s="255"/>
+      <c r="J28" s="255" t="e">
         <f>D28*Final_demand_space_cooling</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="383"/>
+      <c r="K28" s="381"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="43"/>
       <c r="C29" s="10"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="388"/>
-      <c r="F29" s="388"/>
-      <c r="G29" s="388"/>
-      <c r="H29" s="388"/>
-      <c r="I29" s="388"/>
-      <c r="J29" s="388"/>
-      <c r="K29" s="389"/>
+      <c r="E29" s="386"/>
+      <c r="F29" s="386"/>
+      <c r="G29" s="386"/>
+      <c r="H29" s="386"/>
+      <c r="I29" s="386"/>
+      <c r="J29" s="386"/>
+      <c r="K29" s="387"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="37" t="s">
@@ -11309,322 +11145,282 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="384"/>
-      <c r="G30" s="384"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="384"/>
-      <c r="J30" s="384"/>
-      <c r="K30" s="385"/>
+      <c r="E30" s="382"/>
+      <c r="F30" s="382"/>
+      <c r="G30" s="382"/>
+      <c r="H30" s="382"/>
+      <c r="I30" s="382"/>
+      <c r="J30" s="382"/>
+      <c r="K30" s="383"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
       <c r="C31" s="17" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="D31" s="75" t="e">
         <f>'Technology split final demand'!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256"/>
-      <c r="J31" s="256" t="e">
+      <c r="E31" s="255"/>
+      <c r="F31" s="255"/>
+      <c r="G31" s="255"/>
+      <c r="H31" s="255"/>
+      <c r="I31" s="255"/>
+      <c r="J31" s="255" t="e">
         <f>D31*Final_demand_lighting</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="383"/>
+      <c r="K31" s="381"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
       <c r="C32" s="17" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="D32" s="75" t="e">
         <f>'Technology split final demand'!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="256"/>
-      <c r="F32" s="256"/>
-      <c r="G32" s="256"/>
-      <c r="H32" s="256"/>
-      <c r="I32" s="256"/>
-      <c r="J32" s="256" t="e">
+      <c r="E32" s="255"/>
+      <c r="F32" s="255"/>
+      <c r="G32" s="255"/>
+      <c r="H32" s="255"/>
+      <c r="I32" s="255"/>
+      <c r="J32" s="255" t="e">
         <f>D32*Final_demand_lighting</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="383"/>
+      <c r="K32" s="381"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>
       <c r="C33" s="17" t="s">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="D33" s="75" t="e">
         <f>'Technology split final demand'!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="256"/>
-      <c r="F33" s="256"/>
-      <c r="G33" s="256"/>
-      <c r="H33" s="256"/>
-      <c r="I33" s="256"/>
-      <c r="J33" s="256" t="e">
+      <c r="E33" s="255"/>
+      <c r="F33" s="255"/>
+      <c r="G33" s="255"/>
+      <c r="H33" s="255"/>
+      <c r="I33" s="255"/>
+      <c r="J33" s="255" t="e">
         <f>D33*Final_demand_lighting</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="383"/>
+      <c r="K33" s="381"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="73"/>
-      <c r="C34" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="D34" s="75" t="e">
-        <f>'Technology split final demand'!G33</f>
+      <c r="B34" s="43"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="386"/>
+      <c r="F34" s="386"/>
+      <c r="G34" s="386"/>
+      <c r="H34" s="386"/>
+      <c r="I34" s="386"/>
+      <c r="J34" s="386"/>
+      <c r="K34" s="387"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="382"/>
+      <c r="F35" s="382"/>
+      <c r="G35" s="382"/>
+      <c r="H35" s="382"/>
+      <c r="I35" s="382"/>
+      <c r="J35" s="382"/>
+      <c r="K35" s="383"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="30"/>
+      <c r="C36" t="s">
+        <v>574</v>
+      </c>
+      <c r="D36" s="75"/>
+      <c r="E36" s="255" t="e">
+        <f t="shared" ref="E36:K36" si="0">SUM(E15:E33)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
-      <c r="G34" s="256"/>
-      <c r="H34" s="256"/>
-      <c r="I34" s="256"/>
-      <c r="J34" s="256" t="e">
-        <f>D34*Final_demand_lighting</f>
+      <c r="F36" s="255" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="383"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="73"/>
-      <c r="C35" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="75" t="e">
-        <f>'Technology split final demand'!G34</f>
+      <c r="G36" s="255" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="256"/>
-      <c r="F35" s="256"/>
-      <c r="G35" s="256"/>
-      <c r="H35" s="256"/>
-      <c r="I35" s="256"/>
-      <c r="J35" s="256" t="e">
-        <f>D35*Final_demand_lighting</f>
+      <c r="H36" s="255" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="383"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="43"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="388"/>
-      <c r="F36" s="388"/>
-      <c r="G36" s="388"/>
-      <c r="H36" s="388"/>
-      <c r="I36" s="388"/>
-      <c r="J36" s="388"/>
-      <c r="K36" s="389"/>
+      <c r="I36" s="255" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="255" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="255" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="30"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="37" t="s">
-        <v>340</v>
-      </c>
+      <c r="B37" s="30"/>
       <c r="C37" s="8"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="384"/>
-      <c r="F37" s="384"/>
-      <c r="G37" s="384"/>
-      <c r="H37" s="384"/>
-      <c r="I37" s="384"/>
-      <c r="J37" s="384"/>
-      <c r="K37" s="385"/>
+      <c r="E37" s="382"/>
+      <c r="F37" s="382"/>
+      <c r="G37" s="382"/>
+      <c r="H37" s="382"/>
+      <c r="I37" s="382"/>
+      <c r="J37" s="382"/>
+      <c r="K37" s="383"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="30"/>
-      <c r="C38" t="s">
-        <v>587</v>
-      </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="256" t="e">
-        <f t="shared" ref="E38:K38" si="0">SUM(E15:E35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="256" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="256" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="256" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="256" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="256" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="256" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="30"/>
+      <c r="B38" s="393" t="s">
+        <v>600</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="384"/>
+      <c r="F38" s="384"/>
+      <c r="G38" s="384"/>
+      <c r="H38" s="384"/>
+      <c r="I38" s="384"/>
+      <c r="J38" s="384"/>
+      <c r="K38" s="385"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="30"/>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8" t="s">
+        <v>601</v>
+      </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="384"/>
-      <c r="F39" s="384"/>
-      <c r="G39" s="384"/>
-      <c r="H39" s="384"/>
-      <c r="I39" s="384"/>
-      <c r="J39" s="384"/>
-      <c r="K39" s="385"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="395" t="s">
-        <v>613</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="386"/>
-      <c r="F40" s="386"/>
-      <c r="G40" s="386"/>
-      <c r="H40" s="386"/>
-      <c r="I40" s="386"/>
-      <c r="J40" s="386"/>
-      <c r="K40" s="387"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="30"/>
-      <c r="C41" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="402" t="s">
-        <v>567</v>
-      </c>
-      <c r="F41" s="402" t="s">
-        <v>567</v>
-      </c>
-      <c r="G41" s="402" t="s">
-        <v>567</v>
-      </c>
-      <c r="H41" s="402" t="s">
-        <v>567</v>
-      </c>
-      <c r="I41" s="402" t="s">
-        <v>567</v>
-      </c>
-      <c r="J41" s="256" t="str">
+      <c r="E39" s="400" t="s">
+        <v>554</v>
+      </c>
+      <c r="F39" s="400" t="s">
+        <v>554</v>
+      </c>
+      <c r="G39" s="400" t="s">
+        <v>554</v>
+      </c>
+      <c r="H39" s="400" t="s">
+        <v>554</v>
+      </c>
+      <c r="I39" s="400" t="s">
+        <v>554</v>
+      </c>
+      <c r="J39" s="255" t="str">
         <f>Dashboard!E29</f>
         <v/>
       </c>
-      <c r="K41" s="403" t="s">
-        <v>567</v>
-      </c>
+      <c r="K39" s="401" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="30"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="397"/>
+      <c r="E40" s="398"/>
+      <c r="F40" s="398"/>
+      <c r="G40" s="398"/>
+      <c r="H40" s="398"/>
+      <c r="I40" s="398"/>
+      <c r="J40" s="398"/>
+      <c r="K40" s="399"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="393" t="s">
+        <v>577</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="384"/>
+      <c r="F41" s="384"/>
+      <c r="G41" s="384"/>
+      <c r="H41" s="384"/>
+      <c r="I41" s="384"/>
+      <c r="J41" s="384"/>
+      <c r="K41" s="385"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="30"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="399"/>
-      <c r="E42" s="400"/>
-      <c r="F42" s="400"/>
-      <c r="G42" s="400"/>
-      <c r="H42" s="400"/>
-      <c r="I42" s="400"/>
-      <c r="J42" s="400"/>
-      <c r="K42" s="401"/>
+      <c r="C42" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" s="75"/>
+      <c r="E42" s="255"/>
+      <c r="F42" s="255"/>
+      <c r="G42" s="255"/>
+      <c r="H42" s="255"/>
+      <c r="I42" s="255"/>
+      <c r="J42" s="255" t="e">
+        <f>J11-J36-J39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="381"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="395" t="s">
-        <v>590</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="386"/>
-      <c r="F43" s="386"/>
-      <c r="G43" s="386"/>
-      <c r="H43" s="386"/>
-      <c r="I43" s="386"/>
-      <c r="J43" s="386"/>
-      <c r="K43" s="387"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="30"/>
-      <c r="C44" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D44" s="75"/>
-      <c r="E44" s="256"/>
-      <c r="F44" s="256"/>
-      <c r="G44" s="256"/>
-      <c r="H44" s="256"/>
-      <c r="I44" s="256"/>
-      <c r="J44" s="256" t="e">
-        <f>J11-J38-J41</f>
+      <c r="B43" s="30"/>
+      <c r="C43" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="D43" s="75"/>
+      <c r="E43" s="255" t="e">
+        <f>E11-E36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="383"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="30"/>
-      <c r="C45" s="17" t="s">
-        <v>588</v>
-      </c>
-      <c r="D45" s="75"/>
-      <c r="E45" s="256" t="e">
-        <f>E11-E38</f>
+      <c r="F43" s="255" t="e">
+        <f>F11-F36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="256" t="e">
-        <f>F11-F38</f>
+      <c r="G43" s="255" t="e">
+        <f>G11-G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G45" s="256" t="e">
-        <f>G11-G38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" s="382" t="s">
-        <v>567</v>
-      </c>
-      <c r="I45" s="382" t="s">
-        <v>567</v>
-      </c>
-      <c r="J45" s="382" t="s">
-        <v>567</v>
-      </c>
-      <c r="K45" s="390" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="47"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="391"/>
-      <c r="F46" s="391"/>
-      <c r="G46" s="391"/>
-      <c r="H46" s="391"/>
-      <c r="I46" s="391"/>
-      <c r="J46" s="391"/>
-      <c r="K46" s="392"/>
+      <c r="H43" s="380" t="s">
+        <v>554</v>
+      </c>
+      <c r="I43" s="380" t="s">
+        <v>554</v>
+      </c>
+      <c r="J43" s="380" t="s">
+        <v>554</v>
+      </c>
+      <c r="K43" s="388" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="47"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="389"/>
+      <c r="F44" s="389"/>
+      <c r="G44" s="389"/>
+      <c r="H44" s="389"/>
+      <c r="I44" s="389"/>
+      <c r="J44" s="389"/>
+      <c r="K44" s="390"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:F5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E45:G45">
+  <conditionalFormatting sqref="E43:G43">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -11644,10 +11440,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:J35"/>
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11670,7 +11466,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -11682,17 +11478,17 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:10" s="197" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="405" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" s="407"/>
-      <c r="D5" s="407"/>
-      <c r="E5" s="406"/>
+      <c r="B5" s="403" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="405"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="404"/>
     </row>
     <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="28"/>
@@ -11712,22 +11508,22 @@
     </row>
     <row r="9" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="68" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G9" s="108" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>19</v>
@@ -11738,10 +11534,10 @@
         <v>121</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="297"/>
-      <c r="E10" s="297"/>
-      <c r="F10" s="297"/>
-      <c r="G10" s="297"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
       <c r="H10" s="36"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -11761,12 +11557,12 @@
         <f t="shared" ref="F11:F17" si="0">D11/E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="404" t="e">
+      <c r="G11" s="402" t="e">
         <f>F11/SUM($F$11:$F$17)*(1-SUM($G$19:$G$21))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H11" s="100"/>
-      <c r="J11" s="272"/>
+      <c r="J11" s="271"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="37"/>
@@ -11785,13 +11581,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="404" t="e">
+      <c r="G12" s="402" t="e">
         <f t="shared" ref="G12:G17" si="1">F12/SUM($F$11:$F$17)*(1-SUM($G$19:$G$21))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="100"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="272"/>
+      <c r="J12" s="271"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="37"/>
@@ -11810,13 +11606,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="404" t="e">
+      <c r="G13" s="402" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="272"/>
+      <c r="J13" s="271"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="37"/>
@@ -11835,13 +11631,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="404" t="e">
+      <c r="G14" s="402" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="272"/>
+      <c r="J14" s="271"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="37"/>
@@ -11860,13 +11656,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="404" t="e">
+      <c r="G15" s="402" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="272"/>
+      <c r="J15" s="271"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="37"/>
@@ -11885,18 +11681,18 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="404" t="e">
+      <c r="G16" s="402" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="272"/>
+      <c r="J16" s="271"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="37"/>
       <c r="C17" s="17" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="D17" s="185">
         <f>Dashboard!E51</f>
@@ -11910,13 +11706,13 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="404" t="e">
+      <c r="G17" s="402" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="272"/>
+      <c r="J17" s="271"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
@@ -11924,10 +11720,10 @@
       <c r="D18" s="186"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="246"/>
+      <c r="G18" s="245"/>
       <c r="H18" s="31"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="272"/>
+      <c r="J18" s="271"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="37"/>
@@ -11937,14 +11733,14 @@
       <c r="D19" s="185"/>
       <c r="E19" s="109"/>
       <c r="F19" s="110"/>
-      <c r="G19" s="247" t="e">
+      <c r="G19" s="246" t="e">
         <f>'Final demand extracted from EB'!D14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="411" t="s">
-        <v>307</v>
-      </c>
-      <c r="J19" s="272"/>
+      <c r="H19" s="409" t="s">
+        <v>305</v>
+      </c>
+      <c r="J19" s="271"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="37"/>
@@ -11954,12 +11750,12 @@
       <c r="D20" s="185"/>
       <c r="E20" s="109"/>
       <c r="F20" s="110"/>
-      <c r="G20" s="247" t="e">
+      <c r="G20" s="246" t="e">
         <f>'Final demand extracted from EB'!D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="411"/>
-      <c r="J20" s="272"/>
+      <c r="H20" s="409"/>
+      <c r="J20" s="271"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="37"/>
@@ -11969,39 +11765,39 @@
       <c r="D21" s="185"/>
       <c r="E21" s="109"/>
       <c r="F21" s="110"/>
-      <c r="G21" s="247" t="e">
+      <c r="G21" s="246" t="e">
         <f>'Final demand extracted from EB'!D18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="411"/>
-      <c r="J21" s="272"/>
+      <c r="H21" s="409"/>
+      <c r="J21" s="271"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="144"/>
       <c r="C22" s="10"/>
-      <c r="D22" s="292"/>
+      <c r="D22" s="291"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="293"/>
-      <c r="H22" s="294"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="293"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="279" t="s">
+      <c r="B23" s="278" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="274"/>
-      <c r="D23" s="284"/>
-      <c r="E23" s="274"/>
+      <c r="C23" s="273"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="273"/>
       <c r="F23" s="60"/>
-      <c r="G23" s="284"/>
-      <c r="H23" s="285"/>
+      <c r="G23" s="283"/>
+      <c r="H23" s="284"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="279"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="296">
+      <c r="D24" s="295">
         <f>Dashboard!E54</f>
         <v>0</v>
       </c>
@@ -12009,22 +11805,22 @@
         <f>Eff_cooling_pump</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="286" t="e">
+      <c r="F24" s="285" t="e">
         <f>D24/E24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="287" t="e">
+      <c r="G24" s="286" t="e">
         <f>F24/SUM($F$24:$F$27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="104"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="279"/>
+      <c r="B25" s="278"/>
       <c r="C25" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="296">
+      <c r="D25" s="295">
         <f>Dashboard!E55</f>
         <v>0</v>
       </c>
@@ -12032,22 +11828,22 @@
         <f>Eff_cooling_pump_storage</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="286" t="e">
+      <c r="F25" s="285" t="e">
         <f>D25/E25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="287" t="e">
+      <c r="G25" s="286" t="e">
         <f t="shared" ref="G25:G27" si="2">F25/SUM($F$24:$F$27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H25" s="104"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="279"/>
+      <c r="B26" s="278"/>
       <c r="C26" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="296">
+      <c r="D26" s="295">
         <f>Dashboard!E56</f>
         <v>0</v>
       </c>
@@ -12055,22 +11851,22 @@
         <f>Eff_cooling_airco</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="286" t="e">
+      <c r="F26" s="285" t="e">
         <f>D26/E26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="287" t="e">
+      <c r="G26" s="286" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="104"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="279"/>
+      <c r="B27" s="278"/>
       <c r="C27" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="D27" s="296">
+        <v>611</v>
+      </c>
+      <c r="D27" s="295">
         <f>Dashboard!E57</f>
         <v>0</v>
       </c>
@@ -12078,159 +11874,113 @@
         <f t="array" ref="E27">Eff_cooling_air_heatpump</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="286" t="e">
+      <c r="F27" s="285" t="e">
         <f>D27/E27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="287" t="e">
+      <c r="G27" s="286" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H27" s="104"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="295"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="289"/>
-      <c r="E28" s="288"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="291"/>
+      <c r="B28" s="294"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="288"/>
+      <c r="E28" s="287"/>
+      <c r="F28" s="287"/>
+      <c r="G28" s="289"/>
+      <c r="H28" s="290"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="279" t="s">
+      <c r="B29" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="274"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="274"/>
+      <c r="C29" s="273"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="273"/>
       <c r="F29" s="60"/>
-      <c r="G29" s="284"/>
-      <c r="H29" s="285"/>
+      <c r="G29" s="283"/>
+      <c r="H29" s="284"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="279"/>
+      <c r="B30" s="278"/>
       <c r="C30" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="296">
+        <v>331</v>
+      </c>
+      <c r="D30" s="295">
         <f>Dashboard!E61</f>
         <v>0</v>
       </c>
       <c r="E30" s="192">
-        <f>Eff_lighting_lamp_incandescent</f>
-        <v>0.05</v>
-      </c>
-      <c r="F30" s="286">
+        <f>Eff_lighting_tube_fluorescent_standartd</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="285" t="e">
         <f>D30/E30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="287" t="e">
-        <f>F30/SUM($F$30:$F$34)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="G30" s="286" t="e">
+        <f>F30/SUM($F$30:$F$32)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H30" s="104"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="279"/>
+      <c r="B31" s="278"/>
       <c r="C31" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="296">
+        <v>332</v>
+      </c>
+      <c r="D31" s="295">
         <f>Dashboard!E62</f>
         <v>0</v>
       </c>
       <c r="E31" s="192">
-        <f>Eff_lighting_lamp_fluorescent</f>
-        <v>0.12</v>
-      </c>
-      <c r="F31" s="286">
+        <f>Eff_lighting_tube_fluorescent_efficient</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="285" t="e">
         <f>D31/E31</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="287" t="e">
-        <f>F31/SUM($F$30:$F$34)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="G31" s="286" t="e">
+        <f>F31/SUM($F$30:$F$32)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H31" s="104"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="279"/>
+      <c r="B32" s="278"/>
       <c r="C32" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="D32" s="296">
+        <v>133</v>
+      </c>
+      <c r="D32" s="295">
         <f>Dashboard!E63</f>
         <v>0</v>
       </c>
       <c r="E32" s="192">
-        <f>Eff_lighting_tube_fluorescent_standartd</f>
+        <f>Eff_lighting_led</f>
         <v>0</v>
       </c>
-      <c r="F32" s="286" t="e">
+      <c r="F32" s="285" t="e">
         <f>D32/E32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="287" t="e">
-        <f>F32/SUM($F$30:$F$34)</f>
+      <c r="G32" s="286" t="e">
+        <f>F32/SUM($F$30:$F$32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="104"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="279"/>
-      <c r="C33" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="D33" s="296">
-        <f>Dashboard!E64</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="192">
-        <f>Eff_lighting_tube_fluorescent_efficient</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="286" t="e">
-        <f>D33/E33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="287" t="e">
-        <f>F33/SUM($F$30:$F$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="104"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="279"/>
-      <c r="C34" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="296">
-        <f>Dashboard!E65</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="192">
-        <f>Eff_lighting_led</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="286" t="e">
-        <f>D34/E34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="287" t="e">
-        <f>F34/SUM($F$30:$F$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="104"/>
-    </row>
-    <row r="35" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="281"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="106"/>
+    <row r="33" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="280"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12269,7 +12019,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
@@ -12279,26 +12029,26 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="405" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="406"/>
+      <c r="B5" s="403" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="404"/>
     </row>
     <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="194" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C7" s="195" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D7" s="196" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="193"/>
@@ -12306,7 +12056,7 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="73"/>
       <c r="C9" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D9" s="221">
         <f>'Fuel aggregation'!F11</f>
@@ -12316,9 +12066,9 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="73"/>
       <c r="C10" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="245" t="e">
+        <v>294</v>
+      </c>
+      <c r="D10" s="244" t="e">
         <f>D9/Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
@@ -12330,7 +12080,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="193"/>
@@ -12338,7 +12088,7 @@
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="73"/>
       <c r="C13" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D13" s="221">
         <f>'Fuel aggregation'!G11</f>
@@ -12348,9 +12098,9 @@
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
       <c r="C14" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D14" s="245" t="e">
+        <v>296</v>
+      </c>
+      <c r="D14" s="244" t="e">
         <f>D13/Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
@@ -12370,7 +12120,7 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="C17" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D17" s="221">
         <f>'Fuel aggregation'!I11</f>
@@ -12380,9 +12130,9 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="C18" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="245" t="e">
+        <v>295</v>
+      </c>
+      <c r="D18" s="244" t="e">
         <f>D17/Final_demand_space_heating</f>
         <v>#DIV/0!</v>
       </c>
@@ -12427,7 +12177,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -12455,20 +12205,20 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="405" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="407"/>
-      <c r="D5" s="407"/>
-      <c r="E5" s="407"/>
-      <c r="F5" s="406"/>
+      <c r="B5" s="403" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="405"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="405"/>
+      <c r="F5" s="404"/>
       <c r="G5" s="99"/>
       <c r="H5" s="99"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="179" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="28"/>
@@ -12478,7 +12228,7 @@
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
-      <c r="K7" s="263"/>
+      <c r="K7" s="262"/>
       <c r="L7" s="29"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -12497,34 +12247,34 @@
     <row r="9" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="181"/>
       <c r="C9" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>585</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>598</v>
-      </c>
-      <c r="E9" s="69" t="s">
+      <c r="G9" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="I9" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>275</v>
-      </c>
-      <c r="G9" s="69" t="s">
-        <v>272</v>
-      </c>
-      <c r="H9" s="69" t="s">
-        <v>271</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>276</v>
-      </c>
       <c r="J9" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="K9" s="264" t="s">
-        <v>471</v>
+        <v>286</v>
+      </c>
+      <c r="K9" s="263" t="s">
+        <v>465</v>
       </c>
       <c r="L9" s="146" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -12537,12 +12287,12 @@
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
       <c r="J10" s="72"/>
-      <c r="K10" s="265"/>
+      <c r="K10" s="264"/>
       <c r="L10" s="147"/>
     </row>
     <row r="11" spans="2:13" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="183" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C11" s="220">
         <f>SUM('Corrected energy balance step 2'!C83:N83)+'Corrected energy balance step 2'!S83</f>
@@ -12576,11 +12326,11 @@
         <f>SUM('Corrected energy balance step 2'!O83:R83,'Corrected energy balance step 2'!AR83:AT83,'Corrected energy balance step 2'!BB83:BE83,'Corrected energy balance step 2'!BG83,'Corrected energy balance step 2'!BI83:BK83)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="266">
+      <c r="K11" s="265">
         <f>SUM(C10:J11)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="267">
+      <c r="L11" s="266">
         <f>'Corrected energy balance step 2'!$BN$83</f>
         <v>0</v>
       </c>
@@ -12595,68 +12345,68 @@
       <c r="H12" s="148"/>
       <c r="I12" s="148"/>
       <c r="J12" s="148"/>
-      <c r="K12" s="271"/>
-      <c r="L12" s="270"/>
+      <c r="K12" s="270"/>
+      <c r="L12" s="269"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J13" s="268"/>
-      <c r="K13" s="269"/>
-      <c r="L13" s="269"/>
-      <c r="M13" s="268"/>
+      <c r="J13" s="267"/>
+      <c r="K13" s="268"/>
+      <c r="L13" s="268"/>
+      <c r="M13" s="267"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="268"/>
-      <c r="M14" s="268"/>
+      <c r="J14" s="267"/>
+      <c r="K14" s="267"/>
+      <c r="L14" s="267"/>
+      <c r="M14" s="267"/>
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J17" s="258" t="s">
-        <v>473</v>
+      <c r="J17" s="257" t="s">
+        <v>467</v>
       </c>
       <c r="K17" s="203"/>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J18" s="259" t="s">
-        <v>474</v>
-      </c>
-      <c r="K18" s="260"/>
+      <c r="J18" s="258" t="s">
+        <v>468</v>
+      </c>
+      <c r="K18" s="259"/>
     </row>
     <row r="19" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J19" s="259" t="str">
+      <c r="J19" s="258" t="str">
         <f>"- total demand of aggregated carriers"</f>
         <v>- total demand of aggregated carriers</v>
       </c>
-      <c r="K19" s="260"/>
+      <c r="K19" s="259"/>
     </row>
     <row r="20" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J20" s="259" t="str">
+      <c r="J20" s="258" t="str">
         <f>"- total demand in energy balance (IEA)"</f>
         <v>- total demand in energy balance (IEA)</v>
       </c>
-      <c r="K20" s="260"/>
+      <c r="K20" s="259"/>
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J21" s="259" t="s">
-        <v>475</v>
-      </c>
-      <c r="K21" s="260"/>
+      <c r="J21" s="258" t="s">
+        <v>469</v>
+      </c>
+      <c r="K21" s="259"/>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J22" s="259" t="s">
-        <v>476</v>
-      </c>
-      <c r="K22" s="260"/>
+      <c r="J22" s="258" t="s">
+        <v>470</v>
+      </c>
+      <c r="K22" s="259"/>
     </row>
     <row r="23" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J23" s="259"/>
-      <c r="K23" s="260"/>
+      <c r="J23" s="258"/>
+      <c r="K23" s="259"/>
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J24" s="261" t="s">
-        <v>477</v>
-      </c>
-      <c r="K24" s="262">
+      <c r="J24" s="260" t="s">
+        <v>471</v>
+      </c>
+      <c r="K24" s="261">
         <f>K11-Final_demand_residences</f>
         <v>0</v>
       </c>
@@ -12727,7 +12477,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -12739,12 +12489,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="405" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="407"/>
-      <c r="D5" s="407"/>
-      <c r="E5" s="406"/>
+      <c r="B5" s="403" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="405"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="404"/>
     </row>
     <row r="6" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -12761,16 +12511,16 @@
       <c r="B8" s="35"/>
       <c r="C8" s="101"/>
       <c r="D8" s="108" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G8" s="190" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -12778,7 +12528,7 @@
       <c r="C9" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="298" t="e">
+      <c r="D9" s="297" t="e">
         <f>'Technology split final demand'!G11</f>
         <v>#DIV/0!</v>
       </c>
@@ -12790,12 +12540,12 @@
         <f>Eff_space_heating_gas*E9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="254" t="e">
+      <c r="G9" s="253" t="e">
         <f>F9/SUM($F$9:$F$19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="272"/>
-      <c r="I9" s="257"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="256"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="35"/>
@@ -12814,11 +12564,11 @@
         <f>Eff_space_heating_pump_storage*E10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="254" t="e">
+      <c r="G10" s="253" t="e">
         <f t="shared" ref="G10:G19" si="1">F10/SUM($F$9:$F$19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="257"/>
+      <c r="I10" s="256"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="35"/>
@@ -12837,11 +12587,11 @@
         <f>Eff_space_heating_pump_gas*E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="254" t="e">
+      <c r="G11" s="253" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="257"/>
+      <c r="I11" s="256"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="35"/>
@@ -12860,11 +12610,11 @@
         <f>Eff_space_heating_electric*E12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="254" t="e">
+      <c r="G12" s="253" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="257"/>
+      <c r="I12" s="256"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="35"/>
@@ -12883,11 +12633,11 @@
         <f>Eff_space_heating_coal*E13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="254" t="e">
+      <c r="G13" s="253" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="257"/>
+      <c r="I13" s="256"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="35"/>
@@ -12906,16 +12656,16 @@
         <f>Eff_space_heating_oil*E14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="254" t="e">
+      <c r="G14" s="253" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="257"/>
+      <c r="I14" s="256"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="35"/>
       <c r="C15" s="17" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="D15" s="185" t="e">
         <f>'Technology split final demand'!G17</f>
@@ -12929,17 +12679,17 @@
         <f>Eff_space_heating_oil*E15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="254" t="e">
+      <c r="G15" s="253" t="e">
         <f t="shared" ref="G15" si="3">F15/SUM($F$9:$F$19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="257"/>
+      <c r="I15" s="256"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="D16" s="8"/>
       <c r="H16" s="30"/>
-      <c r="I16" s="257"/>
+      <c r="I16" s="256"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="35"/>
@@ -12958,11 +12708,11 @@
         <f>Eff_space_heating_solar_thermal*E17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="254" t="e">
+      <c r="G17" s="253" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="257"/>
+      <c r="I17" s="256"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="35"/>
@@ -12981,11 +12731,11 @@
         <f>Eff_space_heating_woodpellets*E18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="254" t="e">
+      <c r="G18" s="253" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="257"/>
+      <c r="I18" s="256"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="35"/>
@@ -13004,7 +12754,7 @@
         <f>Eff_space_heating_district*E19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="254" t="e">
+      <c r="G19" s="253" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -13066,10 +12816,10 @@
   <sheetPr codeName="Sheet17">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13080,59 +12830,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="242" t="s">
+      <c r="A3" t="s">
         <v>370</v>
       </c>
-      <c r="B3" s="283" t="e">
+      <c r="B3" s="282" t="e">
         <f>'Technology shares'!F22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="242" t="s">
-        <v>373</v>
-      </c>
-      <c r="B4" s="283" t="e">
+      <c r="A4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="282" t="e">
         <f>'Technology shares'!F23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>374</v>
-      </c>
-      <c r="B5" s="283" t="e">
+        <v>369</v>
+      </c>
+      <c r="B5" s="282" t="e">
         <f>'Technology shares'!F24</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" s="283" t="e">
-        <f>'Technology shares'!F25</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>372</v>
-      </c>
-      <c r="B7" s="283" t="e">
-        <f>'Technology shares'!F26</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13165,49 +12897,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>378</v>
-      </c>
-      <c r="B3" s="283" t="e">
+        <v>374</v>
+      </c>
+      <c r="B3" s="282" t="e">
         <f>'Technology shares'!F13</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>379</v>
-      </c>
-      <c r="B4" s="283" t="e">
+        <v>375</v>
+      </c>
+      <c r="B4" s="282" t="e">
         <f>'Technology shares'!F12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="205" t="s">
-        <v>624</v>
-      </c>
-      <c r="B5" s="283" t="e">
+        <v>610</v>
+      </c>
+      <c r="B5" s="282" t="e">
         <f>'Technology shares'!F13</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13239,49 +12971,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="283" t="e">
+        <v>377</v>
+      </c>
+      <c r="B3" s="282" t="e">
         <f>'Technology shares'!F18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>382</v>
-      </c>
-      <c r="B4" s="283" t="e">
+        <v>378</v>
+      </c>
+      <c r="B4" s="282" t="e">
         <f>'Technology shares'!F17</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="241" t="s">
-        <v>631</v>
-      </c>
-      <c r="B5" s="283" t="e">
+        <v>617</v>
+      </c>
+      <c r="B5" s="282" t="e">
         <f>'Technology shares'!F19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13301,8 +13033,8 @@
   </sheetPr>
   <dimension ref="B2:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13336,500 +13068,506 @@
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="303">
+      <c r="B6" s="302">
         <v>41450</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="307">
+      <c r="D6" s="306">
         <v>1</v>
       </c>
-      <c r="E6" s="306"/>
+      <c r="E6" s="305"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="304">
+      <c r="B7" s="303">
         <v>41452</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="308">
+        <v>242</v>
+      </c>
+      <c r="D7" s="307">
         <v>1.01</v>
       </c>
-      <c r="E7" s="306"/>
+      <c r="E7" s="305"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="304">
+      <c r="B8" s="303">
         <v>41457</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="308">
+        <v>243</v>
+      </c>
+      <c r="D8" s="307">
         <v>1.02</v>
       </c>
-      <c r="E8" s="306"/>
+      <c r="E8" s="305"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="304">
+      <c r="B9" s="303">
         <v>41457</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="308">
+        <v>255</v>
+      </c>
+      <c r="D9" s="307">
         <v>1.03</v>
       </c>
-      <c r="E9" s="306"/>
+      <c r="E9" s="305"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="304">
+      <c r="B10" s="303">
         <v>41458</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="308">
+        <v>276</v>
+      </c>
+      <c r="D10" s="307">
         <v>1.04</v>
       </c>
-      <c r="E10" s="306"/>
+      <c r="E10" s="305"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="304">
+      <c r="B11" s="303">
         <v>41459</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="308">
+        <v>281</v>
+      </c>
+      <c r="D11" s="307">
         <v>1.05</v>
       </c>
-      <c r="E11" s="306"/>
+      <c r="E11" s="305"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="304">
+      <c r="B12" s="303">
         <v>41460</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D12" s="308">
+        <v>285</v>
+      </c>
+      <c r="D12" s="307">
         <v>1.06</v>
       </c>
-      <c r="E12" s="306"/>
+      <c r="E12" s="305"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="304">
+      <c r="B13" s="303">
         <v>41463</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" s="308">
+        <v>292</v>
+      </c>
+      <c r="D13" s="307">
         <v>1.07</v>
       </c>
-      <c r="E13" s="306"/>
+      <c r="E13" s="305"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="304">
+      <c r="B14" s="303">
         <v>41464</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D14" s="308">
+        <v>299</v>
+      </c>
+      <c r="D14" s="307">
         <v>1.08</v>
       </c>
-      <c r="E14" s="306"/>
+      <c r="E14" s="305"/>
     </row>
     <row r="15" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B15" s="304">
+      <c r="B15" s="303">
         <v>41464</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="D15" s="308">
+        <v>300</v>
+      </c>
+      <c r="D15" s="307">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E15" s="306"/>
+      <c r="E15" s="305"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="304">
+      <c r="B16" s="303">
         <v>41465</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="D16" s="307">
+        <v>304</v>
+      </c>
+      <c r="D16" s="306">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E16" s="306"/>
+      <c r="E16" s="305"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="304">
+      <c r="B17" s="303">
         <v>41465</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="D17" s="308">
+        <v>319</v>
+      </c>
+      <c r="D17" s="307">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E17" s="306"/>
+      <c r="E17" s="305"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="304">
+      <c r="B18" s="303">
         <v>41467</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="D18" s="308">
+        <v>320</v>
+      </c>
+      <c r="D18" s="307">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E18" s="306"/>
+      <c r="E18" s="305"/>
     </row>
     <row r="19" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B19" s="304">
+      <c r="B19" s="303">
         <v>41470</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="D19" s="308">
+        <v>333</v>
+      </c>
+      <c r="D19" s="307">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E19" s="306"/>
+      <c r="E19" s="305"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="304">
+      <c r="B20" s="303">
         <v>41472</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D20" s="308">
+        <v>348</v>
+      </c>
+      <c r="D20" s="307">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E20" s="306"/>
+      <c r="E20" s="305"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="304">
+      <c r="B21" s="303">
         <v>41481</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="D21" s="308">
+        <v>349</v>
+      </c>
+      <c r="D21" s="307">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E21" s="306"/>
+      <c r="E21" s="305"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="304">
+      <c r="B22" s="303">
         <v>41484</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>368</v>
-      </c>
-      <c r="D22" s="308">
+        <v>366</v>
+      </c>
+      <c r="D22" s="307">
         <v>1.17</v>
       </c>
-      <c r="E22" s="306"/>
+      <c r="E22" s="305"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="304">
+      <c r="B23" s="303">
         <v>41485</v>
       </c>
       <c r="C23" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" s="307">
+        <v>1.18</v>
+      </c>
+      <c r="E23" s="305"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="303">
+        <v>41485</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="D24" s="307">
+        <v>1.18</v>
+      </c>
+      <c r="E24" s="305"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="303">
+        <v>41486</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="307">
+        <v>1.19</v>
+      </c>
+      <c r="E25" s="305"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="303">
+        <v>41487</v>
+      </c>
+      <c r="C26" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="D23" s="308">
-        <v>1.18</v>
-      </c>
-      <c r="E23" s="306"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="304">
-        <v>41485</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="D24" s="308">
-        <v>1.18</v>
-      </c>
-      <c r="E24" s="306"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="304">
-        <v>41486</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="D25" s="308">
+      <c r="D26" s="307">
         <v>1.19</v>
       </c>
-      <c r="E25" s="306"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="304">
-        <v>41487</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="D26" s="308">
-        <v>1.19</v>
-      </c>
-      <c r="E26" s="306"/>
+      <c r="E26" s="305"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="304">
+      <c r="B27" s="303">
         <v>41499</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="D27" s="307">
+        <v>448</v>
+      </c>
+      <c r="D27" s="306">
         <v>1.2</v>
       </c>
-      <c r="E27" s="306"/>
+      <c r="E27" s="305"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="304">
+      <c r="B28" s="303">
         <v>41500</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="D28" s="308">
+        <v>448</v>
+      </c>
+      <c r="D28" s="307">
         <v>1.21</v>
       </c>
-      <c r="E28" s="306"/>
+      <c r="E28" s="305"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="304">
+      <c r="B29" s="303">
         <v>41500</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="D29" s="307">
+        <v>448</v>
+      </c>
+      <c r="D29" s="306">
         <v>1.22</v>
       </c>
-      <c r="E29" s="306"/>
+      <c r="E29" s="305"/>
     </row>
     <row r="30" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B30" s="304">
+      <c r="B30" s="303">
         <v>41502</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="D30" s="307">
+        <v>480</v>
+      </c>
+      <c r="D30" s="306">
         <v>1.23</v>
       </c>
-      <c r="E30" s="306"/>
+      <c r="E30" s="305"/>
     </row>
     <row r="31" spans="2:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="B31" s="304">
+      <c r="B31" s="303">
         <v>41505</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="D31" s="307">
+        <v>497</v>
+      </c>
+      <c r="D31" s="306">
         <v>1.24</v>
       </c>
-      <c r="E31" s="306"/>
+      <c r="E31" s="305"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="304">
+      <c r="B32" s="303">
         <v>41506</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>507</v>
-      </c>
-      <c r="D32" s="307">
+        <v>499</v>
+      </c>
+      <c r="D32" s="306">
         <v>1.25</v>
       </c>
-      <c r="E32" s="306"/>
+      <c r="E32" s="305"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="304">
+      <c r="B33" s="303">
         <v>41507</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>508</v>
-      </c>
-      <c r="D33" s="307">
+        <v>500</v>
+      </c>
+      <c r="D33" s="306">
         <v>1.26</v>
       </c>
-      <c r="E33" s="306"/>
+      <c r="E33" s="305"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="304">
+      <c r="B34" s="303">
         <v>41509</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>509</v>
-      </c>
-      <c r="D34" s="307">
+        <v>501</v>
+      </c>
+      <c r="D34" s="306">
         <v>1.27</v>
       </c>
-      <c r="E34" s="306"/>
+      <c r="E34" s="305"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="304">
+      <c r="B35" s="303">
         <v>41509</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="D35" s="307">
+        <v>518</v>
+      </c>
+      <c r="D35" s="306">
         <v>1.28</v>
       </c>
-      <c r="E35" s="306"/>
+      <c r="E35" s="305"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="304" t="s">
-        <v>538</v>
+      <c r="B36" s="303" t="s">
+        <v>525</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>538</v>
-      </c>
-      <c r="D36" s="307">
+        <v>525</v>
+      </c>
+      <c r="D36" s="306">
         <v>1.29</v>
       </c>
-      <c r="E36" s="306"/>
+      <c r="E36" s="305"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="304">
+      <c r="B37" s="303">
         <v>41534</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>564</v>
-      </c>
-      <c r="D37" s="307">
+        <v>551</v>
+      </c>
+      <c r="D37" s="306">
         <v>1.3</v>
       </c>
-      <c r="E37" s="306"/>
+      <c r="E37" s="305"/>
     </row>
     <row r="38" spans="2:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="B38" s="304">
+      <c r="B38" s="303">
         <v>41542</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>565</v>
-      </c>
-      <c r="D38" s="307">
+        <v>552</v>
+      </c>
+      <c r="D38" s="306">
         <v>1.31</v>
       </c>
-      <c r="E38" s="306"/>
+      <c r="E38" s="305"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="369">
+      <c r="B39" s="367">
         <v>41562</v>
       </c>
-      <c r="C39" s="370" t="s">
-        <v>566</v>
-      </c>
-      <c r="D39" s="307">
+      <c r="C39" s="368" t="s">
+        <v>553</v>
+      </c>
+      <c r="D39" s="306">
         <v>1.32</v>
       </c>
-      <c r="E39" s="306"/>
+      <c r="E39" s="305"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="369">
+      <c r="B40" s="367">
         <v>41578</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>594</v>
-      </c>
-      <c r="D40" s="307">
+        <v>581</v>
+      </c>
+      <c r="D40" s="306">
         <v>1.33</v>
       </c>
-      <c r="E40" s="306"/>
+      <c r="E40" s="305"/>
     </row>
     <row r="41" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B41" s="369">
+      <c r="B41" s="367">
         <v>41578</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>595</v>
-      </c>
-      <c r="D41" s="307">
+        <v>582</v>
+      </c>
+      <c r="D41" s="306">
         <v>1.34</v>
       </c>
-      <c r="E41" s="306"/>
+      <c r="E41" s="305"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="369">
+      <c r="B42" s="367">
         <v>41782</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>600</v>
-      </c>
-      <c r="D42" s="307">
+        <v>587</v>
+      </c>
+      <c r="D42" s="306">
         <v>1.35</v>
       </c>
-      <c r="E42" s="306"/>
+      <c r="E42" s="305"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="369">
+      <c r="B43" s="367">
         <v>41782</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>601</v>
-      </c>
-      <c r="D43" s="307">
+        <v>588</v>
+      </c>
+      <c r="D43" s="306">
         <v>1.36</v>
       </c>
-      <c r="E43" s="306"/>
+      <c r="E43" s="305"/>
     </row>
     <row r="44" spans="2:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B44" s="369">
+      <c r="B44" s="367">
         <v>42600</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>621</v>
-      </c>
-      <c r="D44" s="307">
+        <v>607</v>
+      </c>
+      <c r="D44" s="306">
         <v>1.37</v>
       </c>
-      <c r="E44" s="306"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="304"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="307"/>
-      <c r="E45" s="306"/>
+      <c r="E44" s="305"/>
+    </row>
+    <row r="45" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="367">
+        <v>44607</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="D45" s="306">
+        <v>1.38</v>
+      </c>
+      <c r="E45" s="305"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="305"/>
+      <c r="B46" s="304"/>
       <c r="C46" s="45"/>
-      <c r="D46" s="309"/>
-      <c r="E46" s="306"/>
+      <c r="D46" s="308"/>
+      <c r="E46" s="305"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="306"/>
-      <c r="D47" s="306"/>
-      <c r="E47" s="306"/>
+      <c r="B47" s="305"/>
+      <c r="D47" s="305"/>
+      <c r="E47" s="305"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="306"/>
-      <c r="D48" s="306"/>
-      <c r="E48" s="306"/>
+      <c r="B48" s="305"/>
+      <c r="D48" s="305"/>
+      <c r="E48" s="305"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="306"/>
+      <c r="B49" s="305"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="306"/>
+      <c r="B50" s="305"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13858,43 +13596,43 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>385</v>
-      </c>
-      <c r="B3" s="283" t="e">
+        <v>381</v>
+      </c>
+      <c r="B3" s="282" t="e">
         <f>'Technology shares'!F9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="283" t="e">
+        <v>382</v>
+      </c>
+      <c r="B4" s="282" t="e">
         <f>'Technology shares'!F10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="283"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13925,43 +13663,43 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>388</v>
-      </c>
-      <c r="B3" s="283" t="e">
+        <v>384</v>
+      </c>
+      <c r="B3" s="282" t="e">
         <f>'Application shares'!E9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>389</v>
-      </c>
-      <c r="B4" s="283" t="e">
+        <v>385</v>
+      </c>
+      <c r="B4" s="282" t="e">
         <f>'Application shares'!E10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="283"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13992,49 +13730,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>602</v>
-      </c>
-      <c r="B3" s="283" t="e">
+        <v>589</v>
+      </c>
+      <c r="B3" s="282" t="e">
         <f>'Application shares'!E13</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>603</v>
-      </c>
-      <c r="B4" s="283" t="e">
+        <v>590</v>
+      </c>
+      <c r="B4" s="282" t="e">
         <f>'Application shares'!E14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="205" t="s">
-        <v>604</v>
-      </c>
-      <c r="B5" s="283" t="e">
+        <v>591</v>
+      </c>
+      <c r="B5" s="282" t="e">
         <f>'Application shares'!E15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14065,43 +13803,43 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3" s="283" t="e">
+        <v>388</v>
+      </c>
+      <c r="B3" s="282" t="e">
         <f>'Application shares'!E18</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>393</v>
-      </c>
-      <c r="B4" s="283" t="e">
+        <v>389</v>
+      </c>
+      <c r="B4" s="282" t="e">
         <f>'Application shares'!E19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="283"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14132,55 +13870,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>377</v>
-      </c>
-      <c r="B3" s="283" t="e">
+        <v>373</v>
+      </c>
+      <c r="B3" s="282" t="e">
         <f>'Application shares'!E22</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>383</v>
-      </c>
-      <c r="B4" s="283" t="e">
+        <v>379</v>
+      </c>
+      <c r="B4" s="282" t="e">
         <f>'Application shares'!E23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="205" t="s">
-        <v>375</v>
-      </c>
-      <c r="B5" s="283" t="e">
+        <v>371</v>
+      </c>
+      <c r="B5" s="282" t="e">
         <f>'Application shares'!E24</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="205" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="283" t="e">
+        <v>391</v>
+      </c>
+      <c r="B6" s="282" t="e">
         <f>'Application shares'!E25</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14211,43 +13949,43 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>397</v>
-      </c>
-      <c r="B3" s="283">
-        <f>Dashboard!E68</f>
+        <v>393</v>
+      </c>
+      <c r="B3" s="282">
+        <f>Dashboard!E66</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>398</v>
-      </c>
-      <c r="B4" s="283">
-        <f>Dashboard!E69</f>
+        <v>394</v>
+      </c>
+      <c r="B4" s="282">
+        <f>Dashboard!E67</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="283"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14267,7 +14005,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -14279,41 +14017,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>400</v>
-      </c>
-      <c r="B3" s="283">
+        <v>396</v>
+      </c>
+      <c r="B3" s="282">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B4" s="283">
+        <v>397</v>
+      </c>
+      <c r="B4" s="282">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="283"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14345,41 +14083,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B3" s="283">
+        <v>398</v>
+      </c>
+      <c r="B3" s="282">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="283">
+        <v>400</v>
+      </c>
+      <c r="B4" s="282">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="283"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14411,43 +14149,43 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B3" s="283">
+        <v>402</v>
+      </c>
+      <c r="B3" s="282">
         <f>1-B4</f>
         <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>407</v>
-      </c>
-      <c r="B4" s="283">
-        <f>Dashboard!E71</f>
+        <v>403</v>
+      </c>
+      <c r="B4" s="282">
+        <f>Dashboard!E69</f>
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="283"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14479,43 +14217,43 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" s="283">
+        <v>405</v>
+      </c>
+      <c r="B3" s="282">
         <f>1-B4</f>
         <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B4" s="283">
-        <f>Dashboard!E72</f>
+        <v>406</v>
+      </c>
+      <c r="B4" s="282">
+        <f>Dashboard!E70</f>
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="283"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14566,10 +14304,10 @@
     </row>
     <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="127" t="s">
         <v>251</v>
-      </c>
-      <c r="C6" s="127" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -14577,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -14598,10 +14336,10 @@
     </row>
     <row r="10" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="125" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -14622,186 +14360,186 @@
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="177" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="177" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="299" t="s">
-        <v>493</v>
+      <c r="B15" s="298" t="s">
+        <v>485</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="299" t="s">
-        <v>494</v>
+      <c r="B16" s="298" t="s">
+        <v>486</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="126" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="126" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="174" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="174" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="176" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="61" t="s">
         <v>316</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="178" t="s">
-        <v>433</v>
-      </c>
-      <c r="C22" s="255" t="s">
-        <v>432</v>
+        <v>429</v>
+      </c>
+      <c r="C22" s="254" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="178" t="s">
-        <v>434</v>
-      </c>
-      <c r="C23" s="255" t="s">
-        <v>432</v>
+        <v>430</v>
+      </c>
+      <c r="C23" s="254" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="178" t="s">
-        <v>435</v>
-      </c>
-      <c r="C24" s="255" t="s">
-        <v>432</v>
+        <v>431</v>
+      </c>
+      <c r="C24" s="254" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="178" t="s">
-        <v>436</v>
-      </c>
-      <c r="C25" s="255" t="s">
         <v>432</v>
+      </c>
+      <c r="C25" s="254" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="178" t="s">
-        <v>437</v>
-      </c>
-      <c r="C26" s="255" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="C26" s="254" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="178" t="s">
-        <v>438</v>
-      </c>
-      <c r="C27" s="255" t="s">
-        <v>432</v>
+        <v>434</v>
+      </c>
+      <c r="C27" s="254" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="178" t="s">
-        <v>439</v>
-      </c>
-      <c r="C28" s="255" t="s">
-        <v>432</v>
+        <v>435</v>
+      </c>
+      <c r="C28" s="254" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="178" t="s">
-        <v>440</v>
-      </c>
-      <c r="C29" s="255" t="s">
-        <v>432</v>
+        <v>436</v>
+      </c>
+      <c r="C29" s="254" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="178" t="s">
-        <v>441</v>
-      </c>
-      <c r="C30" s="255" t="s">
-        <v>497</v>
+        <v>437</v>
+      </c>
+      <c r="C30" s="254" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="178" t="s">
-        <v>442</v>
-      </c>
-      <c r="C31" s="255" t="s">
-        <v>498</v>
+        <v>438</v>
+      </c>
+      <c r="C31" s="254" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="178" t="s">
-        <v>443</v>
-      </c>
-      <c r="C32" s="255" t="s">
-        <v>498</v>
+        <v>439</v>
+      </c>
+      <c r="C32" s="254" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="178" t="s">
-        <v>444</v>
-      </c>
-      <c r="C33" s="255" t="s">
-        <v>498</v>
+        <v>440</v>
+      </c>
+      <c r="C33" s="254" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="178" t="s">
-        <v>445</v>
-      </c>
-      <c r="C34" s="255" t="s">
-        <v>498</v>
+        <v>441</v>
+      </c>
+      <c r="C34" s="254" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="178" t="s">
-        <v>622</v>
-      </c>
-      <c r="C35" s="255" t="s">
-        <v>623</v>
+        <v>608</v>
+      </c>
+      <c r="C35" s="254" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14835,45 +14573,45 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="205" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="205" t="s">
-        <v>618</v>
-      </c>
-      <c r="B3" s="283" t="e">
+        <v>605</v>
+      </c>
+      <c r="B3" s="282" t="e">
         <f>'Application shares'!E27</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="205" t="s">
-        <v>619</v>
-      </c>
-      <c r="B4" s="283" t="e">
+        <v>606</v>
+      </c>
+      <c r="B4" s="282" t="e">
         <f>'Application shares'!E28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="205"/>
-      <c r="B5" s="283"/>
+      <c r="B5" s="282"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="205"/>
-      <c r="B6" s="283"/>
+      <c r="B6" s="282"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="283"/>
+      <c r="B7" s="282"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14917,7 +14655,7 @@
     </row>
     <row r="6" spans="2:2" ht="80" x14ac:dyDescent="0.2">
       <c r="B6" s="113" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
@@ -14925,7 +14663,7 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" s="129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
@@ -14933,32 +14671,32 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="131" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="55" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="55" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="55" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="131" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="131" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
@@ -14974,7 +14712,7 @@
     </row>
     <row r="20" spans="2:2" ht="112" x14ac:dyDescent="0.2">
       <c r="B20" s="112" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -15006,7 +14744,7 @@
   <sheetData>
     <row r="2" spans="2:80" ht="31" x14ac:dyDescent="0.2">
       <c r="B2" s="117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" s="114"/>
       <c r="D2" s="114"/>
@@ -15160,7 +14898,7 @@
     </row>
     <row r="4" spans="2:80" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
@@ -15298,7 +15036,7 @@
     <row r="6" spans="2:80" ht="24" x14ac:dyDescent="0.2">
       <c r="B6" s="116"/>
       <c r="C6" s="132" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D6" s="116"/>
       <c r="E6" s="116"/>
@@ -15336,7 +15074,7 @@
       <c r="AK6" s="116"/>
       <c r="AM6" s="116"/>
       <c r="AN6" s="132" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AO6" s="116"/>
       <c r="AP6" s="116"/>
@@ -15370,7 +15108,7 @@
       <c r="BS6" s="116"/>
       <c r="BT6" s="116"/>
       <c r="BU6" s="132" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="2:80" x14ac:dyDescent="0.2">
@@ -15421,10 +15159,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="405" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" s="406"/>
+      <c r="B5" s="403" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="404"/>
     </row>
     <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -15460,61 +15198,61 @@
     <row r="11" spans="2:4" ht="96" x14ac:dyDescent="0.2">
       <c r="B11" s="30"/>
       <c r="C11" s="39" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D11" s="41"/>
     </row>
     <row r="12" spans="2:4" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="30"/>
       <c r="C12" s="39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D12" s="41"/>
     </row>
     <row r="13" spans="2:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="38"/>
       <c r="C13" s="97" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D13" s="40"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="38"/>
       <c r="C14" s="97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D14" s="40"/>
     </row>
     <row r="15" spans="2:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="38"/>
       <c r="C15" s="97" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D15" s="40"/>
     </row>
     <row r="16" spans="2:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="38"/>
       <c r="C16" s="97" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D16" s="40"/>
     </row>
     <row r="17" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="38"/>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="38"/>
       <c r="C18" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15528,7 +15266,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
@@ -15546,7 +15284,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -15559,28 +15297,28 @@
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="38"/>
       <c r="C25" s="44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="38"/>
       <c r="C26" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>260</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="38"/>
       <c r="C27" s="44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -15601,7 +15339,7 @@
         <v>110</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -15610,7 +15348,7 @@
         <v>106</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
@@ -15619,7 +15357,7 @@
         <v>108</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -15628,7 +15366,7 @@
         <v>111</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
@@ -15637,7 +15375,7 @@
         <v>109</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
@@ -15646,7 +15384,7 @@
         <v>107</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
@@ -15667,7 +15405,7 @@
         <v>112</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
@@ -15676,7 +15414,7 @@
         <v>113</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
@@ -15685,7 +15423,7 @@
         <v>114</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
@@ -15703,46 +15441,46 @@
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="30"/>
       <c r="C43" s="137" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="30"/>
       <c r="C44" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="30"/>
       <c r="C45" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="30"/>
       <c r="C46" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="30"/>
       <c r="C47" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
@@ -15763,7 +15501,7 @@
         <v>115</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
@@ -15772,7 +15510,7 @@
         <v>116</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
@@ -15781,7 +15519,7 @@
         <v>117</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
@@ -15790,7 +15528,7 @@
         <v>118</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15801,7 +15539,7 @@
     <row r="55" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C56" s="29"/>
     </row>
@@ -15811,10 +15549,10 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="32" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C58" s="142" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
@@ -15823,7 +15561,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C60" s="42" t="s">
         <v>40</v>
@@ -15907,10 +15645,10 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="37" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
@@ -15925,7 +15663,7 @@
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C77" s="42" t="s">
         <v>57</v>
@@ -16069,7 +15807,7 @@
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C101" s="42" t="s">
         <v>87</v>
@@ -16087,10 +15825,10 @@
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C104" s="149" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
@@ -16099,10 +15837,10 @@
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C106" s="149" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
@@ -16111,10 +15849,10 @@
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C108" s="149" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
@@ -16192,55 +15930,55 @@
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="30"/>
       <c r="C121" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="30"/>
       <c r="C122" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="30"/>
       <c r="C123" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="37"/>
       <c r="C124" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="37"/>
       <c r="C125" s="42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="37"/>
       <c r="C126" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="37"/>
       <c r="C127" s="42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="37"/>
       <c r="C128" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="37"/>
       <c r="C129" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="17" x14ac:dyDescent="0.2">
@@ -16255,7 +15993,7 @@
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C133" s="1">
         <v>3.6</v>
@@ -16280,10 +16018,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:S73"/>
+  <dimension ref="B2:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16312,7 +16050,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="207" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="5"/>
@@ -16335,12 +16073,12 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="405" t="s">
-        <v>325</v>
-      </c>
-      <c r="C5" s="407"/>
-      <c r="D5" s="407"/>
-      <c r="E5" s="406"/>
+      <c r="B5" s="403" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="405"/>
+      <c r="D5" s="405"/>
+      <c r="E5" s="404"/>
       <c r="K5" s="208"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
@@ -16397,14 +16135,14 @@
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33" t="s">
         <v>38</v>
       </c>
       <c r="J9" s="33"/>
-      <c r="K9" s="315" t="s">
+      <c r="K9" s="314" t="s">
         <v>99</v>
       </c>
       <c r="L9" s="54" t="s">
@@ -16414,10 +16152,10 @@
         <v>94</v>
       </c>
       <c r="O9" s="235" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P9" s="236" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -16432,10 +16170,10 @@
       <c r="H10" s="228"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="371" t="s">
-        <v>568</v>
-      </c>
-      <c r="L10" s="372" t="b">
+      <c r="K10" s="369" t="s">
+        <v>555</v>
+      </c>
+      <c r="L10" s="370" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
@@ -16446,27 +16184,27 @@
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="35"/>
       <c r="C11" s="60" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D11" s="60"/>
-      <c r="E11" s="310"/>
+      <c r="E11" s="309"/>
       <c r="F11" s="15"/>
       <c r="G11" s="230" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H11" s="228"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c r="K11" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="L11" s="380" t="b">
-        <f>IF(COUNTBLANK(E11:E66)-COUNTBLANK(C11:C66)=3,TRUE,FALSE)</f>
+        <v>287</v>
+      </c>
+      <c r="L11" s="378" t="b">
+        <f>IF(COUNTBLANK(E11:E64)-COUNTBLANK(C11:C64)=3,TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M11" s="65"/>
       <c r="O11" s="233" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P11" s="234">
         <f>IF(L11=TRUE,1,0)</f>
@@ -16476,13 +16214,13 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="35"/>
       <c r="C12" s="60" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D12" s="60"/>
-      <c r="E12" s="310"/>
+      <c r="E12" s="309"/>
       <c r="F12" s="15"/>
       <c r="G12" s="230" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H12" s="228"/>
       <c r="I12" s="15"/>
@@ -16491,7 +16229,7 @@
       <c r="L12" s="155"/>
       <c r="M12" s="65"/>
       <c r="O12" s="233" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="P12" s="234"/>
     </row>
@@ -16505,9 +16243,9 @@
       <c r="H13" s="228"/>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="393"/>
+      <c r="K13" s="391"/>
       <c r="L13" s="155"/>
-      <c r="M13" s="394"/>
+      <c r="M13" s="392"/>
       <c r="O13" s="233"/>
       <c r="P13" s="7"/>
     </row>
@@ -16522,7 +16260,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="16"/>
       <c r="K14" s="64" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="L14" s="155"/>
       <c r="M14" s="65"/>
@@ -16540,13 +16278,13 @@
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
       <c r="K15" s="55" t="s">
-        <v>592</v>
-      </c>
-      <c r="L15" s="379" t="e">
-        <f>IF('Final demand per energy carrier'!E45&lt;0,FALSE,TRUE)</f>
+        <v>579</v>
+      </c>
+      <c r="L15" s="377" t="e">
+        <f>IF('Final demand per energy carrier'!E43&lt;0,FALSE,TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="313" t="e">
+      <c r="M15" s="312" t="e">
         <f>IF(L15=TRUE," ","The demand for coal in 'other appliances' is negative. Have a look at the 'Final demand per energy carrier' sheet. Please correct the application and/or technology splits in the dashboard. ")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16567,13 +16305,13 @@
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
       <c r="K16" s="55" t="s">
-        <v>591</v>
-      </c>
-      <c r="L16" s="379" t="e">
-        <f>IF('Final demand per energy carrier'!F45&lt;0,FALSE,TRUE)</f>
+        <v>578</v>
+      </c>
+      <c r="L16" s="377" t="e">
+        <f>IF('Final demand per energy carrier'!F43&lt;0,FALSE,TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="313" t="e">
+      <c r="M16" s="312" t="e">
         <f>IF(L16=TRUE," ","The demand for network gas in 'other appliances' is negative. Have a look at the 'Final demand per energy carrier' sheet. Please correct the application and/or technology splits in the dashboard. ")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16594,13 +16332,13 @@
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
       <c r="K17" s="55" t="s">
-        <v>593</v>
-      </c>
-      <c r="L17" s="379" t="e">
-        <f>IF('Final demand per energy carrier'!G45&lt;0,FALSE,TRUE)</f>
+        <v>580</v>
+      </c>
+      <c r="L17" s="377" t="e">
+        <f>IF('Final demand per energy carrier'!G43&lt;0,FALSE,TRUE)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="313" t="e">
+      <c r="M17" s="312" t="e">
         <f>IF(L17=TRUE," ","The demand for oil in 'other appliances' is negative. Have a look at the 'Final demand per energy carrier' sheet. Please correct the application and/or technology splits in the dashboard. ")</f>
         <v>#DIV/0!</v>
       </c>
@@ -16628,22 +16366,22 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="32"/>
-      <c r="C19" s="316"/>
-      <c r="D19" s="316"/>
-      <c r="E19" s="316"/>
-      <c r="F19" s="316"/>
-      <c r="G19" s="317"/>
-      <c r="H19" s="317"/>
-      <c r="I19" s="316"/>
-      <c r="J19" s="318"/>
-      <c r="K19" s="319" t="s">
-        <v>585</v>
-      </c>
-      <c r="L19" s="398" t="b">
+      <c r="C19" s="315"/>
+      <c r="D19" s="315"/>
+      <c r="E19" s="315"/>
+      <c r="F19" s="315"/>
+      <c r="G19" s="316"/>
+      <c r="H19" s="316"/>
+      <c r="I19" s="315"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="318" t="s">
+        <v>572</v>
+      </c>
+      <c r="L19" s="396" t="b">
         <f>IF('Fuel aggregation'!J11=0,TRUE,'Fuel aggregation'!J11)</f>
         <v>1</v>
       </c>
-      <c r="M19" s="381" t="str">
+      <c r="M19" s="379" t="str">
         <f>IF(L19=TRUE," ","(TJ) There are energy flows related to the services sector that cannot be processed by the ETM. If the amount of disregarded energy is relatively large, consider contacting Quintel Intelligence. Have a look at the fuel aggregation sheet.")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -16663,7 +16401,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="55"/>
-      <c r="L20" s="373"/>
+      <c r="L20" s="371"/>
       <c r="M20" s="56"/>
       <c r="O20" s="233"/>
       <c r="P20" s="234"/>
@@ -16671,10 +16409,10 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="37"/>
       <c r="C21" s="8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E21" s="213">
         <f>Final_demand_residences</f>
@@ -16684,11 +16422,11 @@
       <c r="G21" s="230"/>
       <c r="H21" s="230"/>
       <c r="I21" s="8" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="55"/>
-      <c r="L21" s="374"/>
+      <c r="L21" s="372"/>
       <c r="M21" s="56"/>
       <c r="O21" s="233"/>
       <c r="P21" s="234"/>
@@ -16704,7 +16442,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="55"/>
-      <c r="L22" s="374"/>
+      <c r="L22" s="372"/>
       <c r="M22" s="56"/>
       <c r="O22" s="233"/>
       <c r="P22" s="234"/>
@@ -16715,21 +16453,21 @@
         <v>102</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E23" s="215"/>
       <c r="F23" s="230"/>
       <c r="G23" s="230" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H23" s="230"/>
       <c r="I23" s="23"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="374"/>
+      <c r="L23" s="372"/>
       <c r="M23" s="56"/>
       <c r="O23" s="233" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="P23" s="234"/>
     </row>
@@ -16739,21 +16477,21 @@
         <v>105</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E24" s="216"/>
       <c r="F24" s="230"/>
       <c r="G24" s="230" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H24" s="230"/>
       <c r="I24" s="23"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="374"/>
+      <c r="L24" s="372"/>
       <c r="M24" s="56"/>
       <c r="O24" s="233" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="P24" s="234"/>
     </row>
@@ -16763,21 +16501,21 @@
         <v>103</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E25" s="216"/>
       <c r="F25" s="230"/>
       <c r="G25" s="230" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H25" s="230"/>
       <c r="I25" s="23"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="374"/>
+      <c r="L25" s="372"/>
       <c r="M25" s="56"/>
       <c r="O25" s="233" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="P25" s="234"/>
     </row>
@@ -16792,7 +16530,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="55"/>
-      <c r="L26" s="374"/>
+      <c r="L26" s="372"/>
       <c r="M26" s="56"/>
       <c r="O26" s="233"/>
       <c r="P26" s="234"/>
@@ -16808,7 +16546,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="55"/>
-      <c r="L27" s="374"/>
+      <c r="L27" s="372"/>
       <c r="M27" s="56"/>
       <c r="O27" s="233"/>
       <c r="P27" s="234"/>
@@ -16816,7 +16554,7 @@
     <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="8" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="216"/>
@@ -16826,20 +16564,20 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="55"/>
-      <c r="L28" s="374"/>
+      <c r="L28" s="372"/>
       <c r="M28" s="56"/>
       <c r="O28" s="233" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="P28" s="234"/>
     </row>
     <row r="29" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="8" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E29" s="216" t="str">
         <f>IF(E28="no",0,"")</f>
@@ -16847,15 +16585,15 @@
       </c>
       <c r="F29" s="225"/>
       <c r="G29" s="230" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="H29" s="230"/>
       <c r="I29" s="23"/>
       <c r="J29" s="8"/>
       <c r="K29" s="64" t="s">
-        <v>612</v>
-      </c>
-      <c r="L29" s="379" t="b">
+        <v>599</v>
+      </c>
+      <c r="L29" s="377" t="b">
         <f>IF(E29&gt;=0,TRUE,E29)</f>
         <v>1</v>
       </c>
@@ -16864,7 +16602,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O29" s="233" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="P29" s="234">
         <f>IF(L29=TRUE,1,0)</f>
@@ -16882,7 +16620,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="55"/>
-      <c r="L30" s="374"/>
+      <c r="L30" s="372"/>
       <c r="M30" s="56"/>
       <c r="O30" s="233"/>
       <c r="P30" s="234"/>
@@ -16890,13 +16628,13 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="37"/>
       <c r="C31" s="8" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E31" s="375" t="e">
-        <f>'Final demand per energy carrier'!J44</f>
+        <v>420</v>
+      </c>
+      <c r="E31" s="373" t="e">
+        <f>'Final demand per energy carrier'!J42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="225"/>
@@ -16905,9 +16643,9 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="64" t="s">
-        <v>582</v>
-      </c>
-      <c r="L31" s="379" t="e">
+        <v>569</v>
+      </c>
+      <c r="L31" s="377" t="e">
         <f>IF(E31&gt;0,TRUE,E31)</f>
         <v>#DIV/0!</v>
       </c>
@@ -16924,13 +16662,13 @@
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="37"/>
       <c r="C32" s="8" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E32" s="376" t="e">
-        <f>SUM('Final demand per energy carrier'!E45:G45)</f>
+        <v>420</v>
+      </c>
+      <c r="E32" s="374" t="e">
+        <f>SUM('Final demand per energy carrier'!E43:G43)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="225"/>
@@ -16939,9 +16677,9 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="64" t="s">
-        <v>583</v>
-      </c>
-      <c r="L32" s="379" t="e">
+        <v>570</v>
+      </c>
+      <c r="L32" s="377" t="e">
         <f>IF(E32&gt;0,TRUE,E32)</f>
         <v>#DIV/0!</v>
       </c>
@@ -16984,9 +16722,9 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" s="379">
+        <v>237</v>
+      </c>
+      <c r="L34" s="377">
         <f>IF(SUM(E44:E50)=1,TRUE,SUM(E44:E50))</f>
         <v>0</v>
       </c>
@@ -17003,10 +16741,10 @@
     <row r="35" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="37"/>
       <c r="C35" s="8" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="375">
+      <c r="E35" s="373">
         <f>Final_demand_space_heating</f>
         <v>0</v>
       </c>
@@ -17016,8 +16754,8 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="55"/>
-      <c r="L35" s="314"/>
-      <c r="M35" s="313"/>
+      <c r="L35" s="313"/>
+      <c r="M35" s="312"/>
       <c r="O35" s="233"/>
       <c r="P35" s="234"/>
     </row>
@@ -17025,25 +16763,25 @@
       <c r="B36" s="37"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="375"/>
+      <c r="E36" s="373"/>
       <c r="F36" s="8"/>
       <c r="G36" s="224"/>
       <c r="H36" s="224"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="55"/>
-      <c r="L36" s="314"/>
-      <c r="M36" s="313"/>
+      <c r="L36" s="313"/>
+      <c r="M36" s="312"/>
       <c r="O36" s="233"/>
       <c r="P36" s="234"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
-      <c r="C37" s="378" t="s">
-        <v>534</v>
+      <c r="C37" s="376" t="s">
+        <v>521</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="375">
+      <c r="E37" s="373">
         <f>'Final demand extracted from EB'!D13</f>
         <v>0</v>
       </c>
@@ -17051,7 +16789,7 @@
       <c r="G37" s="224"/>
       <c r="H37" s="224"/>
       <c r="I37" s="8" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="55"/>
@@ -17062,11 +16800,11 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="37"/>
-      <c r="C38" s="378" t="s">
-        <v>535</v>
+      <c r="C38" s="376" t="s">
+        <v>522</v>
       </c>
       <c r="D38" s="8"/>
-      <c r="E38" s="375">
+      <c r="E38" s="373">
         <f>'Final demand extracted from EB'!D9</f>
         <v>0</v>
       </c>
@@ -17074,7 +16812,7 @@
       <c r="G38" s="224"/>
       <c r="H38" s="224"/>
       <c r="I38" s="8" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="55"/>
@@ -17085,11 +16823,11 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="37"/>
-      <c r="C39" s="378" t="s">
-        <v>536</v>
+      <c r="C39" s="376" t="s">
+        <v>523</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="E39" s="375">
+      <c r="E39" s="373">
         <f>'Final demand extracted from EB'!D17</f>
         <v>0</v>
       </c>
@@ -17097,7 +16835,7 @@
       <c r="G39" s="224"/>
       <c r="H39" s="224"/>
       <c r="I39" s="8" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="55"/>
@@ -17110,7 +16848,7 @@
       <c r="B40" s="37"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="375"/>
+      <c r="E40" s="373"/>
       <c r="F40" s="8"/>
       <c r="G40" s="224"/>
       <c r="H40" s="224"/>
@@ -17122,13 +16860,13 @@
       <c r="O40" s="233"/>
       <c r="P40" s="234"/>
     </row>
-    <row r="41" spans="2:19" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:19" ht="34" x14ac:dyDescent="0.2">
       <c r="B41" s="37"/>
-      <c r="C41" s="377" t="s">
-        <v>571</v>
+      <c r="C41" s="375" t="s">
+        <v>558</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="375">
+      <c r="E41" s="373">
         <f>E35-SUM(E37:E39)</f>
         <v>0</v>
       </c>
@@ -17145,9 +16883,9 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="37"/>
-      <c r="C42" s="377"/>
+      <c r="C42" s="375"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="312"/>
+      <c r="E42" s="311"/>
       <c r="F42" s="8"/>
       <c r="G42" s="224"/>
       <c r="H42" s="224"/>
@@ -17162,7 +16900,7 @@
     <row r="43" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="8" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="59"/>
@@ -17179,8 +16917,8 @@
     </row>
     <row r="44" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
-      <c r="C44" s="378" t="s">
-        <v>572</v>
+      <c r="C44" s="376" t="s">
+        <v>559</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="171"/>
@@ -17191,16 +16929,16 @@
       <c r="J44" s="8"/>
       <c r="K44" s="55"/>
       <c r="L44" s="156"/>
-      <c r="M44" s="313"/>
+      <c r="M44" s="312"/>
       <c r="O44" s="233" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="P44" s="234"/>
     </row>
     <row r="45" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
-      <c r="C45" s="378" t="s">
-        <v>573</v>
+      <c r="C45" s="376" t="s">
+        <v>560</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="171"/>
@@ -17211,17 +16949,17 @@
       <c r="J45" s="8"/>
       <c r="K45" s="55"/>
       <c r="L45" s="156"/>
-      <c r="M45" s="313"/>
+      <c r="M45" s="312"/>
       <c r="O45" s="233" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="P45" s="234"/>
-      <c r="S45" s="311"/>
+      <c r="S45" s="310"/>
     </row>
     <row r="46" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="37"/>
-      <c r="C46" s="378" t="s">
-        <v>574</v>
+      <c r="C46" s="376" t="s">
+        <v>561</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="171"/>
@@ -17232,16 +16970,16 @@
       <c r="J46" s="8"/>
       <c r="K46" s="55"/>
       <c r="L46" s="156"/>
-      <c r="M46" s="313"/>
+      <c r="M46" s="312"/>
       <c r="O46" s="233" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="P46" s="234"/>
     </row>
     <row r="47" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="37"/>
-      <c r="C47" s="378" t="s">
-        <v>575</v>
+      <c r="C47" s="376" t="s">
+        <v>562</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="171"/>
@@ -17254,14 +16992,14 @@
       <c r="L47" s="156"/>
       <c r="M47" s="56"/>
       <c r="O47" s="233" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="P47" s="234"/>
     </row>
     <row r="48" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="37"/>
-      <c r="C48" s="378" t="s">
-        <v>576</v>
+      <c r="C48" s="376" t="s">
+        <v>563</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="171"/>
@@ -17274,14 +17012,14 @@
       <c r="L48" s="157"/>
       <c r="M48" s="56"/>
       <c r="O48" s="233" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="P48" s="234"/>
     </row>
     <row r="49" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="37"/>
-      <c r="C49" s="378" t="s">
-        <v>577</v>
+      <c r="C49" s="376" t="s">
+        <v>564</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="171"/>
@@ -17294,15 +17032,15 @@
       <c r="L49" s="156"/>
       <c r="M49" s="56"/>
       <c r="O49" s="233" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="P49" s="234"/>
-      <c r="R49" s="311"/>
+      <c r="R49" s="310"/>
     </row>
     <row r="50" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="37"/>
-      <c r="C50" s="378" t="s">
-        <v>626</v>
+      <c r="C50" s="376" t="s">
+        <v>612</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="171"/>
@@ -17315,10 +17053,10 @@
       <c r="L50" s="156"/>
       <c r="M50" s="56"/>
       <c r="O50" s="233" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="P50" s="234"/>
-      <c r="R50" s="311"/>
+      <c r="R50" s="310"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="144"/>
@@ -17349,9 +17087,9 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="L52" s="379">
+        <v>237</v>
+      </c>
+      <c r="L52" s="377">
         <f>IF(SUM(E54:E57)=1,TRUE,SUM(E54:E57))</f>
         <v>0</v>
       </c>
@@ -17368,7 +17106,7 @@
     <row r="53" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="37"/>
       <c r="C53" s="60" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D53" s="60"/>
       <c r="E53" s="63"/>
@@ -17385,8 +17123,8 @@
     </row>
     <row r="54" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="37"/>
-      <c r="C54" s="378" t="s">
-        <v>574</v>
+      <c r="C54" s="376" t="s">
+        <v>561</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="191"/>
@@ -17399,15 +17137,15 @@
       <c r="L54" s="156"/>
       <c r="M54" s="56"/>
       <c r="O54" s="233" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="P54" s="237"/>
-      <c r="R54" s="311"/>
+      <c r="R54" s="310"/>
     </row>
     <row r="55" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="37"/>
-      <c r="C55" s="378" t="s">
-        <v>573</v>
+      <c r="C55" s="376" t="s">
+        <v>560</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="171"/>
@@ -17420,13 +17158,13 @@
       <c r="L55" s="156"/>
       <c r="M55" s="56"/>
       <c r="O55" s="233" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="P55" s="237"/>
     </row>
     <row r="56" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="37"/>
-      <c r="C56" s="378" t="s">
+      <c r="C56" s="376" t="s">
         <v>132</v>
       </c>
       <c r="D56" s="60"/>
@@ -17440,14 +17178,14 @@
       <c r="L56" s="156"/>
       <c r="M56" s="56"/>
       <c r="O56" s="233" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="P56" s="237"/>
     </row>
     <row r="57" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="37"/>
-      <c r="C57" s="378" t="s">
-        <v>626</v>
+      <c r="C57" s="376" t="s">
+        <v>612</v>
       </c>
       <c r="D57" s="60"/>
       <c r="E57" s="191"/>
@@ -17460,7 +17198,7 @@
       <c r="L57" s="156"/>
       <c r="M57" s="56"/>
       <c r="O57" s="233" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="P57" s="237"/>
     </row>
@@ -17493,10 +17231,10 @@
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="64" t="s">
-        <v>239</v>
-      </c>
-      <c r="L59" s="379">
-        <f>IF(SUM(E61:E65)=1,TRUE,SUM(E61:E65))</f>
+        <v>237</v>
+      </c>
+      <c r="L59" s="377">
+        <f>IF(SUM(E61:E63)=1,TRUE,SUM(E61:E63))</f>
         <v>0</v>
       </c>
       <c r="M59" s="56" t="str">
@@ -17509,10 +17247,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="37"/>
       <c r="C60" s="8" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="59"/>
@@ -17527,54 +17265,50 @@
       <c r="O60" s="238"/>
       <c r="P60" s="234"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="37"/>
-      <c r="C61" s="378" t="s">
-        <v>133</v>
+      <c r="C61" s="376" t="s">
+        <v>331</v>
       </c>
       <c r="D61" s="8"/>
-      <c r="E61" s="172">
-        <v>0</v>
-      </c>
+      <c r="E61" s="171"/>
       <c r="F61" s="8"/>
       <c r="G61" s="224"/>
       <c r="H61" s="224"/>
-      <c r="I61" s="8"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="8"/>
       <c r="K61" s="55"/>
       <c r="L61" s="55"/>
       <c r="M61" s="56"/>
       <c r="O61" s="233" t="s">
-        <v>520</v>
-      </c>
-      <c r="P61" s="237"/>
+        <v>370</v>
+      </c>
+      <c r="P61" s="7"/>
     </row>
     <row r="62" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="37"/>
-      <c r="C62" s="378" t="s">
-        <v>134</v>
+      <c r="C62" s="376" t="s">
+        <v>332</v>
       </c>
       <c r="D62" s="8"/>
-      <c r="E62" s="172">
-        <v>0</v>
-      </c>
+      <c r="E62" s="171"/>
       <c r="F62" s="8"/>
       <c r="G62" s="224"/>
       <c r="H62" s="224"/>
-      <c r="I62" s="8"/>
+      <c r="I62" s="23"/>
       <c r="J62" s="8"/>
       <c r="K62" s="55"/>
       <c r="L62" s="55"/>
       <c r="M62" s="56"/>
       <c r="O62" s="233" t="s">
-        <v>521</v>
+        <v>368</v>
       </c>
       <c r="P62" s="7"/>
     </row>
     <row r="63" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="37"/>
-      <c r="C63" s="378" t="s">
-        <v>333</v>
+      <c r="C63" s="376" t="s">
+        <v>568</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="171"/>
@@ -17587,93 +17321,91 @@
       <c r="L63" s="55"/>
       <c r="M63" s="56"/>
       <c r="O63" s="233" t="s">
-        <v>522</v>
+        <v>369</v>
       </c>
       <c r="P63" s="7"/>
     </row>
     <row r="64" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="37"/>
-      <c r="C64" s="378" t="s">
-        <v>334</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="171"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="224"/>
-      <c r="H64" s="224"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="56"/>
-      <c r="O64" s="233" t="s">
-        <v>523</v>
-      </c>
-      <c r="P64" s="7"/>
-    </row>
-    <row r="65" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="37"/>
-      <c r="C65" s="378" t="s">
-        <v>581</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="171"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="224"/>
-      <c r="H65" s="224"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="56"/>
-      <c r="O65" s="233" t="s">
-        <v>524</v>
-      </c>
-      <c r="P65" s="7"/>
-    </row>
-    <row r="66" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="300"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="240"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="229"/>
-      <c r="H66" s="229"/>
-      <c r="I66" s="102"/>
-      <c r="J66" s="102"/>
-      <c r="K66" s="160"/>
-      <c r="L66" s="160"/>
-      <c r="M66" s="150"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="11"/>
+      <c r="B64" s="299"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="240"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="229"/>
+      <c r="H64" s="229"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="160"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="150"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" s="300" t="s">
+        <v>493</v>
+      </c>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="227"/>
+      <c r="H65" s="227"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="29"/>
+      <c r="O65" s="301"/>
+      <c r="P65" s="5"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" s="30"/>
+      <c r="C66" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="172">
+        <v>1</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="224"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="31"/>
+      <c r="O66" s="233" t="s">
+        <v>512</v>
+      </c>
+      <c r="P66" s="7"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B67" s="301" t="s">
-        <v>501</v>
-      </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="227"/>
-      <c r="H67" s="227"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="29"/>
-      <c r="O67" s="302"/>
-      <c r="P67" s="5"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="172">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="224"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="31"/>
+      <c r="O67" s="233" t="s">
+        <v>513</v>
+      </c>
+      <c r="P67" s="7"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B68" s="30"/>
-      <c r="C68" s="8" t="s">
-        <v>499</v>
-      </c>
+      <c r="C68" s="8"/>
       <c r="D68" s="8"/>
-      <c r="E68" s="172">
-        <v>1</v>
-      </c>
+      <c r="E68" s="172"/>
       <c r="F68" s="8"/>
       <c r="G68" s="224"/>
       <c r="I68" s="8"/>
@@ -17681,19 +17413,17 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="31"/>
-      <c r="O68" s="233" t="s">
-        <v>525</v>
-      </c>
+      <c r="O68" s="233"/>
       <c r="P68" s="7"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="30"/>
       <c r="C69" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="172">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="224"/>
@@ -17703,15 +17433,19 @@
       <c r="L69" s="8"/>
       <c r="M69" s="31"/>
       <c r="O69" s="233" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="P69" s="7"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="30"/>
-      <c r="C70" s="8"/>
+      <c r="C70" s="8" t="s">
+        <v>496</v>
+      </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="172"/>
+      <c r="E70" s="172">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="F70" s="8"/>
       <c r="G70" s="224"/>
       <c r="I70" s="8"/>
@@ -17719,66 +17453,26 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="31"/>
-      <c r="O70" s="233"/>
+      <c r="O70" s="233" t="s">
+        <v>515</v>
+      </c>
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B71" s="30"/>
-      <c r="C71" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="172">
-        <v>3.9E-2</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="224"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="31"/>
-      <c r="O71" s="233" t="s">
-        <v>527</v>
-      </c>
-      <c r="P71" s="7"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B72" s="30"/>
-      <c r="C72" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="172">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="224"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="31"/>
-      <c r="O72" s="233" t="s">
-        <v>528</v>
-      </c>
-      <c r="P72" s="7"/>
-    </row>
-    <row r="73" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="47"/>
-      <c r="C73" s="102"/>
-      <c r="D73" s="102"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="229"/>
-      <c r="H73" s="229"/>
-      <c r="I73" s="102"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="102"/>
-      <c r="M73" s="103"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="11"/>
+    <row r="71" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="47"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
+      <c r="E71" s="102"/>
+      <c r="F71" s="102"/>
+      <c r="G71" s="229"/>
+      <c r="H71" s="229"/>
+      <c r="I71" s="102"/>
+      <c r="J71" s="102"/>
+      <c r="K71" s="102"/>
+      <c r="L71" s="102"/>
+      <c r="M71" s="103"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17942,7 +17636,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17961,7 +17655,7 @@
     </row>
     <row r="5" spans="2:67" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="200" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C5" s="199"/>
       <c r="D5" s="199"/>
@@ -17973,7 +17667,7 @@
     <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="78" t="s">
         <v>40</v>
@@ -18027,7 +17721,7 @@
         <v>46</v>
       </c>
       <c r="T7" s="78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U7" s="78" t="s">
         <v>57</v>
@@ -18126,54 +17820,54 @@
         <v>88</v>
       </c>
       <c r="BA7" s="78" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB7" s="78" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC7" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="BB7" s="78" t="s">
+      <c r="BD7" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="BC7" s="78" t="s">
+      <c r="BE7" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="BD7" s="78" t="s">
+      <c r="BF7" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="BE7" s="78" t="s">
+      <c r="BG7" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="BF7" s="78" t="s">
+      <c r="BH7" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="BG7" s="78" t="s">
+      <c r="BI7" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="BH7" s="78" t="s">
+      <c r="BJ7" s="78" t="s">
         <v>147</v>
-      </c>
-      <c r="BI7" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="BJ7" s="78" t="s">
-        <v>149</v>
       </c>
       <c r="BK7" s="78" t="s">
         <v>32</v>
       </c>
       <c r="BL7" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM7" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN7" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO7" s="80" t="s">
         <v>150</v>
-      </c>
-      <c r="BM7" s="78" t="s">
-        <v>151</v>
-      </c>
-      <c r="BN7" s="79" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO7" s="80" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B8" s="81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C8" s="82"/>
       <c r="D8" s="82"/>
@@ -18243,7 +17937,7 @@
     </row>
     <row r="9" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B9" s="84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -18313,7 +18007,7 @@
     </row>
     <row r="10" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B10" s="84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -18383,7 +18077,7 @@
     </row>
     <row r="11" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B11" s="84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -18453,7 +18147,7 @@
     </row>
     <row r="12" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B12" s="84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -18523,7 +18217,7 @@
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B13" s="84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -18593,7 +18287,7 @@
     </row>
     <row r="14" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -18663,7 +18357,7 @@
     </row>
     <row r="15" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15" s="86"/>
       <c r="D15" s="86"/>
@@ -18733,7 +18427,7 @@
     </row>
     <row r="16" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B16" s="84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -18803,7 +18497,7 @@
     </row>
     <row r="17" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -18873,7 +18567,7 @@
     </row>
     <row r="18" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
@@ -18943,7 +18637,7 @@
     </row>
     <row r="19" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B19" s="84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -19013,7 +18707,7 @@
     </row>
     <row r="20" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B20" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -19083,7 +18777,7 @@
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B21" s="84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -19153,7 +18847,7 @@
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B22" s="84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -19223,7 +18917,7 @@
     </row>
     <row r="23" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B23" s="84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -19293,7 +18987,7 @@
     </row>
     <row r="24" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B24" s="89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C24" s="45"/>
       <c r="D24" s="45"/>
@@ -19363,7 +19057,7 @@
     </row>
     <row r="25" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B25" s="84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -19433,7 +19127,7 @@
     </row>
     <row r="26" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B26" s="84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -19503,7 +19197,7 @@
     </row>
     <row r="27" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B27" s="84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -19573,7 +19267,7 @@
     </row>
     <row r="28" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B28" s="84" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -19643,7 +19337,7 @@
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B29" s="84" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
@@ -19713,7 +19407,7 @@
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B30" s="84" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -19783,7 +19477,7 @@
     </row>
     <row r="31" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B31" s="84" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -19853,7 +19547,7 @@
     </row>
     <row r="32" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B32" s="84" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -19923,7 +19617,7 @@
     </row>
     <row r="33" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B33" s="84" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -19993,7 +19687,7 @@
     </row>
     <row r="34" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B34" s="84" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -20063,7 +19757,7 @@
     </row>
     <row r="35" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B35" s="84" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -20133,7 +19827,7 @@
     </row>
     <row r="36" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B36" s="84" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -20203,7 +19897,7 @@
     </row>
     <row r="37" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B37" s="84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -20273,7 +19967,7 @@
     </row>
     <row r="38" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B38" s="84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -20343,7 +20037,7 @@
     </row>
     <row r="39" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -20413,7 +20107,7 @@
     </row>
     <row r="40" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" s="86"/>
       <c r="D40" s="86"/>
@@ -20483,7 +20177,7 @@
     </row>
     <row r="41" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B41" s="84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -20553,7 +20247,7 @@
     </row>
     <row r="42" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B42" s="84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -20623,7 +20317,7 @@
     </row>
     <row r="43" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B43" s="84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -20693,7 +20387,7 @@
     </row>
     <row r="44" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B44" s="84" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -20763,7 +20457,7 @@
     </row>
     <row r="45" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B45" s="84" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -20833,7 +20527,7 @@
     </row>
     <row r="46" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B46" s="84" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -20903,7 +20597,7 @@
     </row>
     <row r="47" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B47" s="84" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -20973,7 +20667,7 @@
     </row>
     <row r="48" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B48" s="84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
@@ -21043,7 +20737,7 @@
     </row>
     <row r="49" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B49" s="84" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -21113,7 +20807,7 @@
     </row>
     <row r="50" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B50" s="84" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -21183,7 +20877,7 @@
     </row>
     <row r="51" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B51" s="84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -21253,7 +20947,7 @@
     </row>
     <row r="52" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B52" s="84" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -21323,7 +21017,7 @@
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B53" s="84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
@@ -21393,7 +21087,7 @@
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B54" s="84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -21463,7 +21157,7 @@
     </row>
     <row r="55" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B55" s="84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
@@ -21533,7 +21227,7 @@
     </row>
     <row r="56" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B56" s="84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -21603,7 +21297,7 @@
     </row>
     <row r="57" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B57" s="84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -21673,7 +21367,7 @@
     </row>
     <row r="58" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -21743,7 +21437,7 @@
     </row>
     <row r="59" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="85" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C59" s="86"/>
       <c r="D59" s="86"/>
@@ -21883,7 +21577,7 @@
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B61" s="84" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -21953,7 +21647,7 @@
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B62" s="84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -22023,7 +21717,7 @@
     </row>
     <row r="63" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B63" s="84" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -22093,7 +21787,7 @@
     </row>
     <row r="64" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B64" s="84" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -22163,7 +21857,7 @@
     </row>
     <row r="65" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B65" s="84" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
@@ -22233,7 +21927,7 @@
     </row>
     <row r="66" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B66" s="84" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
@@ -22303,7 +21997,7 @@
     </row>
     <row r="67" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B67" s="84" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
@@ -22373,7 +22067,7 @@
     </row>
     <row r="68" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B68" s="84" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -22443,7 +22137,7 @@
     </row>
     <row r="69" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B69" s="84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
@@ -22513,7 +22207,7 @@
     </row>
     <row r="70" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B70" s="84" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -22583,7 +22277,7 @@
     </row>
     <row r="71" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B71" s="84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -22653,7 +22347,7 @@
     </row>
     <row r="72" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B72" s="84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -22723,7 +22417,7 @@
     </row>
     <row r="73" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="84" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
@@ -22793,7 +22487,7 @@
     </row>
     <row r="74" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="85" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C74" s="86"/>
       <c r="D74" s="86"/>
@@ -22863,7 +22557,7 @@
     </row>
     <row r="75" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B75" s="84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -22933,7 +22627,7 @@
     </row>
     <row r="76" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B76" s="84" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -23003,7 +22697,7 @@
     </row>
     <row r="77" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B77" s="84" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
@@ -23073,7 +22767,7 @@
     </row>
     <row r="78" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B78" s="84" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -23143,7 +22837,7 @@
     </row>
     <row r="79" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B79" s="84" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
@@ -23213,7 +22907,7 @@
     </row>
     <row r="80" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -23353,7 +23047,7 @@
     </row>
     <row r="82" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B82" s="84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
@@ -23423,7 +23117,7 @@
     </row>
     <row r="83" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B83" s="84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C83"/>
       <c r="D83"/>
@@ -23493,7 +23187,7 @@
     </row>
     <row r="84" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B84" s="84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -23563,7 +23257,7 @@
     </row>
     <row r="85" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B85" s="84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
@@ -23633,7 +23327,7 @@
     </row>
     <row r="86" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="84" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -23703,7 +23397,7 @@
     </row>
     <row r="87" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C87" s="86"/>
       <c r="D87" s="86"/>
@@ -23773,7 +23467,7 @@
     </row>
     <row r="88" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B88" s="84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
@@ -23843,7 +23537,7 @@
     </row>
     <row r="89" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B89" s="84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -23913,7 +23607,7 @@
     </row>
     <row r="90" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B90" s="84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -23983,7 +23677,7 @@
     </row>
     <row r="91" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
@@ -24053,7 +23747,7 @@
     </row>
     <row r="92" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B92" s="85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C92" s="86"/>
       <c r="D92" s="86"/>
@@ -24123,7 +23817,7 @@
     </row>
     <row r="93" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B93" s="84" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
@@ -24193,7 +23887,7 @@
     </row>
     <row r="94" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B94" s="84" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
@@ -24263,7 +23957,7 @@
     </row>
     <row r="95" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B95" s="84" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -24333,7 +24027,7 @@
     </row>
     <row r="96" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="84" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
@@ -24403,7 +24097,7 @@
     </row>
     <row r="97" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="85" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C97" s="86"/>
       <c r="D97" s="86"/>
@@ -24473,7 +24167,7 @@
     </row>
     <row r="98" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B98" s="84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
@@ -24543,7 +24237,7 @@
     </row>
     <row r="99" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B99" s="84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
@@ -24613,7 +24307,7 @@
     </row>
     <row r="100" spans="2:67" x14ac:dyDescent="0.2">
       <c r="B100" s="84" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -24683,7 +24377,7 @@
     </row>
     <row r="101" spans="2:67" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="91" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C101" s="48"/>
       <c r="D101" s="48"/>
@@ -24767,10 +24461,10 @@
   <sheetPr codeName="Sheet9">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:M40"/>
+  <dimension ref="B2:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24791,7 +24485,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -24802,34 +24496,34 @@
       <c r="I2" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="336" t="s">
+      <c r="B4" s="335" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="340"/>
-      <c r="G4" s="341"/>
-      <c r="H4" s="341"/>
-      <c r="I4" s="341"/>
-      <c r="J4" s="341"/>
-      <c r="K4" s="341"/>
-      <c r="L4" s="339"/>
+      <c r="C4" s="336"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="339"/>
+      <c r="G4" s="340"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="338"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="408" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" s="409"/>
-      <c r="D5" s="409"/>
-      <c r="E5" s="410"/>
-      <c r="F5" s="342"/>
+      <c r="B5" s="406" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="407"/>
+      <c r="D5" s="407"/>
+      <c r="E5" s="408"/>
+      <c r="F5" s="341"/>
       <c r="G5" s="224"/>
       <c r="H5" s="224"/>
       <c r="I5" s="224"/>
       <c r="J5" s="224"/>
       <c r="K5" s="224"/>
-      <c r="L5" s="339"/>
+      <c r="L5" s="338"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -24842,93 +24536,93 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="323" t="s">
-        <v>560</v>
-      </c>
-      <c r="C7" s="324"/>
-      <c r="D7" s="324"/>
-      <c r="E7" s="325" t="s">
-        <v>561</v>
-      </c>
-      <c r="F7" s="321" t="s">
-        <v>562</v>
-      </c>
-      <c r="G7" s="320"/>
-      <c r="H7" s="321"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="327"/>
-      <c r="K7" s="328"/>
-      <c r="L7" s="332"/>
-      <c r="M7" s="257" t="s">
-        <v>454</v>
+      <c r="B7" s="322" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="324" t="s">
+        <v>548</v>
+      </c>
+      <c r="F7" s="320" t="s">
+        <v>549</v>
+      </c>
+      <c r="G7" s="319"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="325"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="327"/>
+      <c r="L7" s="331"/>
+      <c r="M7" s="256" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="329" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="297" t="s">
+      <c r="B8" s="328" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="296" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="345" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="I8" s="329" t="s">
+        <v>546</v>
+      </c>
+      <c r="J8" s="332" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="333" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="346" t="s">
-        <v>416</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="I8" s="330" t="s">
-        <v>559</v>
-      </c>
-      <c r="J8" s="333" t="s">
-        <v>231</v>
-      </c>
-      <c r="K8" s="334" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="335" t="s">
-        <v>286</v>
+      <c r="L8" s="334" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="43"/>
       <c r="C9" s="10"/>
       <c r="D9" s="74"/>
-      <c r="E9" s="331"/>
-      <c r="F9" s="322" t="s">
-        <v>541</v>
-      </c>
-      <c r="G9" s="322" t="s">
-        <v>542</v>
-      </c>
-      <c r="H9" s="322" t="s">
-        <v>558</v>
+      <c r="E9" s="330"/>
+      <c r="F9" s="321" t="s">
+        <v>528</v>
+      </c>
+      <c r="G9" s="321" t="s">
+        <v>529</v>
+      </c>
+      <c r="H9" s="321" t="s">
+        <v>545</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="294"/>
+      <c r="L9" s="293"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="70"/>
       <c r="C10" s="72"/>
       <c r="D10" s="72"/>
-      <c r="E10" s="343"/>
+      <c r="E10" s="342"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
-      <c r="J10" s="347"/>
-      <c r="K10" s="268"/>
-      <c r="L10" s="348"/>
+      <c r="J10" s="346"/>
+      <c r="K10" s="267"/>
+      <c r="L10" s="347"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
@@ -24938,30 +24632,30 @@
         <v>122</v>
       </c>
       <c r="D11" s="17"/>
-      <c r="E11" s="344" t="s">
-        <v>544</v>
-      </c>
-      <c r="F11" s="354"/>
-      <c r="G11" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H11" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I11" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J11" s="365">
+      <c r="E11" s="343" t="s">
+        <v>531</v>
+      </c>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H11" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I11" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J11" s="364">
         <f>F11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="359"/>
-      <c r="L11" s="360">
+      <c r="K11" s="358"/>
+      <c r="L11" s="359">
         <f>J11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="257" t="s">
-        <v>459</v>
+      <c r="M11" s="256" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -24970,28 +24664,28 @@
         <v>124</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="E12" s="344" t="s">
-        <v>545</v>
-      </c>
-      <c r="F12" s="354"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I12" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J12" s="365"/>
-      <c r="K12" s="359" t="e">
+      <c r="E12" s="343" t="s">
+        <v>532</v>
+      </c>
+      <c r="F12" s="353"/>
+      <c r="G12" s="353"/>
+      <c r="H12" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I12" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J12" s="364"/>
+      <c r="K12" s="358" t="e">
         <f>1/G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="360" t="e">
+      <c r="L12" s="359" t="e">
         <f>K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="257" t="s">
-        <v>462</v>
+      <c r="M12" s="256" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -25000,28 +24694,28 @@
         <v>123</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="344" t="s">
-        <v>546</v>
-      </c>
-      <c r="F13" s="354"/>
-      <c r="G13" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H13" s="354"/>
-      <c r="I13" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J13" s="365"/>
-      <c r="K13" s="359" t="e">
+      <c r="E13" s="343" t="s">
+        <v>533</v>
+      </c>
+      <c r="F13" s="353"/>
+      <c r="G13" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H13" s="353"/>
+      <c r="I13" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J13" s="364"/>
+      <c r="K13" s="358" t="e">
         <f>1/H13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="360" t="e">
+      <c r="L13" s="359" t="e">
         <f>K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="257" t="s">
-        <v>478</v>
+      <c r="M13" s="256" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -25030,30 +24724,30 @@
         <v>125</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="344" t="s">
-        <v>547</v>
-      </c>
-      <c r="F14" s="354"/>
-      <c r="G14" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H14" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I14" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J14" s="365">
+      <c r="E14" s="343" t="s">
+        <v>534</v>
+      </c>
+      <c r="F14" s="353"/>
+      <c r="G14" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H14" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I14" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J14" s="364">
         <f>F14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="359"/>
-      <c r="L14" s="360">
+      <c r="K14" s="358"/>
+      <c r="L14" s="359">
         <f t="shared" ref="L14" si="0">J14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="257" t="s">
-        <v>458</v>
+      <c r="M14" s="256" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -25062,30 +24756,30 @@
         <v>127</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="344" t="s">
-        <v>548</v>
-      </c>
-      <c r="F15" s="354"/>
-      <c r="G15" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H15" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I15" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J15" s="365">
+      <c r="E15" s="343" t="s">
+        <v>535</v>
+      </c>
+      <c r="F15" s="353"/>
+      <c r="G15" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H15" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I15" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J15" s="364">
         <f>F15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="359"/>
-      <c r="L15" s="360">
+      <c r="K15" s="358"/>
+      <c r="L15" s="359">
         <f>J15</f>
         <v>0</v>
       </c>
-      <c r="M15" s="257" t="s">
-        <v>461</v>
+      <c r="M15" s="256" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -25094,72 +24788,72 @@
         <v>128</v>
       </c>
       <c r="D16" s="17"/>
-      <c r="E16" s="344" t="s">
-        <v>549</v>
-      </c>
-      <c r="F16" s="354"/>
-      <c r="G16" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H16" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I16" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J16" s="365">
+      <c r="E16" s="343" t="s">
+        <v>536</v>
+      </c>
+      <c r="F16" s="353"/>
+      <c r="G16" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H16" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I16" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J16" s="364">
         <f>F16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="359"/>
-      <c r="L16" s="360">
+      <c r="K16" s="358"/>
+      <c r="L16" s="359">
         <f>J16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="257" t="s">
-        <v>460</v>
+      <c r="M16" s="256" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="C17" s="17" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="344" t="s">
-        <v>630</v>
-      </c>
-      <c r="F17" s="354"/>
-      <c r="G17" s="354"/>
-      <c r="H17" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I17" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J17" s="365"/>
-      <c r="K17" s="359" t="e">
+      <c r="E17" s="343" t="s">
+        <v>616</v>
+      </c>
+      <c r="F17" s="353"/>
+      <c r="G17" s="353"/>
+      <c r="H17" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I17" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J17" s="364"/>
+      <c r="K17" s="358" t="e">
         <f>1/G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="360" t="e">
+      <c r="L17" s="359" t="e">
         <f>K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="257" t="s">
-        <v>632</v>
+      <c r="M17" s="256" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="355"/>
-      <c r="G18" s="355"/>
-      <c r="H18" s="355"/>
-      <c r="I18" s="355"/>
-      <c r="J18" s="365"/>
-      <c r="K18" s="349"/>
-      <c r="L18" s="349"/>
+      <c r="F18" s="354"/>
+      <c r="G18" s="354"/>
+      <c r="H18" s="354"/>
+      <c r="I18" s="354"/>
+      <c r="J18" s="364"/>
+      <c r="K18" s="348"/>
+      <c r="L18" s="348"/>
       <c r="M18" s="30"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
@@ -25168,30 +24862,30 @@
         <v>126</v>
       </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="344" t="s">
-        <v>635</v>
-      </c>
-      <c r="F19" s="354"/>
-      <c r="G19" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H19" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I19" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J19" s="365">
+      <c r="E19" s="343" t="s">
+        <v>621</v>
+      </c>
+      <c r="F19" s="353"/>
+      <c r="G19" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H19" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I19" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J19" s="364">
         <f>F19</f>
         <v>0</v>
       </c>
-      <c r="K19" s="359"/>
-      <c r="L19" s="360">
+      <c r="K19" s="358"/>
+      <c r="L19" s="359">
         <f>J19</f>
         <v>0</v>
       </c>
-      <c r="M19" s="257" t="s">
-        <v>455</v>
+      <c r="M19" s="256" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -25200,30 +24894,30 @@
         <v>129</v>
       </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="344" t="s">
-        <v>550</v>
-      </c>
-      <c r="F20" s="354"/>
-      <c r="G20" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H20" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I20" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J20" s="365">
+      <c r="E20" s="343" t="s">
+        <v>537</v>
+      </c>
+      <c r="F20" s="353"/>
+      <c r="G20" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H20" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I20" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J20" s="364">
         <f>F20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="359"/>
-      <c r="L20" s="360">
+      <c r="K20" s="358"/>
+      <c r="L20" s="359">
         <f>J20</f>
         <v>0</v>
       </c>
-      <c r="M20" s="257" t="s">
-        <v>457</v>
+      <c r="M20" s="256" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -25232,30 +24926,30 @@
         <v>130</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="344" t="s">
-        <v>551</v>
-      </c>
-      <c r="F21" s="354"/>
-      <c r="G21" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H21" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I21" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J21" s="365">
+      <c r="E21" s="343" t="s">
+        <v>538</v>
+      </c>
+      <c r="F21" s="353"/>
+      <c r="G21" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H21" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I21" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J21" s="364">
         <f>F21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="359"/>
-      <c r="L21" s="360">
+      <c r="K21" s="358"/>
+      <c r="L21" s="359">
         <f>J21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="257" t="s">
-        <v>456</v>
+      <c r="M21" s="256" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -25263,13 +24957,13 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="356"/>
-      <c r="G22" s="356"/>
-      <c r="H22" s="356"/>
-      <c r="I22" s="356"/>
-      <c r="J22" s="365"/>
-      <c r="K22" s="359"/>
-      <c r="L22" s="360"/>
+      <c r="F22" s="355"/>
+      <c r="G22" s="355"/>
+      <c r="H22" s="355"/>
+      <c r="I22" s="355"/>
+      <c r="J22" s="364"/>
+      <c r="K22" s="358"/>
+      <c r="L22" s="359"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="49" t="s">
@@ -25277,15 +24971,15 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="302"/>
-      <c r="F23" s="357"/>
-      <c r="G23" s="357"/>
-      <c r="H23" s="357"/>
-      <c r="I23" s="357"/>
-      <c r="J23" s="366"/>
-      <c r="K23" s="361"/>
-      <c r="L23" s="362"/>
-      <c r="M23" s="257"/>
+      <c r="E23" s="301"/>
+      <c r="F23" s="356"/>
+      <c r="G23" s="356"/>
+      <c r="H23" s="356"/>
+      <c r="I23" s="356"/>
+      <c r="J23" s="365"/>
+      <c r="K23" s="360"/>
+      <c r="L23" s="361"/>
+      <c r="M23" s="256"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
@@ -25293,30 +24987,30 @@
         <v>123</v>
       </c>
       <c r="D24" s="17"/>
-      <c r="E24" s="344" t="s">
-        <v>552</v>
-      </c>
-      <c r="F24" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="G24" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H24" s="354"/>
-      <c r="I24" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J24" s="365"/>
-      <c r="K24" s="359" t="e">
+      <c r="E24" s="343" t="s">
+        <v>539</v>
+      </c>
+      <c r="F24" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="G24" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H24" s="353"/>
+      <c r="I24" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J24" s="364"/>
+      <c r="K24" s="358" t="e">
         <f>1/H24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="360" t="e">
+      <c r="L24" s="359" t="e">
         <f>K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="257" t="s">
-        <v>464</v>
+      <c r="M24" s="256" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
@@ -25325,30 +25019,30 @@
         <v>124</v>
       </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="344" t="s">
-        <v>553</v>
-      </c>
-      <c r="F25" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="G25" s="354"/>
-      <c r="H25" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I25" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J25" s="365"/>
-      <c r="K25" s="359" t="e">
+      <c r="E25" s="343" t="s">
+        <v>540</v>
+      </c>
+      <c r="F25" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="G25" s="353"/>
+      <c r="H25" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I25" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J25" s="364"/>
+      <c r="K25" s="358" t="e">
         <f>1/G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L25" s="360" t="e">
+      <c r="L25" s="359" t="e">
         <f>K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="257" t="s">
-        <v>465</v>
+      <c r="M25" s="256" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -25357,62 +25051,62 @@
         <v>132</v>
       </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="344" t="s">
+      <c r="E26" s="343" t="s">
+        <v>541</v>
+      </c>
+      <c r="F26" s="353" t="s">
         <v>554</v>
       </c>
-      <c r="F26" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="G26" s="354"/>
-      <c r="H26" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I26" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J26" s="365"/>
-      <c r="K26" s="359" t="e">
+      <c r="G26" s="353"/>
+      <c r="H26" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I26" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J26" s="364"/>
+      <c r="K26" s="358" t="e">
         <f>1/G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="360" t="e">
+      <c r="L26" s="359" t="e">
         <f>K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="257" t="s">
-        <v>463</v>
+      <c r="M26" s="256" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
       <c r="C27" s="17" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="D27" s="17"/>
-      <c r="E27" s="344" t="s">
-        <v>628</v>
-      </c>
-      <c r="F27" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="G27" s="354"/>
-      <c r="H27" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I27" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="J27" s="365"/>
-      <c r="K27" s="359" t="e">
+      <c r="E27" s="343" t="s">
+        <v>614</v>
+      </c>
+      <c r="F27" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="G27" s="353"/>
+      <c r="H27" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I27" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="J27" s="364"/>
+      <c r="K27" s="358" t="e">
         <f>1/G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L27" s="360" t="e">
+      <c r="L27" s="359" t="e">
         <f>K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="257" t="s">
-        <v>629</v>
+      <c r="M27" s="256" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
@@ -25420,13 +25114,13 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="358"/>
-      <c r="G28" s="358"/>
-      <c r="H28" s="358"/>
-      <c r="I28" s="358"/>
-      <c r="J28" s="367"/>
-      <c r="K28" s="363"/>
-      <c r="L28" s="364"/>
+      <c r="F28" s="357"/>
+      <c r="G28" s="357"/>
+      <c r="H28" s="357"/>
+      <c r="I28" s="357"/>
+      <c r="J28" s="366"/>
+      <c r="K28" s="362"/>
+      <c r="L28" s="363"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
@@ -25435,193 +25129,147 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="356"/>
-      <c r="G29" s="356"/>
-      <c r="H29" s="356"/>
-      <c r="I29" s="356"/>
-      <c r="J29" s="365"/>
-      <c r="K29" s="359"/>
-      <c r="L29" s="360"/>
+      <c r="F29" s="355"/>
+      <c r="G29" s="355"/>
+      <c r="H29" s="355"/>
+      <c r="I29" s="355"/>
+      <c r="J29" s="364"/>
+      <c r="K29" s="358"/>
+      <c r="L29" s="359"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="73"/>
       <c r="C30" s="17" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="D30" s="17"/>
-      <c r="E30" s="344"/>
-      <c r="F30" s="354"/>
-      <c r="G30" s="354"/>
-      <c r="H30" s="354"/>
-      <c r="I30" s="354"/>
-      <c r="J30" s="368">
-        <v>0.05</v>
-      </c>
-      <c r="K30" s="359"/>
-      <c r="L30" s="360">
+      <c r="E30" s="343" t="s">
+        <v>543</v>
+      </c>
+      <c r="F30" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="G30" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H30" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I30" s="353"/>
+      <c r="J30" s="364">
+        <f>I30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="358"/>
+      <c r="L30" s="359">
         <f>J30</f>
-        <v>0.05</v>
-      </c>
-      <c r="M30" s="257" t="s">
-        <v>467</v>
+        <v>0</v>
+      </c>
+      <c r="M30" s="256" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
       <c r="C31" s="17" t="s">
-        <v>134</v>
+        <v>332</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="344"/>
-      <c r="F31" s="354"/>
-      <c r="G31" s="354"/>
-      <c r="H31" s="354"/>
-      <c r="I31" s="354"/>
-      <c r="J31" s="368">
-        <v>0.12</v>
-      </c>
-      <c r="K31" s="359"/>
-      <c r="L31" s="360">
+      <c r="E31" s="343" t="s">
+        <v>542</v>
+      </c>
+      <c r="F31" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="G31" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H31" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I31" s="353"/>
+      <c r="J31" s="364">
+        <f>I31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="358"/>
+      <c r="L31" s="359">
         <f>J31</f>
-        <v>0.12</v>
-      </c>
-      <c r="M31" s="257" t="s">
-        <v>468</v>
+        <v>0</v>
+      </c>
+      <c r="M31" s="256" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
       <c r="C32" s="17" t="s">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="344" t="s">
-        <v>556</v>
-      </c>
-      <c r="F32" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="G32" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H32" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I32" s="354"/>
-      <c r="J32" s="365">
+      <c r="E32" s="343" t="s">
+        <v>544</v>
+      </c>
+      <c r="F32" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="G32" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="H32" s="353" t="s">
+        <v>554</v>
+      </c>
+      <c r="I32" s="353"/>
+      <c r="J32" s="364">
         <f>I32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="359"/>
-      <c r="L32" s="360">
+      <c r="K32" s="358"/>
+      <c r="L32" s="359">
         <f>J32</f>
         <v>0</v>
       </c>
-      <c r="M32" s="257" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="73"/>
-      <c r="C33" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="344" t="s">
-        <v>555</v>
-      </c>
-      <c r="F33" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="G33" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H33" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I33" s="354"/>
-      <c r="J33" s="365">
-        <f>I33</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="359"/>
-      <c r="L33" s="360">
-        <f>J33</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="257" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="73"/>
-      <c r="C34" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="344" t="s">
-        <v>557</v>
-      </c>
-      <c r="F34" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="G34" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="H34" s="354" t="s">
-        <v>567</v>
-      </c>
-      <c r="I34" s="354"/>
-      <c r="J34" s="365">
-        <f>I34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="359"/>
-      <c r="L34" s="360">
-        <f>J34</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="257" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="47"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="345"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="350"/>
-      <c r="K35" s="351"/>
-      <c r="L35" s="352"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="256" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="47"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="344"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="349"/>
+      <c r="K33" s="350"/>
+      <c r="L33" s="351"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="348"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="348"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J36" s="145"/>
       <c r="K36" s="145"/>
-      <c r="L36" s="349"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J37" s="145"/>
+      <c r="L36" s="348"/>
+    </row>
+    <row r="37" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="J37" s="352"/>
       <c r="K37" s="145"/>
-      <c r="L37" s="349"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="J38" s="145"/>
+      <c r="L37" s="348"/>
+    </row>
+    <row r="38" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="J38" s="352"/>
       <c r="K38" s="145"/>
-      <c r="L38" s="349"/>
-    </row>
-    <row r="39" spans="2:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="J39" s="353"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="349"/>
-    </row>
-    <row r="40" spans="2:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="J40" s="353"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="349"/>
+      <c r="L38" s="348"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Github/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BC587C-F6AC-6D4F-980A-D80BC2AA87C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4D12E-5AFA-3247-98A5-D2A42ACD29C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11700" yWindow="-28300" windowWidth="51200" windowHeight="27180" tabRatio="929" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15620" yWindow="-33340" windowWidth="30080" windowHeight="32380" tabRatio="929" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="630">
   <si>
     <t>Changelog</t>
   </si>
@@ -2183,7 +2183,16 @@
     <t>Updated technical specs to refer to new district heating node with high temperate (HT).</t>
   </si>
   <si>
-    <t>November 30, 2022</t>
+    <t>buildings_cooling_heatpump_surface_water_water_ts_electricity</t>
+  </si>
+  <si>
+    <t>buildings_space_heater_heatpump_surface_water_water_ts_electricity</t>
+  </si>
+  <si>
+    <t>July 17, 2025</t>
+  </si>
+  <si>
+    <t>Add surface water technologies to export CSVs with zero share.</t>
   </si>
 </sst>
 </file>
@@ -9688,7 +9697,7 @@
   <dimension ref="B2:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9720,7 +9729,7 @@
       </c>
       <c r="C5" s="24">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -9749,7 +9758,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="195" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -12717,7 +12726,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12766,7 +12775,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="266"/>
+      <c r="A6" s="194" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" s="266">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="266"/>
@@ -12790,7 +12804,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12840,7 +12854,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="266"/>
+      <c r="A6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="266">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="266"/>
@@ -12864,7 +12883,7 @@
   <dimension ref="B2:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13389,10 +13408,16 @@
       </c>
       <c r="E46" s="128"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="338"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="289"/>
+    <row r="47" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B47" s="338" t="s">
+        <v>628</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="D47" s="289">
+        <v>1.4</v>
+      </c>
       <c r="E47" s="128"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -15870,7 +15895,7 @@
   <dimension ref="B2:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analyses/7_services_analysis.xlsx
+++ b/analyses/7_services_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Github/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4D12E-5AFA-3247-98A5-D2A42ACD29C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA178EE-A6B7-FD43-A491-70E9C079A6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15620" yWindow="-33340" windowWidth="30080" windowHeight="32380" tabRatio="929" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13360" yWindow="-28300" windowWidth="25600" windowHeight="27360" tabRatio="929" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -38,12 +38,14 @@
     <sheet name="csv_ps_final_demand_oil" sheetId="56" r:id="rId23"/>
     <sheet name="csv_ps_final_demand_electricity" sheetId="55" r:id="rId24"/>
     <sheet name="csv_ps_final_demand_wood_p" sheetId="58" r:id="rId25"/>
-    <sheet name="csv_heating_useful_insulation" sheetId="60" r:id="rId26"/>
-    <sheet name="csv_cooling_useful_insulation" sheetId="63" r:id="rId27"/>
-    <sheet name="csv_light_saving_detection" sheetId="66" r:id="rId28"/>
-    <sheet name="csv_light_saving_control" sheetId="67" r:id="rId29"/>
-    <sheet name="csv_ps_sector_electricity" sheetId="68" r:id="rId30"/>
+    <sheet name="csv_cooling_useful_insulation" sheetId="63" r:id="rId26"/>
+    <sheet name="csv_light_saving_detection" sheetId="66" r:id="rId27"/>
+    <sheet name="csv_light_saving_control" sheetId="67" r:id="rId28"/>
+    <sheet name="csv_ps_sector_electricity" sheetId="68" r:id="rId29"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId30"/>
+  </externalReferences>
   <definedNames>
     <definedName name="base_year">Dashboard!$E$12</definedName>
     <definedName name="country">Dashboard!$E$11</definedName>
@@ -164,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="630">
   <si>
     <t>Changelog</t>
   </si>
@@ -1478,15 +1480,9 @@
     <t>buildings_final_demand_for_appliances_wood_pellets</t>
   </si>
   <si>
-    <t>buildings_useful_demand_for_space_heating_child_share</t>
-  </si>
-  <si>
     <t>buildings_heating_savings_from_insulation_useable_heat</t>
   </si>
   <si>
-    <t>buildings_useful_demand_for_space_heating_after_insulation</t>
-  </si>
-  <si>
     <t>buildings_cooling_savings_insulation_cooling</t>
   </si>
   <si>
@@ -1605,9 +1601,6 @@
   </si>
   <si>
     <t>csv_ps_final_demand_wood_p</t>
-  </si>
-  <si>
-    <t>csv_heating_useful_insulation</t>
   </si>
   <si>
     <t>csv_cooling_useful_insulation</t>
@@ -2183,10 +2176,19 @@
     <t>Updated technical specs to refer to new district heating node with high temperate (HT).</t>
   </si>
   <si>
+    <t>May 28, 2025</t>
+  </si>
+  <si>
+    <t>Removed sheet csv_heating_useful_insulation due to updated modelling where insulation has been changed and is now directly applied to the useful demand node, making this output redundant.</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>buildings_space_heater_heatpump_surface_water_water_ts_electricity</t>
+  </si>
+  <si>
     <t>buildings_cooling_heatpump_surface_water_water_ts_electricity</t>
-  </si>
-  <si>
-    <t>buildings_space_heater_heatpump_surface_water_water_ts_electricity</t>
   </si>
   <si>
     <t>July 17, 2025</t>
@@ -9369,6 +9371,31 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="analysis_manager"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="export_data_button"/>
+      <definedName name="import_data_button"/>
+      <definedName name="select_dashboard_values"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9697,7 +9724,7 @@
   <dimension ref="B2:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9729,7 +9756,7 @@
       </c>
       <c r="C5" s="24">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -9737,9 +9764,9 @@
       <c r="B6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="24" t="str">
         <f>Dashboard!E11</f>
-        <v>0</v>
+        <v>nl</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -9749,7 +9776,7 @@
       </c>
       <c r="C7" s="187">
         <f>Dashboard!E12</f>
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -9767,7 +9794,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -9776,7 +9803,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D10" s="10"/>
     </row>
@@ -9985,7 +10012,7 @@
     </row>
     <row r="5" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="372" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C5" s="374"/>
       <c r="D5" s="374"/>
@@ -9994,13 +10021,13 @@
     <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C7" s="265" t="s">
         <v>336</v>
       </c>
       <c r="D7" s="157" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E7" s="158" t="s">
         <v>341</v>
@@ -10050,7 +10077,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="261" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C12" s="159"/>
       <c r="D12" s="212"/>
@@ -10221,7 +10248,7 @@
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="262"/>
       <c r="C27" s="16" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D27" s="211" t="e">
         <f>SUM(D22:D25)</f>
@@ -10235,7 +10262,7 @@
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="262"/>
       <c r="C28" s="16" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D28" s="211">
         <f>SUM('Final demand per energy carrier'!J39)</f>
@@ -10274,7 +10301,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10315,10 +10342,10 @@
     <row r="6" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="190" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C7" s="257" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D7" s="265" t="s">
         <v>225</v>
@@ -10327,7 +10354,7 @@
         <v>345</v>
       </c>
       <c r="F7" s="158" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -10342,7 +10369,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="262"/>
       <c r="C9" s="58" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>121</v>
@@ -10413,7 +10440,7 @@
       <c r="B14" s="262"/>
       <c r="C14" s="58"/>
       <c r="D14" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E14" s="177" t="e">
         <f>'Technology split final demand'!G17</f>
@@ -10476,7 +10503,7 @@
       <c r="B19" s="262"/>
       <c r="C19" s="58"/>
       <c r="D19" s="16" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E19" s="177" t="e">
         <f>'Technology split final demand'!G27</f>
@@ -10606,7 +10633,7 @@
     </row>
     <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="372" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C5" s="374"/>
       <c r="D5" s="374"/>
@@ -10642,28 +10669,28 @@
         <v>130</v>
       </c>
       <c r="D9" s="99" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E9" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>579</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>471</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="I9" s="65" t="s">
         <v>473</v>
       </c>
-      <c r="F9" s="65" t="s">
-        <v>582</v>
-      </c>
-      <c r="G9" s="65" t="s">
+      <c r="J9" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="K9" s="136" t="s">
         <v>475</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>476</v>
-      </c>
-      <c r="J9" s="65" t="s">
-        <v>477</v>
-      </c>
-      <c r="K9" s="136" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -11131,7 +11158,7 @@
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="28"/>
       <c r="C36" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D36" s="71"/>
       <c r="E36" s="242" t="e">
@@ -11177,7 +11204,7 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="362" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
@@ -11192,30 +11219,30 @@
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="28"/>
       <c r="C39" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="369" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F39" s="369" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G39" s="369" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H39" s="369" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I39" s="369" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J39" s="242" t="str">
         <f>Dashboard!E29</f>
         <v/>
       </c>
       <c r="K39" s="370" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
@@ -11232,7 +11259,7 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="362" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -11264,7 +11291,7 @@
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="28"/>
       <c r="C43" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D43" s="71"/>
       <c r="E43" s="242" t="e">
@@ -11280,16 +11307,16 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H43" s="350" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I43" s="350" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J43" s="350" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K43" s="358" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -11331,7 +11358,7 @@
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11376,7 +11403,7 @@
     <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="26"/>
@@ -11572,10 +11599,10 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="35"/>
       <c r="C17" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D17" s="175">
-        <f>Dashboard!E51</f>
+        <f>Dashboard!E50</f>
         <v>0</v>
       </c>
       <c r="E17" s="100" t="e" cm="1">
@@ -11739,7 +11766,7 @@
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="262"/>
       <c r="C27" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D27" s="279">
         <f>Dashboard!E57</f>
@@ -12125,7 +12152,7 @@
         <v>270</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E9" s="65" t="s">
         <v>271</v>
@@ -12146,10 +12173,10 @@
         <v>285</v>
       </c>
       <c r="K9" s="250" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L9" s="136" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -12229,13 +12256,13 @@
     </row>
     <row r="17" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J17" s="244" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K17" s="192"/>
     </row>
     <row r="18" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J18" s="245" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K18" s="246"/>
     </row>
@@ -12255,13 +12282,13 @@
     </row>
     <row r="21" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J21" s="245" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K21" s="246"/>
     </row>
     <row r="22" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J22" s="245" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K22" s="246"/>
     </row>
@@ -12271,7 +12298,7 @@
     </row>
     <row r="24" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J24" s="247" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K24" s="248">
         <f>K11-Final_demand_residences</f>
@@ -12381,10 +12408,10 @@
         <v>296</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G8" s="180" t="s">
         <v>297</v>
@@ -12532,7 +12559,7 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="33"/>
       <c r="C15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D15" s="175" t="e">
         <f>'Technology split final demand'!G17</f>
@@ -12658,7 +12685,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12726,7 +12753,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12767,16 +12794,16 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="194" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B5" s="266" t="e">
-        <f>'Technology shares'!F13</f>
+        <f>'Technology shares'!F14</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="194" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B6" s="266">
         <v>0</v>
@@ -12804,7 +12831,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12846,7 +12873,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="228" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B5" s="266" t="e">
         <f>'Technology shares'!F19</f>
@@ -12855,7 +12882,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B6" s="266">
         <v>0</v>
@@ -12882,8 +12909,8 @@
   </sheetPr>
   <dimension ref="B2:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13125,7 +13152,7 @@
         <v>41485</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D23" s="290">
         <v>1.18</v>
@@ -13137,7 +13164,7 @@
         <v>41485</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D24" s="290">
         <v>1.18</v>
@@ -13149,7 +13176,7 @@
         <v>41486</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D25" s="290">
         <v>1.19</v>
@@ -13161,7 +13188,7 @@
         <v>41487</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D26" s="290">
         <v>1.19</v>
@@ -13173,7 +13200,7 @@
         <v>41499</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D27" s="289">
         <v>1.2</v>
@@ -13185,7 +13212,7 @@
         <v>41500</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D28" s="290">
         <v>1.21</v>
@@ -13197,7 +13224,7 @@
         <v>41500</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D29" s="289">
         <v>1.22</v>
@@ -13209,7 +13236,7 @@
         <v>41502</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D30" s="289">
         <v>1.23</v>
@@ -13221,7 +13248,7 @@
         <v>41505</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D31" s="289">
         <v>1.24</v>
@@ -13233,7 +13260,7 @@
         <v>41506</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D32" s="289">
         <v>1.25</v>
@@ -13245,7 +13272,7 @@
         <v>41507</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D33" s="289">
         <v>1.26</v>
@@ -13257,7 +13284,7 @@
         <v>41509</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D34" s="289">
         <v>1.27</v>
@@ -13269,7 +13296,7 @@
         <v>41509</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D35" s="289">
         <v>1.28</v>
@@ -13278,10 +13305,10 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="287" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D36" s="289">
         <v>1.29</v>
@@ -13293,7 +13320,7 @@
         <v>41534</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D37" s="289">
         <v>1.3</v>
@@ -13305,7 +13332,7 @@
         <v>41542</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D38" s="289">
         <v>1.31</v>
@@ -13317,7 +13344,7 @@
         <v>41562</v>
       </c>
       <c r="C39" s="339" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D39" s="289">
         <v>1.32</v>
@@ -13329,7 +13356,7 @@
         <v>41578</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D40" s="289">
         <v>1.33</v>
@@ -13341,7 +13368,7 @@
         <v>41578</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D41" s="289">
         <v>1.34</v>
@@ -13353,7 +13380,7 @@
         <v>41782</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D42" s="289">
         <v>1.35</v>
@@ -13365,19 +13392,19 @@
         <v>41782</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D43" s="289">
         <v>1.36</v>
       </c>
       <c r="E43" s="128"/>
     </row>
-    <row r="44" spans="2:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B44" s="338">
         <v>42600</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D44" s="289">
         <v>1.37</v>
@@ -13389,7 +13416,7 @@
         <v>44607</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D45" s="289">
         <v>1.38</v>
@@ -13398,22 +13425,22 @@
     </row>
     <row r="46" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B46" s="338" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D46" s="289">
         <v>1.39</v>
       </c>
       <c r="E46" s="128"/>
     </row>
-    <row r="47" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="B47" s="338" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D47" s="289">
         <v>1.4</v>
@@ -13421,9 +13448,15 @@
       <c r="E47" s="128"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="338"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="289"/>
+      <c r="B48" s="338" t="s">
+        <v>628</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="D48" s="289">
+        <v>1.41</v>
+      </c>
       <c r="E48" s="128"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
@@ -13475,7 +13508,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="194" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -13622,7 +13655,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="194" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B3" s="266" t="e">
         <f>'Application shares'!E13</f>
@@ -13631,7 +13664,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="194" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B4" s="266" t="e">
         <f>'Application shares'!E14</f>
@@ -13640,7 +13673,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="194" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B5" s="266" t="e">
         <f>'Application shares'!E15</f>
@@ -13878,72 +13911,6 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <sheetPr codeName="Sheet26">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>395</v>
-      </c>
-      <c r="B3" s="266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B4" s="266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="266"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="266"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="266"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet29">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -13962,7 +13929,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -13975,7 +13942,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B3" s="266">
         <v>0</v>
@@ -13983,7 +13950,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B4" s="266">
         <v>1</v>
@@ -14009,7 +13976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet32">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -14028,7 +13995,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -14041,7 +14008,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B3" s="266">
         <f>1-B4</f>
@@ -14050,7 +14017,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B4" s="266">
         <f>Dashboard!E69</f>
@@ -14077,7 +14044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet33">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -14096,7 +14063,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -14109,7 +14076,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B3" s="266">
         <f>1-B4</f>
@@ -14118,7 +14085,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B4" s="266">
         <f>Dashboard!E70</f>
@@ -14145,296 +14112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3">
-    <tabColor theme="2"/>
-  </sheetPr>
-  <dimension ref="B2:C37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="136.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="52"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="116" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="116" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="116" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="163" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="167" t="s">
-        <v>448</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="167" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="282" t="s">
-        <v>484</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="282" t="s">
-        <v>485</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="117" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="117" t="s">
-        <v>487</v>
-      </c>
-      <c r="C18" s="59" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="164" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="164" t="s">
-        <v>278</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="166" t="s">
-        <v>313</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="168" t="s">
-        <v>428</v>
-      </c>
-      <c r="C22" s="241" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="168" t="s">
-        <v>429</v>
-      </c>
-      <c r="C23" s="241" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="168" t="s">
-        <v>430</v>
-      </c>
-      <c r="C24" s="241" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="168" t="s">
-        <v>431</v>
-      </c>
-      <c r="C25" s="241" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="168" t="s">
-        <v>432</v>
-      </c>
-      <c r="C26" s="241" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="168" t="s">
-        <v>433</v>
-      </c>
-      <c r="C27" s="241" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="168" t="s">
-        <v>434</v>
-      </c>
-      <c r="C28" s="241" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="168" t="s">
-        <v>435</v>
-      </c>
-      <c r="C29" s="241" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="168" t="s">
-        <v>436</v>
-      </c>
-      <c r="C30" s="241" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="168" t="s">
-        <v>437</v>
-      </c>
-      <c r="C31" s="241" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="168" t="s">
-        <v>438</v>
-      </c>
-      <c r="C32" s="241" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="168" t="s">
-        <v>439</v>
-      </c>
-      <c r="C33" s="241" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="168" t="s">
-        <v>440</v>
-      </c>
-      <c r="C34" s="241" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="168" t="s">
-        <v>606</v>
-      </c>
-      <c r="C35" s="241" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -14452,7 +14130,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="194" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -14465,7 +14143,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="194" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B3" s="266" t="e">
         <f>'Application shares'!E27</f>
@@ -14474,7 +14152,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="194" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B4" s="266" t="e">
         <f>'Application shares'!E28</f>
@@ -14492,6 +14170,287 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="266"/>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="2"/>
+  </sheetPr>
+  <dimension ref="B2:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="52"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="116" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="163" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="167" t="s">
+        <v>445</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="167" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="282" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="282" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="117" t="s">
+        <v>484</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="164" t="s">
+        <v>312</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="164" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="166" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="168" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="241" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="168" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" s="241" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="168" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="241" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="168" t="s">
+        <v>429</v>
+      </c>
+      <c r="C25" s="241" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="168" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" s="241" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="168" t="s">
+        <v>431</v>
+      </c>
+      <c r="C27" s="241" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="168" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="241" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="168" t="s">
+        <v>433</v>
+      </c>
+      <c r="C29" s="241" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="168" t="s">
+        <v>434</v>
+      </c>
+      <c r="C30" s="241" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="168" t="s">
+        <v>435</v>
+      </c>
+      <c r="C31" s="241" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="168" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="241" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="168" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" s="241" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="168" t="s">
+        <v>603</v>
+      </c>
+      <c r="C34" s="241" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14534,7 +14493,7 @@
     </row>
     <row r="6" spans="2:2" ht="80" x14ac:dyDescent="0.2">
       <c r="B6" s="104" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
@@ -14550,32 +14509,32 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="121" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="53" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="53" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="53" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" s="121" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="121" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
@@ -15104,33 +15063,33 @@
     <row r="15" spans="2:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="36"/>
       <c r="C15" s="89" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D15" s="38"/>
     </row>
     <row r="16" spans="2:4" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="36"/>
       <c r="C16" s="89" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D16" s="38"/>
     </row>
     <row r="17" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="36"/>
       <c r="C17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15423,7 +15382,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="30" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C58" s="132" t="s">
         <v>263</v>
@@ -15519,7 +15478,7 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="35" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>265</v>
@@ -15895,7 +15854,7 @@
   <dimension ref="B2:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15924,7 +15883,7 @@
         <v>28</v>
       </c>
       <c r="K2" s="196" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L2" s="12"/>
       <c r="M2" s="5"/>
@@ -15999,7 +15958,7 @@
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31" t="s">
@@ -16016,10 +15975,10 @@
         <v>93</v>
       </c>
       <c r="O9" s="222" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P9" s="223" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
@@ -16035,7 +15994,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
       <c r="K10" s="340" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L10" s="341" t="b">
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
@@ -16051,10 +16010,12 @@
         <v>333</v>
       </c>
       <c r="D11" s="58"/>
-      <c r="E11" s="127"/>
+      <c r="E11" s="127" t="s">
+        <v>625</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H11" s="216"/>
       <c r="I11" s="14"/>
@@ -16068,7 +16029,7 @@
       </c>
       <c r="M11" s="63"/>
       <c r="O11" s="199" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P11" s="221">
         <f>IF(L11=TRUE,1,0)</f>
@@ -16078,13 +16039,15 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="33"/>
       <c r="C12" s="58" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D12" s="58"/>
-      <c r="E12" s="127"/>
+      <c r="E12" s="127">
+        <v>2023</v>
+      </c>
       <c r="F12" s="14"/>
       <c r="G12" s="218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H12" s="216"/>
       <c r="I12" s="14"/>
@@ -16093,7 +16056,7 @@
       <c r="L12" s="145"/>
       <c r="M12" s="63"/>
       <c r="O12" s="199" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P12" s="221"/>
     </row>
@@ -16124,7 +16087,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="62" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L14" s="145"/>
       <c r="M14" s="63"/>
@@ -16142,7 +16105,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
       <c r="K15" s="53" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L15" s="347" t="e">
         <f>IF('Final demand per energy carrier'!E43&lt;0,FALSE,TRUE)</f>
@@ -16169,7 +16132,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
       <c r="K16" s="53" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L16" s="347" t="e">
         <f>IF('Final demand per energy carrier'!F43&lt;0,FALSE,TRUE)</f>
@@ -16196,7 +16159,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
       <c r="K17" s="53" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L17" s="347" t="e">
         <f>IF('Final demand per energy carrier'!G43&lt;0,FALSE,TRUE)</f>
@@ -16239,7 +16202,7 @@
       <c r="I19" s="297"/>
       <c r="J19" s="299"/>
       <c r="K19" s="55" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L19" s="365" t="b">
         <f>IF('Fuel aggregation'!J11=0,TRUE,'Fuel aggregation'!J11)</f>
@@ -16269,10 +16232,10 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="35"/>
       <c r="C21" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E21" s="202">
         <f>Final_demand_residences</f>
@@ -16282,7 +16245,7 @@
       <c r="G21" s="218"/>
       <c r="H21" s="218"/>
       <c r="I21" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="K21" s="53"/>
       <c r="L21" s="343"/>
@@ -16308,12 +16271,12 @@
         <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E23" s="204"/>
       <c r="F23" s="218"/>
       <c r="G23" s="218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H23" s="218"/>
       <c r="I23" s="21"/>
@@ -16322,7 +16285,7 @@
       <c r="L23" s="343"/>
       <c r="M23" s="54"/>
       <c r="O23" s="199" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P23" s="221"/>
     </row>
@@ -16332,12 +16295,12 @@
         <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E24" s="205"/>
       <c r="F24" s="218"/>
       <c r="G24" s="218" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H24" s="218"/>
       <c r="I24" s="21"/>
@@ -16346,7 +16309,7 @@
       <c r="L24" s="343"/>
       <c r="M24" s="54"/>
       <c r="O24" s="199" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P24" s="221"/>
     </row>
@@ -16356,12 +16319,12 @@
         <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E25" s="205"/>
       <c r="F25" s="218"/>
       <c r="G25" s="218" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H25" s="218"/>
       <c r="I25" s="21"/>
@@ -16370,7 +16333,7 @@
       <c r="L25" s="343"/>
       <c r="M25" s="54"/>
       <c r="O25" s="199" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P25" s="221"/>
     </row>
@@ -16401,7 +16364,7 @@
     <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="35"/>
       <c r="C28" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E28" s="205"/>
       <c r="F28" s="214"/>
@@ -16411,17 +16374,17 @@
       <c r="L28" s="343"/>
       <c r="M28" s="54"/>
       <c r="O28" s="199" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="P28" s="221"/>
     </row>
     <row r="29" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35"/>
       <c r="C29" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E29" s="205" t="str">
         <f>IF(E28="no",0,"")</f>
@@ -16429,12 +16392,12 @@
       </c>
       <c r="F29" s="214"/>
       <c r="G29" s="218" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H29" s="218"/>
       <c r="I29" s="21"/>
       <c r="K29" s="62" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L29" s="347" t="b">
         <f>IF(E29&gt;=0,TRUE,E29)</f>
@@ -16445,7 +16408,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="O29" s="199" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="P29" s="221">
         <f>IF(L29=TRUE,1,0)</f>
@@ -16467,10 +16430,10 @@
     <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="35"/>
       <c r="C31" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E31" s="344" t="e">
         <f>'Final demand per energy carrier'!J42</f>
@@ -16480,7 +16443,7 @@
       <c r="G31" s="218"/>
       <c r="H31" s="218"/>
       <c r="K31" s="62" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L31" s="347" t="e">
         <f>IF(E31&gt;0,TRUE,E31)</f>
@@ -16499,10 +16462,10 @@
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="35"/>
       <c r="C32" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E32" s="345" t="e">
         <f>SUM('Final demand per energy carrier'!E43:G43)</f>
@@ -16512,7 +16475,7 @@
       <c r="G32" s="218"/>
       <c r="H32" s="218"/>
       <c r="K32" s="62" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L32" s="347" t="e">
         <f>IF(E32&gt;0,TRUE,E32)</f>
@@ -16569,7 +16532,7 @@
     <row r="35" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="35"/>
       <c r="C35" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E35" s="344">
         <f>Final_demand_space_heating</f>
@@ -16593,14 +16556,14 @@
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="35"/>
       <c r="C37" s="346" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E37" s="344">
         <f>'Final demand extracted from EB'!D13</f>
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K37" s="53"/>
       <c r="L37" s="146"/>
@@ -16611,14 +16574,14 @@
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="35"/>
       <c r="C38" s="346" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E38" s="344">
         <f>'Final demand extracted from EB'!D9</f>
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K38" s="53"/>
       <c r="L38" s="146"/>
@@ -16629,14 +16592,14 @@
     <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="35"/>
       <c r="C39" s="346" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E39" s="344">
         <f>'Final demand extracted from EB'!D17</f>
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K39" s="53"/>
       <c r="L39" s="146"/>
@@ -16656,7 +16619,7 @@
     <row r="41" spans="2:19" ht="34" x14ac:dyDescent="0.2">
       <c r="B41" s="35"/>
       <c r="C41" s="90" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E41" s="344">
         <f>E35-SUM(E37:E39)</f>
@@ -16681,7 +16644,7 @@
     <row r="43" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="35"/>
       <c r="C43" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E43" s="57"/>
       <c r="K43" s="53"/>
@@ -16693,7 +16656,7 @@
     <row r="44" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="35"/>
       <c r="C44" s="346" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E44" s="161"/>
       <c r="I44" s="21"/>
@@ -16701,14 +16664,14 @@
       <c r="L44" s="146"/>
       <c r="M44" s="294"/>
       <c r="O44" s="199" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="P44" s="221"/>
     </row>
     <row r="45" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="35"/>
       <c r="C45" s="346" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E45" s="161"/>
       <c r="I45" s="21"/>
@@ -16716,7 +16679,7 @@
       <c r="L45" s="146"/>
       <c r="M45" s="294"/>
       <c r="O45" s="199" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="P45" s="221"/>
       <c r="S45" s="292"/>
@@ -16724,7 +16687,7 @@
     <row r="46" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="35"/>
       <c r="C46" s="346" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E46" s="161"/>
       <c r="I46" s="21"/>
@@ -16732,14 +16695,14 @@
       <c r="L46" s="146"/>
       <c r="M46" s="294"/>
       <c r="O46" s="199" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P46" s="221"/>
     </row>
     <row r="47" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="35"/>
       <c r="C47" s="346" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E47" s="161"/>
       <c r="I47" s="21"/>
@@ -16747,14 +16710,14 @@
       <c r="L47" s="146"/>
       <c r="M47" s="54"/>
       <c r="O47" s="199" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P47" s="221"/>
     </row>
     <row r="48" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="35"/>
       <c r="C48" s="346" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E48" s="161"/>
       <c r="I48" s="21"/>
@@ -16762,14 +16725,14 @@
       <c r="L48" s="147"/>
       <c r="M48" s="54"/>
       <c r="O48" s="199" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="P48" s="221"/>
     </row>
     <row r="49" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="35"/>
       <c r="C49" s="346" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E49" s="161"/>
       <c r="I49" s="21"/>
@@ -16777,7 +16740,7 @@
       <c r="L49" s="146"/>
       <c r="M49" s="54"/>
       <c r="O49" s="199" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="P49" s="221"/>
       <c r="R49" s="292"/>
@@ -16785,7 +16748,7 @@
     <row r="50" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="35"/>
       <c r="C50" s="346" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E50" s="161"/>
       <c r="I50" s="21"/>
@@ -16793,7 +16756,7 @@
       <c r="L50" s="146"/>
       <c r="M50" s="54"/>
       <c r="O50" s="199" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="P50" s="221"/>
       <c r="R50" s="292"/>
@@ -16841,7 +16804,7 @@
     <row r="53" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="35"/>
       <c r="C53" s="58" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D53" s="58"/>
       <c r="E53" s="61"/>
@@ -16854,7 +16817,7 @@
     <row r="54" spans="2:18" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="35"/>
       <c r="C54" s="346" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E54" s="181"/>
       <c r="I54" s="21"/>
@@ -16862,7 +16825,7 @@
       <c r="L54" s="146"/>
       <c r="M54" s="54"/>
       <c r="O54" s="199" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P54" s="224"/>
       <c r="R54" s="292"/>
@@ -16870,7 +16833,7 @@
     <row r="55" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="35"/>
       <c r="C55" s="346" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E55" s="161"/>
       <c r="I55" s="21"/>
@@ -16878,7 +16841,7 @@
       <c r="L55" s="146"/>
       <c r="M55" s="54"/>
       <c r="O55" s="199" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="P55" s="224"/>
     </row>
@@ -16894,14 +16857,14 @@
       <c r="L56" s="146"/>
       <c r="M56" s="54"/>
       <c r="O56" s="199" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P56" s="224"/>
     </row>
     <row r="57" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="35"/>
       <c r="C57" s="346" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D57" s="58"/>
       <c r="E57" s="181"/>
@@ -16910,7 +16873,7 @@
       <c r="L57" s="146"/>
       <c r="M57" s="54"/>
       <c r="O57" s="199" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="P57" s="224"/>
     </row>
@@ -16955,7 +16918,7 @@
     <row r="60" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="35"/>
       <c r="C60" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E60" s="57"/>
       <c r="K60" s="62"/>
@@ -16997,7 +16960,7 @@
     <row r="63" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="35"/>
       <c r="C63" s="346" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E63" s="161"/>
       <c r="I63" s="21"/>
@@ -17027,7 +16990,7 @@
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B65" s="284" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C65" s="51"/>
       <c r="D65" s="51"/>
@@ -17046,28 +17009,28 @@
     <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B66" s="28"/>
       <c r="C66" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E66" s="162">
         <v>1</v>
       </c>
       <c r="M66" s="29"/>
       <c r="O66" s="199" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P66" s="7"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B67" s="28"/>
       <c r="C67" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E67" s="162">
         <v>0</v>
       </c>
       <c r="M67" s="29"/>
       <c r="O67" s="199" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P67" s="7"/>
     </row>
@@ -17081,28 +17044,28 @@
     <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B69" s="28"/>
       <c r="C69" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E69" s="162">
         <v>3.9E-2</v>
       </c>
       <c r="M69" s="29"/>
       <c r="O69" s="199" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="P69" s="7"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B70" s="28"/>
       <c r="C70" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E70" s="162">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="M70" s="29"/>
       <c r="O70" s="199" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P70" s="7"/>
     </row>
@@ -17176,7 +17139,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11281" r:id="rId3" name="import_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!import_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
@@ -17198,7 +17161,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11282" r:id="rId4" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!export_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
@@ -17220,7 +17183,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="11283" r:id="rId5" name="select_dashboard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!select_dashboard_values">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
@@ -17274,7 +17237,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24131,7 +24094,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="375" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C5" s="376"/>
       <c r="D5" s="376"/>
@@ -24146,15 +24109,15 @@
     <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="303" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C7" s="304"/>
       <c r="D7" s="304"/>
       <c r="E7" s="305" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F7" s="301" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G7" s="300"/>
       <c r="H7" s="301"/>
@@ -24163,7 +24126,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="27"/>
       <c r="M7" s="243" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="34" x14ac:dyDescent="0.2">
@@ -24174,19 +24137,19 @@
         <v>225</v>
       </c>
       <c r="E8" s="318" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I8" s="309" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J8" s="311" t="s">
         <v>228</v>
@@ -24204,16 +24167,16 @@
       <c r="D9" s="70"/>
       <c r="E9" s="310"/>
       <c r="F9" s="302" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G9" s="302" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H9" s="302" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="9"/>
@@ -24241,17 +24204,17 @@
       </c>
       <c r="D11"/>
       <c r="E11" s="316" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F11" s="326"/>
       <c r="G11" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H11" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I11" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J11" s="335">
         <f>F11</f>
@@ -24263,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="243" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -24273,15 +24236,15 @@
       </c>
       <c r="D12"/>
       <c r="E12" s="316" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F12" s="326"/>
       <c r="G12" s="326"/>
       <c r="H12" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I12" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J12" s="335"/>
       <c r="K12" s="321" t="e">
@@ -24293,7 +24256,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M12" s="243" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -24303,15 +24266,15 @@
       </c>
       <c r="D13"/>
       <c r="E13" s="316" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F13" s="326"/>
       <c r="G13" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H13" s="326"/>
       <c r="I13" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J13" s="335"/>
       <c r="K13" s="321" t="e">
@@ -24323,7 +24286,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M13" s="243" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -24333,17 +24296,17 @@
       </c>
       <c r="D14"/>
       <c r="E14" s="316" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F14" s="326"/>
       <c r="G14" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H14" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I14" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J14" s="335">
         <f>F14</f>
@@ -24355,7 +24318,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="243" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
@@ -24365,17 +24328,17 @@
       </c>
       <c r="D15"/>
       <c r="E15" s="316" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F15" s="326"/>
       <c r="G15" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H15" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I15" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J15" s="335">
         <f>F15</f>
@@ -24387,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="243" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -24397,17 +24360,17 @@
       </c>
       <c r="D16"/>
       <c r="E16" s="316" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F16" s="326"/>
       <c r="G16" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H16" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I16" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J16" s="335">
         <f>F16</f>
@@ -24419,25 +24382,25 @@
         <v>0</v>
       </c>
       <c r="M16" s="243" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="69"/>
       <c r="C17" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="316" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F17" s="326"/>
       <c r="G17" s="326"/>
       <c r="H17" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I17" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J17" s="335"/>
       <c r="K17" s="321" t="e">
@@ -24449,7 +24412,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="243" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -24471,17 +24434,17 @@
       </c>
       <c r="D19"/>
       <c r="E19" s="316" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F19" s="326"/>
       <c r="G19" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H19" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I19" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J19" s="335">
         <f>F19</f>
@@ -24493,7 +24456,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="243" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
@@ -24503,17 +24466,17 @@
       </c>
       <c r="D20"/>
       <c r="E20" s="316" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F20" s="326"/>
       <c r="G20" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H20" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I20" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J20" s="335">
         <f>F20</f>
@@ -24525,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="243" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
@@ -24535,17 +24498,17 @@
       </c>
       <c r="D21"/>
       <c r="E21" s="316" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F21" s="326"/>
       <c r="G21" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H21" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I21" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J21" s="335">
         <f>F21</f>
@@ -24557,7 +24520,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="243" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
@@ -24594,17 +24557,17 @@
       </c>
       <c r="D24"/>
       <c r="E24" s="316" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F24" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G24" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H24" s="326"/>
       <c r="I24" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J24" s="335"/>
       <c r="K24" s="321" t="e">
@@ -24616,7 +24579,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="243" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
@@ -24626,17 +24589,17 @@
       </c>
       <c r="D25"/>
       <c r="E25" s="316" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F25" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G25" s="326"/>
       <c r="H25" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I25" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J25" s="335"/>
       <c r="K25" s="321" t="e">
@@ -24648,7 +24611,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M25" s="243" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
@@ -24658,17 +24621,17 @@
       </c>
       <c r="D26"/>
       <c r="E26" s="316" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F26" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G26" s="326"/>
       <c r="H26" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I26" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J26" s="335"/>
       <c r="K26" s="321" t="e">
@@ -24680,27 +24643,27 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="243" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="69"/>
       <c r="C27" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D27"/>
       <c r="E27" s="316" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F27" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G27" s="326"/>
       <c r="H27" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I27" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J27" s="335"/>
       <c r="K27" s="321" t="e">
@@ -24712,7 +24675,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M27" s="243" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
@@ -24748,16 +24711,16 @@
       </c>
       <c r="D30"/>
       <c r="E30" s="316" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F30" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G30" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H30" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I30" s="326"/>
       <c r="J30" s="335">
@@ -24770,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="243" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
@@ -24780,16 +24743,16 @@
       </c>
       <c r="D31"/>
       <c r="E31" s="316" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F31" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G31" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H31" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I31" s="326"/>
       <c r="J31" s="335">
@@ -24802,7 +24765,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="243" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
@@ -24812,16 +24775,16 @@
       </c>
       <c r="D32"/>
       <c r="E32" s="316" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F32" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G32" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H32" s="326" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I32" s="326"/>
       <c r="J32" s="335">
@@ -24834,7 +24797,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="243" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
